--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J567"/>
+  <dimension ref="A1:J573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17840,6 +17840,234 @@
         <v>39.50999999999989</v>
       </c>
     </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E568" t="n">
+        <v>122</v>
+      </c>
+      <c r="F568" t="n">
+        <v>139</v>
+      </c>
+      <c r="G568" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I568" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J568" t="n">
+        <v>40.31999999999989</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E569" t="n">
+        <v>118</v>
+      </c>
+      <c r="F569" t="n">
+        <v>116</v>
+      </c>
+      <c r="G569" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I569" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J569" t="n">
+        <v>41.14999999999989</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E570" t="n">
+        <v>124</v>
+      </c>
+      <c r="F570" t="n">
+        <v>120</v>
+      </c>
+      <c r="G570" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I570" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J570" t="n">
+        <v>41.94999999999989</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E571" t="n">
+        <v>117</v>
+      </c>
+      <c r="F571" t="n">
+        <v>118</v>
+      </c>
+      <c r="G571" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I571" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J571" t="n">
+        <v>40.94999999999989</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Mercer</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Florida Gulf Coast</t>
+        </is>
+      </c>
+      <c r="E572" t="n">
+        <v>70</v>
+      </c>
+      <c r="F572" t="n">
+        <v>65</v>
+      </c>
+      <c r="G572" t="n">
+        <v>2</v>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I572" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J572" t="n">
+        <v>39.94999999999989</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>USK Prague F</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Trutnov F</t>
+        </is>
+      </c>
+      <c r="E573" t="n">
+        <v>111</v>
+      </c>
+      <c r="F573" t="n">
+        <v>42</v>
+      </c>
+      <c r="G573" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I573" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J573" t="n">
+        <v>40.81999999999989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J573"/>
+  <dimension ref="A1:J579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18068,6 +18068,234 @@
         <v>40.81999999999989</v>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" s="2" t="n">
+        <v>45277</v>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="E574" t="n">
+        <v>125</v>
+      </c>
+      <c r="F574" t="n">
+        <v>104</v>
+      </c>
+      <c r="G574" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I574" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J574" t="n">
+        <v>39.81999999999989</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" s="2" t="n">
+        <v>45277</v>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E575" t="n">
+        <v>144</v>
+      </c>
+      <c r="F575" t="n">
+        <v>122</v>
+      </c>
+      <c r="G575" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I575" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J575" t="n">
+        <v>40.79999999999988</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" s="2" t="n">
+        <v>45277</v>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E576" t="n">
+        <v>114</v>
+      </c>
+      <c r="F576" t="n">
+        <v>97</v>
+      </c>
+      <c r="G576" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I576" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J576" t="n">
+        <v>39.79999999999988</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" s="2" t="n">
+        <v>45277</v>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E577" t="n">
+        <v>110</v>
+      </c>
+      <c r="F577" t="n">
+        <v>146</v>
+      </c>
+      <c r="G577" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I577" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J577" t="n">
+        <v>40.65999999999988</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" s="2" t="n">
+        <v>45277</v>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E578" t="n">
+        <v>112</v>
+      </c>
+      <c r="F578" t="n">
+        <v>108</v>
+      </c>
+      <c r="G578" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I578" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J578" t="n">
+        <v>39.65999999999988</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" s="2" t="n">
+        <v>45277</v>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E579" t="n">
+        <v>114</v>
+      </c>
+      <c r="F579" t="n">
+        <v>118</v>
+      </c>
+      <c r="G579" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I579" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J579" t="n">
+        <v>40.49999999999989</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J579"/>
+  <dimension ref="A1:J583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18296,6 +18296,158 @@
         <v>40.49999999999989</v>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E580" t="n">
+        <v>104</v>
+      </c>
+      <c r="F580" t="n">
+        <v>108</v>
+      </c>
+      <c r="G580" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I580" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J580" t="n">
+        <v>39.49999999999989</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E581" t="n">
+        <v>116</v>
+      </c>
+      <c r="F581" t="n">
+        <v>97</v>
+      </c>
+      <c r="G581" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I581" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J581" t="n">
+        <v>38.49999999999989</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E582" t="n">
+        <v>130</v>
+      </c>
+      <c r="F582" t="n">
+        <v>104</v>
+      </c>
+      <c r="G582" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I582" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J582" t="n">
+        <v>37.49999999999989</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E583" t="n">
+        <v>125</v>
+      </c>
+      <c r="F583" t="n">
+        <v>108</v>
+      </c>
+      <c r="G583" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I583" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J583" t="n">
+        <v>38.29999999999988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J583"/>
+  <dimension ref="A1:J584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18448,6 +18448,44 @@
         <v>38.29999999999988</v>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E584" t="n">
+        <v>109</v>
+      </c>
+      <c r="F584" t="n">
+        <v>114</v>
+      </c>
+      <c r="G584" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I584" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J584" t="n">
+        <v>37.29999999999988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J584"/>
+  <dimension ref="A1:J589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18486,6 +18486,196 @@
         <v>37.29999999999988</v>
       </c>
     </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E585" t="n">
+        <v>132</v>
+      </c>
+      <c r="F585" t="n">
+        <v>126</v>
+      </c>
+      <c r="G585" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I585" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J585" t="n">
+        <v>38.15999999999988</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E586" t="n">
+        <v>109</v>
+      </c>
+      <c r="F586" t="n">
+        <v>104</v>
+      </c>
+      <c r="G586" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I586" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J586" t="n">
+        <v>37.15999999999988</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E587" t="n">
+        <v>144</v>
+      </c>
+      <c r="F587" t="n">
+        <v>113</v>
+      </c>
+      <c r="G587" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I587" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J587" t="n">
+        <v>38.12999999999988</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="E588" t="n">
+        <v>90</v>
+      </c>
+      <c r="F588" t="n">
+        <v>91</v>
+      </c>
+      <c r="G588" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I588" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J588" t="n">
+        <v>38.97999999999988</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Oklahoma</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>North Carolina</t>
+        </is>
+      </c>
+      <c r="E589" t="n">
+        <v>69</v>
+      </c>
+      <c r="F589" t="n">
+        <v>81</v>
+      </c>
+      <c r="G589" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I589" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J589" t="n">
+        <v>37.97999999999988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J589"/>
+  <dimension ref="A1:J600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18676,6 +18676,424 @@
         <v>37.97999999999988</v>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="E590" t="n">
+        <v>111</v>
+      </c>
+      <c r="F590" t="n">
+        <v>119</v>
+      </c>
+      <c r="G590" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I590" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J590" t="n">
+        <v>36.97999999999988</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E591" t="n">
+        <v>114</v>
+      </c>
+      <c r="F591" t="n">
+        <v>95</v>
+      </c>
+      <c r="G591" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I591" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J591" t="n">
+        <v>35.97999999999988</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E592" t="n">
+        <v>118</v>
+      </c>
+      <c r="F592" t="n">
+        <v>114</v>
+      </c>
+      <c r="G592" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I592" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J592" t="n">
+        <v>34.97999999999988</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Lafayette</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Quinnipiac</t>
+        </is>
+      </c>
+      <c r="E593" t="n">
+        <v>60</v>
+      </c>
+      <c r="F593" t="n">
+        <v>78</v>
+      </c>
+      <c r="G593" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I593" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J593" t="n">
+        <v>33.97999999999988</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Texas Tech</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Texas Arlington</t>
+        </is>
+      </c>
+      <c r="E594" t="n">
+        <v>77</v>
+      </c>
+      <c r="F594" t="n">
+        <v>66</v>
+      </c>
+      <c r="G594" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I594" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J594" t="n">
+        <v>32.97999999999988</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Arkansas</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>Abilene Christian</t>
+        </is>
+      </c>
+      <c r="E595" t="n">
+        <v>83</v>
+      </c>
+      <c r="F595" t="n">
+        <v>73</v>
+      </c>
+      <c r="G595" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I595" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J595" t="n">
+        <v>33.88999999999988</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Texas State</t>
+        </is>
+      </c>
+      <c r="E596" t="n">
+        <v>72</v>
+      </c>
+      <c r="F596" t="n">
+        <v>37</v>
+      </c>
+      <c r="G596" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I596" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J596" t="n">
+        <v>32.88999999999988</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Iowa State</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Eastern Illinois</t>
+        </is>
+      </c>
+      <c r="E597" t="n">
+        <v>80</v>
+      </c>
+      <c r="F597" t="n">
+        <v>48</v>
+      </c>
+      <c r="G597" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I597" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J597" t="n">
+        <v>31.88999999999988</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Stonehill</t>
+        </is>
+      </c>
+      <c r="E598" t="n">
+        <v>97</v>
+      </c>
+      <c r="F598" t="n">
+        <v>59</v>
+      </c>
+      <c r="G598" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I598" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J598" t="n">
+        <v>32.79999999999988</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E599" t="n">
+        <v>104</v>
+      </c>
+      <c r="F599" t="n">
+        <v>123</v>
+      </c>
+      <c r="G599" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I599" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J599" t="n">
+        <v>31.79999999999988</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E600" t="n">
+        <v>118</v>
+      </c>
+      <c r="F600" t="n">
+        <v>111</v>
+      </c>
+      <c r="G600" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I600" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J600" t="n">
+        <v>32.61999999999988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J600"/>
+  <dimension ref="A1:J604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19094,6 +19094,158 @@
         <v>32.61999999999988</v>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E601" t="n">
+        <v>121</v>
+      </c>
+      <c r="F601" t="n">
+        <v>111</v>
+      </c>
+      <c r="G601" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I601" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J601" t="n">
+        <v>33.44999999999987</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E602" t="n">
+        <v>117</v>
+      </c>
+      <c r="F602" t="n">
+        <v>122</v>
+      </c>
+      <c r="G602" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I602" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J602" t="n">
+        <v>34.30999999999987</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="E603" t="n">
+        <v>80</v>
+      </c>
+      <c r="F603" t="n">
+        <v>91</v>
+      </c>
+      <c r="G603" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I603" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J603" t="n">
+        <v>35.21999999999987</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="E604" t="n">
+        <v>68</v>
+      </c>
+      <c r="F604" t="n">
+        <v>76</v>
+      </c>
+      <c r="G604" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I604" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J604" t="n">
+        <v>34.21999999999987</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J604"/>
+  <dimension ref="A1:J614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19246,6 +19246,386 @@
         <v>34.21999999999987</v>
       </c>
     </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E605" t="n">
+        <v>129</v>
+      </c>
+      <c r="F605" t="n">
+        <v>118</v>
+      </c>
+      <c r="G605" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I605" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J605" t="n">
+        <v>35.10999999999987</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E606" t="n">
+        <v>120</v>
+      </c>
+      <c r="F606" t="n">
+        <v>105</v>
+      </c>
+      <c r="G606" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I606" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J606" t="n">
+        <v>34.10999999999987</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E607" t="n">
+        <v>111</v>
+      </c>
+      <c r="F607" t="n">
+        <v>130</v>
+      </c>
+      <c r="G607" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I607" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J607" t="n">
+        <v>34.91999999999987</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E608" t="n">
+        <v>95</v>
+      </c>
+      <c r="F608" t="n">
+        <v>102</v>
+      </c>
+      <c r="G608" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I608" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J608" t="n">
+        <v>33.91999999999987</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E609" t="n">
+        <v>110</v>
+      </c>
+      <c r="F609" t="n">
+        <v>117</v>
+      </c>
+      <c r="G609" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I609" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J609" t="n">
+        <v>32.91999999999987</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E610" t="n">
+        <v>119</v>
+      </c>
+      <c r="F610" t="n">
+        <v>125</v>
+      </c>
+      <c r="G610" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I610" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J610" t="n">
+        <v>33.72999999999988</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E611" t="n">
+        <v>126</v>
+      </c>
+      <c r="F611" t="n">
+        <v>115</v>
+      </c>
+      <c r="G611" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I611" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J611" t="n">
+        <v>34.55999999999987</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="E612" t="n">
+        <v>119</v>
+      </c>
+      <c r="F612" t="n">
+        <v>126</v>
+      </c>
+      <c r="G612" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I612" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J612" t="n">
+        <v>35.43999999999988</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="E613" t="n">
+        <v>104</v>
+      </c>
+      <c r="F613" t="n">
+        <v>106</v>
+      </c>
+      <c r="G613" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I613" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J613" t="n">
+        <v>34.43999999999988</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E614" t="n">
+        <v>144</v>
+      </c>
+      <c r="F614" t="n">
+        <v>119</v>
+      </c>
+      <c r="G614" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I614" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J614" t="n">
+        <v>35.32999999999988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J614"/>
+  <dimension ref="A1:J615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19626,6 +19626,44 @@
         <v>35.32999999999988</v>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" s="2" t="n">
+        <v>45284</v>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E615" t="n">
+        <v>98</v>
+      </c>
+      <c r="F615" t="n">
+        <v>110</v>
+      </c>
+      <c r="G615" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I615" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J615" t="n">
+        <v>34.32999999999988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J615"/>
+  <dimension ref="A1:J617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19664,6 +19664,82 @@
         <v>34.32999999999988</v>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E616" t="n">
+        <v>120</v>
+      </c>
+      <c r="F616" t="n">
+        <v>114</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I616" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J616" t="n">
+        <v>35.18999999999988</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E617" t="n">
+        <v>115</v>
+      </c>
+      <c r="F617" t="n">
+        <v>126</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I617" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J617" t="n">
+        <v>36.04999999999988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J617"/>
+  <dimension ref="A1:J630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19740,6 +19740,500 @@
         <v>36.04999999999988</v>
       </c>
     </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E618" t="n">
+        <v>114</v>
+      </c>
+      <c r="F618" t="n">
+        <v>128</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I618" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J618" t="n">
+        <v>36.93999999999988</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E619" t="n">
+        <v>119</v>
+      </c>
+      <c r="F619" t="n">
+        <v>127</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I619" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J619" t="n">
+        <v>37.73999999999987</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E620" t="n">
+        <v>117</v>
+      </c>
+      <c r="F620" t="n">
+        <v>123</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I620" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J620" t="n">
+        <v>38.57999999999988</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E621" t="n">
+        <v>115</v>
+      </c>
+      <c r="F621" t="n">
+        <v>116</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I621" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J621" t="n">
+        <v>39.37999999999987</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="E622" t="n">
+        <v>118</v>
+      </c>
+      <c r="F622" t="n">
+        <v>130</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I622" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J622" t="n">
+        <v>40.18999999999988</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E623" t="n">
+        <v>130</v>
+      </c>
+      <c r="F623" t="n">
+        <v>113</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I623" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J623" t="n">
+        <v>41.04999999999988</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E624" t="n">
+        <v>113</v>
+      </c>
+      <c r="F624" t="n">
+        <v>104</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I624" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J624" t="n">
+        <v>40.04999999999988</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E625" t="n">
+        <v>92</v>
+      </c>
+      <c r="F625" t="n">
+        <v>112</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I625" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J625" t="n">
+        <v>39.04999999999988</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E626" t="n">
+        <v>102</v>
+      </c>
+      <c r="F626" t="n">
+        <v>132</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I626" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J626" t="n">
+        <v>38.04999999999988</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E627" t="n">
+        <v>122</v>
+      </c>
+      <c r="F627" t="n">
+        <v>144</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I627" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J627" t="n">
+        <v>38.86999999999988</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E628" t="n">
+        <v>113</v>
+      </c>
+      <c r="F628" t="n">
+        <v>129</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I628" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J628" t="n">
+        <v>39.67999999999988</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E629" t="n">
+        <v>129</v>
+      </c>
+      <c r="F629" t="n">
+        <v>120</v>
+      </c>
+      <c r="G629" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I629" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J629" t="n">
+        <v>40.48999999999988</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E630" t="n">
+        <v>110</v>
+      </c>
+      <c r="F630" t="n">
+        <v>113</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I630" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J630" t="n">
+        <v>39.48999999999988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J630"/>
+  <dimension ref="A1:J634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20234,6 +20234,158 @@
         <v>39.48999999999988</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E631" t="n">
+        <v>128</v>
+      </c>
+      <c r="F631" t="n">
+        <v>122</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I631" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J631" t="n">
+        <v>40.28999999999988</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E632" t="n">
+        <v>104</v>
+      </c>
+      <c r="F632" t="n">
+        <v>120</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I632" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J632" t="n">
+        <v>39.28999999999988</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="E633" t="n">
+        <v>112</v>
+      </c>
+      <c r="F633" t="n">
+        <v>105</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I633" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J633" t="n">
+        <v>38.28999999999988</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E634" t="n">
+        <v>142</v>
+      </c>
+      <c r="F634" t="n">
+        <v>105</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I634" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J634" t="n">
+        <v>39.14999999999988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J634"/>
+  <dimension ref="A1:J638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20386,6 +20386,158 @@
         <v>39.14999999999988</v>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E635" t="n">
+        <v>102</v>
+      </c>
+      <c r="F635" t="n">
+        <v>114</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I635" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J635" t="n">
+        <v>38.14999999999988</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E636" t="n">
+        <v>105</v>
+      </c>
+      <c r="F636" t="n">
+        <v>118</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I636" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J636" t="n">
+        <v>37.14999999999988</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E637" t="n">
+        <v>133</v>
+      </c>
+      <c r="F637" t="n">
+        <v>112</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I637" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J637" t="n">
+        <v>37.94999999999987</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E638" t="n">
+        <v>120</v>
+      </c>
+      <c r="F638" t="n">
+        <v>118</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I638" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J638" t="n">
+        <v>38.74999999999987</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J638"/>
+  <dimension ref="A1:J654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20538,6 +20538,614 @@
         <v>38.74999999999987</v>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E639" t="n">
+        <v>134</v>
+      </c>
+      <c r="F639" t="n">
+        <v>128</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I639" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J639" t="n">
+        <v>39.54999999999987</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E640" t="n">
+        <v>117</v>
+      </c>
+      <c r="F640" t="n">
+        <v>106</v>
+      </c>
+      <c r="G640" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I640" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J640" t="n">
+        <v>38.54999999999987</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E641" t="n">
+        <v>105</v>
+      </c>
+      <c r="F641" t="n">
+        <v>92</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I641" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J641" t="n">
+        <v>37.54999999999987</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Central Conn. St.</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>St. Elizabeth</t>
+        </is>
+      </c>
+      <c r="E642" t="n">
+        <v>99</v>
+      </c>
+      <c r="F642" t="n">
+        <v>38</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I642" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J642" t="n">
+        <v>36.54999999999987</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Citadel</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>Toccoa Falls</t>
+        </is>
+      </c>
+      <c r="E643" t="n">
+        <v>106</v>
+      </c>
+      <c r="F643" t="n">
+        <v>76</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I643" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J643" t="n">
+        <v>37.45999999999987</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Duquesne</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>Cleary University</t>
+        </is>
+      </c>
+      <c r="E644" t="n">
+        <v>95</v>
+      </c>
+      <c r="F644" t="n">
+        <v>47</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I644" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J644" t="n">
+        <v>38.36999999999986</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E645" t="n">
+        <v>126</v>
+      </c>
+      <c r="F645" t="n">
+        <v>130</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I645" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J645" t="n">
+        <v>39.16999999999986</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E646" t="n">
+        <v>124</v>
+      </c>
+      <c r="F646" t="n">
+        <v>108</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I646" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J646" t="n">
+        <v>38.16999999999986</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E647" t="n">
+        <v>92</v>
+      </c>
+      <c r="F647" t="n">
+        <v>123</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I647" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J647" t="n">
+        <v>37.16999999999986</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E648" t="n">
+        <v>112</v>
+      </c>
+      <c r="F648" t="n">
+        <v>107</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I648" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J648" t="n">
+        <v>36.16999999999986</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E649" t="n">
+        <v>129</v>
+      </c>
+      <c r="F649" t="n">
+        <v>109</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I649" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J649" t="n">
+        <v>37.02999999999986</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E650" t="n">
+        <v>136</v>
+      </c>
+      <c r="F650" t="n">
+        <v>113</v>
+      </c>
+      <c r="G650" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I650" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J650" t="n">
+        <v>37.82999999999986</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E651" t="n">
+        <v>113</v>
+      </c>
+      <c r="F651" t="n">
+        <v>122</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I651" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J651" t="n">
+        <v>36.82999999999986</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E652" t="n">
+        <v>111</v>
+      </c>
+      <c r="F652" t="n">
+        <v>93</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I652" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J652" t="n">
+        <v>35.82999999999986</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E653" t="n">
+        <v>127</v>
+      </c>
+      <c r="F653" t="n">
+        <v>90</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I653" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J653" t="n">
+        <v>34.82999999999986</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E654" t="n">
+        <v>109</v>
+      </c>
+      <c r="F654" t="n">
+        <v>88</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I654" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J654" t="n">
+        <v>33.82999999999986</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J654"/>
+  <dimension ref="A1:J655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21146,6 +21146,44 @@
         <v>33.82999999999986</v>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E655" t="n">
+        <v>121</v>
+      </c>
+      <c r="F655" t="n">
+        <v>104</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I655" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J655" t="n">
+        <v>32.82999999999986</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J655"/>
+  <dimension ref="A1:J659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21184,6 +21184,158 @@
         <v>32.82999999999986</v>
       </c>
     </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E656" t="n">
+        <v>121</v>
+      </c>
+      <c r="F656" t="n">
+        <v>115</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I656" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J656" t="n">
+        <v>33.62999999999985</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E657" t="n">
+        <v>104</v>
+      </c>
+      <c r="F657" t="n">
+        <v>111</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I657" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J657" t="n">
+        <v>32.62999999999985</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E658" t="n">
+        <v>141</v>
+      </c>
+      <c r="F658" t="n">
+        <v>138</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I658" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J658" t="n">
+        <v>33.48999999999985</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="E659" t="n">
+        <v>75</v>
+      </c>
+      <c r="F659" t="n">
+        <v>73</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I659" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J659" t="n">
+        <v>32.48999999999985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J659"/>
+  <dimension ref="A1:J661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21336,6 +21336,82 @@
         <v>32.48999999999985</v>
       </c>
     </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E660" t="n">
+        <v>96</v>
+      </c>
+      <c r="F660" t="n">
+        <v>110</v>
+      </c>
+      <c r="G660" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I660" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J660" t="n">
+        <v>31.48999999999985</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E661" t="n">
+        <v>138</v>
+      </c>
+      <c r="F661" t="n">
+        <v>135</v>
+      </c>
+      <c r="G661" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I661" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J661" t="n">
+        <v>32.28999999999985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J661"/>
+  <dimension ref="A1:J664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21412,6 +21412,120 @@
         <v>32.28999999999985</v>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E662" t="n">
+        <v>127</v>
+      </c>
+      <c r="F662" t="n">
+        <v>130</v>
+      </c>
+      <c r="G662" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I662" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J662" t="n">
+        <v>33.14999999999985</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E663" t="n">
+        <v>120</v>
+      </c>
+      <c r="F663" t="n">
+        <v>122</v>
+      </c>
+      <c r="G663" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I663" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J663" t="n">
+        <v>33.99999999999985</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="E664" t="n">
+        <v>89</v>
+      </c>
+      <c r="F664" t="n">
+        <v>85</v>
+      </c>
+      <c r="G664" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I664" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J664" t="n">
+        <v>34.84999999999985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J664"/>
+  <dimension ref="A1:J667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21526,6 +21526,120 @@
         <v>34.84999999999985</v>
       </c>
     </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E665" t="n">
+        <v>113</v>
+      </c>
+      <c r="F665" t="n">
+        <v>109</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I665" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J665" t="n">
+        <v>33.84999999999985</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E666" t="n">
+        <v>113</v>
+      </c>
+      <c r="F666" t="n">
+        <v>127</v>
+      </c>
+      <c r="G666" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I666" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J666" t="n">
+        <v>34.70999999999985</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E667" t="n">
+        <v>135</v>
+      </c>
+      <c r="F667" t="n">
+        <v>130</v>
+      </c>
+      <c r="G667" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I667" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J667" t="n">
+        <v>35.59999999999985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J667"/>
+  <dimension ref="A1:J675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21640,6 +21640,310 @@
         <v>35.59999999999985</v>
       </c>
     </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E668" t="n">
+        <v>127</v>
+      </c>
+      <c r="F668" t="n">
+        <v>134</v>
+      </c>
+      <c r="G668" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I668" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J668" t="n">
+        <v>36.45999999999985</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E669" t="n">
+        <v>117</v>
+      </c>
+      <c r="F669" t="n">
+        <v>110</v>
+      </c>
+      <c r="G669" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I669" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J669" t="n">
+        <v>35.45999999999985</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E670" t="n">
+        <v>100</v>
+      </c>
+      <c r="F670" t="n">
+        <v>133</v>
+      </c>
+      <c r="G670" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I670" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J670" t="n">
+        <v>34.45999999999985</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E671" t="n">
+        <v>115</v>
+      </c>
+      <c r="F671" t="n">
+        <v>108</v>
+      </c>
+      <c r="G671" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I671" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J671" t="n">
+        <v>33.45999999999985</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E672" t="n">
+        <v>131</v>
+      </c>
+      <c r="F672" t="n">
+        <v>114</v>
+      </c>
+      <c r="G672" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I672" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J672" t="n">
+        <v>34.25999999999985</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E673" t="n">
+        <v>115</v>
+      </c>
+      <c r="F673" t="n">
+        <v>121</v>
+      </c>
+      <c r="G673" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I673" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J673" t="n">
+        <v>35.07999999999985</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E674" t="n">
+        <v>118</v>
+      </c>
+      <c r="F674" t="n">
+        <v>133</v>
+      </c>
+      <c r="G674" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I674" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J674" t="n">
+        <v>35.90999999999985</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E675" t="n">
+        <v>106</v>
+      </c>
+      <c r="F675" t="n">
+        <v>103</v>
+      </c>
+      <c r="G675" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I675" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J675" t="n">
+        <v>34.90999999999985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J675"/>
+  <dimension ref="A1:J676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21944,6 +21944,44 @@
         <v>34.90999999999985</v>
       </c>
     </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Coppin State</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>Md.-East. Shore</t>
+        </is>
+      </c>
+      <c r="E676" t="n">
+        <v>58</v>
+      </c>
+      <c r="F676" t="n">
+        <v>55</v>
+      </c>
+      <c r="G676" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I676" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J676" t="n">
+        <v>33.90999999999985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J676"/>
+  <dimension ref="A1:J679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21982,6 +21982,120 @@
         <v>33.90999999999985</v>
       </c>
     </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E677" t="n">
+        <v>138</v>
+      </c>
+      <c r="F677" t="n">
+        <v>111</v>
+      </c>
+      <c r="G677" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I677" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J677" t="n">
+        <v>34.76999999999985</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E678" t="n">
+        <v>92</v>
+      </c>
+      <c r="F678" t="n">
+        <v>113</v>
+      </c>
+      <c r="G678" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I678" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J678" t="n">
+        <v>33.76999999999985</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E679" t="n">
+        <v>112</v>
+      </c>
+      <c r="F679" t="n">
+        <v>84</v>
+      </c>
+      <c r="G679" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I679" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J679" t="n">
+        <v>32.76999999999985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J679"/>
+  <dimension ref="A1:J690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22096,6 +22096,424 @@
         <v>32.76999999999985</v>
       </c>
     </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E680" t="n">
+        <v>132</v>
+      </c>
+      <c r="F680" t="n">
+        <v>131</v>
+      </c>
+      <c r="G680" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I680" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J680" t="n">
+        <v>33.62999999999985</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E681" t="n">
+        <v>108</v>
+      </c>
+      <c r="F681" t="n">
+        <v>130</v>
+      </c>
+      <c r="G681" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I681" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J681" t="n">
+        <v>34.44999999999985</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E682" t="n">
+        <v>112</v>
+      </c>
+      <c r="F682" t="n">
+        <v>104</v>
+      </c>
+      <c r="G682" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I682" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J682" t="n">
+        <v>33.44999999999985</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E683" t="n">
+        <v>139</v>
+      </c>
+      <c r="F683" t="n">
+        <v>132</v>
+      </c>
+      <c r="G683" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I683" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J683" t="n">
+        <v>34.25999999999985</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E684" t="n">
+        <v>120</v>
+      </c>
+      <c r="F684" t="n">
+        <v>128</v>
+      </c>
+      <c r="G684" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I684" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J684" t="n">
+        <v>35.05999999999985</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="E685" t="n">
+        <v>124</v>
+      </c>
+      <c r="F685" t="n">
+        <v>119</v>
+      </c>
+      <c r="G685" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I685" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J685" t="n">
+        <v>35.85999999999984</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="E686" t="n">
+        <v>86</v>
+      </c>
+      <c r="F686" t="n">
+        <v>78</v>
+      </c>
+      <c r="G686" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I686" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J686" t="n">
+        <v>36.65999999999984</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Astana</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>Parma Perm</t>
+        </is>
+      </c>
+      <c r="E687" t="n">
+        <v>76</v>
+      </c>
+      <c r="F687" t="n">
+        <v>86</v>
+      </c>
+      <c r="G687" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I687" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J687" t="n">
+        <v>37.53999999999984</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E688" t="n">
+        <v>98</v>
+      </c>
+      <c r="F688" t="n">
+        <v>123</v>
+      </c>
+      <c r="G688" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I688" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J688" t="n">
+        <v>36.53999999999984</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Holy Cross</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="E689" t="n">
+        <v>70</v>
+      </c>
+      <c r="F689" t="n">
+        <v>80</v>
+      </c>
+      <c r="G689" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I689" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J689" t="n">
+        <v>37.48999999999985</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Valparaiso</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>Southern Illinois</t>
+        </is>
+      </c>
+      <c r="E690" t="n">
+        <v>68</v>
+      </c>
+      <c r="F690" t="n">
+        <v>77</v>
+      </c>
+      <c r="G690" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I690" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J690" t="n">
+        <v>38.39999999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J690"/>
+  <dimension ref="A1:J694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22514,6 +22514,158 @@
         <v>38.39999999999984</v>
       </c>
     </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E691" t="n">
+        <v>124</v>
+      </c>
+      <c r="F691" t="n">
+        <v>111</v>
+      </c>
+      <c r="G691" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I691" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J691" t="n">
+        <v>37.39999999999984</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E692" t="n">
+        <v>126</v>
+      </c>
+      <c r="F692" t="n">
+        <v>120</v>
+      </c>
+      <c r="G692" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I692" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J692" t="n">
+        <v>38.21999999999984</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E693" t="n">
+        <v>111</v>
+      </c>
+      <c r="F693" t="n">
+        <v>102</v>
+      </c>
+      <c r="G693" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I693" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J693" t="n">
+        <v>37.21999999999984</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E694" t="n">
+        <v>135</v>
+      </c>
+      <c r="F694" t="n">
+        <v>102</v>
+      </c>
+      <c r="G694" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I694" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J694" t="n">
+        <v>36.21999999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J694"/>
+  <dimension ref="A1:J699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22666,6 +22666,196 @@
         <v>36.21999999999984</v>
       </c>
     </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E695" t="n">
+        <v>109</v>
+      </c>
+      <c r="F695" t="n">
+        <v>127</v>
+      </c>
+      <c r="G695" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I695" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J695" t="n">
+        <v>35.21999999999984</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="E696" t="n">
+        <v>110</v>
+      </c>
+      <c r="F696" t="n">
+        <v>112</v>
+      </c>
+      <c r="G696" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I696" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J696" t="n">
+        <v>34.21999999999984</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E697" t="n">
+        <v>112</v>
+      </c>
+      <c r="F697" t="n">
+        <v>93</v>
+      </c>
+      <c r="G697" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I697" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J697" t="n">
+        <v>33.21999999999984</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E698" t="n">
+        <v>131</v>
+      </c>
+      <c r="F698" t="n">
+        <v>140</v>
+      </c>
+      <c r="G698" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I698" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J698" t="n">
+        <v>34.01999999999984</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Anadolu Efes</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>Virtus Bologna</t>
+        </is>
+      </c>
+      <c r="E699" t="n">
+        <v>99</v>
+      </c>
+      <c r="F699" t="n">
+        <v>75</v>
+      </c>
+      <c r="G699" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I699" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J699" t="n">
+        <v>34.86999999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J699"/>
+  <dimension ref="A1:J702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22856,6 +22856,120 @@
         <v>34.86999999999984</v>
       </c>
     </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E700" t="n">
+        <v>125</v>
+      </c>
+      <c r="F700" t="n">
+        <v>113</v>
+      </c>
+      <c r="G700" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I700" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J700" t="n">
+        <v>35.66999999999984</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E701" t="n">
+        <v>94</v>
+      </c>
+      <c r="F701" t="n">
+        <v>106</v>
+      </c>
+      <c r="G701" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I701" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J701" t="n">
+        <v>34.66999999999984</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Loyola MD</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>Boston University</t>
+        </is>
+      </c>
+      <c r="E702" t="n">
+        <v>58</v>
+      </c>
+      <c r="F702" t="n">
+        <v>60</v>
+      </c>
+      <c r="G702" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I702" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J702" t="n">
+        <v>33.66999999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J702"/>
+  <dimension ref="A1:J707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22970,6 +22970,196 @@
         <v>33.66999999999984</v>
       </c>
     </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E703" t="n">
+        <v>117</v>
+      </c>
+      <c r="F703" t="n">
+        <v>109</v>
+      </c>
+      <c r="G703" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I703" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J703" t="n">
+        <v>32.66999999999984</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E704" t="n">
+        <v>143</v>
+      </c>
+      <c r="F704" t="n">
+        <v>142</v>
+      </c>
+      <c r="G704" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I704" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J704" t="n">
+        <v>33.49999999999984</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E705" t="n">
+        <v>109</v>
+      </c>
+      <c r="F705" t="n">
+        <v>105</v>
+      </c>
+      <c r="G705" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I705" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J705" t="n">
+        <v>32.49999999999984</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E706" t="n">
+        <v>116</v>
+      </c>
+      <c r="F706" t="n">
+        <v>127</v>
+      </c>
+      <c r="G706" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I706" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J706" t="n">
+        <v>33.38999999999984</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Stanford</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>Utah Utes</t>
+        </is>
+      </c>
+      <c r="E707" t="n">
+        <v>79</v>
+      </c>
+      <c r="F707" t="n">
+        <v>73</v>
+      </c>
+      <c r="G707" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I707" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J707" t="n">
+        <v>32.38999999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J707"/>
+  <dimension ref="A1:J712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23160,6 +23160,196 @@
         <v>32.38999999999984</v>
       </c>
     </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E708" t="n">
+        <v>109</v>
+      </c>
+      <c r="F708" t="n">
+        <v>99</v>
+      </c>
+      <c r="G708" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I708" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J708" t="n">
+        <v>31.38999999999984</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E709" t="n">
+        <v>109</v>
+      </c>
+      <c r="F709" t="n">
+        <v>91</v>
+      </c>
+      <c r="G709" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I709" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J709" t="n">
+        <v>30.38999999999984</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E710" t="n">
+        <v>96</v>
+      </c>
+      <c r="F710" t="n">
+        <v>105</v>
+      </c>
+      <c r="G710" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I710" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J710" t="n">
+        <v>29.38999999999984</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E711" t="n">
+        <v>132</v>
+      </c>
+      <c r="F711" t="n">
+        <v>105</v>
+      </c>
+      <c r="G711" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I711" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J711" t="n">
+        <v>28.38999999999984</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Le Moyne</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>Sacred Heart</t>
+        </is>
+      </c>
+      <c r="E712" t="n">
+        <v>73</v>
+      </c>
+      <c r="F712" t="n">
+        <v>80</v>
+      </c>
+      <c r="G712" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I712" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J712" t="n">
+        <v>29.29999999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J712"/>
+  <dimension ref="A1:J719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23350,6 +23350,272 @@
         <v>29.29999999999984</v>
       </c>
     </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E713" t="n">
+        <v>112</v>
+      </c>
+      <c r="F713" t="n">
+        <v>105</v>
+      </c>
+      <c r="G713" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I713" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J713" t="n">
+        <v>28.29999999999984</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E714" t="n">
+        <v>126</v>
+      </c>
+      <c r="F714" t="n">
+        <v>121</v>
+      </c>
+      <c r="G714" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I714" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J714" t="n">
+        <v>29.17999999999984</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E715" t="n">
+        <v>119</v>
+      </c>
+      <c r="F715" t="n">
+        <v>117</v>
+      </c>
+      <c r="G715" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I715" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J715" t="n">
+        <v>28.17999999999984</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>Central Michigan</t>
+        </is>
+      </c>
+      <c r="E716" t="n">
+        <v>73</v>
+      </c>
+      <c r="F716" t="n">
+        <v>61</v>
+      </c>
+      <c r="G716" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I716" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J716" t="n">
+        <v>27.17999999999984</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Tennessee</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="E717" t="n">
+        <v>85</v>
+      </c>
+      <c r="F717" t="n">
+        <v>66</v>
+      </c>
+      <c r="G717" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I717" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J717" t="n">
+        <v>26.17999999999984</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Northern Illinois</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>Kent State</t>
+        </is>
+      </c>
+      <c r="E718" t="n">
+        <v>76</v>
+      </c>
+      <c r="F718" t="n">
+        <v>83</v>
+      </c>
+      <c r="G718" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I718" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J718" t="n">
+        <v>27.08999999999984</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>SMU Mustangs</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>Temple</t>
+        </is>
+      </c>
+      <c r="E719" t="n">
+        <v>77</v>
+      </c>
+      <c r="F719" t="n">
+        <v>64</v>
+      </c>
+      <c r="G719" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I719" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J719" t="n">
+        <v>27.99999999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J719"/>
+  <dimension ref="A1:J723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23616,6 +23616,158 @@
         <v>27.99999999999984</v>
       </c>
     </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E720" t="n">
+        <v>128</v>
+      </c>
+      <c r="F720" t="n">
+        <v>117</v>
+      </c>
+      <c r="G720" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I720" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J720" t="n">
+        <v>28.85999999999984</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E721" t="n">
+        <v>106</v>
+      </c>
+      <c r="F721" t="n">
+        <v>104</v>
+      </c>
+      <c r="G721" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I721" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J721" t="n">
+        <v>27.85999999999984</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E722" t="n">
+        <v>135</v>
+      </c>
+      <c r="F722" t="n">
+        <v>95</v>
+      </c>
+      <c r="G722" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I722" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J722" t="n">
+        <v>26.85999999999984</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E723" t="n">
+        <v>132</v>
+      </c>
+      <c r="F723" t="n">
+        <v>112</v>
+      </c>
+      <c r="G723" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I723" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J723" t="n">
+        <v>27.67999999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J723"/>
+  <dimension ref="A1:J727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23768,6 +23768,158 @@
         <v>27.67999999999984</v>
       </c>
     </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E724" t="n">
+        <v>105</v>
+      </c>
+      <c r="F724" t="n">
+        <v>103</v>
+      </c>
+      <c r="G724" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I724" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J724" t="n">
+        <v>26.67999999999984</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E725" t="n">
+        <v>110</v>
+      </c>
+      <c r="F725" t="n">
+        <v>116</v>
+      </c>
+      <c r="G725" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I725" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J725" t="n">
+        <v>27.55999999999984</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E726" t="n">
+        <v>129</v>
+      </c>
+      <c r="F726" t="n">
+        <v>134</v>
+      </c>
+      <c r="G726" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I726" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J726" t="n">
+        <v>28.40999999999984</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E727" t="n">
+        <v>113</v>
+      </c>
+      <c r="F727" t="n">
+        <v>109</v>
+      </c>
+      <c r="G727" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I727" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J727" t="n">
+        <v>27.40999999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J727"/>
+  <dimension ref="A1:J731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23920,6 +23920,158 @@
         <v>27.40999999999984</v>
       </c>
     </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E728" t="n">
+        <v>118</v>
+      </c>
+      <c r="F728" t="n">
+        <v>103</v>
+      </c>
+      <c r="G728" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I728" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J728" t="n">
+        <v>28.27999999999984</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E729" t="n">
+        <v>121</v>
+      </c>
+      <c r="F729" t="n">
+        <v>126</v>
+      </c>
+      <c r="G729" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I729" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J729" t="n">
+        <v>29.12999999999984</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E730" t="n">
+        <v>109</v>
+      </c>
+      <c r="F730" t="n">
+        <v>124</v>
+      </c>
+      <c r="G730" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I730" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J730" t="n">
+        <v>29.95999999999984</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E731" t="n">
+        <v>98</v>
+      </c>
+      <c r="F731" t="n">
+        <v>74</v>
+      </c>
+      <c r="G731" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I731" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J731" t="n">
+        <v>30.80999999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J731"/>
+  <dimension ref="A1:J737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24072,6 +24072,234 @@
         <v>30.80999999999984</v>
       </c>
     </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E732" t="n">
+        <v>118</v>
+      </c>
+      <c r="F732" t="n">
+        <v>115</v>
+      </c>
+      <c r="G732" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I732" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J732" t="n">
+        <v>29.80999999999984</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E733" t="n">
+        <v>112</v>
+      </c>
+      <c r="F733" t="n">
+        <v>130</v>
+      </c>
+      <c r="G733" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I733" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J733" t="n">
+        <v>30.62999999999984</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E734" t="n">
+        <v>95</v>
+      </c>
+      <c r="F734" t="n">
+        <v>116</v>
+      </c>
+      <c r="G734" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I734" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J734" t="n">
+        <v>29.62999999999984</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E735" t="n">
+        <v>126</v>
+      </c>
+      <c r="F735" t="n">
+        <v>100</v>
+      </c>
+      <c r="G735" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I735" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J735" t="n">
+        <v>28.62999999999984</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Saratov</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>Samara</t>
+        </is>
+      </c>
+      <c r="E736" t="n">
+        <v>64</v>
+      </c>
+      <c r="F736" t="n">
+        <v>79</v>
+      </c>
+      <c r="G736" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I736" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J736" t="n">
+        <v>27.62999999999984</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Abilene Christian</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>Texas Arlington</t>
+        </is>
+      </c>
+      <c r="E737" t="n">
+        <v>78</v>
+      </c>
+      <c r="F737" t="n">
+        <v>67</v>
+      </c>
+      <c r="G737" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I737" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J737" t="n">
+        <v>26.62999999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J737"/>
+  <dimension ref="A1:J741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24300,6 +24300,158 @@
         <v>26.62999999999984</v>
       </c>
     </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E738" t="n">
+        <v>105</v>
+      </c>
+      <c r="F738" t="n">
+        <v>87</v>
+      </c>
+      <c r="G738" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I738" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J738" t="n">
+        <v>25.62999999999984</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E739" t="n">
+        <v>104</v>
+      </c>
+      <c r="F739" t="n">
+        <v>113</v>
+      </c>
+      <c r="G739" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I739" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J739" t="n">
+        <v>24.62999999999984</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E740" t="n">
+        <v>107</v>
+      </c>
+      <c r="F740" t="n">
+        <v>116</v>
+      </c>
+      <c r="G740" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I740" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J740" t="n">
+        <v>23.62999999999984</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E741" t="n">
+        <v>117</v>
+      </c>
+      <c r="F741" t="n">
+        <v>110</v>
+      </c>
+      <c r="G741" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I741" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J741" t="n">
+        <v>22.62999999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J741"/>
+  <dimension ref="A1:J749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24452,6 +24452,310 @@
         <v>22.62999999999984</v>
       </c>
     </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E742" t="n">
+        <v>134</v>
+      </c>
+      <c r="F742" t="n">
+        <v>110</v>
+      </c>
+      <c r="G742" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I742" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J742" t="n">
+        <v>23.44999999999984</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E743" t="n">
+        <v>113</v>
+      </c>
+      <c r="F743" t="n">
+        <v>122</v>
+      </c>
+      <c r="G743" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I743" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J743" t="n">
+        <v>22.44999999999984</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E744" t="n">
+        <v>99</v>
+      </c>
+      <c r="F744" t="n">
+        <v>126</v>
+      </c>
+      <c r="G744" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I744" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J744" t="n">
+        <v>23.37999999999984</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E745" t="n">
+        <v>133</v>
+      </c>
+      <c r="F745" t="n">
+        <v>123</v>
+      </c>
+      <c r="G745" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I745" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J745" t="n">
+        <v>24.26999999999984</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E746" t="n">
+        <v>100</v>
+      </c>
+      <c r="F746" t="n">
+        <v>108</v>
+      </c>
+      <c r="G746" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I746" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J746" t="n">
+        <v>23.26999999999984</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E747" t="n">
+        <v>125</v>
+      </c>
+      <c r="F747" t="n">
+        <v>128</v>
+      </c>
+      <c r="G747" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I747" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J747" t="n">
+        <v>24.14999999999984</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E748" t="n">
+        <v>110</v>
+      </c>
+      <c r="F748" t="n">
+        <v>119</v>
+      </c>
+      <c r="G748" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I748" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J748" t="n">
+        <v>23.14999999999984</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E749" t="n">
+        <v>115</v>
+      </c>
+      <c r="F749" t="n">
+        <v>113</v>
+      </c>
+      <c r="G749" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I749" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J749" t="n">
+        <v>23.99999999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J749"/>
+  <dimension ref="A1:J767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24756,6 +24756,690 @@
         <v>23.99999999999984</v>
       </c>
     </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E750" t="n">
+        <v>122</v>
+      </c>
+      <c r="F750" t="n">
+        <v>107</v>
+      </c>
+      <c r="G750" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I750" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J750" t="n">
+        <v>22.99999999999984</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E751" t="n">
+        <v>109</v>
+      </c>
+      <c r="F751" t="n">
+        <v>114</v>
+      </c>
+      <c r="G751" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I751" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J751" t="n">
+        <v>21.99999999999984</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E752" t="n">
+        <v>127</v>
+      </c>
+      <c r="F752" t="n">
+        <v>116</v>
+      </c>
+      <c r="G752" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I752" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J752" t="n">
+        <v>22.85999999999984</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E753" t="n">
+        <v>107</v>
+      </c>
+      <c r="F753" t="n">
+        <v>118</v>
+      </c>
+      <c r="G753" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I753" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J753" t="n">
+        <v>21.85999999999984</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E754" t="n">
+        <v>96</v>
+      </c>
+      <c r="F754" t="n">
+        <v>105</v>
+      </c>
+      <c r="G754" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I754" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J754" t="n">
+        <v>20.85999999999984</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E755" t="n">
+        <v>126</v>
+      </c>
+      <c r="F755" t="n">
+        <v>116</v>
+      </c>
+      <c r="G755" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I755" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J755" t="n">
+        <v>21.74999999999984</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E756" t="n">
+        <v>134</v>
+      </c>
+      <c r="F756" t="n">
+        <v>112</v>
+      </c>
+      <c r="G756" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I756" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J756" t="n">
+        <v>22.62999999999984</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E757" t="n">
+        <v>110</v>
+      </c>
+      <c r="F757" t="n">
+        <v>143</v>
+      </c>
+      <c r="G757" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I757" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J757" t="n">
+        <v>23.44999999999984</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="E758" t="n">
+        <v>90</v>
+      </c>
+      <c r="F758" t="n">
+        <v>75</v>
+      </c>
+      <c r="G758" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I758" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J758" t="n">
+        <v>22.44999999999984</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="E759" t="n">
+        <v>90</v>
+      </c>
+      <c r="F759" t="n">
+        <v>85</v>
+      </c>
+      <c r="G759" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I759" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J759" t="n">
+        <v>23.24999999999984</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>Stephen F. Austin</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>Grand Canyon</t>
+        </is>
+      </c>
+      <c r="E760" t="n">
+        <v>51</v>
+      </c>
+      <c r="F760" t="n">
+        <v>53</v>
+      </c>
+      <c r="G760" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I760" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J760" t="n">
+        <v>22.24999999999984</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E761" t="n">
+        <v>133</v>
+      </c>
+      <c r="F761" t="n">
+        <v>134</v>
+      </c>
+      <c r="G761" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I761" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J761" t="n">
+        <v>23.09999999999984</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E762" t="n">
+        <v>133</v>
+      </c>
+      <c r="F762" t="n">
+        <v>131</v>
+      </c>
+      <c r="G762" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I762" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J762" t="n">
+        <v>23.89999999999984</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E763" t="n">
+        <v>100</v>
+      </c>
+      <c r="F763" t="n">
+        <v>112</v>
+      </c>
+      <c r="G763" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I763" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J763" t="n">
+        <v>22.89999999999984</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E764" t="n">
+        <v>74</v>
+      </c>
+      <c r="F764" t="n">
+        <v>70</v>
+      </c>
+      <c r="G764" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I764" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J764" t="n">
+        <v>21.89999999999984</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E765" t="n">
+        <v>111</v>
+      </c>
+      <c r="F765" t="n">
+        <v>105</v>
+      </c>
+      <c r="G765" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I765" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J765" t="n">
+        <v>20.89999999999984</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>Holy Cross</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>Lehigh</t>
+        </is>
+      </c>
+      <c r="E766" t="n">
+        <v>72</v>
+      </c>
+      <c r="F766" t="n">
+        <v>78</v>
+      </c>
+      <c r="G766" t="n">
+        <v>2</v>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I766" t="n">
+        <v>1</v>
+      </c>
+      <c r="J766" t="n">
+        <v>21.89999999999984</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>Hampton</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>Elon</t>
+        </is>
+      </c>
+      <c r="E767" t="n">
+        <v>74</v>
+      </c>
+      <c r="F767" t="n">
+        <v>80</v>
+      </c>
+      <c r="G767" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I767" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J767" t="n">
+        <v>20.89999999999984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J767"/>
+  <dimension ref="A1:J805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25440,6 +25440,1450 @@
         <v>20.89999999999984</v>
       </c>
     </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E768" t="n">
+        <v>113</v>
+      </c>
+      <c r="F768" t="n">
+        <v>98</v>
+      </c>
+      <c r="G768" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I768" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J768" t="n">
+        <v>19.89999999999984</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>Cal Poly</t>
+        </is>
+      </c>
+      <c r="E769" t="n">
+        <v>83</v>
+      </c>
+      <c r="F769" t="n">
+        <v>73</v>
+      </c>
+      <c r="G769" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I769" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J769" t="n">
+        <v>20.84999999999984</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E770" t="n">
+        <v>120</v>
+      </c>
+      <c r="F770" t="n">
+        <v>104</v>
+      </c>
+      <c r="G770" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I770" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J770" t="n">
+        <v>19.84999999999984</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E771" t="n">
+        <v>118</v>
+      </c>
+      <c r="F771" t="n">
+        <v>108</v>
+      </c>
+      <c r="G771" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I771" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J771" t="n">
+        <v>20.64999999999984</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E772" t="n">
+        <v>118</v>
+      </c>
+      <c r="F772" t="n">
+        <v>112</v>
+      </c>
+      <c r="G772" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I772" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J772" t="n">
+        <v>19.64999999999984</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="E773" t="n">
+        <v>147</v>
+      </c>
+      <c r="F773" t="n">
+        <v>114</v>
+      </c>
+      <c r="G773" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I773" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J773" t="n">
+        <v>20.53999999999984</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E774" t="n">
+        <v>94</v>
+      </c>
+      <c r="F774" t="n">
+        <v>103</v>
+      </c>
+      <c r="G774" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I774" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J774" t="n">
+        <v>19.53999999999984</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E775" t="n">
+        <v>101</v>
+      </c>
+      <c r="F775" t="n">
+        <v>107</v>
+      </c>
+      <c r="G775" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I775" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J775" t="n">
+        <v>18.53999999999984</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E776" t="n">
+        <v>113</v>
+      </c>
+      <c r="F776" t="n">
+        <v>118</v>
+      </c>
+      <c r="G776" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I776" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J776" t="n">
+        <v>17.53999999999984</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E777" t="n">
+        <v>113</v>
+      </c>
+      <c r="F777" t="n">
+        <v>107</v>
+      </c>
+      <c r="G777" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I777" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J777" t="n">
+        <v>16.53999999999984</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>Delaware State</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>N.Carolina Central</t>
+        </is>
+      </c>
+      <c r="E778" t="n">
+        <v>66</v>
+      </c>
+      <c r="F778" t="n">
+        <v>69</v>
+      </c>
+      <c r="G778" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I778" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J778" t="n">
+        <v>17.44999999999984</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E779" t="n">
+        <v>130</v>
+      </c>
+      <c r="F779" t="n">
+        <v>104</v>
+      </c>
+      <c r="G779" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I779" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J779" t="n">
+        <v>18.29999999999984</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>Tennessee</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>South Carolina</t>
+        </is>
+      </c>
+      <c r="E780" t="n">
+        <v>59</v>
+      </c>
+      <c r="F780" t="n">
+        <v>63</v>
+      </c>
+      <c r="G780" t="n">
+        <v>2</v>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I780" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J780" t="n">
+        <v>17.29999999999984</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E781" t="n">
+        <v>138</v>
+      </c>
+      <c r="F781" t="n">
+        <v>122</v>
+      </c>
+      <c r="G781" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I781" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J781" t="n">
+        <v>18.09999999999985</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E782" t="n">
+        <v>129</v>
+      </c>
+      <c r="F782" t="n">
+        <v>124</v>
+      </c>
+      <c r="G782" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I782" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J782" t="n">
+        <v>18.97999999999984</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="E783" t="n">
+        <v>118</v>
+      </c>
+      <c r="F783" t="n">
+        <v>103</v>
+      </c>
+      <c r="G783" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I783" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J783" t="n">
+        <v>17.97999999999984</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E784" t="n">
+        <v>119</v>
+      </c>
+      <c r="F784" t="n">
+        <v>107</v>
+      </c>
+      <c r="G784" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I784" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J784" t="n">
+        <v>16.97999999999984</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E785" t="n">
+        <v>109</v>
+      </c>
+      <c r="F785" t="n">
+        <v>125</v>
+      </c>
+      <c r="G785" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I785" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J785" t="n">
+        <v>15.97999999999984</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E786" t="n">
+        <v>115</v>
+      </c>
+      <c r="F786" t="n">
+        <v>106</v>
+      </c>
+      <c r="G786" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I786" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J786" t="n">
+        <v>14.97999999999984</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E787" t="n">
+        <v>99</v>
+      </c>
+      <c r="F787" t="n">
+        <v>110</v>
+      </c>
+      <c r="G787" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I787" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J787" t="n">
+        <v>13.97999999999984</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E788" t="n">
+        <v>98</v>
+      </c>
+      <c r="F788" t="n">
+        <v>108</v>
+      </c>
+      <c r="G788" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H788" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I788" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J788" t="n">
+        <v>12.97999999999984</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E789" t="n">
+        <v>120</v>
+      </c>
+      <c r="F789" t="n">
+        <v>136</v>
+      </c>
+      <c r="G789" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I789" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J789" t="n">
+        <v>13.87999999999984</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="E790" t="n">
+        <v>85</v>
+      </c>
+      <c r="F790" t="n">
+        <v>70</v>
+      </c>
+      <c r="G790" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I790" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J790" t="n">
+        <v>12.87999999999984</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>Zalgiris Kaunas</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>Anadolu Efes</t>
+        </is>
+      </c>
+      <c r="E791" t="n">
+        <v>96</v>
+      </c>
+      <c r="F791" t="n">
+        <v>70</v>
+      </c>
+      <c r="G791" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I791" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J791" t="n">
+        <v>13.67999999999985</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E792" t="n">
+        <v>119</v>
+      </c>
+      <c r="F792" t="n">
+        <v>116</v>
+      </c>
+      <c r="G792" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I792" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J792" t="n">
+        <v>12.67999999999985</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E793" t="n">
+        <v>124</v>
+      </c>
+      <c r="F793" t="n">
+        <v>127</v>
+      </c>
+      <c r="G793" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I793" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J793" t="n">
+        <v>13.50999999999985</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E794" t="n">
+        <v>135</v>
+      </c>
+      <c r="F794" t="n">
+        <v>106</v>
+      </c>
+      <c r="G794" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I794" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J794" t="n">
+        <v>14.35999999999984</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E795" t="n">
+        <v>101</v>
+      </c>
+      <c r="F795" t="n">
+        <v>121</v>
+      </c>
+      <c r="G795" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I795" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J795" t="n">
+        <v>13.35999999999984</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E796" t="n">
+        <v>76</v>
+      </c>
+      <c r="F796" t="n">
+        <v>85</v>
+      </c>
+      <c r="G796" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I796" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J796" t="n">
+        <v>12.35999999999984</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="E797" t="n">
+        <v>76</v>
+      </c>
+      <c r="F797" t="n">
+        <v>69</v>
+      </c>
+      <c r="G797" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I797" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J797" t="n">
+        <v>11.35999999999984</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E798" t="n">
+        <v>121</v>
+      </c>
+      <c r="F798" t="n">
+        <v>136</v>
+      </c>
+      <c r="G798" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I798" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J798" t="n">
+        <v>12.18999999999984</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E799" t="n">
+        <v>141</v>
+      </c>
+      <c r="F799" t="n">
+        <v>134</v>
+      </c>
+      <c r="G799" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I799" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J799" t="n">
+        <v>13.03999999999984</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E800" t="n">
+        <v>115</v>
+      </c>
+      <c r="F800" t="n">
+        <v>123</v>
+      </c>
+      <c r="G800" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I800" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J800" t="n">
+        <v>13.88999999999984</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E801" t="n">
+        <v>117</v>
+      </c>
+      <c r="F801" t="n">
+        <v>129</v>
+      </c>
+      <c r="G801" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I801" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J801" t="n">
+        <v>14.76999999999985</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E802" t="n">
+        <v>105</v>
+      </c>
+      <c r="F802" t="n">
+        <v>113</v>
+      </c>
+      <c r="G802" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I802" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J802" t="n">
+        <v>13.76999999999985</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E803" t="n">
+        <v>101</v>
+      </c>
+      <c r="F803" t="n">
+        <v>117</v>
+      </c>
+      <c r="G803" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I803" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J803" t="n">
+        <v>12.76999999999985</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>Wofford</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>Western Carolina</t>
+        </is>
+      </c>
+      <c r="E804" t="n">
+        <v>88</v>
+      </c>
+      <c r="F804" t="n">
+        <v>86</v>
+      </c>
+      <c r="G804" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I804" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J804" t="n">
+        <v>13.67999999999985</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>Dartmouth</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="E805" t="n">
+        <v>56</v>
+      </c>
+      <c r="F805" t="n">
+        <v>72</v>
+      </c>
+      <c r="G805" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I805" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J805" t="n">
+        <v>12.67999999999985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J805"/>
+  <dimension ref="A1:J832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26884,6 +26884,1032 @@
         <v>12.67999999999985</v>
       </c>
     </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E806" t="n">
+        <v>135</v>
+      </c>
+      <c r="F806" t="n">
+        <v>127</v>
+      </c>
+      <c r="G806" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I806" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J806" t="n">
+        <v>13.60999999999984</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E807" t="n">
+        <v>98</v>
+      </c>
+      <c r="F807" t="n">
+        <v>109</v>
+      </c>
+      <c r="G807" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I807" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J807" t="n">
+        <v>12.60999999999984</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E808" t="n">
+        <v>107</v>
+      </c>
+      <c r="F808" t="n">
+        <v>119</v>
+      </c>
+      <c r="G808" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I808" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J808" t="n">
+        <v>11.60999999999984</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E809" t="n">
+        <v>114</v>
+      </c>
+      <c r="F809" t="n">
+        <v>106</v>
+      </c>
+      <c r="G809" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I809" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J809" t="n">
+        <v>10.60999999999984</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E810" t="n">
+        <v>117</v>
+      </c>
+      <c r="F810" t="n">
+        <v>123</v>
+      </c>
+      <c r="G810" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I810" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J810" t="n">
+        <v>11.49999999999985</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E811" t="n">
+        <v>106</v>
+      </c>
+      <c r="F811" t="n">
+        <v>114</v>
+      </c>
+      <c r="G811" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I811" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J811" t="n">
+        <v>10.49999999999985</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E812" t="n">
+        <v>116</v>
+      </c>
+      <c r="F812" t="n">
+        <v>104</v>
+      </c>
+      <c r="G812" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I812" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J812" t="n">
+        <v>9.499999999999845</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E813" t="n">
+        <v>104</v>
+      </c>
+      <c r="F813" t="n">
+        <v>127</v>
+      </c>
+      <c r="G813" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I813" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J813" t="n">
+        <v>8.499999999999845</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E814" t="n">
+        <v>106</v>
+      </c>
+      <c r="F814" t="n">
+        <v>117</v>
+      </c>
+      <c r="G814" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I814" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J814" t="n">
+        <v>7.499999999999845</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E815" t="n">
+        <v>120</v>
+      </c>
+      <c r="F815" t="n">
+        <v>133</v>
+      </c>
+      <c r="G815" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I815" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J815" t="n">
+        <v>8.379999999999846</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E816" t="n">
+        <v>109</v>
+      </c>
+      <c r="F816" t="n">
+        <v>131</v>
+      </c>
+      <c r="G816" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I816" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J816" t="n">
+        <v>7.379999999999846</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E817" t="n">
+        <v>127</v>
+      </c>
+      <c r="F817" t="n">
+        <v>111</v>
+      </c>
+      <c r="G817" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I817" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J817" t="n">
+        <v>8.349999999999847</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E818" t="n">
+        <v>106</v>
+      </c>
+      <c r="F818" t="n">
+        <v>114</v>
+      </c>
+      <c r="G818" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I818" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J818" t="n">
+        <v>7.349999999999847</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E819" t="n">
+        <v>122</v>
+      </c>
+      <c r="F819" t="n">
+        <v>128</v>
+      </c>
+      <c r="G819" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I819" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J819" t="n">
+        <v>8.199999999999847</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E820" t="n">
+        <v>133</v>
+      </c>
+      <c r="F820" t="n">
+        <v>129</v>
+      </c>
+      <c r="G820" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I820" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J820" t="n">
+        <v>9.129999999999846</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="E821" t="n">
+        <v>74</v>
+      </c>
+      <c r="F821" t="n">
+        <v>63</v>
+      </c>
+      <c r="G821" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I821" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J821" t="n">
+        <v>8.129999999999846</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>Virtus Bologna</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="E822" t="n">
+        <v>78</v>
+      </c>
+      <c r="F822" t="n">
+        <v>81</v>
+      </c>
+      <c r="G822" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I822" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J822" t="n">
+        <v>7.129999999999846</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E823" t="n">
+        <v>135</v>
+      </c>
+      <c r="F823" t="n">
+        <v>106</v>
+      </c>
+      <c r="G823" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I823" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J823" t="n">
+        <v>8.009999999999847</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E824" t="n">
+        <v>139</v>
+      </c>
+      <c r="F824" t="n">
+        <v>122</v>
+      </c>
+      <c r="G824" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I824" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J824" t="n">
+        <v>8.859999999999847</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E825" t="n">
+        <v>123</v>
+      </c>
+      <c r="F825" t="n">
+        <v>103</v>
+      </c>
+      <c r="G825" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I825" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J825" t="n">
+        <v>7.859999999999847</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E826" t="n">
+        <v>114</v>
+      </c>
+      <c r="F826" t="n">
+        <v>108</v>
+      </c>
+      <c r="G826" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I826" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J826" t="n">
+        <v>8.799999999999846</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E827" t="n">
+        <v>95</v>
+      </c>
+      <c r="F827" t="n">
+        <v>119</v>
+      </c>
+      <c r="G827" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I827" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J827" t="n">
+        <v>7.799999999999846</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E828" t="n">
+        <v>115</v>
+      </c>
+      <c r="F828" t="n">
+        <v>106</v>
+      </c>
+      <c r="G828" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I828" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J828" t="n">
+        <v>8.629999999999846</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E829" t="n">
+        <v>113</v>
+      </c>
+      <c r="F829" t="n">
+        <v>119</v>
+      </c>
+      <c r="G829" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I829" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J829" t="n">
+        <v>7.629999999999846</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="E830" t="n">
+        <v>122</v>
+      </c>
+      <c r="F830" t="n">
+        <v>113</v>
+      </c>
+      <c r="G830" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I830" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J830" t="n">
+        <v>6.629999999999846</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>Robert Morris</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>Wisc. Milwaukee</t>
+        </is>
+      </c>
+      <c r="E831" t="n">
+        <v>71</v>
+      </c>
+      <c r="F831" t="n">
+        <v>60</v>
+      </c>
+      <c r="G831" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I831" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J831" t="n">
+        <v>5.629999999999846</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>St. Thomas (Minn.)</t>
+        </is>
+      </c>
+      <c r="E832" t="n">
+        <v>94</v>
+      </c>
+      <c r="F832" t="n">
+        <v>77</v>
+      </c>
+      <c r="G832" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I832" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J832" t="n">
+        <v>6.539999999999846</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J832"/>
+  <dimension ref="A1:J862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27910,6 +27910,1146 @@
         <v>6.539999999999846</v>
       </c>
     </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E833" t="n">
+        <v>84</v>
+      </c>
+      <c r="F833" t="n">
+        <v>93</v>
+      </c>
+      <c r="G833" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I833" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J833" t="n">
+        <v>5.539999999999846</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E834" t="n">
+        <v>127</v>
+      </c>
+      <c r="F834" t="n">
+        <v>113</v>
+      </c>
+      <c r="G834" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I834" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J834" t="n">
+        <v>6.369999999999846</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E835" t="n">
+        <v>111</v>
+      </c>
+      <c r="F835" t="n">
+        <v>102</v>
+      </c>
+      <c r="G835" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I835" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J835" t="n">
+        <v>5.369999999999846</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E836" t="n">
+        <v>121</v>
+      </c>
+      <c r="F836" t="n">
+        <v>123</v>
+      </c>
+      <c r="G836" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I836" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J836" t="n">
+        <v>6.259999999999846</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E837" t="n">
+        <v>126</v>
+      </c>
+      <c r="F837" t="n">
+        <v>136</v>
+      </c>
+      <c r="G837" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H837" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I837" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J837" t="n">
+        <v>7.159999999999846</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E838" t="n">
+        <v>99</v>
+      </c>
+      <c r="F838" t="n">
+        <v>122</v>
+      </c>
+      <c r="G838" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H838" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I838" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J838" t="n">
+        <v>6.159999999999846</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E839" t="n">
+        <v>105</v>
+      </c>
+      <c r="F839" t="n">
+        <v>103</v>
+      </c>
+      <c r="G839" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H839" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I839" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J839" t="n">
+        <v>5.159999999999846</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E840" t="n">
+        <v>87</v>
+      </c>
+      <c r="F840" t="n">
+        <v>96</v>
+      </c>
+      <c r="G840" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I840" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J840" t="n">
+        <v>4.159999999999846</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E841" t="n">
+        <v>112</v>
+      </c>
+      <c r="F841" t="n">
+        <v>95</v>
+      </c>
+      <c r="G841" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I841" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J841" t="n">
+        <v>3.159999999999846</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E842" t="n">
+        <v>112</v>
+      </c>
+      <c r="F842" t="n">
+        <v>104</v>
+      </c>
+      <c r="G842" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I842" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J842" t="n">
+        <v>2.159999999999846</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E843" t="n">
+        <v>107</v>
+      </c>
+      <c r="F843" t="n">
+        <v>129</v>
+      </c>
+      <c r="G843" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I843" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J843" t="n">
+        <v>1.159999999999846</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>Astana</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>Saratov</t>
+        </is>
+      </c>
+      <c r="E844" t="n">
+        <v>65</v>
+      </c>
+      <c r="F844" t="n">
+        <v>82</v>
+      </c>
+      <c r="G844" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H844" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I844" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J844" t="n">
+        <v>0.1599999999998465</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E845" t="n">
+        <v>100</v>
+      </c>
+      <c r="F845" t="n">
+        <v>121</v>
+      </c>
+      <c r="G845" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I845" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J845" t="n">
+        <v>-0.8400000000001535</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E846" t="n">
+        <v>110</v>
+      </c>
+      <c r="F846" t="n">
+        <v>118</v>
+      </c>
+      <c r="G846" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I846" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J846" t="n">
+        <v>-1.840000000000154</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E847" t="n">
+        <v>97</v>
+      </c>
+      <c r="F847" t="n">
+        <v>123</v>
+      </c>
+      <c r="G847" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I847" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J847" t="n">
+        <v>-2.840000000000154</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E848" t="n">
+        <v>130</v>
+      </c>
+      <c r="F848" t="n">
+        <v>125</v>
+      </c>
+      <c r="G848" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I848" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J848" t="n">
+        <v>-1.960000000000154</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E849" t="n">
+        <v>109</v>
+      </c>
+      <c r="F849" t="n">
+        <v>121</v>
+      </c>
+      <c r="G849" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I849" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J849" t="n">
+        <v>-1.110000000000154</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E850" t="n">
+        <v>125</v>
+      </c>
+      <c r="F850" t="n">
+        <v>111</v>
+      </c>
+      <c r="G850" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H850" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I850" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J850" t="n">
+        <v>-2.110000000000154</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E851" t="n">
+        <v>122</v>
+      </c>
+      <c r="F851" t="n">
+        <v>99</v>
+      </c>
+      <c r="G851" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I851" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J851" t="n">
+        <v>-3.110000000000154</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E852" t="n">
+        <v>118</v>
+      </c>
+      <c r="F852" t="n">
+        <v>100</v>
+      </c>
+      <c r="G852" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H852" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I852" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J852" t="n">
+        <v>-2.260000000000153</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E853" t="n">
+        <v>104</v>
+      </c>
+      <c r="F853" t="n">
+        <v>109</v>
+      </c>
+      <c r="G853" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I853" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J853" t="n">
+        <v>-3.260000000000153</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E854" t="n">
+        <v>136</v>
+      </c>
+      <c r="F854" t="n">
+        <v>86</v>
+      </c>
+      <c r="G854" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I854" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J854" t="n">
+        <v>-4.260000000000153</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E855" t="n">
+        <v>108</v>
+      </c>
+      <c r="F855" t="n">
+        <v>105</v>
+      </c>
+      <c r="G855" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I855" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J855" t="n">
+        <v>-5.260000000000153</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="E856" t="n">
+        <v>121</v>
+      </c>
+      <c r="F856" t="n">
+        <v>113</v>
+      </c>
+      <c r="G856" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I856" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J856" t="n">
+        <v>-4.440000000000153</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E857" t="n">
+        <v>133</v>
+      </c>
+      <c r="F857" t="n">
+        <v>126</v>
+      </c>
+      <c r="G857" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H857" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I857" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J857" t="n">
+        <v>-3.620000000000153</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E858" t="n">
+        <v>116</v>
+      </c>
+      <c r="F858" t="n">
+        <v>93</v>
+      </c>
+      <c r="G858" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H858" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I858" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J858" t="n">
+        <v>-4.620000000000154</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="E859" t="n">
+        <v>80</v>
+      </c>
+      <c r="F859" t="n">
+        <v>57</v>
+      </c>
+      <c r="G859" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I859" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J859" t="n">
+        <v>-5.620000000000154</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>Pistoia</t>
+        </is>
+      </c>
+      <c r="E860" t="n">
+        <v>86</v>
+      </c>
+      <c r="F860" t="n">
+        <v>71</v>
+      </c>
+      <c r="G860" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I860" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J860" t="n">
+        <v>-6.620000000000154</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E861" t="n">
+        <v>91</v>
+      </c>
+      <c r="F861" t="n">
+        <v>128</v>
+      </c>
+      <c r="G861" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I861" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J861" t="n">
+        <v>-5.770000000000154</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>Dubrava</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>Cibona</t>
+        </is>
+      </c>
+      <c r="E862" t="n">
+        <v>67</v>
+      </c>
+      <c r="F862" t="n">
+        <v>80</v>
+      </c>
+      <c r="G862" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I862" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J862" t="n">
+        <v>-6.770000000000154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J862"/>
+  <dimension ref="A1:J929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29050,6 +29050,2552 @@
         <v>-6.770000000000154</v>
       </c>
     </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem F</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva F</t>
+        </is>
+      </c>
+      <c r="E863" t="n">
+        <v>93</v>
+      </c>
+      <c r="F863" t="n">
+        <v>76</v>
+      </c>
+      <c r="G863" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H863" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I863" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J863" t="n">
+        <v>-5.890000000000154</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>Zhejiang Golden Bulls F</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>Shanghai F</t>
+        </is>
+      </c>
+      <c r="E864" t="n">
+        <v>86</v>
+      </c>
+      <c r="F864" t="n">
+        <v>81</v>
+      </c>
+      <c r="G864" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H864" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I864" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J864" t="n">
+        <v>-5.070000000000154</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>Georgia State</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>Coastal Carolina</t>
+        </is>
+      </c>
+      <c r="E865" t="n">
+        <v>72</v>
+      </c>
+      <c r="F865" t="n">
+        <v>71</v>
+      </c>
+      <c r="G865" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H865" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I865" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J865" t="n">
+        <v>-6.070000000000154</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>Mercer</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>Citadel</t>
+        </is>
+      </c>
+      <c r="E866" t="n">
+        <v>87</v>
+      </c>
+      <c r="F866" t="n">
+        <v>78</v>
+      </c>
+      <c r="G866" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I866" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J866" t="n">
+        <v>-5.270000000000154</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>Drake</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>Belmont</t>
+        </is>
+      </c>
+      <c r="E867" t="n">
+        <v>84</v>
+      </c>
+      <c r="F867" t="n">
+        <v>69</v>
+      </c>
+      <c r="G867" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I867" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J867" t="n">
+        <v>-6.270000000000154</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>Southern Illinois</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>Murray State</t>
+        </is>
+      </c>
+      <c r="E868" t="n">
+        <v>72</v>
+      </c>
+      <c r="F868" t="n">
+        <v>68</v>
+      </c>
+      <c r="G868" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I868" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J868" t="n">
+        <v>-5.360000000000154</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>Partizan F</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>Sloga Pozega F</t>
+        </is>
+      </c>
+      <c r="E869" t="n">
+        <v>83</v>
+      </c>
+      <c r="F869" t="n">
+        <v>66</v>
+      </c>
+      <c r="G869" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I869" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J869" t="n">
+        <v>-4.520000000000154</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E870" t="n">
+        <v>96</v>
+      </c>
+      <c r="F870" t="n">
+        <v>110</v>
+      </c>
+      <c r="G870" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I870" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J870" t="n">
+        <v>-5.520000000000154</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E871" t="n">
+        <v>121</v>
+      </c>
+      <c r="F871" t="n">
+        <v>93</v>
+      </c>
+      <c r="G871" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I871" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J871" t="n">
+        <v>-6.520000000000154</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E872" t="n">
+        <v>123</v>
+      </c>
+      <c r="F872" t="n">
+        <v>113</v>
+      </c>
+      <c r="G872" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I872" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J872" t="n">
+        <v>-7.520000000000154</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E873" t="n">
+        <v>129</v>
+      </c>
+      <c r="F873" t="n">
+        <v>107</v>
+      </c>
+      <c r="G873" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I873" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J873" t="n">
+        <v>-8.520000000000154</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>New Mexico</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>Colorado State</t>
+        </is>
+      </c>
+      <c r="E874" t="n">
+        <v>68</v>
+      </c>
+      <c r="F874" t="n">
+        <v>66</v>
+      </c>
+      <c r="G874" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I874" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J874" t="n">
+        <v>-9.520000000000154</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Islândia</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>Hungria</t>
+        </is>
+      </c>
+      <c r="E875" t="n">
+        <v>70</v>
+      </c>
+      <c r="F875" t="n">
+        <v>65</v>
+      </c>
+      <c r="G875" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I875" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J875" t="n">
+        <v>-10.52000000000015</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Florida Gulf Coast</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>Kennesaw State</t>
+        </is>
+      </c>
+      <c r="E876" t="n">
+        <v>67</v>
+      </c>
+      <c r="F876" t="n">
+        <v>74</v>
+      </c>
+      <c r="G876" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I876" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J876" t="n">
+        <v>-11.52000000000015</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Northern Kentucky</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>Cleveland State</t>
+        </is>
+      </c>
+      <c r="E877" t="n">
+        <v>75</v>
+      </c>
+      <c r="F877" t="n">
+        <v>73</v>
+      </c>
+      <c r="G877" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I877" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J877" t="n">
+        <v>-10.72000000000015</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>Abilene Christian</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>California Baptist</t>
+        </is>
+      </c>
+      <c r="E878" t="n">
+        <v>71</v>
+      </c>
+      <c r="F878" t="n">
+        <v>65</v>
+      </c>
+      <c r="G878" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I878" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J878" t="n">
+        <v>-9.920000000000153</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>Georgia Southern</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>Texas State</t>
+        </is>
+      </c>
+      <c r="E879" t="n">
+        <v>84</v>
+      </c>
+      <c r="F879" t="n">
+        <v>76</v>
+      </c>
+      <c r="G879" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I879" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J879" t="n">
+        <v>-9.120000000000152</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>Nebraska O.</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>Oral Roberts</t>
+        </is>
+      </c>
+      <c r="E880" t="n">
+        <v>71</v>
+      </c>
+      <c r="F880" t="n">
+        <v>70</v>
+      </c>
+      <c r="G880" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I880" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J880" t="n">
+        <v>-10.12000000000015</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B881" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>Texas Arlington</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>Southern Utah</t>
+        </is>
+      </c>
+      <c r="E881" t="n">
+        <v>90</v>
+      </c>
+      <c r="F881" t="n">
+        <v>85</v>
+      </c>
+      <c r="G881" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I881" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J881" t="n">
+        <v>-9.320000000000151</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B882" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>Arkansas State</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="E882" t="n">
+        <v>79</v>
+      </c>
+      <c r="F882" t="n">
+        <v>71</v>
+      </c>
+      <c r="G882" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I882" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J882" t="n">
+        <v>-10.32000000000015</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B883" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>Montana State</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>Portland State</t>
+        </is>
+      </c>
+      <c r="E883" t="n">
+        <v>72</v>
+      </c>
+      <c r="F883" t="n">
+        <v>67</v>
+      </c>
+      <c r="G883" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I883" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J883" t="n">
+        <v>-11.32000000000015</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B884" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E884" t="n">
+        <v>127</v>
+      </c>
+      <c r="F884" t="n">
+        <v>122</v>
+      </c>
+      <c r="G884" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I884" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J884" t="n">
+        <v>-10.47000000000015</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B885" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E885" t="n">
+        <v>95</v>
+      </c>
+      <c r="F885" t="n">
+        <v>106</v>
+      </c>
+      <c r="G885" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I885" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J885" t="n">
+        <v>-11.47000000000015</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B886" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>República Dominicana</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>México</t>
+        </is>
+      </c>
+      <c r="E886" t="n">
+        <v>84</v>
+      </c>
+      <c r="F886" t="n">
+        <v>70</v>
+      </c>
+      <c r="G886" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I886" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J886" t="n">
+        <v>-12.47000000000015</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B887" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>Uruguai</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>Panamá</t>
+        </is>
+      </c>
+      <c r="E887" t="n">
+        <v>99</v>
+      </c>
+      <c r="F887" t="n">
+        <v>78</v>
+      </c>
+      <c r="G887" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H887" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I887" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J887" t="n">
+        <v>-11.67000000000015</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B888" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>CS Fullerton</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>Cal Poly</t>
+        </is>
+      </c>
+      <c r="E888" t="n">
+        <v>68</v>
+      </c>
+      <c r="F888" t="n">
+        <v>50</v>
+      </c>
+      <c r="G888" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H888" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I888" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J888" t="n">
+        <v>-12.67000000000015</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B889" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>Washington State</t>
+        </is>
+      </c>
+      <c r="E889" t="n">
+        <v>74</v>
+      </c>
+      <c r="F889" t="n">
+        <v>77</v>
+      </c>
+      <c r="G889" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H889" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I889" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J889" t="n">
+        <v>-11.76000000000015</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B890" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>Loyola Marymount</t>
+        </is>
+      </c>
+      <c r="E890" t="n">
+        <v>65</v>
+      </c>
+      <c r="F890" t="n">
+        <v>55</v>
+      </c>
+      <c r="G890" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H890" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I890" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J890" t="n">
+        <v>-12.76000000000015</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>Stanford</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="E891" t="n">
+        <v>65</v>
+      </c>
+      <c r="F891" t="n">
+        <v>78</v>
+      </c>
+      <c r="G891" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I891" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J891" t="n">
+        <v>-13.76000000000015</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>UC Irvine</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>UC Santa Barbara</t>
+        </is>
+      </c>
+      <c r="E892" t="n">
+        <v>81</v>
+      </c>
+      <c r="F892" t="n">
+        <v>69</v>
+      </c>
+      <c r="G892" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I892" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J892" t="n">
+        <v>-12.96000000000015</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>Canisius</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>Niagara</t>
+        </is>
+      </c>
+      <c r="E893" t="n">
+        <v>69</v>
+      </c>
+      <c r="F893" t="n">
+        <v>59</v>
+      </c>
+      <c r="G893" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I893" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J893" t="n">
+        <v>-13.96000000000015</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>Cornell</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>Yale</t>
+        </is>
+      </c>
+      <c r="E894" t="n">
+        <v>65</v>
+      </c>
+      <c r="F894" t="n">
+        <v>62</v>
+      </c>
+      <c r="G894" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H894" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I894" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J894" t="n">
+        <v>-14.96000000000015</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>Wisc. Green Bay</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>IPFW</t>
+        </is>
+      </c>
+      <c r="E895" t="n">
+        <v>59</v>
+      </c>
+      <c r="F895" t="n">
+        <v>85</v>
+      </c>
+      <c r="G895" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H895" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I895" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J895" t="n">
+        <v>-14.13000000000015</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>Shiga</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>Koshigaya Alphas</t>
+        </is>
+      </c>
+      <c r="E896" t="n">
+        <v>84</v>
+      </c>
+      <c r="F896" t="n">
+        <v>64</v>
+      </c>
+      <c r="G896" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H896" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I896" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J896" t="n">
+        <v>-15.13000000000015</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E897" t="n">
+        <v>97</v>
+      </c>
+      <c r="F897" t="n">
+        <v>84</v>
+      </c>
+      <c r="G897" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H897" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I897" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J897" t="n">
+        <v>-16.13000000000015</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E898" t="n">
+        <v>107</v>
+      </c>
+      <c r="F898" t="n">
+        <v>112</v>
+      </c>
+      <c r="G898" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I898" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J898" t="n">
+        <v>-17.13000000000015</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>UCF Knights</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>Texas Tech</t>
+        </is>
+      </c>
+      <c r="E899" t="n">
+        <v>75</v>
+      </c>
+      <c r="F899" t="n">
+        <v>61</v>
+      </c>
+      <c r="G899" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I899" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J899" t="n">
+        <v>-18.13000000000015</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>Vilkaviskis</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>Jurbarkas</t>
+        </is>
+      </c>
+      <c r="E900" t="n">
+        <v>79</v>
+      </c>
+      <c r="F900" t="n">
+        <v>80</v>
+      </c>
+      <c r="G900" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I900" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J900" t="n">
+        <v>-19.13000000000015</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>Telsiai</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>Suduva-Mantinga</t>
+        </is>
+      </c>
+      <c r="E901" t="n">
+        <v>70</v>
+      </c>
+      <c r="F901" t="n">
+        <v>62</v>
+      </c>
+      <c r="G901" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I901" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J901" t="n">
+        <v>-20.13000000000015</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>Taipei Taishin Mars</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>Tainan TSG GhostHawks</t>
+        </is>
+      </c>
+      <c r="E902" t="n">
+        <v>96</v>
+      </c>
+      <c r="F902" t="n">
+        <v>89</v>
+      </c>
+      <c r="G902" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I902" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J902" t="n">
+        <v>-21.13000000000015</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>Uskudar</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>High Touch</t>
+        </is>
+      </c>
+      <c r="E903" t="n">
+        <v>56</v>
+      </c>
+      <c r="F903" t="n">
+        <v>73</v>
+      </c>
+      <c r="G903" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I903" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J903" t="n">
+        <v>-22.13000000000015</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>Northeastern</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>Hampton</t>
+        </is>
+      </c>
+      <c r="E904" t="n">
+        <v>70</v>
+      </c>
+      <c r="F904" t="n">
+        <v>62</v>
+      </c>
+      <c r="G904" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I904" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J904" t="n">
+        <v>-23.13000000000015</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B905" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Ball State</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>Eastern Michigan</t>
+        </is>
+      </c>
+      <c r="E905" t="n">
+        <v>56</v>
+      </c>
+      <c r="F905" t="n">
+        <v>58</v>
+      </c>
+      <c r="G905" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I905" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J905" t="n">
+        <v>-24.13000000000015</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B906" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Le Moyne</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>Fairleigh Dickinson</t>
+        </is>
+      </c>
+      <c r="E906" t="n">
+        <v>58</v>
+      </c>
+      <c r="F906" t="n">
+        <v>68</v>
+      </c>
+      <c r="G906" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I906" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J906" t="n">
+        <v>-25.13000000000015</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B907" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>NC Asheville</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>Gardner Webb</t>
+        </is>
+      </c>
+      <c r="E907" t="n">
+        <v>77</v>
+      </c>
+      <c r="F907" t="n">
+        <v>78</v>
+      </c>
+      <c r="G907" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I907" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J907" t="n">
+        <v>-24.33000000000015</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>North Dakota St.</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>North Dakota</t>
+        </is>
+      </c>
+      <c r="E908" t="n">
+        <v>73</v>
+      </c>
+      <c r="F908" t="n">
+        <v>68</v>
+      </c>
+      <c r="G908" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I908" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J908" t="n">
+        <v>-25.33000000000015</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>Sacred Heart</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>Central Conn. St.</t>
+        </is>
+      </c>
+      <c r="E909" t="n">
+        <v>67</v>
+      </c>
+      <c r="F909" t="n">
+        <v>68</v>
+      </c>
+      <c r="G909" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I909" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J909" t="n">
+        <v>-26.33000000000015</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Stetson</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>Kennesaw State</t>
+        </is>
+      </c>
+      <c r="E910" t="n">
+        <v>84</v>
+      </c>
+      <c r="F910" t="n">
+        <v>72</v>
+      </c>
+      <c r="G910" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I910" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J910" t="n">
+        <v>-27.33000000000015</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>Stonehill</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>St. Francis (PA)</t>
+        </is>
+      </c>
+      <c r="E911" t="n">
+        <v>72</v>
+      </c>
+      <c r="F911" t="n">
+        <v>63</v>
+      </c>
+      <c r="G911" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I911" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J911" t="n">
+        <v>-26.53000000000015</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Samford</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>East Tennessee St</t>
+        </is>
+      </c>
+      <c r="E912" t="n">
+        <v>87</v>
+      </c>
+      <c r="F912" t="n">
+        <v>71</v>
+      </c>
+      <c r="G912" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I912" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J912" t="n">
+        <v>-25.73000000000015</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>Alcorn State</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>Jackson State</t>
+        </is>
+      </c>
+      <c r="E913" t="n">
+        <v>87</v>
+      </c>
+      <c r="F913" t="n">
+        <v>73</v>
+      </c>
+      <c r="G913" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I913" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J913" t="n">
+        <v>-24.93000000000015</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Northern Arizona</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>Idaho</t>
+        </is>
+      </c>
+      <c r="E914" t="n">
+        <v>76</v>
+      </c>
+      <c r="F914" t="n">
+        <v>86</v>
+      </c>
+      <c r="G914" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I914" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J914" t="n">
+        <v>-24.02000000000015</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>South Carolina St</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>Delaware State</t>
+        </is>
+      </c>
+      <c r="E915" t="n">
+        <v>69</v>
+      </c>
+      <c r="F915" t="n">
+        <v>62</v>
+      </c>
+      <c r="G915" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I915" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J915" t="n">
+        <v>-25.02000000000015</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>Tennessee Tech</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>Eastern Illinois</t>
+        </is>
+      </c>
+      <c r="E916" t="n">
+        <v>75</v>
+      </c>
+      <c r="F916" t="n">
+        <v>67</v>
+      </c>
+      <c r="G916" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I916" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J916" t="n">
+        <v>-24.11000000000015</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>UC San Diego</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>UC Irvine</t>
+        </is>
+      </c>
+      <c r="E917" t="n">
+        <v>92</v>
+      </c>
+      <c r="F917" t="n">
+        <v>88</v>
+      </c>
+      <c r="G917" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I917" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J917" t="n">
+        <v>-23.20000000000015</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>Loyola (Ill).</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>George Mason</t>
+        </is>
+      </c>
+      <c r="E918" t="n">
+        <v>80</v>
+      </c>
+      <c r="F918" t="n">
+        <v>59</v>
+      </c>
+      <c r="G918" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I918" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J918" t="n">
+        <v>-22.40000000000015</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>Tennessee State</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>Siu Edwardsville</t>
+        </is>
+      </c>
+      <c r="E919" t="n">
+        <v>76</v>
+      </c>
+      <c r="F919" t="n">
+        <v>71</v>
+      </c>
+      <c r="G919" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I919" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J919" t="n">
+        <v>-21.49000000000015</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>Cornell</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="E920" t="n">
+        <v>74</v>
+      </c>
+      <c r="F920" t="n">
+        <v>78</v>
+      </c>
+      <c r="G920" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I920" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J920" t="n">
+        <v>-22.49000000000015</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>Arkansas-Pine Bluff</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>Prairie View A&amp;M</t>
+        </is>
+      </c>
+      <c r="E921" t="n">
+        <v>72</v>
+      </c>
+      <c r="F921" t="n">
+        <v>59</v>
+      </c>
+      <c r="G921" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I921" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J921" t="n">
+        <v>-23.49000000000015</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>Harvard</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>Pennsylvania</t>
+        </is>
+      </c>
+      <c r="E922" t="n">
+        <v>74</v>
+      </c>
+      <c r="F922" t="n">
+        <v>70</v>
+      </c>
+      <c r="G922" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I922" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J922" t="n">
+        <v>-22.69000000000015</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Lamar</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M-CC</t>
+        </is>
+      </c>
+      <c r="E923" t="n">
+        <v>61</v>
+      </c>
+      <c r="F923" t="n">
+        <v>75</v>
+      </c>
+      <c r="G923" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I923" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J923" t="n">
+        <v>-23.69000000000015</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Montana State</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>Sacramento State</t>
+        </is>
+      </c>
+      <c r="E924" t="n">
+        <v>63</v>
+      </c>
+      <c r="F924" t="n">
+        <v>66</v>
+      </c>
+      <c r="G924" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I924" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J924" t="n">
+        <v>-24.69000000000015</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Northern Colorado</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>East. Washington</t>
+        </is>
+      </c>
+      <c r="E925" t="n">
+        <v>76</v>
+      </c>
+      <c r="F925" t="n">
+        <v>85</v>
+      </c>
+      <c r="G925" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I925" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J925" t="n">
+        <v>-23.89000000000015</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>UMKC</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>Nebraska O.</t>
+        </is>
+      </c>
+      <c r="E926" t="n">
+        <v>63</v>
+      </c>
+      <c r="F926" t="n">
+        <v>58</v>
+      </c>
+      <c r="G926" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I926" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J926" t="n">
+        <v>-24.89000000000015</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>CS Fullerton</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>CS Northridge</t>
+        </is>
+      </c>
+      <c r="E927" t="n">
+        <v>60</v>
+      </c>
+      <c r="F927" t="n">
+        <v>65</v>
+      </c>
+      <c r="G927" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I927" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J927" t="n">
+        <v>-25.89000000000015</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>Portland State</t>
+        </is>
+      </c>
+      <c r="E928" t="n">
+        <v>82</v>
+      </c>
+      <c r="F928" t="n">
+        <v>73</v>
+      </c>
+      <c r="G928" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H928" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I928" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J928" t="n">
+        <v>-25.09000000000015</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>UTEP</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>Sam Houston St.</t>
+        </is>
+      </c>
+      <c r="E929" t="n">
+        <v>54</v>
+      </c>
+      <c r="F929" t="n">
+        <v>65</v>
+      </c>
+      <c r="G929" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H929" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I929" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J929" t="n">
+        <v>-26.09000000000015</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J929"/>
+  <dimension ref="A1:J1034"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31596,6 +31596,3996 @@
         <v>-26.09000000000015</v>
       </c>
     </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B930" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E930" t="n">
+        <v>123</v>
+      </c>
+      <c r="F930" t="n">
+        <v>113</v>
+      </c>
+      <c r="G930" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H930" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I930" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J930" t="n">
+        <v>-27.09000000000015</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B931" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E931" t="n">
+        <v>133</v>
+      </c>
+      <c r="F931" t="n">
+        <v>111</v>
+      </c>
+      <c r="G931" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H931" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I931" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J931" t="n">
+        <v>-28.09000000000015</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B932" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E932" t="n">
+        <v>109</v>
+      </c>
+      <c r="F932" t="n">
+        <v>92</v>
+      </c>
+      <c r="G932" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I932" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J932" t="n">
+        <v>-29.09000000000015</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B933" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>Bahamas</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>Porto Rico</t>
+        </is>
+      </c>
+      <c r="E933" t="n">
+        <v>67</v>
+      </c>
+      <c r="F933" t="n">
+        <v>86</v>
+      </c>
+      <c r="G933" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I933" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J933" t="n">
+        <v>-30.09000000000015</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="B934" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>Dornbirn Lions</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>Salzburg</t>
+        </is>
+      </c>
+      <c r="E934" t="n">
+        <v>94</v>
+      </c>
+      <c r="F934" t="n">
+        <v>83</v>
+      </c>
+      <c r="G934" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I934" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J934" t="n">
+        <v>-29.24000000000014</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B935" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>UCLA</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
+      </c>
+      <c r="E935" t="n">
+        <v>56</v>
+      </c>
+      <c r="F935" t="n">
+        <v>62</v>
+      </c>
+      <c r="G935" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I935" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J935" t="n">
+        <v>-30.24000000000014</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="B936" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>Long Beach State</t>
+        </is>
+      </c>
+      <c r="E936" t="n">
+        <v>73</v>
+      </c>
+      <c r="F936" t="n">
+        <v>65</v>
+      </c>
+      <c r="G936" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I936" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J936" t="n">
+        <v>-31.24000000000014</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="B937" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>CA Queluz</t>
+        </is>
+      </c>
+      <c r="E937" t="n">
+        <v>92</v>
+      </c>
+      <c r="F937" t="n">
+        <v>75</v>
+      </c>
+      <c r="G937" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I937" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J937" t="n">
+        <v>-30.44000000000014</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B938" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>Galitos F</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>Natacao F</t>
+        </is>
+      </c>
+      <c r="E938" t="n">
+        <v>65</v>
+      </c>
+      <c r="F938" t="n">
+        <v>71</v>
+      </c>
+      <c r="G938" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I938" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J938" t="n">
+        <v>-29.59000000000014</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="B939" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>Bethune Cookman</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>Alabama State</t>
+        </is>
+      </c>
+      <c r="E939" t="n">
+        <v>90</v>
+      </c>
+      <c r="F939" t="n">
+        <v>84</v>
+      </c>
+      <c r="G939" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I939" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J939" t="n">
+        <v>-28.68000000000014</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="B940" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E940" t="n">
+        <v>110</v>
+      </c>
+      <c r="F940" t="n">
+        <v>121</v>
+      </c>
+      <c r="G940" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H940" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I940" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J940" t="n">
+        <v>-27.83000000000014</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B941" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E941" t="n">
+        <v>121</v>
+      </c>
+      <c r="F941" t="n">
+        <v>119</v>
+      </c>
+      <c r="G941" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H941" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I941" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J941" t="n">
+        <v>-27.03000000000014</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="B942" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="E942" t="n">
+        <v>124</v>
+      </c>
+      <c r="F942" t="n">
+        <v>97</v>
+      </c>
+      <c r="G942" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H942" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I942" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J942" t="n">
+        <v>-28.03000000000014</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="B943" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>Bowling Green</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>Miami (Ohio)</t>
+        </is>
+      </c>
+      <c r="E943" t="n">
+        <v>58</v>
+      </c>
+      <c r="F943" t="n">
+        <v>66</v>
+      </c>
+      <c r="G943" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H943" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I943" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J943" t="n">
+        <v>-29.03000000000014</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="B944" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>Central Michigan</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>Ball State</t>
+        </is>
+      </c>
+      <c r="E944" t="n">
+        <v>71</v>
+      </c>
+      <c r="F944" t="n">
+        <v>79</v>
+      </c>
+      <c r="G944" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H944" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I944" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J944" t="n">
+        <v>-28.12000000000014</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="B945" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="E945" t="n">
+        <v>67</v>
+      </c>
+      <c r="F945" t="n">
+        <v>66</v>
+      </c>
+      <c r="G945" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H945" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I945" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J945" t="n">
+        <v>-29.12000000000014</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>944</v>
+      </c>
+      <c r="B946" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>Mississippi St.</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
+      </c>
+      <c r="E946" t="n">
+        <v>89</v>
+      </c>
+      <c r="F946" t="n">
+        <v>91</v>
+      </c>
+      <c r="G946" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H946" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I946" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J946" t="n">
+        <v>-28.32000000000014</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>945</v>
+      </c>
+      <c r="B947" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>Akron</t>
+        </is>
+      </c>
+      <c r="E947" t="n">
+        <v>74</v>
+      </c>
+      <c r="F947" t="n">
+        <v>67</v>
+      </c>
+      <c r="G947" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H947" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I947" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J947" t="n">
+        <v>-29.32000000000014</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="B948" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Syracuse</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>Virginia Tech</t>
+        </is>
+      </c>
+      <c r="E948" t="n">
+        <v>84</v>
+      </c>
+      <c r="F948" t="n">
+        <v>71</v>
+      </c>
+      <c r="G948" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H948" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I948" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J948" t="n">
+        <v>-28.52000000000014</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="B949" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>Eastern Illinois</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>Siu Edwardsville</t>
+        </is>
+      </c>
+      <c r="E949" t="n">
+        <v>84</v>
+      </c>
+      <c r="F949" t="n">
+        <v>79</v>
+      </c>
+      <c r="G949" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H949" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I949" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J949" t="n">
+        <v>-27.61000000000014</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>948</v>
+      </c>
+      <c r="B950" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Florida State</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>N.C. State</t>
+        </is>
+      </c>
+      <c r="E950" t="n">
+        <v>90</v>
+      </c>
+      <c r="F950" t="n">
+        <v>83</v>
+      </c>
+      <c r="G950" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H950" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I950" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J950" t="n">
+        <v>-26.70000000000014</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="n">
+        <v>949</v>
+      </c>
+      <c r="B951" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>Colorado State</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>Nevada</t>
+        </is>
+      </c>
+      <c r="E951" t="n">
+        <v>74</v>
+      </c>
+      <c r="F951" t="n">
+        <v>77</v>
+      </c>
+      <c r="G951" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H951" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I951" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J951" t="n">
+        <v>-25.90000000000014</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="B952" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Poznań</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>Starogard Gdanski</t>
+        </is>
+      </c>
+      <c r="E952" t="n">
+        <v>85</v>
+      </c>
+      <c r="F952" t="n">
+        <v>76</v>
+      </c>
+      <c r="G952" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H952" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I952" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J952" t="n">
+        <v>-25.05000000000014</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="B953" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>Sloga</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>Cacak 94</t>
+        </is>
+      </c>
+      <c r="E953" t="n">
+        <v>72</v>
+      </c>
+      <c r="F953" t="n">
+        <v>63</v>
+      </c>
+      <c r="G953" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H953" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I953" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J953" t="n">
+        <v>-26.05000000000014</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="B954" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>Citadel</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>East Tennessee St</t>
+        </is>
+      </c>
+      <c r="E954" t="n">
+        <v>63</v>
+      </c>
+      <c r="F954" t="n">
+        <v>81</v>
+      </c>
+      <c r="G954" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H954" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I954" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J954" t="n">
+        <v>-25.14000000000014</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="B955" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>Cleveland State</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>Wisc. Green Bay</t>
+        </is>
+      </c>
+      <c r="E955" t="n">
+        <v>61</v>
+      </c>
+      <c r="F955" t="n">
+        <v>69</v>
+      </c>
+      <c r="G955" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H955" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I955" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J955" t="n">
+        <v>-26.14000000000014</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="B956" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>Georgia Southern</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="E956" t="n">
+        <v>87</v>
+      </c>
+      <c r="F956" t="n">
+        <v>73</v>
+      </c>
+      <c r="G956" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I956" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J956" t="n">
+        <v>-25.23000000000014</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n">
+        <v>955</v>
+      </c>
+      <c r="B957" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>Stetson</t>
+        </is>
+      </c>
+      <c r="E957" t="n">
+        <v>73</v>
+      </c>
+      <c r="F957" t="n">
+        <v>86</v>
+      </c>
+      <c r="G957" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I957" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J957" t="n">
+        <v>-24.32000000000014</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="B958" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>Lafayette</t>
+        </is>
+      </c>
+      <c r="E958" t="n">
+        <v>62</v>
+      </c>
+      <c r="F958" t="n">
+        <v>58</v>
+      </c>
+      <c r="G958" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I958" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J958" t="n">
+        <v>-25.32000000000014</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="B959" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>North Florida</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>Florida Gulf Coast</t>
+        </is>
+      </c>
+      <c r="E959" t="n">
+        <v>60</v>
+      </c>
+      <c r="F959" t="n">
+        <v>79</v>
+      </c>
+      <c r="G959" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I959" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J959" t="n">
+        <v>-26.32000000000014</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="B960" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>USC Upstate</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>Presbyterian</t>
+        </is>
+      </c>
+      <c r="E960" t="n">
+        <v>74</v>
+      </c>
+      <c r="F960" t="n">
+        <v>72</v>
+      </c>
+      <c r="G960" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I960" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J960" t="n">
+        <v>-25.41000000000014</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="B961" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>Western Carolina</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>Furman</t>
+        </is>
+      </c>
+      <c r="E961" t="n">
+        <v>85</v>
+      </c>
+      <c r="F961" t="n">
+        <v>77</v>
+      </c>
+      <c r="G961" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I961" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J961" t="n">
+        <v>-24.50000000000014</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="B962" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>La Lafayette</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="E962" t="n">
+        <v>73</v>
+      </c>
+      <c r="F962" t="n">
+        <v>87</v>
+      </c>
+      <c r="G962" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I962" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J962" t="n">
+        <v>-23.59000000000013</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="B963" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>Temple</t>
+        </is>
+      </c>
+      <c r="E963" t="n">
+        <v>43</v>
+      </c>
+      <c r="F963" t="n">
+        <v>65</v>
+      </c>
+      <c r="G963" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I963" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J963" t="n">
+        <v>-24.59000000000013</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="B964" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>South Alabama</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>Southern Miss</t>
+        </is>
+      </c>
+      <c r="E964" t="n">
+        <v>73</v>
+      </c>
+      <c r="F964" t="n">
+        <v>70</v>
+      </c>
+      <c r="G964" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I964" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J964" t="n">
+        <v>-25.59000000000013</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="B965" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E965" t="n">
+        <v>112</v>
+      </c>
+      <c r="F965" t="n">
+        <v>116</v>
+      </c>
+      <c r="G965" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H965" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I965" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J965" t="n">
+        <v>-26.59000000000013</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B966" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="E966" t="n">
+        <v>86</v>
+      </c>
+      <c r="F966" t="n">
+        <v>97</v>
+      </c>
+      <c r="G966" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I966" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J966" t="n">
+        <v>-25.68000000000013</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="B967" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>Peja</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>Sigal Prishtina</t>
+        </is>
+      </c>
+      <c r="E967" t="n">
+        <v>87</v>
+      </c>
+      <c r="F967" t="n">
+        <v>84</v>
+      </c>
+      <c r="G967" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I967" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J967" t="n">
+        <v>-24.87000000000014</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="B968" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>Drexel</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>Stony Brook</t>
+        </is>
+      </c>
+      <c r="E968" t="n">
+        <v>90</v>
+      </c>
+      <c r="F968" t="n">
+        <v>86</v>
+      </c>
+      <c r="G968" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I968" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J968" t="n">
+        <v>-23.96000000000014</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="B969" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>Le Moyne</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>Wagner</t>
+        </is>
+      </c>
+      <c r="E969" t="n">
+        <v>70</v>
+      </c>
+      <c r="F969" t="n">
+        <v>56</v>
+      </c>
+      <c r="G969" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I969" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J969" t="n">
+        <v>-24.96000000000014</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>968</v>
+      </c>
+      <c r="B970" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>North Dakota</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>South Dakota St.</t>
+        </is>
+      </c>
+      <c r="E970" t="n">
+        <v>62</v>
+      </c>
+      <c r="F970" t="n">
+        <v>72</v>
+      </c>
+      <c r="G970" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I970" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J970" t="n">
+        <v>-25.96000000000014</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="B971" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>Southern Indiana</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>Lindenwood</t>
+        </is>
+      </c>
+      <c r="E971" t="n">
+        <v>63</v>
+      </c>
+      <c r="F971" t="n">
+        <v>67</v>
+      </c>
+      <c r="G971" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I971" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J971" t="n">
+        <v>-26.96000000000014</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>970</v>
+      </c>
+      <c r="B972" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>Southern Utah</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>Abilene Christian</t>
+        </is>
+      </c>
+      <c r="E972" t="n">
+        <v>68</v>
+      </c>
+      <c r="F972" t="n">
+        <v>77</v>
+      </c>
+      <c r="G972" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I972" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J972" t="n">
+        <v>-27.96000000000014</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="B973" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E973" t="n">
+        <v>92</v>
+      </c>
+      <c r="F973" t="n">
+        <v>122</v>
+      </c>
+      <c r="G973" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I973" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J973" t="n">
+        <v>-27.15000000000014</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>972</v>
+      </c>
+      <c r="B974" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E974" t="n">
+        <v>129</v>
+      </c>
+      <c r="F974" t="n">
+        <v>102</v>
+      </c>
+      <c r="G974" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I974" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J974" t="n">
+        <v>-28.15000000000014</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>973</v>
+      </c>
+      <c r="B975" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="E975" t="n">
+        <v>111</v>
+      </c>
+      <c r="F975" t="n">
+        <v>96</v>
+      </c>
+      <c r="G975" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I975" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J975" t="n">
+        <v>-27.24000000000014</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="B976" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="E976" t="n">
+        <v>67</v>
+      </c>
+      <c r="F976" t="n">
+        <v>77</v>
+      </c>
+      <c r="G976" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I976" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J976" t="n">
+        <v>-28.24000000000014</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="B977" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="E977" t="n">
+        <v>74</v>
+      </c>
+      <c r="F977" t="n">
+        <v>66</v>
+      </c>
+      <c r="G977" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I977" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J977" t="n">
+        <v>-29.24000000000014</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="B978" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>California Baptist</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>Stephen F. Austin</t>
+        </is>
+      </c>
+      <c r="E978" t="n">
+        <v>60</v>
+      </c>
+      <c r="F978" t="n">
+        <v>62</v>
+      </c>
+      <c r="G978" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I978" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J978" t="n">
+        <v>-30.24000000000014</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>977</v>
+      </c>
+      <c r="B979" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>UCLA</t>
+        </is>
+      </c>
+      <c r="E979" t="n">
+        <v>94</v>
+      </c>
+      <c r="F979" t="n">
+        <v>77</v>
+      </c>
+      <c r="G979" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I979" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J979" t="n">
+        <v>-29.44000000000014</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B980" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>Washington State</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
+      </c>
+      <c r="E980" t="n">
+        <v>75</v>
+      </c>
+      <c r="F980" t="n">
+        <v>72</v>
+      </c>
+      <c r="G980" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I980" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J980" t="n">
+        <v>-28.64000000000014</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B981" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>Canisius</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>Mt. St. Marys</t>
+        </is>
+      </c>
+      <c r="E981" t="n">
+        <v>61</v>
+      </c>
+      <c r="F981" t="n">
+        <v>56</v>
+      </c>
+      <c r="G981" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I981" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J981" t="n">
+        <v>-29.64000000000014</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="B982" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Georgia Southern</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>Old Dominion</t>
+        </is>
+      </c>
+      <c r="E982" t="n">
+        <v>92</v>
+      </c>
+      <c r="F982" t="n">
+        <v>75</v>
+      </c>
+      <c r="G982" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I982" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J982" t="n">
+        <v>-28.84000000000013</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B983" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Jacksonville</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>Florida Gulf Coast</t>
+        </is>
+      </c>
+      <c r="E983" t="n">
+        <v>57</v>
+      </c>
+      <c r="F983" t="n">
+        <v>59</v>
+      </c>
+      <c r="G983" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I983" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J983" t="n">
+        <v>-29.84000000000013</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B984" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Marist</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>Fairfield</t>
+        </is>
+      </c>
+      <c r="E984" t="n">
+        <v>58</v>
+      </c>
+      <c r="F984" t="n">
+        <v>55</v>
+      </c>
+      <c r="G984" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I984" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J984" t="n">
+        <v>-30.84000000000013</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="B985" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Niagara</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="E985" t="n">
+        <v>61</v>
+      </c>
+      <c r="F985" t="n">
+        <v>71</v>
+      </c>
+      <c r="G985" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I985" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J985" t="n">
+        <v>-31.84000000000013</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B986" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>North Florida</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>Stetson</t>
+        </is>
+      </c>
+      <c r="E986" t="n">
+        <v>78</v>
+      </c>
+      <c r="F986" t="n">
+        <v>59</v>
+      </c>
+      <c r="G986" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I986" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J986" t="n">
+        <v>-32.84000000000013</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B987" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Queens Royals</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>Kennesaw State</t>
+        </is>
+      </c>
+      <c r="E987" t="n">
+        <v>91</v>
+      </c>
+      <c r="F987" t="n">
+        <v>82</v>
+      </c>
+      <c r="G987" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I987" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J987" t="n">
+        <v>-32.04000000000013</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B988" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>Lipscomb</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>Eastern Kentucky</t>
+        </is>
+      </c>
+      <c r="E988" t="n">
+        <v>81</v>
+      </c>
+      <c r="F988" t="n">
+        <v>67</v>
+      </c>
+      <c r="G988" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H988" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I988" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J988" t="n">
+        <v>-33.04000000000013</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B989" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>Boulazac</t>
+        </is>
+      </c>
+      <c r="E989" t="n">
+        <v>64</v>
+      </c>
+      <c r="F989" t="n">
+        <v>52</v>
+      </c>
+      <c r="G989" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H989" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I989" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J989" t="n">
+        <v>-34.04000000000013</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B990" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="E990" t="n">
+        <v>81</v>
+      </c>
+      <c r="F990" t="n">
+        <v>71</v>
+      </c>
+      <c r="G990" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H990" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I990" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J990" t="n">
+        <v>-35.04000000000013</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B991" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>AIK Basket</t>
+        </is>
+      </c>
+      <c r="E991" t="n">
+        <v>83</v>
+      </c>
+      <c r="F991" t="n">
+        <v>86</v>
+      </c>
+      <c r="G991" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H991" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I991" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J991" t="n">
+        <v>-34.21000000000014</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B992" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Wetterbygden Stars</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>Helsingborg</t>
+        </is>
+      </c>
+      <c r="E992" t="n">
+        <v>96</v>
+      </c>
+      <c r="F992" t="n">
+        <v>74</v>
+      </c>
+      <c r="G992" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H992" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I992" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J992" t="n">
+        <v>-33.39000000000014</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B993" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Darussafaka</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>Bahcesehir Kol.</t>
+        </is>
+      </c>
+      <c r="E993" t="n">
+        <v>68</v>
+      </c>
+      <c r="F993" t="n">
+        <v>75</v>
+      </c>
+      <c r="G993" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H993" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I993" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J993" t="n">
+        <v>-34.39000000000014</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B994" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>Bowling Green</t>
+        </is>
+      </c>
+      <c r="E994" t="n">
+        <v>66</v>
+      </c>
+      <c r="F994" t="n">
+        <v>59</v>
+      </c>
+      <c r="G994" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H994" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I994" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J994" t="n">
+        <v>-35.39000000000014</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B995" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Manresa</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="E995" t="n">
+        <v>83</v>
+      </c>
+      <c r="F995" t="n">
+        <v>88</v>
+      </c>
+      <c r="G995" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I995" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J995" t="n">
+        <v>-34.54000000000013</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E996" t="n">
+        <v>114</v>
+      </c>
+      <c r="F996" t="n">
+        <v>102</v>
+      </c>
+      <c r="G996" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H996" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I996" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J996" t="n">
+        <v>-35.54000000000013</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>Syntainics MBC</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr">
+        <is>
+          <t>Rostock</t>
+        </is>
+      </c>
+      <c r="E997" t="n">
+        <v>106</v>
+      </c>
+      <c r="F997" t="n">
+        <v>102</v>
+      </c>
+      <c r="G997" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H997" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I997" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J997" t="n">
+        <v>-34.72000000000013</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>Vechta</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr">
+        <is>
+          <t>Ludwigsburg</t>
+        </is>
+      </c>
+      <c r="E998" t="n">
+        <v>72</v>
+      </c>
+      <c r="F998" t="n">
+        <v>86</v>
+      </c>
+      <c r="G998" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H998" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I998" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J998" t="n">
+        <v>-35.72000000000013</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B999" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>St. Polten</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr">
+        <is>
+          <t>UBSC Graz</t>
+        </is>
+      </c>
+      <c r="E999" t="n">
+        <v>79</v>
+      </c>
+      <c r="F999" t="n">
+        <v>81</v>
+      </c>
+      <c r="G999" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H999" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I999" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J999" t="n">
+        <v>-34.86000000000013</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B1000" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>KCC Egis</t>
+        </is>
+      </c>
+      <c r="D1000" t="inlineStr">
+        <is>
+          <t>Suwon KT</t>
+        </is>
+      </c>
+      <c r="E1000" t="n">
+        <v>101</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1000" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1000" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>-33.97000000000013</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Gran Canaria B</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>Basquet L'Horta Godella</t>
+        </is>
+      </c>
+      <c r="E1001" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1001" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1001" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>-34.97000000000013</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>UU-Korihait</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>BC Nokia</t>
+        </is>
+      </c>
+      <c r="E1002" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1002" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1002" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>-34.11000000000013</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="E1003" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1003" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1003" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>-33.23000000000013</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>Zalakeramia</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>Soproni KC</t>
+        </is>
+      </c>
+      <c r="E1004" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1004" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1004" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>-34.23000000000013</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>Ibaraki Robots</t>
+        </is>
+      </c>
+      <c r="E1005" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>93</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1005" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1005" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>-33.39000000000013</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>Sunshine Rabbits F</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>Chanson V-Magic F</t>
+        </is>
+      </c>
+      <c r="E1006" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1006" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1006" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>-32.59000000000013</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>Delikatesas Joniskis</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>Klaipedos Neptunas</t>
+        </is>
+      </c>
+      <c r="E1007" t="n">
+        <v>100</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>105</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1007" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1007" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>-31.74000000000013</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>Asker</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>Ammerud</t>
+        </is>
+      </c>
+      <c r="E1008" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1008" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1008" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>-30.87000000000013</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>Santo André</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>Maia</t>
+        </is>
+      </c>
+      <c r="E1009" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1009" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>-30.00000000000013</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>Natacao F</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>CAB Madeira F</t>
+        </is>
+      </c>
+      <c r="E1010" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1010" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>-29.15000000000013</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>CSM Targu Jiu</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>SCM Craiova</t>
+        </is>
+      </c>
+      <c r="E1011" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1011" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>-30.15000000000013</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>OKK Beograd</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>Cacak 94</t>
+        </is>
+      </c>
+      <c r="E1012" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>101</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1012" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>-29.35000000000013</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>Kaohsiung Steelers</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>Hsinchu Jko Lioneers</t>
+        </is>
+      </c>
+      <c r="E1013" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>99</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1013" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>-28.55000000000013</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>Turk Telekom</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="E1014" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1014" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>-27.73000000000012</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>Kocaeli BŞB Kağıtspor</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>Alagoz</t>
+        </is>
+      </c>
+      <c r="E1015" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1015" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>-28.73000000000012</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>Fenerbahce 2</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>Final Spor</t>
+        </is>
+      </c>
+      <c r="E1016" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1016" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>-27.86000000000012</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E1017" t="n">
+        <v>100</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>107</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1017" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>-28.86000000000012</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>Chattanooga Mocs</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>Western Carolina</t>
+        </is>
+      </c>
+      <c r="E1018" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1018" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>-29.86000000000012</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>La Salle</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>George Washington</t>
+        </is>
+      </c>
+      <c r="E1019" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1019" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>-30.86000000000012</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>NC Wilmington</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>Towson</t>
+        </is>
+      </c>
+      <c r="E1020" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1020" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>-29.95000000000012</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>Kent State</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>Central Michigan</t>
+        </is>
+      </c>
+      <c r="E1021" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1021" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>-29.04000000000012</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>South Florida</t>
+        </is>
+      </c>
+      <c r="E1022" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1022" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>-28.13000000000012</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1023" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>Drexel</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>Northeastern</t>
+        </is>
+      </c>
+      <c r="E1023" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1023" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>-29.13000000000012</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1024" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>Rhode Island</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>St. Louis</t>
+        </is>
+      </c>
+      <c r="E1024" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1024" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>-28.33000000000012</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1025" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>Stony Brook</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>Delaware</t>
+        </is>
+      </c>
+      <c r="E1025" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>56</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1025" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>-29.33000000000012</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1026" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>Utah Valley</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>Texas Arlington</t>
+        </is>
+      </c>
+      <c r="E1026" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1026" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1026" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>-30.33000000000012</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1027" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>Tenn. Martin</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>Tennessee State</t>
+        </is>
+      </c>
+      <c r="E1027" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1027" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>-29.53000000000012</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1028" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>Western Illinois</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>Siu Edwardsville</t>
+        </is>
+      </c>
+      <c r="E1028" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1028" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1028" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>-28.62000000000012</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1029" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>Boston College</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>Pittsburgh</t>
+        </is>
+      </c>
+      <c r="E1029" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1029" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1029" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>-27.71000000000012</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1030" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>Idaho State</t>
+        </is>
+      </c>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>Northern Colorado</t>
+        </is>
+      </c>
+      <c r="E1030" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1030" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1030" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>-26.91000000000012</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1031" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>UC Riverside</t>
+        </is>
+      </c>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="E1031" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1031" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1031" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>-26.11000000000012</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1032" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>CS Fullerton</t>
+        </is>
+      </c>
+      <c r="D1032" t="inlineStr">
+        <is>
+          <t>UC Santa Barbara</t>
+        </is>
+      </c>
+      <c r="E1032" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1032" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1032" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>-25.20000000000012</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1033" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>Utah Tech</t>
+        </is>
+      </c>
+      <c r="D1033" t="inlineStr">
+        <is>
+          <t>Abilene Christian</t>
+        </is>
+      </c>
+      <c r="E1033" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1033" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1033" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>-24.40000000000012</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1034" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>IK Eos</t>
+        </is>
+      </c>
+      <c r="D1034" t="inlineStr">
+        <is>
+          <t>Ockelbo</t>
+        </is>
+      </c>
+      <c r="E1034" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1034" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1034" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>-23.57000000000012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1034"/>
+  <dimension ref="A1:J1073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35586,6 +35586,1488 @@
         <v>-23.57000000000012</v>
       </c>
     </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1035" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D1035" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E1035" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>107</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1035" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1035" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>-24.57000000000012</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1036" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>Brindisi</t>
+        </is>
+      </c>
+      <c r="D1036" t="inlineStr">
+        <is>
+          <t>Cremona</t>
+        </is>
+      </c>
+      <c r="E1036" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1036" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1036" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>-25.57000000000012</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1037" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>Perth Lynx F</t>
+        </is>
+      </c>
+      <c r="D1037" t="inlineStr">
+        <is>
+          <t>Townsville F</t>
+        </is>
+      </c>
+      <c r="E1037" t="n">
+        <v>108</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>102</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1037" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1037" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>-24.69000000000012</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1038" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>Suwon KT</t>
+        </is>
+      </c>
+      <c r="D1038" t="inlineStr">
+        <is>
+          <t>LG Sakers</t>
+        </is>
+      </c>
+      <c r="E1038" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1038" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1038" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>-25.69000000000012</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B1039" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>Seoul Knights</t>
+        </is>
+      </c>
+      <c r="D1039" t="inlineStr">
+        <is>
+          <t>KCC Egis</t>
+        </is>
+      </c>
+      <c r="E1039" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1039" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1039" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>-26.69000000000012</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B1040" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>Alginet</t>
+        </is>
+      </c>
+      <c r="D1040" t="inlineStr">
+        <is>
+          <t>L'Hospitalet</t>
+        </is>
+      </c>
+      <c r="E1040" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>57</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1040" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1040" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>-27.69000000000012</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B1041" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>San Diego Toreros</t>
+        </is>
+      </c>
+      <c r="D1041" t="inlineStr">
+        <is>
+          <t>Pacific</t>
+        </is>
+      </c>
+      <c r="E1041" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1041" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1041" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>-28.69000000000012</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1042" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>St. Marys (CA)</t>
+        </is>
+      </c>
+      <c r="D1042" t="inlineStr">
+        <is>
+          <t>Gonzaga</t>
+        </is>
+      </c>
+      <c r="E1042" t="n">
+        <v>57</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1042" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1042" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>-29.69000000000012</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1043" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>UC Irvine</t>
+        </is>
+      </c>
+      <c r="D1043" t="inlineStr">
+        <is>
+          <t>Long Beach State</t>
+        </is>
+      </c>
+      <c r="E1043" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>61</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1043" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1043" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>-30.69000000000012</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1044" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>Landes F</t>
+        </is>
+      </c>
+      <c r="D1044" t="inlineStr">
+        <is>
+          <t>Lyon F</t>
+        </is>
+      </c>
+      <c r="E1044" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1044" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1044" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>-31.69000000000012</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1045" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>Campobasso F</t>
+        </is>
+      </c>
+      <c r="D1045" t="inlineStr">
+        <is>
+          <t>San Giovanni F</t>
+        </is>
+      </c>
+      <c r="E1045" t="n">
+        <v>46</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1045" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1045" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>-32.69000000000013</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1046" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>Toyama</t>
+        </is>
+      </c>
+      <c r="D1046" t="inlineStr">
+        <is>
+          <t>Ibaraki Robots</t>
+        </is>
+      </c>
+      <c r="E1046" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1046" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1046" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>-31.82000000000012</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1047" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>NeoPhoenix</t>
+        </is>
+      </c>
+      <c r="D1047" t="inlineStr">
+        <is>
+          <t>Ryukyu</t>
+        </is>
+      </c>
+      <c r="E1047" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>98</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1047" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1047" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>-30.97000000000012</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1048" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>Kobe</t>
+        </is>
+      </c>
+      <c r="D1048" t="inlineStr">
+        <is>
+          <t>Fukuoka</t>
+        </is>
+      </c>
+      <c r="E1048" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1048" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1048" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>-30.13000000000012</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1049" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>Pieno Zvaigzdes</t>
+        </is>
+      </c>
+      <c r="D1049" t="inlineStr">
+        <is>
+          <t>Nevezis</t>
+        </is>
+      </c>
+      <c r="E1049" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>101</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1049" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1049" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>-29.26000000000012</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1050" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>Ostioneros de Guaymas</t>
+        </is>
+      </c>
+      <c r="D1050" t="inlineStr">
+        <is>
+          <t>Rayos de Hermosillo</t>
+        </is>
+      </c>
+      <c r="E1050" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1050" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1050" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>-28.45000000000012</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1051" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>Astana</t>
+        </is>
+      </c>
+      <c r="D1051" t="inlineStr">
+        <is>
+          <t>Nizhny Novgorod</t>
+        </is>
+      </c>
+      <c r="E1051" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1051" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1051" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>-29.45000000000012</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="1" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1052" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>Runa Basket Moscow</t>
+        </is>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>Uralmash Ekaterinburg</t>
+        </is>
+      </c>
+      <c r="E1052" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>102</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1052" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1052" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>-28.65000000000012</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="1" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B1053" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>Dynamo Vladivostok</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>M. Khimki</t>
+        </is>
+      </c>
+      <c r="E1053" t="n">
+        <v>48</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1053" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1053" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>-29.65000000000012</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1054" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>Marist</t>
+        </is>
+      </c>
+      <c r="D1054" t="inlineStr">
+        <is>
+          <t>Iona</t>
+        </is>
+      </c>
+      <c r="E1054" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1054" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1054" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>-28.85000000000012</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="1" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B1055" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>Missouri State</t>
+        </is>
+      </c>
+      <c r="D1055" t="inlineStr">
+        <is>
+          <t>Illinois (Chi.)</t>
+        </is>
+      </c>
+      <c r="E1055" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1055" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1055" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>-29.85000000000012</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="1" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1056" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>Niagara</t>
+        </is>
+      </c>
+      <c r="D1056" t="inlineStr">
+        <is>
+          <t>Mt. St. Marys</t>
+        </is>
+      </c>
+      <c r="E1056" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1056" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1056" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>-28.94000000000012</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="1" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B1057" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>Southern Illinois</t>
+        </is>
+      </c>
+      <c r="D1057" t="inlineStr">
+        <is>
+          <t>Northern Iowa</t>
+        </is>
+      </c>
+      <c r="E1057" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1057" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1057" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>-28.03000000000012</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="1" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1058" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>St. Peters</t>
+        </is>
+      </c>
+      <c r="D1058" t="inlineStr">
+        <is>
+          <t>Manhattan</t>
+        </is>
+      </c>
+      <c r="E1058" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>57</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1058" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1058" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>-27.12000000000012</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="1" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1059" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>Oral Roberts</t>
+        </is>
+      </c>
+      <c r="D1059" t="inlineStr">
+        <is>
+          <t>UMKC</t>
+        </is>
+      </c>
+      <c r="E1059" t="n">
+        <v>54</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1059" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1059" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>-28.12000000000012</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="1" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1060" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>Memphis</t>
+        </is>
+      </c>
+      <c r="D1060" t="inlineStr">
+        <is>
+          <t>UAB</t>
+        </is>
+      </c>
+      <c r="E1060" t="n">
+        <v>106</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1060" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1060" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>-27.21000000000012</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="1" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1061" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>Angeles CDMX</t>
+        </is>
+      </c>
+      <c r="D1061" t="inlineStr">
+        <is>
+          <t>Pioneros de Los Mochis</t>
+        </is>
+      </c>
+      <c r="E1061" t="n">
+        <v>115</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1061" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1061" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>-26.36000000000012</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="1" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1062" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>CSKA Moscow 2</t>
+        </is>
+      </c>
+      <c r="D1062" t="inlineStr">
+        <is>
+          <t>Dome-Springs Izhevsk</t>
+        </is>
+      </c>
+      <c r="E1062" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1062" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1062" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>-27.36000000000012</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="1" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1063" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D1063" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E1063" t="n">
+        <v>113</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>106</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1063" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1063" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>-28.36000000000012</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1064" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>Illawarra Hawks</t>
+        </is>
+      </c>
+      <c r="D1064" t="inlineStr">
+        <is>
+          <t>NZ Breakers</t>
+        </is>
+      </c>
+      <c r="E1064" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1064" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1064" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>-29.36000000000012</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="1" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1065" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>Northwestern St.</t>
+        </is>
+      </c>
+      <c r="D1065" t="inlineStr">
+        <is>
+          <t>Nicholls State</t>
+        </is>
+      </c>
+      <c r="E1065" t="n">
+        <v>62</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1065" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1065" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>-30.36000000000012</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="1" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1066" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>Mladost Zemun</t>
+        </is>
+      </c>
+      <c r="D1066" t="inlineStr">
+        <is>
+          <t>Sloboda</t>
+        </is>
+      </c>
+      <c r="E1066" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1066" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1066" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>-31.36000000000012</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="1" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1067" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>Al Muharraq</t>
+        </is>
+      </c>
+      <c r="D1067" t="inlineStr">
+        <is>
+          <t>Al-Shabab</t>
+        </is>
+      </c>
+      <c r="E1067" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1067" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1067" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>-30.51000000000012</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="1" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1068" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>Anorthosis</t>
+        </is>
+      </c>
+      <c r="D1068" t="inlineStr">
+        <is>
+          <t>Keravnos S.</t>
+        </is>
+      </c>
+      <c r="E1068" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>61</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1068" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1068" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>-31.51000000000012</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="1" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1069" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="D1069" t="inlineStr">
+        <is>
+          <t>Purdue</t>
+        </is>
+      </c>
+      <c r="E1069" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1069" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1069" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>-32.51000000000012</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="1" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B1070" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="D1070" t="inlineStr">
+        <is>
+          <t>Bonn</t>
+        </is>
+      </c>
+      <c r="E1070" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1070" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1070" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>-31.62000000000012</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="1" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B1071" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>Maccabi Ironi Ramat Gan</t>
+        </is>
+      </c>
+      <c r="D1071" t="inlineStr">
+        <is>
+          <t>Hapoel Beer Sheva</t>
+        </is>
+      </c>
+      <c r="E1071" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1071" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1071" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>-32.62000000000012</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="1" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B1072" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>Gorzow F</t>
+        </is>
+      </c>
+      <c r="D1072" t="inlineStr">
+        <is>
+          <t>Arka Gdynia F</t>
+        </is>
+      </c>
+      <c r="E1072" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1072" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1072" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>-31.79000000000012</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="1" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B1073" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>CSU Sibiu</t>
+        </is>
+      </c>
+      <c r="D1073" t="inlineStr">
+        <is>
+          <t>Rapid Bucuresti</t>
+        </is>
+      </c>
+      <c r="E1073" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1073" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1073" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>-30.97000000000012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1073"/>
+  <dimension ref="A1:J1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37068,6 +37068,3692 @@
         <v>-30.97000000000012</v>
       </c>
     </row>
+    <row r="1074">
+      <c r="A1074" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B1074" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D1074" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E1074" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>119</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H1074" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1074" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>-30.00000000000012</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="1" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1075" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>Southside F</t>
+        </is>
+      </c>
+      <c r="D1075" t="inlineStr">
+        <is>
+          <t>Melbourne Boomers F</t>
+        </is>
+      </c>
+      <c r="E1075" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1075" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1075" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>-29.13000000000012</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="1" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1076" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>Boise State</t>
+        </is>
+      </c>
+      <c r="D1076" t="inlineStr">
+        <is>
+          <t>Nevada</t>
+        </is>
+      </c>
+      <c r="E1076" t="n">
+        <v>66</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1076" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1076" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>-28.30000000000012</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="1" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1077" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>Arkansas</t>
+        </is>
+      </c>
+      <c r="D1077" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="E1077" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1077" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1077" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>-27.47000000000012</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1078" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>Davidson</t>
+        </is>
+      </c>
+      <c r="D1078" t="inlineStr">
+        <is>
+          <t>Loyola (Ill).</t>
+        </is>
+      </c>
+      <c r="E1078" t="n">
+        <v>59</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1078" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1078" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>-28.47000000000012</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="1" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1079" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M</t>
+        </is>
+      </c>
+      <c r="D1079" t="inlineStr">
+        <is>
+          <t>Mississippi St.</t>
+        </is>
+      </c>
+      <c r="E1079" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1079" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1079" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>-27.67000000000012</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="1" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1080" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>Peristeri</t>
+        </is>
+      </c>
+      <c r="D1080" t="inlineStr">
+        <is>
+          <t>Pinar Karsiyaka</t>
+        </is>
+      </c>
+      <c r="E1080" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1080" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1080" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>-28.67000000000012</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1081" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>DVTK F</t>
+        </is>
+      </c>
+      <c r="D1081" t="inlineStr">
+        <is>
+          <t>ESB Villeneuve F</t>
+        </is>
+      </c>
+      <c r="E1081" t="n">
+        <v>58</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1081" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1081" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>-29.67000000000012</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="1" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1082" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>USK Prague F</t>
+        </is>
+      </c>
+      <c r="D1082" t="inlineStr">
+        <is>
+          <t>Schio F</t>
+        </is>
+      </c>
+      <c r="E1082" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>54</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1082" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1082" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>-30.67000000000012</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1083" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>BC Nokia</t>
+        </is>
+      </c>
+      <c r="D1083" t="inlineStr">
+        <is>
+          <t>Helsinki Seagulls</t>
+        </is>
+      </c>
+      <c r="E1083" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1083" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1083" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>-31.67000000000012</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1084" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>Saga</t>
+        </is>
+      </c>
+      <c r="D1084" t="inlineStr">
+        <is>
+          <t>Hiroshima D.</t>
+        </is>
+      </c>
+      <c r="E1084" t="n">
+        <v>66</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1084" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1084" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>-32.67000000000012</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1085" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>Sendai</t>
+        </is>
+      </c>
+      <c r="D1085" t="inlineStr">
+        <is>
+          <t>Akita</t>
+        </is>
+      </c>
+      <c r="E1085" t="n">
+        <v>59</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1085" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1085" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>-33.67000000000012</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1086" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>Centrum Tigers</t>
+        </is>
+      </c>
+      <c r="D1086" t="inlineStr">
+        <is>
+          <t>Bærum</t>
+        </is>
+      </c>
+      <c r="E1086" t="n">
+        <v>56</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1086" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1086" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>-34.67000000000012</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1087" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>BBC Monthey</t>
+        </is>
+      </c>
+      <c r="D1087" t="inlineStr">
+        <is>
+          <t>Lausanne Basket</t>
+        </is>
+      </c>
+      <c r="E1087" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1087" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>-35.67000000000012</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1088" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="D1088" t="inlineStr">
+        <is>
+          <t>Liege</t>
+        </is>
+      </c>
+      <c r="E1088" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1088" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1088" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>-34.87000000000013</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1089" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D1089" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E1089" t="n">
+        <v>125</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1089" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1089" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>-35.87000000000013</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1090" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D1090" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E1090" t="n">
+        <v>120</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>130</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1090" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1090" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>-35.02000000000012</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1091" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D1091" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E1091" t="n">
+        <v>114</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>108</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1091" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1091" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>-36.02000000000012</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1092" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>Anadolu Efes</t>
+        </is>
+      </c>
+      <c r="D1092" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="E1092" t="n">
+        <v>109</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1092" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1092" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>-35.11000000000013</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1093" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D1093" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="E1093" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1093" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1093" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>-34.20000000000013</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1094" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>Xiamen F</t>
+        </is>
+      </c>
+      <c r="D1094" t="inlineStr">
+        <is>
+          <t>Henan F</t>
+        </is>
+      </c>
+      <c r="E1094" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1094" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1094" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>-33.40000000000013</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1095" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>Siu Edwardsville</t>
+        </is>
+      </c>
+      <c r="D1095" t="inlineStr">
+        <is>
+          <t>Eastern Illinois</t>
+        </is>
+      </c>
+      <c r="E1095" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>57</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1095" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1095" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>-34.40000000000013</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="1" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1096" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>CS Northridge</t>
+        </is>
+      </c>
+      <c r="E1096" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1096" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1096" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>-35.40000000000013</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1097" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>Nevezis</t>
+        </is>
+      </c>
+      <c r="D1097" t="inlineStr">
+        <is>
+          <t>Mazeikiai</t>
+        </is>
+      </c>
+      <c r="E1097" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1097" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1097" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>-36.40000000000013</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="1" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1098" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>Frayles de Guasave</t>
+        </is>
+      </c>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>Rayos de Hermosillo</t>
+        </is>
+      </c>
+      <c r="E1098" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1098" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1098" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>-35.55000000000013</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="1" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B1099" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>Arka Gdynia F</t>
+        </is>
+      </c>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>Gorzow F</t>
+        </is>
+      </c>
+      <c r="E1099" t="n">
+        <v>66</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1099" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>-36.55000000000013</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="1" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B1100" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>Sheffield Sharks</t>
+        </is>
+      </c>
+      <c r="D1100" t="inlineStr">
+        <is>
+          <t>Surrey Scorchers</t>
+        </is>
+      </c>
+      <c r="E1100" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>62</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>-37.55000000000013</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="1" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B1101" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>Nizhny Novgorod</t>
+        </is>
+      </c>
+      <c r="D1101" t="inlineStr">
+        <is>
+          <t>Runa Basket Moscow</t>
+        </is>
+      </c>
+      <c r="E1101" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1101" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>-36.75000000000014</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="1" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B1102" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>South Alabama</t>
+        </is>
+      </c>
+      <c r="D1102" t="inlineStr">
+        <is>
+          <t>Georgia Southern</t>
+        </is>
+      </c>
+      <c r="E1102" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>-37.75000000000014</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="1" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B1103" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>Murray State</t>
+        </is>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>Missouri State</t>
+        </is>
+      </c>
+      <c r="E1103" t="n">
+        <v>35</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>-38.75000000000014</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="1" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B1104" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>La Lafayette</t>
+        </is>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>Coastal Carolina</t>
+        </is>
+      </c>
+      <c r="E1104" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>-39.75000000000014</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B1105" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>Pepperdine</t>
+        </is>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>Pacific</t>
+        </is>
+      </c>
+      <c r="E1105" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>43</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>-40.75000000000014</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="1" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B1106" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>Southern Miss</t>
+        </is>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>Texas State</t>
+        </is>
+      </c>
+      <c r="E1106" t="n">
+        <v>59</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1106" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>-41.75000000000014</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="1" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B1107" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>Illinois State</t>
+        </is>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>Evansville</t>
+        </is>
+      </c>
+      <c r="E1107" t="n">
+        <v>53</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1107" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>-42.75000000000014</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B1108" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>Oakland</t>
+        </is>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>IPFW</t>
+        </is>
+      </c>
+      <c r="E1108" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1108" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>-43.75000000000014</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="1" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B1109" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>Quinnipiac</t>
+        </is>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>Marist</t>
+        </is>
+      </c>
+      <c r="E1109" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1109" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>-44.75000000000014</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="1" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B1110" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>Rutgers</t>
+        </is>
+      </c>
+      <c r="E1110" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1110" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1110" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>-43.84000000000014</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="1" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B1111" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>Western Illinois</t>
+        </is>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>Tennessee State</t>
+        </is>
+      </c>
+      <c r="E1111" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>-44.84000000000014</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B1112" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>St. Peters</t>
+        </is>
+      </c>
+      <c r="E1112" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>56</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1112" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>-45.84000000000014</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="1" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B1113" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>Alabama State</t>
+        </is>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>Southern</t>
+        </is>
+      </c>
+      <c r="E1113" t="n">
+        <v>57</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>-46.84000000000014</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B1114" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>Georgia State</t>
+        </is>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
+      </c>
+      <c r="E1114" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1114" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>-46.04000000000014</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B1115" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>SE Louisiana</t>
+        </is>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>Nicholls State</t>
+        </is>
+      </c>
+      <c r="E1115" t="n">
+        <v>54</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>-47.04000000000014</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B1116" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="E1116" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1116" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>-46.13000000000014</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="1" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B1117" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>Wisc. Green Bay</t>
+        </is>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>Wisc. Milwaukee</t>
+        </is>
+      </c>
+      <c r="E1117" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1117" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>-45.22000000000015</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B1118" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E1118" t="n">
+        <v>122</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>125</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1118" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1118" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>-44.36000000000015</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B1119" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E1119" t="n">
+        <v>131</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>129</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1119" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1119" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>-43.43000000000015</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B1120" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E1120" t="n">
+        <v>112</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1120" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>-44.43000000000015</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B1121" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E1121" t="n">
+        <v>113</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>104</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1121" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1121" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>-43.60000000000015</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B1122" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E1122" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1122" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>-44.60000000000015</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B1123" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="E1123" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1123" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1123" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>-43.75000000000015</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B1124" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>Perth Wildcats</t>
+        </is>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>Tasmania JackJumpers</t>
+        </is>
+      </c>
+      <c r="E1124" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1124" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>-44.75000000000015</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B1125" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>Caceres</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>Estela</t>
+        </is>
+      </c>
+      <c r="E1125" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1125" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>-45.75000000000015</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B1126" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>Long Beach State</t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>UC Santa Barbara</t>
+        </is>
+      </c>
+      <c r="E1126" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1126" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>-46.75000000000015</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B1127" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Morehead State</t>
+        </is>
+      </c>
+      <c r="D1127" t="inlineStr">
+        <is>
+          <t>Siu Edwardsville</t>
+        </is>
+      </c>
+      <c r="E1127" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1127" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>-45.95000000000015</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B1128" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>UC Riverside</t>
+        </is>
+      </c>
+      <c r="D1128" t="inlineStr">
+        <is>
+          <t>CS Fullerton</t>
+        </is>
+      </c>
+      <c r="E1128" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1128" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1128" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>-45.04000000000016</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B1129" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>Stanford</t>
+        </is>
+      </c>
+      <c r="D1129" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="E1129" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>58</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1129" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1129" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>-46.04000000000016</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B1130" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
+      </c>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>Arizona State</t>
+        </is>
+      </c>
+      <c r="E1130" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1130" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>-45.13000000000016</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1131" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>Keflavik</t>
+        </is>
+      </c>
+      <c r="D1131" t="inlineStr">
+        <is>
+          <t>Grindavik</t>
+        </is>
+      </c>
+      <c r="E1131" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1131" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>-46.13000000000016</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1132" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>High Point</t>
+        </is>
+      </c>
+      <c r="D1132" t="inlineStr">
+        <is>
+          <t>Radford</t>
+        </is>
+      </c>
+      <c r="E1132" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1132" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>-47.13000000000016</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1133" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>Northern Iowa</t>
+        </is>
+      </c>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>Belmont</t>
+        </is>
+      </c>
+      <c r="E1133" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>62</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1133" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>-48.13000000000016</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1134" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>AR Little Rock</t>
+        </is>
+      </c>
+      <c r="D1134" t="inlineStr">
+        <is>
+          <t>Western Illinois</t>
+        </is>
+      </c>
+      <c r="E1134" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>57</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1134" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1134" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>-47.33000000000016</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1135" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>Tulane</t>
+        </is>
+      </c>
+      <c r="D1135" t="inlineStr">
+        <is>
+          <t>Wichita State</t>
+        </is>
+      </c>
+      <c r="E1135" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1135" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1135" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>-46.53000000000016</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="1" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B1136" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>Spotter Leuven</t>
+        </is>
+      </c>
+      <c r="D1136" t="inlineStr">
+        <is>
+          <t>Circus Brussels</t>
+        </is>
+      </c>
+      <c r="E1136" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1136" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1136" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>-45.70000000000017</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="1" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1137" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>KTE-Duna</t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>Kormend</t>
+        </is>
+      </c>
+      <c r="E1137" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1137" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1137" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>-46.70000000000017</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B1138" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>Pinheiros</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>Fortaleza B.C.</t>
+        </is>
+      </c>
+      <c r="E1138" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>61</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1138" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>-47.70000000000017</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B1139" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>Oldenburg</t>
+        </is>
+      </c>
+      <c r="D1139" t="inlineStr">
+        <is>
+          <t>Wurzburg</t>
+        </is>
+      </c>
+      <c r="E1139" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1139" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1139" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>-46.89000000000016</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="1" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B1140" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>Tubingen</t>
+        </is>
+      </c>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>Syntainics MBC</t>
+        </is>
+      </c>
+      <c r="E1140" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1140" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>-47.89000000000016</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B1141" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>Gussing Blackbirds</t>
+        </is>
+      </c>
+      <c r="D1141" t="inlineStr">
+        <is>
+          <t>Worthersee Piraten</t>
+        </is>
+      </c>
+      <c r="E1141" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1141" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>-48.89000000000016</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="1" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B1142" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>Promo</t>
+        </is>
+      </c>
+      <c r="D1142" t="inlineStr">
+        <is>
+          <t>Orlovik</t>
+        </is>
+      </c>
+      <c r="E1142" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1142" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1142" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>-48.03000000000016</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1143" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>Seoul Thunders</t>
+        </is>
+      </c>
+      <c r="D1143" t="inlineStr">
+        <is>
+          <t>Goyang Sono</t>
+        </is>
+      </c>
+      <c r="E1143" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1143" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1143" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>-47.20000000000017</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1144" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>GKK Sibenka</t>
+        </is>
+      </c>
+      <c r="D1144" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="E1144" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>101</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1144" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1144" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>-46.34000000000017</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1145" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>BKM Lucenec</t>
+        </is>
+      </c>
+      <c r="D1145" t="inlineStr">
+        <is>
+          <t>Inter Bratislava</t>
+        </is>
+      </c>
+      <c r="E1145" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1145" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1145" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>-45.47000000000017</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1146" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>San Diego State</t>
+        </is>
+      </c>
+      <c r="D1146" t="inlineStr">
+        <is>
+          <t>Boise State</t>
+        </is>
+      </c>
+      <c r="E1146" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1146" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1146" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>-44.56000000000017</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1147" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>Nanterre</t>
+        </is>
+      </c>
+      <c r="E1147" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1147" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1147" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>-43.76000000000018</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="1" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1148" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>Roanne</t>
+        </is>
+      </c>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>Le Portel</t>
+        </is>
+      </c>
+      <c r="E1148" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1148" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1148" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>-42.88000000000017</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="1" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1149" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>Promitheas</t>
+        </is>
+      </c>
+      <c r="E1149" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1149" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1149" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>-42.01000000000018</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="1" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1150" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>DEAC</t>
+        </is>
+      </c>
+      <c r="D1150" t="inlineStr">
+        <is>
+          <t>Zalakeramia</t>
+        </is>
+      </c>
+      <c r="E1150" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1150" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1150" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>-43.01000000000018</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="1" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1151" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>Pallacanestro Nardo</t>
+        </is>
+      </c>
+      <c r="D1151" t="inlineStr">
+        <is>
+          <t>Monferrato</t>
+        </is>
+      </c>
+      <c r="E1151" t="n">
+        <v>100</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1151" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1151" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>-42.21000000000018</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="1" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1152" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>Venados de Mazatlan</t>
+        </is>
+      </c>
+      <c r="D1152" t="inlineStr">
+        <is>
+          <t>Rayos de Hermosillo</t>
+        </is>
+      </c>
+      <c r="E1152" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>109</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1152" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1152" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>-41.36000000000018</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1153" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>MKKS Koszalin</t>
+        </is>
+      </c>
+      <c r="D1153" t="inlineStr">
+        <is>
+          <t>GKS Tychy</t>
+        </is>
+      </c>
+      <c r="E1153" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1153" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1153" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>-42.36000000000018</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="1" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1154" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>Brasov</t>
+        </is>
+      </c>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>CSM Constanta</t>
+        </is>
+      </c>
+      <c r="E1154" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1154" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1154" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>-41.54000000000018</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="1" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1155" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>Nizhny Novgorod</t>
+        </is>
+      </c>
+      <c r="D1155" t="inlineStr">
+        <is>
+          <t>Astana</t>
+        </is>
+      </c>
+      <c r="E1155" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1155" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1155" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>-40.72000000000018</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="1" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1156" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>Tamis</t>
+        </is>
+      </c>
+      <c r="D1156" t="inlineStr">
+        <is>
+          <t>Metalac</t>
+        </is>
+      </c>
+      <c r="E1156" t="n">
+        <v>97</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1156" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1156" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>-39.87000000000018</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="1" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B1157" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>Sloboda</t>
+        </is>
+      </c>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>Vojvodina Novi Sad</t>
+        </is>
+      </c>
+      <c r="E1157" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1157" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>-40.87000000000018</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="1" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B1158" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>Marist</t>
+        </is>
+      </c>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>Niagara</t>
+        </is>
+      </c>
+      <c r="E1158" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>62</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1158" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>-41.87000000000018</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="1" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B1159" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>St. Peters</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>Quinnipiac</t>
+        </is>
+      </c>
+      <c r="E1159" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1159" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1159" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>-41.07000000000018</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="1" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B1160" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>Arkansas State</t>
+        </is>
+      </c>
+      <c r="D1160" t="inlineStr">
+        <is>
+          <t>La Lafayette</t>
+        </is>
+      </c>
+      <c r="E1160" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>62</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1160" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>-42.07000000000018</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="1" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B1161" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>New Hampshire</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>Binghamton</t>
+        </is>
+      </c>
+      <c r="E1161" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1161" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1161" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>-43.07000000000018</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="1" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B1162" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>Abilene Christian</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>Utah Valley</t>
+        </is>
+      </c>
+      <c r="E1162" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1162" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1162" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>-42.27000000000018</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="1" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B1163" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>Florida State</t>
+        </is>
+      </c>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E1163" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1163" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1163" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>-41.36000000000018</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="1" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B1164" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>Mt. St. Marys</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>Fairfield</t>
+        </is>
+      </c>
+      <c r="E1164" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1164" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1164" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>-40.45000000000019</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="1" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B1165" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>New Mexico State</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>Florida Intl</t>
+        </is>
+      </c>
+      <c r="E1165" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1165" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1165" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>-39.65000000000019</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="1" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B1166" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>Alabama State</t>
+        </is>
+      </c>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>Grambling St.</t>
+        </is>
+      </c>
+      <c r="E1166" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1166" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1166" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>-38.74000000000019</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="1" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B1167" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>Tarleton</t>
+        </is>
+      </c>
+      <c r="D1167" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="E1167" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1167" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1167" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>-39.74000000000019</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="1" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B1168" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>Long Beach State</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>UC Davis</t>
+        </is>
+      </c>
+      <c r="E1168" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1168" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1168" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>-38.8300000000002</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="1" t="n">
+        <v>1167</v>
+      </c>
+      <c r="B1169" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>Western Carolina</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>Furman</t>
+        </is>
+      </c>
+      <c r="E1169" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1169" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1169" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>-38.0300000000002</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="1" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B1170" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>Akhisar Belediye</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>Istanbul Anka Spor</t>
+        </is>
+      </c>
+      <c r="E1170" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1170" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>-39.0300000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1170"/>
+  <dimension ref="A1:J1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40754,6 +40754,1906 @@
         <v>-39.0300000000002</v>
       </c>
     </row>
+    <row r="1171">
+      <c r="A1171" s="1" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B1171" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>Bilbao</t>
+        </is>
+      </c>
+      <c r="E1171" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1171" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1171" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>-38.1600000000002</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="1" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B1172" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E1172" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>124</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1172" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>-37.3300000000002</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="1" t="n">
+        <v>1171</v>
+      </c>
+      <c r="B1173" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E1173" t="n">
+        <v>97</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>111</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1173" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>-38.3300000000002</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="1" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B1174" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E1174" t="n">
+        <v>124</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>93</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1174" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1174" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>-39.3300000000002</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="1" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B1175" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Virtus Bologna</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="E1175" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1175" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>-38.46000000000021</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="1" t="n">
+        <v>1174</v>
+      </c>
+      <c r="B1176" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1176" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1176" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>-39.46000000000021</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="1" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B1177" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>Mattersburg</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>Kufstein</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1177" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1177" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>-40.46000000000021</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="1" t="n">
+        <v>1176</v>
+      </c>
+      <c r="B1178" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>Alginet</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>CB Santfeliuenc</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1178" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1178" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>-39.61000000000021</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="1" t="n">
+        <v>1177</v>
+      </c>
+      <c r="B1179" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>UC Santa Barbara</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>UC Riverside</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1179" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1179" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>-40.61000000000021</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="1" t="n">
+        <v>1178</v>
+      </c>
+      <c r="B1180" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>Cal St. Bakersfield</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>57</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1180" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>-41.61000000000021</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B1181" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>Hafnarfjordur F</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>Grindavik F</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1181" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1181" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>-40.7600000000002</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="1" t="n">
+        <v>1180</v>
+      </c>
+      <c r="B1182" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>Dziki Warszawa</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1182" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1182" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>-41.7600000000002</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="1" t="n">
+        <v>1181</v>
+      </c>
+      <c r="B1183" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>Sangalhos</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>CA Queluz</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1183" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1183" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>-42.7600000000002</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="1" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B1184" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>Barreirense</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>Galitos Aveiro</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1184" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>-43.7600000000002</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="1" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B1185" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>Quinta Dos Lombos F</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>Gdessa Barreiro F</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1185" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1185" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>-42.89000000000021</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="1" t="n">
+        <v>1184</v>
+      </c>
+      <c r="B1186" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1186" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1186" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>-42.03000000000021</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="1" t="n">
+        <v>1185</v>
+      </c>
+      <c r="B1187" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>CSKA Moscow 2</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg 2</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1187" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1187" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>-43.03000000000021</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="1" t="n">
+        <v>1186</v>
+      </c>
+      <c r="B1188" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>BBC Troistorrents F</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>Riva Basket F</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1188" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1188" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>-42.18000000000021</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="1" t="n">
+        <v>1187</v>
+      </c>
+      <c r="B1189" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>NC Asheville</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>Longwood</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>59</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1189" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1189" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>-41.38000000000021</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="1" t="n">
+        <v>1188</v>
+      </c>
+      <c r="B1190" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>Rutgers</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>Ohio State</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1190" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1190" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>-42.38000000000021</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="1" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B1191" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>Stetson</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>Austin Peay</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1191" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1191" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>-41.47000000000021</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B1192" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>NC Wilmington</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>Towson</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>56</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H1192" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1192" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>-42.47000000000021</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="1" t="n">
+        <v>1191</v>
+      </c>
+      <c r="B1193" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>UAB</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>SMU Mustangs</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1193" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1193" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>-43.47000000000021</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="1" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B1194" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>Boston University</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>Lehigh</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1194" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1194" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>-42.67000000000021</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="1" t="n">
+        <v>1193</v>
+      </c>
+      <c r="B1195" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>Samford</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>Furman</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1195" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1195" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>-41.76000000000022</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="1" t="n">
+        <v>1194</v>
+      </c>
+      <c r="B1196" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>Drexel</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>Stony Brook</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1196" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1196" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>-40.85000000000022</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="1" t="n">
+        <v>1195</v>
+      </c>
+      <c r="B1197" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>Chattanooga Mocs</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>East Tennessee St</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1197" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>-40.05000000000022</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="1" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B1198" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>Iowa</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1198" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>-41.05000000000022</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="1" t="n">
+        <v>1197</v>
+      </c>
+      <c r="B1199" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>Penn State</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>Maryland</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1199" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1199" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>-40.14000000000023</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="1" t="n">
+        <v>1198</v>
+      </c>
+      <c r="B1200" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>Northwestern St.</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>TX A&amp;M Commerce</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>-41.14000000000023</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B1201" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>North Dakota</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>Nebraska O.</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1201" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1201" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>-40.34000000000023</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B1202" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>Soproni KC</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>Alba Fehervar</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>101</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1202" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1202" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>-39.49000000000023</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="1" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B1203" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>111</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>117</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1203" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1203" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>-38.67000000000023</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="1" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B1204" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>Guangzhou</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>97</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>104</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1204" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>-39.67000000000023</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="1" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B1205" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>LG Sakers</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>Suwon KT</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1205" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>-40.67000000000023</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="1" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B1206" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>Northern Kentucky</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>Wisc. Milwaukee</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1206" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1206" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>-39.87000000000023</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="1" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B1207" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>CSU Sibiu</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>Dinamo Bucharest</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1207" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>-40.87000000000023</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="1" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B1208" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>Urupan</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>Goes</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1208" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1208" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>-40.02000000000023</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B1209" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>Coll Of Charltn</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>Towson</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>56</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1209" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1209" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>-41.02000000000023</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="1" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B1210" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>Nebraska O.</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1210" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1210" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>-42.02000000000023</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="1" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B1211" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>Gilboa Galil</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1211" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1211" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>-43.02000000000023</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="1" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B1212" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>Nika Siktivkar F</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>Nadezhda F</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>58</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1212" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>-44.02000000000023</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="1" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B1213" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>109</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1213" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1213" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>-45.02000000000023</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="1" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B1214" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>129</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1214" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1214" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>-46.02000000000023</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B1215" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>JL Bourg</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>Prometey</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1215" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1215" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>-45.19000000000023</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="1" t="n">
+        <v>1214</v>
+      </c>
+      <c r="B1216" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>UCF Knights</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>Oklahoma State</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>62</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1216" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1216" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>-44.28000000000024</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="1" t="n">
+        <v>1215</v>
+      </c>
+      <c r="B1217" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>La Salle</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>George Washington</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1217" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>-45.28000000000024</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="1" t="n">
+        <v>1216</v>
+      </c>
+      <c r="B1218" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>Notre Dame</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>Georgia Tech</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1218" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1218" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>-44.37000000000024</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="1" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B1219" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>Mt. St. Marys</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>Canisius</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1219" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1219" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>-43.57000000000024</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="1" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B1220" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>Jacksonville St.</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>Florida Intl</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1220" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1220" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>-42.66000000000025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1220"/>
+  <dimension ref="A1:J1451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42654,6 +42654,8784 @@
         <v>-42.66000000000025</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" s="1" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B1221" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>113</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>104</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1221" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1221" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>-43.66000000000025</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="1" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B1222" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>Melbourne United</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>Illawarra Hawks</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>100</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1222" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1222" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>-42.79000000000025</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="1" t="n">
+        <v>1221</v>
+      </c>
+      <c r="B1223" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>Anyang JungKwanJang</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>Goyang Sono</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1223" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1223" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>-41.91000000000025</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="1" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B1224" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>George Mason</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>Saint Josephs</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>57</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1224" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1224" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>-42.91000000000025</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="1" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B1225" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>Virginia Tech</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>Florida State</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1225" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1225" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>-42.00000000000025</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="1" t="n">
+        <v>1224</v>
+      </c>
+      <c r="B1226" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>Wichita State</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1226" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>-41.20000000000025</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="1" t="n">
+        <v>1225</v>
+      </c>
+      <c r="B1227" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>Alcorn State</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>Alabama A&amp;M</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1227" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1227" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>-42.20000000000025</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="1" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B1228" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>Temple</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>UTSA Roadrunners</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>61</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1228" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1228" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>-43.20000000000025</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="1" t="n">
+        <v>1227</v>
+      </c>
+      <c r="B1229" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>Butler</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>Xavier</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1229" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1229" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>-44.20000000000025</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="1" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B1230" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>Maryland</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>Rutgers</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1230" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1230" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>-45.20000000000025</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="1" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B1231" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>UC Riverside</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>Cal St. Bakersfield</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1231" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1231" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>-44.40000000000025</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B1232" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>Missouri</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1232" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1232" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>-45.40000000000025</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B1233" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>Grambling St.</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>Alabama State</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>56</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1233" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1233" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>-46.40000000000025</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B1234" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>Bahcesehir Kol.</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1234" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>-47.40000000000025</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B1235" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>Bilbao</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1235" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1235" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>-48.40000000000025</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B1236" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>Varese</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>Nymburk</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1236" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1236" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>-47.53000000000026</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="n">
+        <v>1235</v>
+      </c>
+      <c r="B1237" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>Blackwater Bossing</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>NLEX Road Warriors</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>97</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1237" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1237" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>-46.67000000000026</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="1" t="n">
+        <v>1236</v>
+      </c>
+      <c r="B1238" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>Sdent BBC Nyon</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1238" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1238" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>-47.67000000000026</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="1" t="n">
+        <v>1237</v>
+      </c>
+      <c r="B1239" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>Bersa</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>Sertas Spor</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1239" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1239" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>-46.81000000000026</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="n">
+        <v>1238</v>
+      </c>
+      <c r="B1240" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>KK Triglav Kranj</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>Sencur</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1240" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>-47.81000000000026</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="1" t="n">
+        <v>1239</v>
+      </c>
+      <c r="B1241" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>Sam Houston St.</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>Florida Intl</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1241" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1241" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>-48.81000000000026</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="1" t="n">
+        <v>1240</v>
+      </c>
+      <c r="B1242" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>Syracuse</t>
+        </is>
+      </c>
+      <c r="D1242" t="inlineStr">
+        <is>
+          <t>N.C. State</t>
+        </is>
+      </c>
+      <c r="E1242" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1242" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>-49.81000000000026</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="1" t="n">
+        <v>1241</v>
+      </c>
+      <c r="B1243" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>Clemson</t>
+        </is>
+      </c>
+      <c r="D1243" t="inlineStr">
+        <is>
+          <t>Boston College</t>
+        </is>
+      </c>
+      <c r="E1243" t="n">
+        <v>55</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1243" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1243" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>-50.81000000000026</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="1" t="n">
+        <v>1242</v>
+      </c>
+      <c r="B1244" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="D1244" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="E1244" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1244" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>-51.81000000000026</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="1" t="n">
+        <v>1243</v>
+      </c>
+      <c r="B1245" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="D1245" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="E1245" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1245" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1245" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>-52.81000000000026</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="1" t="n">
+        <v>1244</v>
+      </c>
+      <c r="B1246" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="D1246" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="E1246" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1246" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>-53.81000000000026</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="1" t="n">
+        <v>1245</v>
+      </c>
+      <c r="B1247" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>Perth Lynx F</t>
+        </is>
+      </c>
+      <c r="D1247" t="inlineStr">
+        <is>
+          <t>Southside F</t>
+        </is>
+      </c>
+      <c r="E1247" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1247" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1247" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>-52.96000000000026</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="1" t="n">
+        <v>1246</v>
+      </c>
+      <c r="B1248" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>Nanjing Tongxi</t>
+        </is>
+      </c>
+      <c r="D1248" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
+      <c r="E1248" t="n">
+        <v>120</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>123</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1248" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1248" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>-52.16000000000026</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="1" t="n">
+        <v>1247</v>
+      </c>
+      <c r="B1249" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>Anyang JungKwanJang</t>
+        </is>
+      </c>
+      <c r="D1249" t="inlineStr">
+        <is>
+          <t>Seoul Thunders</t>
+        </is>
+      </c>
+      <c r="E1249" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1249" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1249" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>-53.16000000000026</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="1" t="n">
+        <v>1248</v>
+      </c>
+      <c r="B1250" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>Stephen F. Austin</t>
+        </is>
+      </c>
+      <c r="D1250" t="inlineStr">
+        <is>
+          <t>Abilene Christian</t>
+        </is>
+      </c>
+      <c r="E1250" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>57</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1250" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1250" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>-54.16000000000026</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="1" t="n">
+        <v>1249</v>
+      </c>
+      <c r="B1251" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>UC Santa Barbara</t>
+        </is>
+      </c>
+      <c r="D1251" t="inlineStr">
+        <is>
+          <t>CS Northridge</t>
+        </is>
+      </c>
+      <c r="E1251" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1251" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1251" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>-53.36000000000026</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B1252" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>East Carolina</t>
+        </is>
+      </c>
+      <c r="D1252" t="inlineStr">
+        <is>
+          <t>Tulsa</t>
+        </is>
+      </c>
+      <c r="E1252" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1252" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1252" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>-52.56000000000027</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="1" t="n">
+        <v>1251</v>
+      </c>
+      <c r="B1253" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>Liberty</t>
+        </is>
+      </c>
+      <c r="D1253" t="inlineStr">
+        <is>
+          <t>UTEP</t>
+        </is>
+      </c>
+      <c r="E1253" t="n">
+        <v>57</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1253" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1253" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>-53.56000000000027</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="1" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B1254" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D1254" t="inlineStr">
+        <is>
+          <t>St. Peters</t>
+        </is>
+      </c>
+      <c r="E1254" t="n">
+        <v>48</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1254" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1254" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>-54.56000000000027</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="1" t="n">
+        <v>1253</v>
+      </c>
+      <c r="B1255" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="D1255" t="inlineStr">
+        <is>
+          <t>Saint Josephs</t>
+        </is>
+      </c>
+      <c r="E1255" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1255" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1255" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>-55.56000000000027</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="1" t="n">
+        <v>1254</v>
+      </c>
+      <c r="B1256" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="D1256" t="inlineStr">
+        <is>
+          <t>Maryland</t>
+        </is>
+      </c>
+      <c r="E1256" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>56</v>
+      </c>
+      <c r="G1256" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1256" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1256" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>-54.65000000000027</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="1" t="n">
+        <v>1255</v>
+      </c>
+      <c r="B1257" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D1257" t="inlineStr">
+        <is>
+          <t>TCU</t>
+        </is>
+      </c>
+      <c r="E1257" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>45</v>
+      </c>
+      <c r="G1257" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1257" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1257" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>-55.65000000000027</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="1" t="n">
+        <v>1256</v>
+      </c>
+      <c r="B1258" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>Utah State</t>
+        </is>
+      </c>
+      <c r="D1258" t="inlineStr">
+        <is>
+          <t>Fresno State</t>
+        </is>
+      </c>
+      <c r="E1258" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1258" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1258" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1258" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>-54.85000000000027</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="1" t="n">
+        <v>1257</v>
+      </c>
+      <c r="B1259" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="D1259" t="inlineStr">
+        <is>
+          <t>UCLA</t>
+        </is>
+      </c>
+      <c r="E1259" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1259" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1259" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1259" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>-53.94000000000027</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="1" t="n">
+        <v>1258</v>
+      </c>
+      <c r="B1260" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>Creighton</t>
+        </is>
+      </c>
+      <c r="D1260" t="inlineStr">
+        <is>
+          <t>Providence</t>
+        </is>
+      </c>
+      <c r="E1260" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1260" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1260" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1260" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>-53.03000000000028</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="1" t="n">
+        <v>1259</v>
+      </c>
+      <c r="B1261" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>Nevada</t>
+        </is>
+      </c>
+      <c r="D1261" t="inlineStr">
+        <is>
+          <t>Colorado State</t>
+        </is>
+      </c>
+      <c r="E1261" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1261" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1261" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1261" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>-52.12000000000028</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="1" t="n">
+        <v>1260</v>
+      </c>
+      <c r="B1262" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>SMU Mustangs</t>
+        </is>
+      </c>
+      <c r="D1262" t="inlineStr">
+        <is>
+          <t>Temple</t>
+        </is>
+      </c>
+      <c r="E1262" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1262" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1262" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>-53.12000000000028</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="1" t="n">
+        <v>1261</v>
+      </c>
+      <c r="B1263" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>Marquette</t>
+        </is>
+      </c>
+      <c r="D1263" t="inlineStr">
+        <is>
+          <t>Villanova</t>
+        </is>
+      </c>
+      <c r="E1263" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1263" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1263" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>-54.12000000000028</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="1" t="n">
+        <v>1262</v>
+      </c>
+      <c r="B1264" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D1264" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E1264" t="n">
+        <v>124</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>122</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1264" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1264" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>-53.19000000000028</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="1" t="n">
+        <v>1263</v>
+      </c>
+      <c r="B1265" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="D1265" t="inlineStr">
+        <is>
+          <t>Zalgiris Kaunas</t>
+        </is>
+      </c>
+      <c r="E1265" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>58</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1265" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1265" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>-54.19000000000028</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="1" t="n">
+        <v>1264</v>
+      </c>
+      <c r="B1266" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>Boise State</t>
+        </is>
+      </c>
+      <c r="D1266" t="inlineStr">
+        <is>
+          <t>New Mexico</t>
+        </is>
+      </c>
+      <c r="E1266" t="n">
+        <v>66</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1266" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1266" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>-55.19000000000028</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="1" t="n">
+        <v>1265</v>
+      </c>
+      <c r="B1267" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>Long Beach State</t>
+        </is>
+      </c>
+      <c r="D1267" t="inlineStr">
+        <is>
+          <t>UC Riverside</t>
+        </is>
+      </c>
+      <c r="E1267" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1267" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1267" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>-54.39000000000028</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="1" t="n">
+        <v>1266</v>
+      </c>
+      <c r="B1268" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>Texas Arlington</t>
+        </is>
+      </c>
+      <c r="D1268" t="inlineStr">
+        <is>
+          <t>Stephen F. Austin</t>
+        </is>
+      </c>
+      <c r="E1268" t="n">
+        <v>109</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1268" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1268" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>-53.48000000000029</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="1" t="n">
+        <v>1267</v>
+      </c>
+      <c r="B1269" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>Bisons Loimaa</t>
+        </is>
+      </c>
+      <c r="D1269" t="inlineStr">
+        <is>
+          <t>Pyrinto Tampere</t>
+        </is>
+      </c>
+      <c r="E1269" t="n">
+        <v>100</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1269" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1269" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>-52.60000000000029</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="1" t="n">
+        <v>1268</v>
+      </c>
+      <c r="B1270" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>Roanne</t>
+        </is>
+      </c>
+      <c r="D1270" t="inlineStr">
+        <is>
+          <t>Gravelines-Dunkerque</t>
+        </is>
+      </c>
+      <c r="E1270" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1270" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1270" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>-53.60000000000029</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="1" t="n">
+        <v>1269</v>
+      </c>
+      <c r="B1271" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>La Roche F</t>
+        </is>
+      </c>
+      <c r="D1271" t="inlineStr">
+        <is>
+          <t>Tarbes GB F</t>
+        </is>
+      </c>
+      <c r="E1271" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1271" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>-54.60000000000029</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="1" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B1272" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>Opava 2</t>
+        </is>
+      </c>
+      <c r="D1272" t="inlineStr">
+        <is>
+          <t>Litomerice</t>
+        </is>
+      </c>
+      <c r="E1272" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1272" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1272" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>-53.74000000000029</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="1" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B1273" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>Kocaeli BŞB Kağıtspor</t>
+        </is>
+      </c>
+      <c r="D1273" t="inlineStr">
+        <is>
+          <t>Final Spor</t>
+        </is>
+      </c>
+      <c r="E1273" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1273" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1273" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>-54.74000000000029</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="1" t="n">
+        <v>1272</v>
+      </c>
+      <c r="B1274" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>Purdue</t>
+        </is>
+      </c>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>Michigan State</t>
+        </is>
+      </c>
+      <c r="E1274" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>62</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1274" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1274" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>-55.74000000000029</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="1" t="n">
+        <v>1273</v>
+      </c>
+      <c r="B1275" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>Norfolk State</t>
+        </is>
+      </c>
+      <c r="D1275" t="inlineStr">
+        <is>
+          <t>Howard</t>
+        </is>
+      </c>
+      <c r="E1275" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1275" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1275" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>-54.94000000000029</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="1" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B1276" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>Quinnipiac</t>
+        </is>
+      </c>
+      <c r="D1276" t="inlineStr">
+        <is>
+          <t>St. Peters</t>
+        </is>
+      </c>
+      <c r="E1276" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>62</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1276" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1276" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>-55.94000000000029</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="1" t="n">
+        <v>1275</v>
+      </c>
+      <c r="B1277" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>North Carolina</t>
+        </is>
+      </c>
+      <c r="D1277" t="inlineStr">
+        <is>
+          <t>Pittsburgh</t>
+        </is>
+      </c>
+      <c r="E1277" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1277" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1277" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>-56.94000000000029</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="1" t="n">
+        <v>1276</v>
+      </c>
+      <c r="B1278" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>Manresa</t>
+        </is>
+      </c>
+      <c r="D1278" t="inlineStr">
+        <is>
+          <t>Gran Canaria</t>
+        </is>
+      </c>
+      <c r="E1278" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1278" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1278" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>-57.94000000000029</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="1" t="n">
+        <v>1277</v>
+      </c>
+      <c r="B1279" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E1279" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>98</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1279" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1279" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>-58.94000000000029</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="1" t="n">
+        <v>1278</v>
+      </c>
+      <c r="B1280" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="D1280" t="inlineStr">
+        <is>
+          <t>Rostock</t>
+        </is>
+      </c>
+      <c r="E1280" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1280" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1280" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>-59.94000000000029</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="1" t="n">
+        <v>1279</v>
+      </c>
+      <c r="B1281" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="D1281" t="inlineStr">
+        <is>
+          <t>Gimnasia</t>
+        </is>
+      </c>
+      <c r="E1281" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1281" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1281" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>-60.94000000000029</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="1" t="n">
+        <v>1280</v>
+      </c>
+      <c r="B1282" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>Shanxi Zhongyu</t>
+        </is>
+      </c>
+      <c r="D1282" t="inlineStr">
+        <is>
+          <t>Nanjing Tongxi</t>
+        </is>
+      </c>
+      <c r="E1282" t="n">
+        <v>135</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>107</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1282" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1282" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>-60.07000000000029</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="1" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B1283" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>Tajfun Sentjur</t>
+        </is>
+      </c>
+      <c r="D1283" t="inlineStr">
+        <is>
+          <t>KK Triglav Kranj</t>
+        </is>
+      </c>
+      <c r="E1283" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1283" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1283" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>-59.27000000000029</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="1" t="n">
+        <v>1282</v>
+      </c>
+      <c r="B1284" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>Alicante</t>
+        </is>
+      </c>
+      <c r="D1284" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="E1284" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1284" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>-60.27000000000029</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="1" t="n">
+        <v>1283</v>
+      </c>
+      <c r="B1285" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>Gernika Bizkaia F</t>
+        </is>
+      </c>
+      <c r="D1285" t="inlineStr">
+        <is>
+          <t>Jairis F</t>
+        </is>
+      </c>
+      <c r="E1285" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1285" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1285" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>-61.27000000000029</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="1" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B1286" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>Tarleton</t>
+        </is>
+      </c>
+      <c r="D1286" t="inlineStr">
+        <is>
+          <t>Texas Arlington</t>
+        </is>
+      </c>
+      <c r="E1286" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1286" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1286" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>-60.3600000000003</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="1" t="n">
+        <v>1285</v>
+      </c>
+      <c r="B1287" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>UC Davis</t>
+        </is>
+      </c>
+      <c r="D1287" t="inlineStr">
+        <is>
+          <t>Hawaii</t>
+        </is>
+      </c>
+      <c r="E1287" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1287" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1287" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>-61.3600000000003</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="1" t="n">
+        <v>1286</v>
+      </c>
+      <c r="B1288" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>New Mexico</t>
+        </is>
+      </c>
+      <c r="D1288" t="inlineStr">
+        <is>
+          <t>Colorado State</t>
+        </is>
+      </c>
+      <c r="E1288" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>61</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1288" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1288" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>-62.3600000000003</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="1" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B1289" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>VCU Rams</t>
+        </is>
+      </c>
+      <c r="D1289" t="inlineStr">
+        <is>
+          <t>Saint Josephs</t>
+        </is>
+      </c>
+      <c r="E1289" t="n">
+        <v>66</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1289" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1289" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>-63.3600000000003</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="1" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B1290" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>Yale</t>
+        </is>
+      </c>
+      <c r="D1290" t="inlineStr">
+        <is>
+          <t>Cornell</t>
+        </is>
+      </c>
+      <c r="E1290" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>57</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1290" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1290" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>-64.3600000000003</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="1" t="n">
+        <v>1289</v>
+      </c>
+      <c r="B1291" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>Duquesne</t>
+        </is>
+      </c>
+      <c r="D1291" t="inlineStr">
+        <is>
+          <t>St. Bonaventure</t>
+        </is>
+      </c>
+      <c r="E1291" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1291" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1291" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>-65.3600000000003</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="1" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B1292" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>Esperos</t>
+        </is>
+      </c>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>Eleftheroupoli</t>
+        </is>
+      </c>
+      <c r="E1292" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1292" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>-66.3600000000003</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="1" t="n">
+        <v>1291</v>
+      </c>
+      <c r="B1293" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>Kaposvari</t>
+        </is>
+      </c>
+      <c r="D1293" t="inlineStr">
+        <is>
+          <t>OSE Lions</t>
+        </is>
+      </c>
+      <c r="E1293" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>102</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1293" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1293" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>-65.5100000000003</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="1" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B1294" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>Dabrowa Gornicza</t>
+        </is>
+      </c>
+      <c r="D1294" t="inlineStr">
+        <is>
+          <t>Ostrow Wielkopolski</t>
+        </is>
+      </c>
+      <c r="E1294" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1294" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1294" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>-66.5100000000003</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="1" t="n">
+        <v>1293</v>
+      </c>
+      <c r="B1295" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>Sodertalje</t>
+        </is>
+      </c>
+      <c r="D1295" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="E1295" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1295" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1295" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>-65.6400000000003</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="1" t="n">
+        <v>1294</v>
+      </c>
+      <c r="B1296" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="D1296" t="inlineStr">
+        <is>
+          <t>Prat Joventut</t>
+        </is>
+      </c>
+      <c r="E1296" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1296" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1296" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>-66.6400000000003</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B1297" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>Mataro</t>
+        </is>
+      </c>
+      <c r="D1297" t="inlineStr">
+        <is>
+          <t>Benicarlo</t>
+        </is>
+      </c>
+      <c r="E1297" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1297" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1297" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>-67.6400000000003</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="1" t="n">
+        <v>1296</v>
+      </c>
+      <c r="B1298" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>Auburn</t>
+        </is>
+      </c>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>Mississippi St.</t>
+        </is>
+      </c>
+      <c r="E1298" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1298" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1298" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>-68.6400000000003</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="1" t="n">
+        <v>1297</v>
+      </c>
+      <c r="B1299" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>South Florida</t>
+        </is>
+      </c>
+      <c r="D1299" t="inlineStr">
+        <is>
+          <t>UAB</t>
+        </is>
+      </c>
+      <c r="E1299" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>93</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1299" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1299" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>-67.7300000000003</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="1" t="n">
+        <v>1298</v>
+      </c>
+      <c r="B1300" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M</t>
+        </is>
+      </c>
+      <c r="E1300" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1300" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1300" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>-66.93000000000031</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="1" t="n">
+        <v>1299</v>
+      </c>
+      <c r="B1301" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>San Diego State</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>New Mexico</t>
+        </is>
+      </c>
+      <c r="E1301" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H1301" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1301" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>-67.93000000000031</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="1" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B1302" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>Fairfield</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>St. Peters</t>
+        </is>
+      </c>
+      <c r="E1302" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1302" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1302" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>-67.13000000000031</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="1" t="n">
+        <v>1301</v>
+      </c>
+      <c r="B1303" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>Western Kentucky</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>UTEP</t>
+        </is>
+      </c>
+      <c r="E1303" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1303" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1303" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>-66.33000000000031</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="1" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B1304" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="E1304" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1304" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1304" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>-67.33000000000031</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="1" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B1305" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>UC Davis</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>Long Beach State</t>
+        </is>
+      </c>
+      <c r="E1305" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1305" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1305" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>-66.53000000000031</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="1" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B1306" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E1306" t="n">
+        <v>140</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>129</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1306" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1306" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>-65.60000000000031</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="1" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B1307" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E1307" t="n">
+        <v>122</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>115</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1307" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1307" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>-64.74000000000031</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="1" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B1308" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>Brindisi</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="E1308" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1308" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1308" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>-63.88000000000031</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="1" t="n">
+        <v>1307</v>
+      </c>
+      <c r="B1309" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>Jiangsu Dragons</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>Ningbo Rockets</t>
+        </is>
+      </c>
+      <c r="E1309" t="n">
+        <v>113</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1309" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1309" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>-63.05000000000031</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="1" t="n">
+        <v>1308</v>
+      </c>
+      <c r="B1310" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>Uralmash Ekaterinburg</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>MBA Moscow</t>
+        </is>
+      </c>
+      <c r="E1310" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1310" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1310" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>-64.05000000000031</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="1" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B1311" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>Yulon Luxgen Dinos</t>
+        </is>
+      </c>
+      <c r="D1311" t="inlineStr">
+        <is>
+          <t>Changhua</t>
+        </is>
+      </c>
+      <c r="E1311" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1311" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1311" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>-63.19000000000031</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="1" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B1312" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>Yale</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="E1312" t="n">
+        <v>62</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>61</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1312" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1312" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>-64.19000000000031</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B1313" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>VCU Rams</t>
+        </is>
+      </c>
+      <c r="D1313" t="inlineStr">
+        <is>
+          <t>Duquesne</t>
+        </is>
+      </c>
+      <c r="E1313" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>57</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1313" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1313" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>-65.19000000000031</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B1314" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="D1314" t="inlineStr">
+        <is>
+          <t>Wisconsin</t>
+        </is>
+      </c>
+      <c r="E1314" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1314" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1314" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>-64.39000000000031</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="n">
+        <v>1313</v>
+      </c>
+      <c r="B1315" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>Vechta</t>
+        </is>
+      </c>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="E1315" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1315" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1315" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>-65.39000000000031</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="n">
+        <v>1314</v>
+      </c>
+      <c r="B1316" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>Zarate</t>
+        </is>
+      </c>
+      <c r="D1316" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="E1316" t="n">
+        <v>40</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1316" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1316" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>-66.39000000000031</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="n">
+        <v>1315</v>
+      </c>
+      <c r="B1317" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>Buyukcekmece</t>
+        </is>
+      </c>
+      <c r="D1317" t="inlineStr">
+        <is>
+          <t>Bahcesehir Kol.</t>
+        </is>
+      </c>
+      <c r="E1317" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1317" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1317" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>-67.39000000000031</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="n">
+        <v>1316</v>
+      </c>
+      <c r="B1318" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>Esenler Erokspor</t>
+        </is>
+      </c>
+      <c r="D1318" t="inlineStr">
+        <is>
+          <t>Fenerbahce 2</t>
+        </is>
+      </c>
+      <c r="E1318" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1318" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1318" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>-68.39000000000031</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="1" t="n">
+        <v>1317</v>
+      </c>
+      <c r="B1319" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="D1319" t="inlineStr">
+        <is>
+          <t>Hebraica y Macabi</t>
+        </is>
+      </c>
+      <c r="E1319" t="n">
+        <v>66</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>101</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1319" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1319" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>-69.39000000000031</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="1" t="n">
+        <v>1318</v>
+      </c>
+      <c r="B1320" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>LTH Castings</t>
+        </is>
+      </c>
+      <c r="D1320" t="inlineStr">
+        <is>
+          <t>Podcetrtek</t>
+        </is>
+      </c>
+      <c r="E1320" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1320" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1320" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>-70.39000000000031</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="1" t="n">
+        <v>1319</v>
+      </c>
+      <c r="B1321" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>Zalgiris Kaunas</t>
+        </is>
+      </c>
+      <c r="D1321" t="inlineStr">
+        <is>
+          <t>Virtus Bologna</t>
+        </is>
+      </c>
+      <c r="E1321" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1321" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1321" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>-69.48000000000032</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="B1322" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>Howard</t>
+        </is>
+      </c>
+      <c r="D1322" t="inlineStr">
+        <is>
+          <t>Wagner</t>
+        </is>
+      </c>
+      <c r="E1322" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1322" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1322" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>-68.68000000000032</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="1" t="n">
+        <v>1321</v>
+      </c>
+      <c r="B1323" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="D1323" t="inlineStr">
+        <is>
+          <t>Xavier</t>
+        </is>
+      </c>
+      <c r="E1323" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1323" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1323" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>-67.88000000000032</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="1" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B1324" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>North Texas</t>
+        </is>
+      </c>
+      <c r="E1324" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1324" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1324" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>-67.08000000000033</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="n">
+        <v>1323</v>
+      </c>
+      <c r="B1325" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>Tofas</t>
+        </is>
+      </c>
+      <c r="E1325" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1325" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1325" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>-68.08000000000033</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="n">
+        <v>1324</v>
+      </c>
+      <c r="B1326" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>Ramat Hasharon</t>
+        </is>
+      </c>
+      <c r="D1326" t="inlineStr">
+        <is>
+          <t>Safed</t>
+        </is>
+      </c>
+      <c r="E1326" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1326" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>-69.08000000000033</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="1" t="n">
+        <v>1325</v>
+      </c>
+      <c r="B1327" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>Etha Encomi</t>
+        </is>
+      </c>
+      <c r="D1327" t="inlineStr">
+        <is>
+          <t>Apop Paphou</t>
+        </is>
+      </c>
+      <c r="E1327" t="n">
+        <v>62</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1327" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1327" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>-70.08000000000033</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="1" t="n">
+        <v>1326</v>
+      </c>
+      <c r="B1328" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>Butler</t>
+        </is>
+      </c>
+      <c r="D1328" t="inlineStr">
+        <is>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="E1328" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1328" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1328" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>-71.08000000000033</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="1" t="n">
+        <v>1327</v>
+      </c>
+      <c r="B1329" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E1329" t="n">
+        <v>104</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>107</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1329" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1329" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>-70.25000000000033</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="1" t="n">
+        <v>1328</v>
+      </c>
+      <c r="B1330" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="D1330" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E1330" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1330" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>-71.25000000000033</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="1" t="n">
+        <v>1329</v>
+      </c>
+      <c r="B1331" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D1331" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="E1331" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1331" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1331" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>-72.25000000000033</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="1" t="n">
+        <v>1330</v>
+      </c>
+      <c r="B1332" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>Mrkonjic Grad</t>
+        </is>
+      </c>
+      <c r="D1332" t="inlineStr">
+        <is>
+          <t>Spars Ilidza</t>
+        </is>
+      </c>
+      <c r="E1332" t="n">
+        <v>108</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1332" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1332" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>-71.44000000000032</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="1" t="n">
+        <v>1331</v>
+      </c>
+      <c r="B1333" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="D1333" t="inlineStr">
+        <is>
+          <t>Shanghai</t>
+        </is>
+      </c>
+      <c r="E1333" t="n">
+        <v>118</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>102</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1333" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1333" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>-70.63000000000032</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="1" t="n">
+        <v>1332</v>
+      </c>
+      <c r="B1334" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>Montana State</t>
+        </is>
+      </c>
+      <c r="D1334" t="inlineStr">
+        <is>
+          <t>Grambling St.</t>
+        </is>
+      </c>
+      <c r="E1334" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1334" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1334" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>-69.72000000000033</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="1" t="n">
+        <v>1333</v>
+      </c>
+      <c r="B1335" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>Seton Hall</t>
+        </is>
+      </c>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>Saint Josephs</t>
+        </is>
+      </c>
+      <c r="E1335" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1335" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1335" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>-68.81000000000033</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="1" t="n">
+        <v>1334</v>
+      </c>
+      <c r="B1336" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>Princeton</t>
+        </is>
+      </c>
+      <c r="D1336" t="inlineStr">
+        <is>
+          <t>UNLV</t>
+        </is>
+      </c>
+      <c r="E1336" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1336" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1336" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>-67.90000000000033</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="1" t="n">
+        <v>1335</v>
+      </c>
+      <c r="B1337" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>Wake Forest</t>
+        </is>
+      </c>
+      <c r="D1337" t="inlineStr">
+        <is>
+          <t>Appalachian State</t>
+        </is>
+      </c>
+      <c r="E1337" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1337" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1337" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>-66.99000000000034</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="1" t="n">
+        <v>1336</v>
+      </c>
+      <c r="B1338" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>Ludwigsburg</t>
+        </is>
+      </c>
+      <c r="D1338" t="inlineStr">
+        <is>
+          <t>Bonn</t>
+        </is>
+      </c>
+      <c r="E1338" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1338" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1338" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>-67.99000000000034</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="1" t="n">
+        <v>1337</v>
+      </c>
+      <c r="B1339" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>Nagasaki</t>
+        </is>
+      </c>
+      <c r="D1339" t="inlineStr">
+        <is>
+          <t>Saga</t>
+        </is>
+      </c>
+      <c r="E1339" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1339" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>-68.99000000000034</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="1" t="n">
+        <v>1338</v>
+      </c>
+      <c r="B1340" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>Ostioneros de Guaymas</t>
+        </is>
+      </c>
+      <c r="D1340" t="inlineStr">
+        <is>
+          <t>Frayles de Guasave</t>
+        </is>
+      </c>
+      <c r="E1340" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1340" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1340" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>-68.15000000000033</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="1" t="n">
+        <v>1339</v>
+      </c>
+      <c r="B1341" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>Antalya 07 F</t>
+        </is>
+      </c>
+      <c r="D1341" t="inlineStr">
+        <is>
+          <t>Bursa F</t>
+        </is>
+      </c>
+      <c r="E1341" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1341" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1341" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>-69.15000000000033</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="1" t="n">
+        <v>1340</v>
+      </c>
+      <c r="B1342" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>Bellona Kayseri F</t>
+        </is>
+      </c>
+      <c r="D1342" t="inlineStr">
+        <is>
+          <t>Botas F</t>
+        </is>
+      </c>
+      <c r="E1342" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1342" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1342" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>-70.15000000000033</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="1" t="n">
+        <v>1341</v>
+      </c>
+      <c r="B1343" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>CBK Mersin F</t>
+        </is>
+      </c>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>Galatasaray F</t>
+        </is>
+      </c>
+      <c r="E1343" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>99</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1343" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1343" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>-69.29000000000033</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="1" t="n">
+        <v>1342</v>
+      </c>
+      <c r="B1344" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>Trouville</t>
+        </is>
+      </c>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>Bigua</t>
+        </is>
+      </c>
+      <c r="E1344" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1344" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>-70.29000000000033</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="1" t="n">
+        <v>1343</v>
+      </c>
+      <c r="B1345" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>Bowling Green</t>
+        </is>
+      </c>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>IPFW</t>
+        </is>
+      </c>
+      <c r="E1345" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1345" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1345" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>-69.49000000000034</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="1" t="n">
+        <v>1344</v>
+      </c>
+      <c r="B1346" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>Puhuttaret F</t>
+        </is>
+      </c>
+      <c r="D1346" t="inlineStr">
+        <is>
+          <t>Lappeenranta F</t>
+        </is>
+      </c>
+      <c r="E1346" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>57</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1346" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1346" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>-68.64000000000034</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="1" t="n">
+        <v>1345</v>
+      </c>
+      <c r="B1347" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D1347" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E1347" t="n">
+        <v>127</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>117</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1347" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1347" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>-67.81000000000034</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="1" t="n">
+        <v>1346</v>
+      </c>
+      <c r="B1348" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>Zalgiris Kaunas</t>
+        </is>
+      </c>
+      <c r="D1348" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="E1348" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1348" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1348" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>-66.99000000000035</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="1" t="n">
+        <v>1347</v>
+      </c>
+      <c r="B1349" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>Seoul Knights</t>
+        </is>
+      </c>
+      <c r="D1349" t="inlineStr">
+        <is>
+          <t>Wonju DB</t>
+        </is>
+      </c>
+      <c r="E1349" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1349" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1349" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>-66.16000000000035</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="1" t="n">
+        <v>1348</v>
+      </c>
+      <c r="B1350" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>Brigham Young</t>
+        </is>
+      </c>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>Duquesne</t>
+        </is>
+      </c>
+      <c r="E1350" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1350" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1350" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>-67.16000000000035</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="1" t="n">
+        <v>1349</v>
+      </c>
+      <c r="B1351" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>Creighton</t>
+        </is>
+      </c>
+      <c r="D1351" t="inlineStr">
+        <is>
+          <t>Akron</t>
+        </is>
+      </c>
+      <c r="E1351" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1351" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1351" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>-68.16000000000035</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="1" t="n">
+        <v>1350</v>
+      </c>
+      <c r="B1352" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="D1352" t="inlineStr">
+        <is>
+          <t>Morehead State</t>
+        </is>
+      </c>
+      <c r="E1352" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1352" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1352" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>-67.36000000000035</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="1" t="n">
+        <v>1351</v>
+      </c>
+      <c r="B1353" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>Dayton</t>
+        </is>
+      </c>
+      <c r="D1353" t="inlineStr">
+        <is>
+          <t>Nevada</t>
+        </is>
+      </c>
+      <c r="E1353" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1353" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1353" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>-68.36000000000035</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="1" t="n">
+        <v>1352</v>
+      </c>
+      <c r="B1354" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>Lancut</t>
+        </is>
+      </c>
+      <c r="D1354" t="inlineStr">
+        <is>
+          <t>Torun</t>
+        </is>
+      </c>
+      <c r="E1354" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1354" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1354" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>-67.56000000000036</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="1" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B1355" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D1355" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E1355" t="n">
+        <v>115</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>108</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1355" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1355" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>-66.63000000000035</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="1" t="n">
+        <v>1354</v>
+      </c>
+      <c r="B1356" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D1356" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E1356" t="n">
+        <v>128</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>115</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1356" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1356" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>-65.70000000000034</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="1" t="n">
+        <v>1355</v>
+      </c>
+      <c r="B1357" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>Mississippi St.</t>
+        </is>
+      </c>
+      <c r="D1357" t="inlineStr">
+        <is>
+          <t>Michigan State</t>
+        </is>
+      </c>
+      <c r="E1357" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1357" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1357" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>-66.70000000000034</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="1" t="n">
+        <v>1356</v>
+      </c>
+      <c r="B1358" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>South Carolina</t>
+        </is>
+      </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>Oregon</t>
+        </is>
+      </c>
+      <c r="E1358" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1358" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1358" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>-65.79000000000035</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="1" t="n">
+        <v>1357</v>
+      </c>
+      <c r="B1359" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>Dome-Springs Izhevsk</t>
+        </is>
+      </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>Tambov</t>
+        </is>
+      </c>
+      <c r="E1359" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1359" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1359" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>-64.94000000000035</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="1" t="n">
+        <v>1358</v>
+      </c>
+      <c r="B1360" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>Sodie Mesquita F</t>
+        </is>
+      </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>Blumenau F</t>
+        </is>
+      </c>
+      <c r="E1360" t="n">
+        <v>53</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1360" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1360" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>-65.94000000000035</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="1" t="n">
+        <v>1359</v>
+      </c>
+      <c r="B1361" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="E1361" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1361" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1361" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>-66.94000000000035</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="1" t="n">
+        <v>1360</v>
+      </c>
+      <c r="B1362" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E1362" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1362" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1362" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>-66.09000000000036</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="1" t="n">
+        <v>1361</v>
+      </c>
+      <c r="B1363" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="E1363" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1363" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1363" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>-67.09000000000036</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="1" t="n">
+        <v>1362</v>
+      </c>
+      <c r="B1364" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>Rostock</t>
+        </is>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>Bamberg</t>
+        </is>
+      </c>
+      <c r="E1364" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>98</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1364" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1364" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>-66.28000000000036</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="1" t="n">
+        <v>1363</v>
+      </c>
+      <c r="B1365" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>Dbae</t>
+        </is>
+      </c>
+      <c r="E1365" t="n">
+        <v>101</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1365" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1365" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>-65.45000000000036</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="1" t="n">
+        <v>1364</v>
+      </c>
+      <c r="B1366" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>Tasmania JackJumpers</t>
+        </is>
+      </c>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>Melbourne United</t>
+        </is>
+      </c>
+      <c r="E1366" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1366" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1366" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>-66.45000000000036</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="1" t="n">
+        <v>1365</v>
+      </c>
+      <c r="B1367" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>UBSC Graz</t>
+        </is>
+      </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>Traiskirchen</t>
+        </is>
+      </c>
+      <c r="E1367" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1367" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1367" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>-65.58000000000035</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="1" t="n">
+        <v>1366</v>
+      </c>
+      <c r="B1368" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>Puente Alto</t>
+        </is>
+      </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>Ancud</t>
+        </is>
+      </c>
+      <c r="E1368" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1368" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1368" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>-66.58000000000035</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="1" t="n">
+        <v>1367</v>
+      </c>
+      <c r="B1369" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>Beijing Royal Fighters</t>
+        </is>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="E1369" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>106</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1369" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1369" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>-67.58000000000035</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="1" t="n">
+        <v>1368</v>
+      </c>
+      <c r="B1370" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>Florida Atlantic</t>
+        </is>
+      </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>Northwestern</t>
+        </is>
+      </c>
+      <c r="E1370" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1370" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1370" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>-68.58000000000035</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="1" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B1371" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>Auburn</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>Yale</t>
+        </is>
+      </c>
+      <c r="E1371" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1371" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1371" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>-67.67000000000036</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="1" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1372" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M</t>
+        </is>
+      </c>
+      <c r="E1372" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>98</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1372" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1372" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>-66.87000000000036</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="1" t="n">
+        <v>1371</v>
+      </c>
+      <c r="B1373" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>Duke</t>
+        </is>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>Vermont</t>
+        </is>
+      </c>
+      <c r="E1373" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>47</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1373" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1373" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>-67.87000000000036</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="1" t="n">
+        <v>1372</v>
+      </c>
+      <c r="B1374" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>Coll Of Charltn</t>
+        </is>
+      </c>
+      <c r="E1374" t="n">
+        <v>109</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1374" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1374" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>-67.04000000000036</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="1" t="n">
+        <v>1373</v>
+      </c>
+      <c r="B1375" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>Belfius Mons</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>Circus Brussels</t>
+        </is>
+      </c>
+      <c r="E1375" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1375" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1375" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>-68.04000000000036</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="1" t="n">
+        <v>1374</v>
+      </c>
+      <c r="B1376" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>ASA</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>Boulazac</t>
+        </is>
+      </c>
+      <c r="E1376" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>61</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1376" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1376" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>-69.04000000000036</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="1" t="n">
+        <v>1375</v>
+      </c>
+      <c r="B1377" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>Rajawali Medan</t>
+        </is>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="E1377" t="n">
+        <v>66</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1377" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1377" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>-70.04000000000036</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="1" t="n">
+        <v>1376</v>
+      </c>
+      <c r="B1378" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>Newcastle Eagles</t>
+        </is>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>Surrey Scorchers</t>
+        </is>
+      </c>
+      <c r="E1378" t="n">
+        <v>125</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1378" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1378" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>-69.24000000000036</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="1" t="n">
+        <v>1377</v>
+      </c>
+      <c r="B1379" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>Municipal Galati</t>
+        </is>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>CSM Focsani</t>
+        </is>
+      </c>
+      <c r="E1379" t="n">
+        <v>99</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1379" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1379" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>-68.41000000000037</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="1" t="n">
+        <v>1378</v>
+      </c>
+      <c r="B1380" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>Pinheiros</t>
+        </is>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>Corinthians Paulista</t>
+        </is>
+      </c>
+      <c r="E1380" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1380" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1380" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>-67.54000000000036</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="1" t="n">
+        <v>1379</v>
+      </c>
+      <c r="B1381" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E1381" t="n">
+        <v>107</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>109</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1381" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1381" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>-66.65000000000036</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="1" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1382" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>Pistoia</t>
+        </is>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>Treviso</t>
+        </is>
+      </c>
+      <c r="E1382" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1382" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1382" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>-65.81000000000036</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="1" t="n">
+        <v>1381</v>
+      </c>
+      <c r="B1383" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>Sassari</t>
+        </is>
+      </c>
+      <c r="E1383" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1383" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1383" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>-64.98000000000036</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="1" t="n">
+        <v>1382</v>
+      </c>
+      <c r="B1384" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>Crailsheim Merlins</t>
+        </is>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>Gottingen</t>
+        </is>
+      </c>
+      <c r="E1384" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1384" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1384" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>-65.98000000000036</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="1" t="n">
+        <v>1383</v>
+      </c>
+      <c r="B1385" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>Yambol</t>
+        </is>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>Levski</t>
+        </is>
+      </c>
+      <c r="E1385" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1385" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1385" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>-65.15000000000036</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="1" t="n">
+        <v>1384</v>
+      </c>
+      <c r="B1386" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>Dayton</t>
+        </is>
+      </c>
+      <c r="E1386" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1386" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1386" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>-66.15000000000036</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="1" t="n">
+        <v>1385</v>
+      </c>
+      <c r="B1387" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>North Carolina</t>
+        </is>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>Michigan State</t>
+        </is>
+      </c>
+      <c r="E1387" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1387" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1387" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>-65.35000000000036</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="1" t="n">
+        <v>1386</v>
+      </c>
+      <c r="B1388" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>Iowa State</t>
+        </is>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>Washington State</t>
+        </is>
+      </c>
+      <c r="E1388" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>56</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1388" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1388" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>-66.35000000000036</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="1" t="n">
+        <v>1387</v>
+      </c>
+      <c r="B1389" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>Duquesne</t>
+        </is>
+      </c>
+      <c r="E1389" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1389" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1389" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>-65.55000000000037</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="1" t="n">
+        <v>1388</v>
+      </c>
+      <c r="B1390" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>Helios Domzale</t>
+        </is>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>Podgorica</t>
+        </is>
+      </c>
+      <c r="E1390" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1390" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1390" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>-66.55000000000037</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="1" t="n">
+        <v>1389</v>
+      </c>
+      <c r="B1391" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>Latvijas Universitate</t>
+        </is>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>Viimsi</t>
+        </is>
+      </c>
+      <c r="E1391" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1391" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1391" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>-65.69000000000037</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="1" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1392" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>Luiss Roma</t>
+        </is>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>Cividale</t>
+        </is>
+      </c>
+      <c r="E1392" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1392" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1392" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>-64.86000000000037</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="1" t="n">
+        <v>1391</v>
+      </c>
+      <c r="B1393" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>Hiroshima D.</t>
+        </is>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>Diamond Dolphins</t>
+        </is>
+      </c>
+      <c r="E1393" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1393" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1393" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>-65.86000000000037</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="1" t="n">
+        <v>1392</v>
+      </c>
+      <c r="B1394" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>Ostioneros de Guaymas</t>
+        </is>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>Pioneros de Los Mochis</t>
+        </is>
+      </c>
+      <c r="E1394" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1394" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1394" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>-66.86000000000037</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="1" t="n">
+        <v>1393</v>
+      </c>
+      <c r="B1395" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>Sloga Uppsala</t>
+        </is>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>KFUM Fryshuset</t>
+        </is>
+      </c>
+      <c r="E1395" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1395" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1395" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>-66.01000000000037</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="1" t="n">
+        <v>1394</v>
+      </c>
+      <c r="B1396" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>Norrkoping F</t>
+        </is>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>Lulea F</t>
+        </is>
+      </c>
+      <c r="E1396" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1396" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1396" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>-65.16000000000038</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="1" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B1397" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>Basquet Girona</t>
+        </is>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>Manresa</t>
+        </is>
+      </c>
+      <c r="E1397" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1397" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1397" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>-66.16000000000038</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="1" t="n">
+        <v>1396</v>
+      </c>
+      <c r="B1398" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>Nes Ziona</t>
+        </is>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>Hapoel Holon</t>
+        </is>
+      </c>
+      <c r="E1398" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1398" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1398" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>-67.16000000000038</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="1" t="n">
+        <v>1397</v>
+      </c>
+      <c r="B1399" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="E1399" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1399" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1399" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>-66.23000000000037</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="1" t="n">
+        <v>1398</v>
+      </c>
+      <c r="B1400" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E1400" t="n">
+        <v>118</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>93</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1400" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1400" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>-67.23000000000037</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="1" t="n">
+        <v>1399</v>
+      </c>
+      <c r="B1401" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E1401" t="n">
+        <v>114</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>110</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1401" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1401" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>-66.30000000000037</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1402" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E1402" t="n">
+        <v>150</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>145</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1402" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1402" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>-65.45000000000037</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="1" t="n">
+        <v>1401</v>
+      </c>
+      <c r="B1403" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>Scafati</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>Brindisi</t>
+        </is>
+      </c>
+      <c r="E1403" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1403" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1403" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>-66.45000000000037</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="1" t="n">
+        <v>1402</v>
+      </c>
+      <c r="B1404" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>Basket Napoli</t>
+        </is>
+      </c>
+      <c r="E1404" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1404" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1404" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>-65.62000000000037</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="1" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B1405" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>Chemnitz</t>
+        </is>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>Alba Berlin</t>
+        </is>
+      </c>
+      <c r="E1405" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1405" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1405" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>-66.62000000000037</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="1" t="n">
+        <v>1404</v>
+      </c>
+      <c r="B1406" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>Norwood Flames</t>
+        </is>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>North Adelaide Rockets</t>
+        </is>
+      </c>
+      <c r="E1406" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1406" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1406" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>-67.62000000000037</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="1" t="n">
+        <v>1405</v>
+      </c>
+      <c r="B1407" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>Traiskirchen</t>
+        </is>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>Wels</t>
+        </is>
+      </c>
+      <c r="E1407" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1407" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1407" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>-66.81000000000037</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="1" t="n">
+        <v>1406</v>
+      </c>
+      <c r="B1408" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>Vienna</t>
+        </is>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>Oberwart</t>
+        </is>
+      </c>
+      <c r="E1408" t="n">
+        <v>53</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1408" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1408" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>-67.81000000000037</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="1" t="n">
+        <v>1407</v>
+      </c>
+      <c r="B1409" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>Zhejiang Chouzhou</t>
+        </is>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="E1409" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1409" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1409" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>-68.81000000000037</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="1" t="n">
+        <v>1408</v>
+      </c>
+      <c r="B1410" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>Duke</t>
+        </is>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>James Madison</t>
+        </is>
+      </c>
+      <c r="E1410" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>55</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1410" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1410" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>-69.81000000000037</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="1" t="n">
+        <v>1409</v>
+      </c>
+      <c r="B1411" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="D1411" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M</t>
+        </is>
+      </c>
+      <c r="E1411" t="n">
+        <v>100</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1411" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1411" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>-69.01000000000037</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="1" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1412" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>Northern Colorado</t>
+        </is>
+      </c>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>Cleveland State</t>
+        </is>
+      </c>
+      <c r="E1412" t="n">
+        <v>49</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1412" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1412" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>-70.01000000000037</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="1" t="n">
+        <v>1411</v>
+      </c>
+      <c r="B1413" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>Fairfield</t>
+        </is>
+      </c>
+      <c r="D1413" t="inlineStr">
+        <is>
+          <t>AR Little Rock</t>
+        </is>
+      </c>
+      <c r="E1413" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1413" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1413" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>-69.21000000000038</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="1" t="n">
+        <v>1412</v>
+      </c>
+      <c r="B1414" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>Quinnipiac</t>
+        </is>
+      </c>
+      <c r="D1414" t="inlineStr">
+        <is>
+          <t>Evansville</t>
+        </is>
+      </c>
+      <c r="E1414" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1414" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1414" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>-70.21000000000038</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="1" t="n">
+        <v>1413</v>
+      </c>
+      <c r="B1415" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>Kataja F</t>
+        </is>
+      </c>
+      <c r="D1415" t="inlineStr">
+        <is>
+          <t>Pantterit F</t>
+        </is>
+      </c>
+      <c r="E1415" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>61</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1415" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1415" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>-71.21000000000038</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="1" t="n">
+        <v>1414</v>
+      </c>
+      <c r="B1416" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>AS Karditsas</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>PAOK</t>
+        </is>
+      </c>
+      <c r="E1416" t="n">
+        <v>97</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1416" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1416" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>-70.32000000000038</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="1" t="n">
+        <v>1415</v>
+      </c>
+      <c r="B1417" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>Vigevano</t>
+        </is>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>Orzinuovi</t>
+        </is>
+      </c>
+      <c r="E1417" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1417" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1417" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>-69.47000000000038</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="1" t="n">
+        <v>1416</v>
+      </c>
+      <c r="B1418" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>Hiroshima D.</t>
+        </is>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>Diamond Dolphins</t>
+        </is>
+      </c>
+      <c r="E1418" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1418" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1418" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>-68.62000000000039</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="1" t="n">
+        <v>1417</v>
+      </c>
+      <c r="B1419" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>Sheffield Sharks</t>
+        </is>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>Newcastle Eagles</t>
+        </is>
+      </c>
+      <c r="E1419" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1419" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1419" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>-67.75000000000038</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="1" t="n">
+        <v>1418</v>
+      </c>
+      <c r="B1420" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>South Florida</t>
+        </is>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>VCU Rams</t>
+        </is>
+      </c>
+      <c r="E1420" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1420" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1420" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>-68.75000000000038</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="1" t="n">
+        <v>1419</v>
+      </c>
+      <c r="B1421" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E1421" t="n">
+        <v>105</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>107</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1421" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1421" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>-69.75000000000038</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="1" t="n">
+        <v>1420</v>
+      </c>
+      <c r="B1422" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>Balkan</t>
+        </is>
+      </c>
+      <c r="D1422" t="inlineStr">
+        <is>
+          <t>Chernomorets</t>
+        </is>
+      </c>
+      <c r="E1422" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1422" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1422" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>-68.94000000000038</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="1" t="n">
+        <v>1421</v>
+      </c>
+      <c r="B1423" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t>Seoul Knights</t>
+        </is>
+      </c>
+      <c r="D1423" t="inlineStr">
+        <is>
+          <t>Suwon KT</t>
+        </is>
+      </c>
+      <c r="E1423" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>99</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1423" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1423" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>-68.14000000000038</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="1" t="n">
+        <v>1422</v>
+      </c>
+      <c r="B1424" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t>Comunicaciones Mercedes</t>
+        </is>
+      </c>
+      <c r="D1424" t="inlineStr">
+        <is>
+          <t>San Martin</t>
+        </is>
+      </c>
+      <c r="E1424" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1424" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1424" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>-69.14000000000038</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="1" t="n">
+        <v>1423</v>
+      </c>
+      <c r="B1425" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>Guangzhou</t>
+        </is>
+      </c>
+      <c r="D1425" t="inlineStr">
+        <is>
+          <t>Zhejiang Guangsha</t>
+        </is>
+      </c>
+      <c r="E1425" t="n">
+        <v>120</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1425" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1425" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>-68.31000000000039</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="1" t="n">
+        <v>1424</v>
+      </c>
+      <c r="B1426" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="D1426" t="inlineStr">
+        <is>
+          <t>Beijing Royal Fighters</t>
+        </is>
+      </c>
+      <c r="E1426" t="n">
+        <v>111</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1426" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1426" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>-69.31000000000039</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="1" t="n">
+        <v>1425</v>
+      </c>
+      <c r="B1427" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>Indiana State</t>
+        </is>
+      </c>
+      <c r="D1427" t="inlineStr">
+        <is>
+          <t>Cincinnati</t>
+        </is>
+      </c>
+      <c r="E1427" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1427" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1427" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>-68.51000000000039</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="1" t="n">
+        <v>1426</v>
+      </c>
+      <c r="B1428" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>ASA</t>
+        </is>
+      </c>
+      <c r="D1428" t="inlineStr">
+        <is>
+          <t>Chalons-Reims</t>
+        </is>
+      </c>
+      <c r="E1428" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1428" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1428" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>-69.51000000000039</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="1" t="n">
+        <v>1427</v>
+      </c>
+      <c r="B1429" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>Poitiers</t>
+        </is>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="E1429" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1429" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1429" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>-70.51000000000039</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="1" t="n">
+        <v>1428</v>
+      </c>
+      <c r="B1430" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>Maccabi Maale Adumim</t>
+        </is>
+      </c>
+      <c r="D1430" t="inlineStr">
+        <is>
+          <t>Safed</t>
+        </is>
+      </c>
+      <c r="E1430" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1430" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1430" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>-71.51000000000039</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="1" t="n">
+        <v>1429</v>
+      </c>
+      <c r="B1431" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="D1431" t="inlineStr">
+        <is>
+          <t>Unics Kazan</t>
+        </is>
+      </c>
+      <c r="E1431" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1431" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1431" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>-70.62000000000039</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="1" t="n">
+        <v>1430</v>
+      </c>
+      <c r="B1432" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D1432" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E1432" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>132</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1432" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1432" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>-71.62000000000039</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="1" t="n">
+        <v>1431</v>
+      </c>
+      <c r="B1433" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D1433" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E1433" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>101</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1433" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1433" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>-72.62000000000039</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="1" t="n">
+        <v>1432</v>
+      </c>
+      <c r="B1434" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>Independiente de Oliva</t>
+        </is>
+      </c>
+      <c r="D1434" t="inlineStr">
+        <is>
+          <t>Riachuelo</t>
+        </is>
+      </c>
+      <c r="E1434" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1434" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1434" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>-73.62000000000039</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="1" t="n">
+        <v>1433</v>
+      </c>
+      <c r="B1435" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t>Yambol</t>
+        </is>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>Shumen</t>
+        </is>
+      </c>
+      <c r="E1435" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>105</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1435" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1435" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>-72.77000000000039</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="1" t="n">
+        <v>1434</v>
+      </c>
+      <c r="B1436" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C1436" t="inlineStr">
+        <is>
+          <t>Seton Hall</t>
+        </is>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>UNLV</t>
+        </is>
+      </c>
+      <c r="E1436" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1436" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1436" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>-71.9700000000004</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="1" t="n">
+        <v>1435</v>
+      </c>
+      <c r="B1437" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t>Norfolk State</t>
+        </is>
+      </c>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>IPFW</t>
+        </is>
+      </c>
+      <c r="E1437" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1437" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1437" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>-72.9700000000004</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="1" t="n">
+        <v>1436</v>
+      </c>
+      <c r="B1438" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C1438" t="inlineStr">
+        <is>
+          <t>Eskilstuna</t>
+        </is>
+      </c>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>Ockelbo</t>
+        </is>
+      </c>
+      <c r="E1438" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1438" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1438" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>-72.1200000000004</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="1" t="n">
+        <v>1437</v>
+      </c>
+      <c r="B1439" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C1439" t="inlineStr">
+        <is>
+          <t>Malbas</t>
+        </is>
+      </c>
+      <c r="D1439" t="inlineStr">
+        <is>
+          <t>IK Eos</t>
+        </is>
+      </c>
+      <c r="E1439" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1439" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1439" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>-71.27000000000041</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="1" t="n">
+        <v>1438</v>
+      </c>
+      <c r="B1440" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C1440" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>High Point</t>
+        </is>
+      </c>
+      <c r="E1440" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1440" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1440" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>-72.27000000000041</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="1" t="n">
+        <v>1439</v>
+      </c>
+      <c r="B1441" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C1441" t="inlineStr">
+        <is>
+          <t>Besiktas F</t>
+        </is>
+      </c>
+      <c r="D1441" t="inlineStr">
+        <is>
+          <t>CBK Mersin F</t>
+        </is>
+      </c>
+      <c r="E1441" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1441" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1441" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1441" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>-73.27000000000041</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="1" t="n">
+        <v>1440</v>
+      </c>
+      <c r="B1442" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C1442" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="D1442" t="inlineStr">
+        <is>
+          <t>Anadolu Efes</t>
+        </is>
+      </c>
+      <c r="E1442" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1442" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1442" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1442" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>-72.36000000000041</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="1" t="n">
+        <v>1441</v>
+      </c>
+      <c r="B1443" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C1443" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="D1443" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="E1443" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1443" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1443" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1443" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>-73.36000000000041</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="1" t="n">
+        <v>1442</v>
+      </c>
+      <c r="B1444" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C1444" t="inlineStr">
+        <is>
+          <t>Tasmania JackJumpers</t>
+        </is>
+      </c>
+      <c r="D1444" t="inlineStr">
+        <is>
+          <t>Melbourne United</t>
+        </is>
+      </c>
+      <c r="E1444" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1444" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1444" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>-74.36000000000041</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="1" t="n">
+        <v>1443</v>
+      </c>
+      <c r="B1445" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C1445" t="inlineStr">
+        <is>
+          <t>Iowa State</t>
+        </is>
+      </c>
+      <c r="D1445" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="E1445" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1445" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1445" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>-75.36000000000041</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="1" t="n">
+        <v>1444</v>
+      </c>
+      <c r="B1446" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t>Maccabi Ashdod F</t>
+        </is>
+      </c>
+      <c r="D1446" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem F</t>
+        </is>
+      </c>
+      <c r="E1446" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1446" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1446" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>-76.36000000000041</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="1" t="n">
+        <v>1445</v>
+      </c>
+      <c r="B1447" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>Rapid Bucuresti F</t>
+        </is>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>Olimpia Brasov F</t>
+        </is>
+      </c>
+      <c r="E1447" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1447" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1447" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>-75.51000000000042</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="1" t="n">
+        <v>1446</v>
+      </c>
+      <c r="B1448" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="E1448" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1448" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1448" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>-74.65000000000042</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="1" t="n">
+        <v>1447</v>
+      </c>
+      <c r="B1449" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C1449" t="inlineStr">
+        <is>
+          <t>Samara</t>
+        </is>
+      </c>
+      <c r="D1449" t="inlineStr">
+        <is>
+          <t>Uralmash Ekaterinburg</t>
+        </is>
+      </c>
+      <c r="E1449" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1449" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1449" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>-73.84000000000042</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="1" t="n">
+        <v>1448</v>
+      </c>
+      <c r="B1450" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t>Runa Basket Moscow</t>
+        </is>
+      </c>
+      <c r="D1450" t="inlineStr">
+        <is>
+          <t>Nizhny Novgorod</t>
+        </is>
+      </c>
+      <c r="E1450" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1450" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1450" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>-72.98000000000042</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="1" t="n">
+        <v>1449</v>
+      </c>
+      <c r="B1451" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C1451" t="inlineStr">
+        <is>
+          <t>Zalgiris Kaunas</t>
+        </is>
+      </c>
+      <c r="D1451" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="E1451" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1451" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1451" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>-72.07000000000042</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1451"/>
+  <dimension ref="A1:J1615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51432,6 +51432,6238 @@
         <v>-72.07000000000042</v>
       </c>
     </row>
+    <row r="1452">
+      <c r="A1452" s="1" t="n">
+        <v>1450</v>
+      </c>
+      <c r="B1452" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E1452" t="n">
+        <v>109</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1452" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1452" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>-73.07000000000042</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="1" t="n">
+        <v>1451</v>
+      </c>
+      <c r="B1453" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E1453" t="n">
+        <v>97</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1453" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1453" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>-74.07000000000042</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="1" t="n">
+        <v>1452</v>
+      </c>
+      <c r="B1454" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E1454" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1454" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1454" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>-75.07000000000042</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="1" t="n">
+        <v>1453</v>
+      </c>
+      <c r="B1455" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E1455" t="n">
+        <v>128</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1455" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1455" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>-74.23000000000042</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="1" t="n">
+        <v>1454</v>
+      </c>
+      <c r="B1456" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E1456" t="n">
+        <v>103</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>107</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1456" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1456" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>-75.23000000000042</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="1" t="n">
+        <v>1455</v>
+      </c>
+      <c r="B1457" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>KCC Egis</t>
+        </is>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>Mobis Phoebus</t>
+        </is>
+      </c>
+      <c r="E1457" t="n">
+        <v>110</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1457" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1457" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>-74.37000000000042</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="1" t="n">
+        <v>1456</v>
+      </c>
+      <c r="B1458" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t>Estela</t>
+        </is>
+      </c>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>Oviedo</t>
+        </is>
+      </c>
+      <c r="E1458" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1458" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1458" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>-73.52000000000042</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="1" t="n">
+        <v>1457</v>
+      </c>
+      <c r="B1459" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>Purdue</t>
+        </is>
+      </c>
+      <c r="D1459" t="inlineStr">
+        <is>
+          <t>Gonzaga</t>
+        </is>
+      </c>
+      <c r="E1459" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1459" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1459" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>-74.52000000000042</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="1" t="n">
+        <v>1458</v>
+      </c>
+      <c r="B1460" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t>Tennessee</t>
+        </is>
+      </c>
+      <c r="D1460" t="inlineStr">
+        <is>
+          <t>Creighton</t>
+        </is>
+      </c>
+      <c r="E1460" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1460" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1460" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>-73.72000000000043</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="1" t="n">
+        <v>1459</v>
+      </c>
+      <c r="B1461" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1461" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="D1461" t="inlineStr">
+        <is>
+          <t>Limburg</t>
+        </is>
+      </c>
+      <c r="E1461" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1461" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1461" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>-72.88000000000042</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="1" t="n">
+        <v>1460</v>
+      </c>
+      <c r="B1462" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>La Rochelle</t>
+        </is>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="E1462" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1462" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1462" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>-73.88000000000042</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="1" t="n">
+        <v>1461</v>
+      </c>
+      <c r="B1463" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>Arges Pitesti</t>
+        </is>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="E1463" t="n">
+        <v>66</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1463" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1463" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>-74.88000000000042</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="1" t="n">
+        <v>1462</v>
+      </c>
+      <c r="B1464" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>BC Timisoara</t>
+        </is>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>Valcea</t>
+        </is>
+      </c>
+      <c r="E1464" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1464" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1464" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>-74.03000000000043</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="1" t="n">
+        <v>1463</v>
+      </c>
+      <c r="B1465" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t>Bursaspor</t>
+        </is>
+      </c>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>Tofas</t>
+        </is>
+      </c>
+      <c r="E1465" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1465" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1465" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>-73.16000000000042</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="1" t="n">
+        <v>1464</v>
+      </c>
+      <c r="B1466" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>Breogan</t>
+        </is>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>Bilbao</t>
+        </is>
+      </c>
+      <c r="E1466" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1466" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1466" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>-74.16000000000042</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="1" t="n">
+        <v>1465</v>
+      </c>
+      <c r="B1467" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>Basket Napoli</t>
+        </is>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="E1467" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1467" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1467" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>-73.36000000000043</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="1" t="n">
+        <v>1466</v>
+      </c>
+      <c r="B1468" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>Brindisi</t>
+        </is>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>Sassari</t>
+        </is>
+      </c>
+      <c r="E1468" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1468" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1468" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1468" t="n">
+        <v>-74.36000000000043</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="1" t="n">
+        <v>1467</v>
+      </c>
+      <c r="B1469" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>Crailsheim Merlins</t>
+        </is>
+      </c>
+      <c r="E1469" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1469" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1469" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>-75.36000000000043</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="1" t="n">
+        <v>1468</v>
+      </c>
+      <c r="B1470" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>Bonn</t>
+        </is>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>Vechta</t>
+        </is>
+      </c>
+      <c r="E1470" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1470" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1470" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>-76.36000000000043</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="1" t="n">
+        <v>1469</v>
+      </c>
+      <c r="B1471" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>Clemson</t>
+        </is>
+      </c>
+      <c r="E1471" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1471" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1471" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>-75.45000000000043</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="1" t="n">
+        <v>1470</v>
+      </c>
+      <c r="B1472" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t>Cibona</t>
+        </is>
+      </c>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>Igokea</t>
+        </is>
+      </c>
+      <c r="E1472" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1472" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1472" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>-76.45000000000043</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="1" t="n">
+        <v>1471</v>
+      </c>
+      <c r="B1473" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>Ada Blois</t>
+        </is>
+      </c>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="E1473" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1473" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1473" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>-77.45000000000043</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="1" t="n">
+        <v>1472</v>
+      </c>
+      <c r="B1474" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1474" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="E1474" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1474" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1474" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>-78.45000000000043</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="1" t="n">
+        <v>1473</v>
+      </c>
+      <c r="B1475" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>Budapesti Honved Se</t>
+        </is>
+      </c>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>Zalakeramia</t>
+        </is>
+      </c>
+      <c r="E1475" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1475" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1475" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>-79.45000000000043</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="1" t="n">
+        <v>1474</v>
+      </c>
+      <c r="B1476" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>Akita</t>
+        </is>
+      </c>
+      <c r="D1476" t="inlineStr">
+        <is>
+          <t>Sun Rockers Shibuya</t>
+        </is>
+      </c>
+      <c r="E1476" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1476" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1476" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>-80.45000000000043</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="1" t="n">
+        <v>1475</v>
+      </c>
+      <c r="B1477" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>Quinta Dos Lombos F</t>
+        </is>
+      </c>
+      <c r="D1477" t="inlineStr">
+        <is>
+          <t>Esgueira F</t>
+        </is>
+      </c>
+      <c r="E1477" t="n">
+        <v>54</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1477" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1477" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>-81.45000000000043</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="1" t="n">
+        <v>1476</v>
+      </c>
+      <c r="B1478" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1478" t="inlineStr">
+        <is>
+          <t>Tamis</t>
+        </is>
+      </c>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>Sloga</t>
+        </is>
+      </c>
+      <c r="E1478" t="n">
+        <v>97</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1478" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1478" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>-80.60000000000043</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="1" t="n">
+        <v>1477</v>
+      </c>
+      <c r="B1479" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>OGM Ormanspor</t>
+        </is>
+      </c>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>Fenerbahce 2</t>
+        </is>
+      </c>
+      <c r="E1479" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1479" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>-81.60000000000043</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="1" t="n">
+        <v>1478</v>
+      </c>
+      <c r="B1480" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C1480" t="inlineStr">
+        <is>
+          <t>Adana BK F</t>
+        </is>
+      </c>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>Botas 2 F</t>
+        </is>
+      </c>
+      <c r="E1480" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1480" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1480" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>-80.78000000000044</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="1" t="n">
+        <v>1479</v>
+      </c>
+      <c r="B1481" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1481" t="inlineStr">
+        <is>
+          <t>Gran Canaria</t>
+        </is>
+      </c>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="E1481" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1481" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1481" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>-81.78000000000044</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="1" t="n">
+        <v>1480</v>
+      </c>
+      <c r="B1482" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1482" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E1482" t="n">
+        <v>112</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>113</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1482" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1482" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>-80.95000000000044</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="1" t="n">
+        <v>1481</v>
+      </c>
+      <c r="B1483" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1483" t="inlineStr">
+        <is>
+          <t>Ludwigsburg</t>
+        </is>
+      </c>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="E1483" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1483" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1483" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>-81.95000000000044</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="1" t="n">
+        <v>1482</v>
+      </c>
+      <c r="B1484" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1484" t="inlineStr">
+        <is>
+          <t>Zhejiang Guangsha</t>
+        </is>
+      </c>
+      <c r="D1484" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
+      <c r="E1484" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1484" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1484" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>-82.95000000000044</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="1" t="n">
+        <v>1483</v>
+      </c>
+      <c r="B1485" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1485" t="inlineStr">
+        <is>
+          <t>Goyang Sono</t>
+        </is>
+      </c>
+      <c r="D1485" t="inlineStr">
+        <is>
+          <t>Suwon KT</t>
+        </is>
+      </c>
+      <c r="E1485" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1485" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1485" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>-82.15000000000045</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="1" t="n">
+        <v>1484</v>
+      </c>
+      <c r="B1486" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1486" t="inlineStr">
+        <is>
+          <t>KCC Egis</t>
+        </is>
+      </c>
+      <c r="D1486" t="inlineStr">
+        <is>
+          <t>Seoul Knights</t>
+        </is>
+      </c>
+      <c r="E1486" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1486" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1486" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>-81.31000000000044</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="1" t="n">
+        <v>1485</v>
+      </c>
+      <c r="B1487" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>Mobis Phoebus</t>
+        </is>
+      </c>
+      <c r="D1487" t="inlineStr">
+        <is>
+          <t>Anyang JungKwanJang</t>
+        </is>
+      </c>
+      <c r="E1487" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1487" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1487" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>-82.31000000000044</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="1" t="n">
+        <v>1486</v>
+      </c>
+      <c r="B1488" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>Inter Bratislava</t>
+        </is>
+      </c>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>BC Komarno</t>
+        </is>
+      </c>
+      <c r="E1488" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1488" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1488" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>-81.46000000000045</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="1" t="n">
+        <v>1487</v>
+      </c>
+      <c r="B1489" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1489" t="inlineStr">
+        <is>
+          <t>Ensino F</t>
+        </is>
+      </c>
+      <c r="D1489" t="inlineStr">
+        <is>
+          <t>Ferrol F</t>
+        </is>
+      </c>
+      <c r="E1489" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1489" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1489" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>-82.46000000000045</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="1" t="n">
+        <v>1488</v>
+      </c>
+      <c r="B1490" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1490" t="inlineStr">
+        <is>
+          <t>Gran Canaria F</t>
+        </is>
+      </c>
+      <c r="D1490" t="inlineStr">
+        <is>
+          <t>Jairis F</t>
+        </is>
+      </c>
+      <c r="E1490" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1490" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1490" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>-81.61000000000045</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="1" t="n">
+        <v>1489</v>
+      </c>
+      <c r="B1491" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>Gernika Bizkaia F</t>
+        </is>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>Uni Girona F</t>
+        </is>
+      </c>
+      <c r="E1491" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1491" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1491" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>-80.76000000000046</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="1" t="n">
+        <v>1490</v>
+      </c>
+      <c r="B1492" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1492" t="inlineStr">
+        <is>
+          <t>Purdue</t>
+        </is>
+      </c>
+      <c r="D1492" t="inlineStr">
+        <is>
+          <t>Tennessee</t>
+        </is>
+      </c>
+      <c r="E1492" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1492" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1492" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>-81.76000000000046</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="1" t="n">
+        <v>1491</v>
+      </c>
+      <c r="B1493" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>Denain-Voltaire</t>
+        </is>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="E1493" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1493" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1493" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>-80.90000000000046</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="1" t="n">
+        <v>1492</v>
+      </c>
+      <c r="B1494" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1494" t="inlineStr">
+        <is>
+          <t>Akita</t>
+        </is>
+      </c>
+      <c r="D1494" t="inlineStr">
+        <is>
+          <t>Sun Rockers Shibuya</t>
+        </is>
+      </c>
+      <c r="E1494" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1494" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1494" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>-81.90000000000046</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="1" t="n">
+        <v>1493</v>
+      </c>
+      <c r="B1495" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>Kobe</t>
+        </is>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>Shizuoka</t>
+        </is>
+      </c>
+      <c r="E1495" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1495" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1495" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>-82.90000000000046</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="1" t="n">
+        <v>1494</v>
+      </c>
+      <c r="B1496" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>Anwil Wloclawek</t>
+        </is>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>Czarni Slupsk</t>
+        </is>
+      </c>
+      <c r="E1496" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1496" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1496" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>-83.90000000000046</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="1" t="n">
+        <v>1495</v>
+      </c>
+      <c r="B1497" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>MBA Moscow</t>
+        </is>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>Nizhny Novgorod</t>
+        </is>
+      </c>
+      <c r="E1497" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1497" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1497" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>-84.90000000000046</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="1" t="n">
+        <v>1496</v>
+      </c>
+      <c r="B1498" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E1498" t="n">
+        <v>108</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>110</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1498" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1498" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>-84.09000000000046</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="1" t="n">
+        <v>1497</v>
+      </c>
+      <c r="B1499" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E1499" t="n">
+        <v>101</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>113</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1499" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1499" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>-85.09000000000046</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="1" t="n">
+        <v>1498</v>
+      </c>
+      <c r="B1500" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>Gottingen</t>
+        </is>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>Braunschweig</t>
+        </is>
+      </c>
+      <c r="E1500" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1500" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1500" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>-86.09000000000046</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="B1501" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>Wels</t>
+        </is>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>Swans Gmunden</t>
+        </is>
+      </c>
+      <c r="E1501" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1501" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1501" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>-85.22000000000045</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B1502" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>Runa Basket Moscow</t>
+        </is>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>Samara</t>
+        </is>
+      </c>
+      <c r="E1502" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1502" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1502" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>-86.22000000000045</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="1" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B1503" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t>KFUM Kalmar</t>
+        </is>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>Djurgarden</t>
+        </is>
+      </c>
+      <c r="E1503" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1503" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1503" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>-87.22000000000045</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="1" t="n">
+        <v>1502</v>
+      </c>
+      <c r="B1504" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>Neuchatel</t>
+        </is>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>Vevey Riviera</t>
+        </is>
+      </c>
+      <c r="E1504" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1504" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1504" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>-88.22000000000045</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="1" t="n">
+        <v>1503</v>
+      </c>
+      <c r="B1505" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>Hebraica y Macabi</t>
+        </is>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>Aguada</t>
+        </is>
+      </c>
+      <c r="E1505" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>113</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1505" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1505" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>-87.37000000000046</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="1" t="n">
+        <v>1504</v>
+      </c>
+      <c r="B1506" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>Shanxi Zhongyu</t>
+        </is>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="E1506" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1506" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1506" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>-88.37000000000046</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="1" t="n">
+        <v>1505</v>
+      </c>
+      <c r="B1507" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>Indiana State</t>
+        </is>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>Utah Utes</t>
+        </is>
+      </c>
+      <c r="E1507" t="n">
+        <v>100</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1507" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1507" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>-87.46000000000046</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="1" t="n">
+        <v>1506</v>
+      </c>
+      <c r="B1508" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>Jonava</t>
+        </is>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>Siauliai</t>
+        </is>
+      </c>
+      <c r="E1508" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1508" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1508" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>-88.46000000000046</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="1" t="n">
+        <v>1507</v>
+      </c>
+      <c r="B1509" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E1509" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1509" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1509" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>-89.46000000000046</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="1" t="n">
+        <v>1508</v>
+      </c>
+      <c r="B1510" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>Dubrava</t>
+        </is>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>Zabok</t>
+        </is>
+      </c>
+      <c r="E1510" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>56</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1510" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1510" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>-90.46000000000046</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="1" t="n">
+        <v>1509</v>
+      </c>
+      <c r="B1511" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>Bonn</t>
+        </is>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>Peristeri</t>
+        </is>
+      </c>
+      <c r="E1511" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1511" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1511" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>-89.66000000000047</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="1" t="n">
+        <v>1510</v>
+      </c>
+      <c r="B1512" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>Caballeros de Culiacan</t>
+        </is>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>Pioneros de Los Mochis</t>
+        </is>
+      </c>
+      <c r="E1512" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>93</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1512" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1512" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>-90.66000000000047</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="1" t="n">
+        <v>1511</v>
+      </c>
+      <c r="B1513" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>Borås</t>
+        </is>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>Sodertalje</t>
+        </is>
+      </c>
+      <c r="E1513" t="n">
+        <v>103</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1513" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1513" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>-89.79000000000046</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="1" t="n">
+        <v>1512</v>
+      </c>
+      <c r="B1514" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>Gimnasia</t>
+        </is>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>Instituto de Cordoba</t>
+        </is>
+      </c>
+      <c r="E1514" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1514" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1514" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>-90.79000000000046</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="1" t="n">
+        <v>1513</v>
+      </c>
+      <c r="B1515" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E1515" t="n">
+        <v>120</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>109</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1515" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1515" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>-89.99000000000046</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="1" t="n">
+        <v>1514</v>
+      </c>
+      <c r="B1516" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>Levski</t>
+        </is>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>Academic Plovdiv</t>
+        </is>
+      </c>
+      <c r="E1516" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1516" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1516" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>-90.99000000000046</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="1" t="n">
+        <v>1515</v>
+      </c>
+      <c r="B1517" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>Alftanes</t>
+        </is>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>Hottur</t>
+        </is>
+      </c>
+      <c r="E1517" t="n">
+        <v>63</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>54</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1517" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1517" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>-91.99000000000046</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="1" t="n">
+        <v>1516</v>
+      </c>
+      <c r="B1518" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>Thorl</t>
+        </is>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>Keflavik</t>
+        </is>
+      </c>
+      <c r="E1518" t="n">
+        <v>106</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1518" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1518" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>-91.13000000000046</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="1" t="n">
+        <v>1517</v>
+      </c>
+      <c r="B1519" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>Caballeros de Culiacan</t>
+        </is>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>Pioneros de Los Mochis</t>
+        </is>
+      </c>
+      <c r="E1519" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1519" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1519" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>-92.13000000000046</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="1" t="n">
+        <v>1518</v>
+      </c>
+      <c r="B1520" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>Auckland Tuatara</t>
+        </is>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>Taranaki Airs</t>
+        </is>
+      </c>
+      <c r="E1520" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1520" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1520" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>-93.13000000000046</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="1" t="n">
+        <v>1519</v>
+      </c>
+      <c r="B1521" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>Leicester Riders</t>
+        </is>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>Bristol Flyers</t>
+        </is>
+      </c>
+      <c r="E1521" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1521" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1521" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>-94.13000000000046</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="1" t="n">
+        <v>1520</v>
+      </c>
+      <c r="B1522" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E1522" t="n">
+        <v>126</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>112</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1522" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1522" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>-93.31000000000047</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="1" t="n">
+        <v>1521</v>
+      </c>
+      <c r="B1523" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E1523" t="n">
+        <v>108</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1523" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1523" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>-94.31000000000047</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="1" t="n">
+        <v>1522</v>
+      </c>
+      <c r="B1524" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E1524" t="n">
+        <v>104</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>119</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1524" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1524" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>-93.48000000000047</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="1" t="n">
+        <v>1523</v>
+      </c>
+      <c r="B1525" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E1525" t="n">
+        <v>108</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>106</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1525" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1525" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>-94.48000000000047</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="1" t="n">
+        <v>1524</v>
+      </c>
+      <c r="B1526" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E1526" t="n">
+        <v>97</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1526" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1526" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>-95.48000000000047</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="1" t="n">
+        <v>1525</v>
+      </c>
+      <c r="B1527" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="E1527" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1527" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1527" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>-94.57000000000048</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="1" t="n">
+        <v>1526</v>
+      </c>
+      <c r="B1528" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>Tubingen</t>
+        </is>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>Rostock</t>
+        </is>
+      </c>
+      <c r="E1528" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1528" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1528" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>-95.57000000000048</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="1" t="n">
+        <v>1527</v>
+      </c>
+      <c r="B1529" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>Kalamunda Eastern Suns</t>
+        </is>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>East Perth Eagles</t>
+        </is>
+      </c>
+      <c r="E1529" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>99</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1529" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1529" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>-94.68000000000048</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="1" t="n">
+        <v>1528</v>
+      </c>
+      <c r="B1530" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>Liege</t>
+        </is>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="E1530" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>99</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1530" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1530" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>-93.84000000000047</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="1" t="n">
+        <v>1529</v>
+      </c>
+      <c r="B1531" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>Denain-Voltaire</t>
+        </is>
+      </c>
+      <c r="E1531" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1531" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1531" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>-94.84000000000047</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="1" t="n">
+        <v>1530</v>
+      </c>
+      <c r="B1532" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>Evreux</t>
+        </is>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>Antibes</t>
+        </is>
+      </c>
+      <c r="E1532" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1532" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1532" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>-93.97000000000047</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="1" t="n">
+        <v>1531</v>
+      </c>
+      <c r="B1533" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t>Poitiers</t>
+        </is>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="E1533" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1533" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1533" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>-93.12000000000047</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="1" t="n">
+        <v>1532</v>
+      </c>
+      <c r="B1534" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t>Batumi</t>
+        </is>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>Margveti</t>
+        </is>
+      </c>
+      <c r="E1534" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1534" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1534" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>-92.27000000000048</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="1" t="n">
+        <v>1533</v>
+      </c>
+      <c r="B1535" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t>Fukuoka</t>
+        </is>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>Shiga</t>
+        </is>
+      </c>
+      <c r="E1535" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1535" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1535" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>-91.41000000000048</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="1" t="n">
+        <v>1534</v>
+      </c>
+      <c r="B1536" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t>GTK Gliwice</t>
+        </is>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>Torun</t>
+        </is>
+      </c>
+      <c r="E1536" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1536" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1536" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>-92.41000000000048</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="1" t="n">
+        <v>1535</v>
+      </c>
+      <c r="B1537" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t>Jindrichuv Hradec</t>
+        </is>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>Svitavy</t>
+        </is>
+      </c>
+      <c r="E1537" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1537" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1537" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>-91.56000000000049</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="1" t="n">
+        <v>1536</v>
+      </c>
+      <c r="B1538" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>Unics Kazan</t>
+        </is>
+      </c>
+      <c r="E1538" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1538" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1538" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>-90.70000000000049</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="1" t="n">
+        <v>1537</v>
+      </c>
+      <c r="B1539" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t>BC Lulea</t>
+        </is>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>Nassjo</t>
+        </is>
+      </c>
+      <c r="E1539" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1539" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1539" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>-91.70000000000049</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="1" t="n">
+        <v>1538</v>
+      </c>
+      <c r="B1540" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>Bank of Taiwan</t>
+        </is>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>Taiwan Beer</t>
+        </is>
+      </c>
+      <c r="E1540" t="n">
+        <v>59</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1540" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1540" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1540" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>-92.70000000000049</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="1" t="n">
+        <v>1539</v>
+      </c>
+      <c r="B1541" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>Adana BK F</t>
+        </is>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>Botas 2 F</t>
+        </is>
+      </c>
+      <c r="E1541" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1541" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1541" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1541" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>-91.89000000000048</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="1" t="n">
+        <v>1540</v>
+      </c>
+      <c r="B1542" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>Warwick Senators</t>
+        </is>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>Perry Lakes Hawks</t>
+        </is>
+      </c>
+      <c r="E1542" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1542" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1542" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1542" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>-91.04000000000049</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="1" t="n">
+        <v>1541</v>
+      </c>
+      <c r="B1543" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t>BC Nokia F</t>
+        </is>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>Puhuttaret F</t>
+        </is>
+      </c>
+      <c r="E1543" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1543" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1543" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1543" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>-90.24000000000049</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="1" t="n">
+        <v>1542</v>
+      </c>
+      <c r="B1544" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>Nadezhda F</t>
+        </is>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>Nika Siktivkar F</t>
+        </is>
+      </c>
+      <c r="E1544" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>58</v>
+      </c>
+      <c r="G1544" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1544" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1544" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>-91.24000000000049</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="1" t="n">
+        <v>1543</v>
+      </c>
+      <c r="B1545" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>Fortaleza B.C.</t>
+        </is>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>R10 Score Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="E1545" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1545" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1545" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1545" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>-92.24000000000049</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="1" t="n">
+        <v>1544</v>
+      </c>
+      <c r="B1546" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>Obradoiro CAB</t>
+        </is>
+      </c>
+      <c r="E1546" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1546" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1546" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1546" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>-91.37000000000049</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="1" t="n">
+        <v>1545</v>
+      </c>
+      <c r="B1547" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E1547" t="n">
+        <v>116</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1547" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1547" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1547" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>-92.37000000000049</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="1" t="n">
+        <v>1546</v>
+      </c>
+      <c r="B1548" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>Sydney Comets</t>
+        </is>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>Albury-Wodonga Bandits</t>
+        </is>
+      </c>
+      <c r="E1548" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1548" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1548" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1548" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>-91.57000000000049</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="1" t="n">
+        <v>1547</v>
+      </c>
+      <c r="B1549" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>Inner West Bulls F</t>
+        </is>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>Hills Hornets F</t>
+        </is>
+      </c>
+      <c r="E1549" t="n">
+        <v>45</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1549" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1549" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1549" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>-90.7200000000005</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="1" t="n">
+        <v>1548</v>
+      </c>
+      <c r="B1550" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>Casey Cavaliers</t>
+        </is>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>Dandenong</t>
+        </is>
+      </c>
+      <c r="E1550" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1550" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1550" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1550" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>-91.7200000000005</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="1" t="n">
+        <v>1549</v>
+      </c>
+      <c r="B1551" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>Casey Cavaliers F</t>
+        </is>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>Dandenong Rangers F</t>
+        </is>
+      </c>
+      <c r="E1551" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1551" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1551" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1551" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>-92.7200000000005</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="1" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B1552" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>Worthersee Piraten</t>
+        </is>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>Wagram</t>
+        </is>
+      </c>
+      <c r="E1552" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1552" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1552" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>-91.8700000000005</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="1" t="n">
+        <v>1551</v>
+      </c>
+      <c r="B1553" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>Fuenlabrada</t>
+        </is>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>Alicante</t>
+        </is>
+      </c>
+      <c r="E1553" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1553" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1553" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>-92.8700000000005</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="1" t="n">
+        <v>1552</v>
+      </c>
+      <c r="B1554" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>L'Hospitalet</t>
+        </is>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>Mataro</t>
+        </is>
+      </c>
+      <c r="E1554" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>61</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1554" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1554" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>-93.8700000000005</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="1" t="n">
+        <v>1553</v>
+      </c>
+      <c r="B1555" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>UConn</t>
+        </is>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="E1555" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1555" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1555" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>-94.8700000000005</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="1" t="n">
+        <v>1554</v>
+      </c>
+      <c r="B1556" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>Igokea</t>
+        </is>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>Mega Basket</t>
+        </is>
+      </c>
+      <c r="E1556" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1556" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1556" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>-94.0000000000005</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="1" t="n">
+        <v>1555</v>
+      </c>
+      <c r="B1557" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="E1557" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1557" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1557" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>-95.0000000000005</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="1" t="n">
+        <v>1556</v>
+      </c>
+      <c r="B1558" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>NKA Pecs</t>
+        </is>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>Szolnoki Olaj</t>
+        </is>
+      </c>
+      <c r="E1558" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1558" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1558" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>-96.0000000000005</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="1" t="n">
+        <v>1557</v>
+      </c>
+      <c r="B1559" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>Shizuoka</t>
+        </is>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>Aomori</t>
+        </is>
+      </c>
+      <c r="E1559" t="n">
+        <v>108</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>93</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1559" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1559" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>-95.2000000000005</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="1" t="n">
+        <v>1558</v>
+      </c>
+      <c r="B1560" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>Zonkeys de Tijuana</t>
+        </is>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>Astros</t>
+        </is>
+      </c>
+      <c r="E1560" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1560" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1560" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>-96.2000000000005</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="1" t="n">
+        <v>1559</v>
+      </c>
+      <c r="B1561" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>Ostrow Wielkopolski</t>
+        </is>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>Szczecin</t>
+        </is>
+      </c>
+      <c r="E1561" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1561" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1561" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>-95.3200000000005</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="1" t="n">
+        <v>1560</v>
+      </c>
+      <c r="B1562" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>GKS Tychy</t>
+        </is>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="E1562" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1562" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1562" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>-94.47000000000051</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="1" t="n">
+        <v>1561</v>
+      </c>
+      <c r="B1563" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>Slavia Prague</t>
+        </is>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>Srsni Pisek</t>
+        </is>
+      </c>
+      <c r="E1563" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1563" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1563" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>-93.62000000000052</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="1" t="n">
+        <v>1562</v>
+      </c>
+      <c r="B1564" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>Merkezefendi</t>
+        </is>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>Bursaspor</t>
+        </is>
+      </c>
+      <c r="E1564" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1564" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1564" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>-92.77000000000052</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="1" t="n">
+        <v>1563</v>
+      </c>
+      <c r="B1565" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>Banovici F</t>
+        </is>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>Zrinjski F</t>
+        </is>
+      </c>
+      <c r="E1565" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>61</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1565" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1565" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>-93.77000000000052</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="1" t="n">
+        <v>1564</v>
+      </c>
+      <c r="B1566" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>Oviedo</t>
+        </is>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>Real Bétis</t>
+        </is>
+      </c>
+      <c r="E1566" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1566" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1566" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>-92.90000000000052</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="1" t="n">
+        <v>1565</v>
+      </c>
+      <c r="B1567" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>Urania Milano</t>
+        </is>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>Cividale</t>
+        </is>
+      </c>
+      <c r="E1567" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1567" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1567" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>-92.03000000000051</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="1" t="n">
+        <v>1566</v>
+      </c>
+      <c r="B1568" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="E1568" t="n">
+        <v>111</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>101</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1568" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1568" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>-91.18000000000052</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="1" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B1569" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E1569" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1569" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1569" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>-92.18000000000052</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="1" t="n">
+        <v>1568</v>
+      </c>
+      <c r="B1570" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E1570" t="n">
+        <v>120</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>118</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1570" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1570" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>-91.38000000000052</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="1" t="n">
+        <v>1569</v>
+      </c>
+      <c r="B1571" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E1571" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>115</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1571" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1571" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>-90.57000000000052</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="1" t="n">
+        <v>1570</v>
+      </c>
+      <c r="B1572" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>Brindisi</t>
+        </is>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>Treviso</t>
+        </is>
+      </c>
+      <c r="E1572" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1572" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1572" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>-89.72000000000052</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="1" t="n">
+        <v>1571</v>
+      </c>
+      <c r="B1573" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>Pistoia</t>
+        </is>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="E1573" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1573" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1573" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>-88.86000000000053</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="1" t="n">
+        <v>1572</v>
+      </c>
+      <c r="B1574" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>Bayreuth</t>
+        </is>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>Bremerhaven</t>
+        </is>
+      </c>
+      <c r="E1574" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1574" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1574" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>-88.01000000000053</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="1" t="n">
+        <v>1573</v>
+      </c>
+      <c r="B1575" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>Ballarat</t>
+        </is>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="E1575" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1575" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1575" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>-89.01000000000053</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="1" t="n">
+        <v>1574</v>
+      </c>
+      <c r="B1576" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>Brave Thunders</t>
+        </is>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>Hiroshima D.</t>
+        </is>
+      </c>
+      <c r="E1576" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>98</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1576" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1576" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>-88.16000000000054</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="1" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B1577" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>Champville</t>
+        </is>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>Homenetmen Beirut</t>
+        </is>
+      </c>
+      <c r="E1577" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>93</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1577" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1577" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>-87.31000000000054</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="1" t="n">
+        <v>1576</v>
+      </c>
+      <c r="B1578" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>Lancut</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>Gdynia</t>
+        </is>
+      </c>
+      <c r="E1578" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1578" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1578" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>-88.31000000000054</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="1" t="n">
+        <v>1577</v>
+      </c>
+      <c r="B1579" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>Caledonia Gladiators</t>
+        </is>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>Cheshire Phoenix</t>
+        </is>
+      </c>
+      <c r="E1579" t="n">
+        <v>116</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>110</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1579" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1579" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>-87.45000000000054</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="1" t="n">
+        <v>1578</v>
+      </c>
+      <c r="B1580" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>Litomerice</t>
+        </is>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>Hradec Kralove</t>
+        </is>
+      </c>
+      <c r="E1580" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1580" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1580" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>-88.45000000000054</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="1" t="n">
+        <v>1579</v>
+      </c>
+      <c r="B1581" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>Runa Basket Moscow</t>
+        </is>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>MBA Moscow</t>
+        </is>
+      </c>
+      <c r="E1581" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1581" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1581" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>-87.65000000000055</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="1" t="n">
+        <v>1580</v>
+      </c>
+      <c r="B1582" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>Neuchatel</t>
+        </is>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>Vevey Riviera</t>
+        </is>
+      </c>
+      <c r="E1582" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1582" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1582" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>-88.65000000000055</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="1" t="n">
+        <v>1581</v>
+      </c>
+      <c r="B1583" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>MKE Ankaragucu</t>
+        </is>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>Cayirova</t>
+        </is>
+      </c>
+      <c r="E1583" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1583" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1583" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>-89.65000000000055</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="1" t="n">
+        <v>1582</v>
+      </c>
+      <c r="B1584" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>Rivne</t>
+        </is>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>Kyiv Basket</t>
+        </is>
+      </c>
+      <c r="E1584" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>43</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1584" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1584" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>-90.65000000000055</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="1" t="n">
+        <v>1583</v>
+      </c>
+      <c r="B1585" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1585" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1585" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1585" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1585" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>-91.65000000000055</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="1" t="n">
+        <v>1584</v>
+      </c>
+      <c r="B1586" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>Kinwa</t>
+        </is>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>Basquetbol La Paz</t>
+        </is>
+      </c>
+      <c r="E1586" t="n">
+        <v>104</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1586" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1586" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>-90.78000000000054</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="1" t="n">
+        <v>1585</v>
+      </c>
+      <c r="B1587" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>KCC Egis</t>
+        </is>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>Seoul Knights</t>
+        </is>
+      </c>
+      <c r="E1587" t="n">
+        <v>97</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1587" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1587" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>-89.88000000000054</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="1" t="n">
+        <v>1586</v>
+      </c>
+      <c r="B1588" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>Næstved</t>
+        </is>
+      </c>
+      <c r="E1588" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>101</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1588" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1588" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>-89.08000000000054</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="1" t="n">
+        <v>1587</v>
+      </c>
+      <c r="B1589" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>Gimnasia</t>
+        </is>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>Independiente de Oliva</t>
+        </is>
+      </c>
+      <c r="E1589" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1589" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1589" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>-88.23000000000054</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="1" t="n">
+        <v>1588</v>
+      </c>
+      <c r="B1590" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>ToPo</t>
+        </is>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>Jyvaskyla</t>
+        </is>
+      </c>
+      <c r="E1590" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1590" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1590" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>-89.23000000000054</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="1" t="n">
+        <v>1589</v>
+      </c>
+      <c r="B1591" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>Cangrejeros</t>
+        </is>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>Osos de Manati</t>
+        </is>
+      </c>
+      <c r="E1591" t="n">
+        <v>112</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>105</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1591" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1591" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>-88.40000000000055</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="1" t="n">
+        <v>1590</v>
+      </c>
+      <c r="B1592" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>São José</t>
+        </is>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="E1592" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1592" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1592" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>-89.40000000000055</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="1" t="n">
+        <v>1591</v>
+      </c>
+      <c r="B1593" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E1593" t="n">
+        <v>112</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>105</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1593" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1593" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>-90.40000000000055</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="1" t="n">
+        <v>1592</v>
+      </c>
+      <c r="B1594" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E1594" t="n">
+        <v>120</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>134</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1594" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1594" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>-89.47000000000054</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="1" t="n">
+        <v>1593</v>
+      </c>
+      <c r="B1595" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E1595" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>105</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1595" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1595" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>-90.47000000000054</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="1" t="n">
+        <v>1594</v>
+      </c>
+      <c r="B1596" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>Mobis Phoebus</t>
+        </is>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>Suwon KT</t>
+        </is>
+      </c>
+      <c r="E1596" t="n">
+        <v>62</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1596" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1596" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>-91.47000000000054</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="1" t="n">
+        <v>1595</v>
+      </c>
+      <c r="B1597" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>Kataja</t>
+        </is>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>UU-Korihait</t>
+        </is>
+      </c>
+      <c r="E1597" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1597" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1597" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>-90.59000000000054</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="1" t="n">
+        <v>1596</v>
+      </c>
+      <c r="B1598" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>Maccabi Raanana</t>
+        </is>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>Elitzor Netania</t>
+        </is>
+      </c>
+      <c r="E1598" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1598" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1598" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>-89.79000000000055</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="1" t="n">
+        <v>1597</v>
+      </c>
+      <c r="B1599" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="E1599" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1599" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1599" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>-90.79000000000055</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="1" t="n">
+        <v>1598</v>
+      </c>
+      <c r="B1600" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="E1600" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1600" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1600" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>-89.98000000000054</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="1" t="n">
+        <v>1599</v>
+      </c>
+      <c r="B1601" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>San German</t>
+        </is>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>Aguada Santeros</t>
+        </is>
+      </c>
+      <c r="E1601" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1601" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1601" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>-90.98000000000054</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B1602" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>Aabyhoj F</t>
+        </is>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>BMS Herlev F</t>
+        </is>
+      </c>
+      <c r="E1602" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1602" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1602" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>-91.98000000000054</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="1" t="n">
+        <v>1601</v>
+      </c>
+      <c r="B1603" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>Real Bétis</t>
+        </is>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>Lleida</t>
+        </is>
+      </c>
+      <c r="E1603" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1603" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1603" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>-92.98000000000054</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="1" t="n">
+        <v>1602</v>
+      </c>
+      <c r="B1604" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>Melilla</t>
+        </is>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>Hestia Menorca</t>
+        </is>
+      </c>
+      <c r="E1604" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1604" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1604" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>-92.11000000000054</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="1" t="n">
+        <v>1603</v>
+      </c>
+      <c r="B1605" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>Clavijo</t>
+        </is>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>Estela</t>
+        </is>
+      </c>
+      <c r="E1605" t="n">
+        <v>99</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1605" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1605" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>-91.31000000000054</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="1" t="n">
+        <v>1604</v>
+      </c>
+      <c r="B1606" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>Magnolia Hotshots</t>
+        </is>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>NorthPort</t>
+        </is>
+      </c>
+      <c r="E1606" t="n">
+        <v>104</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1606" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1606" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>-90.45000000000054</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="1" t="n">
+        <v>1605</v>
+      </c>
+      <c r="B1607" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>Safed</t>
+        </is>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>Elitzur Shomron</t>
+        </is>
+      </c>
+      <c r="E1607" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>104</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1607" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1607" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>-89.62000000000054</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="1" t="n">
+        <v>1606</v>
+      </c>
+      <c r="B1608" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>Brave Thunders</t>
+        </is>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>Sun Rockers Shibuya</t>
+        </is>
+      </c>
+      <c r="E1608" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1608" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1608" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>-90.62000000000054</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="1" t="n">
+        <v>1607</v>
+      </c>
+      <c r="B1609" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>Ryukyu</t>
+        </is>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>Diamond Dolphins</t>
+        </is>
+      </c>
+      <c r="E1609" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>98</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1609" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1609" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>-89.76000000000055</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="1" t="n">
+        <v>1608</v>
+      </c>
+      <c r="B1610" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>Saratov</t>
+        </is>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>Uralmash Ekaterinburg</t>
+        </is>
+      </c>
+      <c r="E1610" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1610" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1610" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>-88.91000000000055</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="1" t="n">
+        <v>1609</v>
+      </c>
+      <c r="B1611" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>Nizhny Novgorod</t>
+        </is>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>Samara</t>
+        </is>
+      </c>
+      <c r="E1611" t="n">
+        <v>56</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1611" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1611" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>-89.91000000000055</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="1" t="n">
+        <v>1610</v>
+      </c>
+      <c r="B1612" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E1612" t="n">
+        <v>106</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>102</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1612" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1612" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>-90.91000000000055</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="1" t="n">
+        <v>1611</v>
+      </c>
+      <c r="B1613" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E1613" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>99</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1613" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1613" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>-90.11000000000055</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="1" t="n">
+        <v>1612</v>
+      </c>
+      <c r="B1614" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>Osos de Manati</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>Capitanes De Arecibo</t>
+        </is>
+      </c>
+      <c r="E1614" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>105</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1614" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1614" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>-89.31000000000056</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="1" t="n">
+        <v>1613</v>
+      </c>
+      <c r="B1615" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>University-Ugra</t>
+        </is>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>Tambov</t>
+        </is>
+      </c>
+      <c r="E1615" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1615" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1615" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>-88.46000000000056</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1615"/>
+  <dimension ref="A1:J1738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57664,6 +57664,4680 @@
         <v>-88.46000000000056</v>
       </c>
     </row>
+    <row r="1616">
+      <c r="A1616" s="1" t="n">
+        <v>1614</v>
+      </c>
+      <c r="B1616" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E1616" t="n">
+        <v>123</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>135</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1616" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1616" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>-87.64000000000057</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="1" t="n">
+        <v>1615</v>
+      </c>
+      <c r="B1617" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>Anadolu Efes</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="E1617" t="n">
+        <v>100</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>55</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1617" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1617" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>-88.64000000000057</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="1" t="n">
+        <v>1616</v>
+      </c>
+      <c r="B1618" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="E1618" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1618" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1618" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>-87.73000000000057</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="1" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B1619" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>Kilsyth</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>Keilor Thunder</t>
+        </is>
+      </c>
+      <c r="E1619" t="n">
+        <v>108</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1619" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1619" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>-86.88000000000058</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="1" t="n">
+        <v>1618</v>
+      </c>
+      <c r="B1620" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>Ringwood F</t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>Knox F</t>
+        </is>
+      </c>
+      <c r="E1620" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1620" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1620" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>-87.88000000000058</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="1" t="n">
+        <v>1619</v>
+      </c>
+      <c r="B1621" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>Gdynia</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>Dziki Warszawa</t>
+        </is>
+      </c>
+      <c r="E1621" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1621" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1621" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>-88.88000000000058</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="1" t="n">
+        <v>1620</v>
+      </c>
+      <c r="B1622" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>Geneva Lions</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>BBC Monthey</t>
+        </is>
+      </c>
+      <c r="E1622" t="n">
+        <v>97</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1622" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1622" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1622" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>-88.02000000000058</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="1" t="n">
+        <v>1621</v>
+      </c>
+      <c r="B1623" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>Aguada Santeros</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>Piratas de Quebradillas</t>
+        </is>
+      </c>
+      <c r="E1623" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1623" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1623" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1623" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>-89.02000000000058</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="1" t="n">
+        <v>1622</v>
+      </c>
+      <c r="B1624" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>Chelyabinsk</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>CSKA Moscow 2</t>
+        </is>
+      </c>
+      <c r="E1624" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1624" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1624" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>-88.17000000000058</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="1" t="n">
+        <v>1623</v>
+      </c>
+      <c r="B1625" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E1625" t="n">
+        <v>129</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>120</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1625" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1625" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>-87.34000000000059</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="1" t="n">
+        <v>1624</v>
+      </c>
+      <c r="B1626" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="E1626" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1626" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1626" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>-86.51000000000059</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="1" t="n">
+        <v>1625</v>
+      </c>
+      <c r="B1627" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="E1627" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1627" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1627" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>-87.51000000000059</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="1" t="n">
+        <v>1626</v>
+      </c>
+      <c r="B1628" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>Perry Lakes Hawks</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>Rockingham Flames</t>
+        </is>
+      </c>
+      <c r="E1628" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1628" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1628" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>-86.70000000000059</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="1" t="n">
+        <v>1627</v>
+      </c>
+      <c r="B1629" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>Maccabi Maale Adumim</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>Gilboa Galil</t>
+        </is>
+      </c>
+      <c r="E1629" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1629" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1629" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>-85.89000000000058</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="1" t="n">
+        <v>1628</v>
+      </c>
+      <c r="B1630" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>Olomoucko</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>USK Praga</t>
+        </is>
+      </c>
+      <c r="E1630" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1630" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1630" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>-85.03000000000058</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="1" t="n">
+        <v>1629</v>
+      </c>
+      <c r="B1631" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E1631" t="n">
+        <v>131</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>98</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1631" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1631" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>-84.10000000000058</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="1" t="n">
+        <v>1630</v>
+      </c>
+      <c r="B1632" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>Virtus Bologna</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="E1632" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1632" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1632" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>-83.19000000000058</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="1" t="n">
+        <v>1631</v>
+      </c>
+      <c r="B1633" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>Trento</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>Tortona</t>
+        </is>
+      </c>
+      <c r="E1633" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1633" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1633" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>-82.34000000000059</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="1" t="n">
+        <v>1632</v>
+      </c>
+      <c r="B1634" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>Pesaro</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>Pistoia</t>
+        </is>
+      </c>
+      <c r="E1634" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1634" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1634" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>-81.49000000000059</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="1" t="n">
+        <v>1633</v>
+      </c>
+      <c r="B1635" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>Giessen</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>Phoenix Hagen</t>
+        </is>
+      </c>
+      <c r="E1635" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1635" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1635" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>-82.49000000000059</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="1" t="n">
+        <v>1634</v>
+      </c>
+      <c r="B1636" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>Albury-Wodonga Bandits</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>Sutherland</t>
+        </is>
+      </c>
+      <c r="E1636" t="n">
+        <v>107</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1636" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1636" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>-81.6400000000006</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="1" t="n">
+        <v>1635</v>
+      </c>
+      <c r="B1637" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>Sydney Comets F</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>Central Coast F</t>
+        </is>
+      </c>
+      <c r="E1637" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1637" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1637" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>-82.6400000000006</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="1" t="n">
+        <v>1636</v>
+      </c>
+      <c r="B1638" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>Ipswich Force</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>Gold Coast Rollers</t>
+        </is>
+      </c>
+      <c r="E1638" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>102</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1638" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1638" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>-83.6400000000006</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="1" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B1639" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>Hobart Chargers</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>Waverley</t>
+        </is>
+      </c>
+      <c r="E1639" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>93</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1639" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1639" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>-82.8100000000006</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="1" t="n">
+        <v>1638</v>
+      </c>
+      <c r="B1640" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>Melbourne Tigers F</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>Ringwood F</t>
+        </is>
+      </c>
+      <c r="E1640" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1640" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1640" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>-81.9500000000006</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="1" t="n">
+        <v>1639</v>
+      </c>
+      <c r="B1641" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>Goldfields Giants</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>Joondalup Wolves</t>
+        </is>
+      </c>
+      <c r="E1641" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1641" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1641" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>-81.10000000000061</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="1" t="n">
+        <v>1640</v>
+      </c>
+      <c r="B1642" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>Kalleh</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="E1642" t="n">
+        <v>105</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1642" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1642" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>-80.27000000000061</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="1" t="n">
+        <v>1641</v>
+      </c>
+      <c r="B1643" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>Akita</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>Sendai</t>
+        </is>
+      </c>
+      <c r="E1643" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1643" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1643" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>-81.27000000000061</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="1" t="n">
+        <v>1642</v>
+      </c>
+      <c r="B1644" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>Osaka</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>Kyoto</t>
+        </is>
+      </c>
+      <c r="E1644" t="n">
+        <v>101</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1644" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1644" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>-80.45000000000061</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="1" t="n">
+        <v>1643</v>
+      </c>
+      <c r="B1645" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>Sun Rockers Shibuya</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>SeaHorses Mikawa</t>
+        </is>
+      </c>
+      <c r="E1645" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1645" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1645" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>-79.57000000000062</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="1" t="n">
+        <v>1644</v>
+      </c>
+      <c r="B1646" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>BK Liepaja</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>BK Ogre</t>
+        </is>
+      </c>
+      <c r="E1646" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1646" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1646" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>-80.57000000000062</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="1" t="n">
+        <v>1645</v>
+      </c>
+      <c r="B1647" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>Neptunas</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>Lietkabelis</t>
+        </is>
+      </c>
+      <c r="E1647" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1647" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1647" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>-79.72000000000062</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="1" t="n">
+        <v>1646</v>
+      </c>
+      <c r="B1648" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>FMP Akademija</t>
+        </is>
+      </c>
+      <c r="E1648" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1648" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1648" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>-78.87000000000063</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="1" t="n">
+        <v>1647</v>
+      </c>
+      <c r="B1649" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>Newcastle Eagles F</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>Oaklands Wolves F</t>
+        </is>
+      </c>
+      <c r="E1649" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1649" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1649" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>-79.87000000000063</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="1" t="n">
+        <v>1648</v>
+      </c>
+      <c r="B1650" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>Unics Kazan</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="E1650" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1650" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1650" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>-79.01000000000063</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="1" t="n">
+        <v>1649</v>
+      </c>
+      <c r="B1651" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>Taiwan Beer Leopards</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>Kaohsiung Aquas</t>
+        </is>
+      </c>
+      <c r="E1651" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1651" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1651" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>-80.01000000000063</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="1" t="n">
+        <v>1650</v>
+      </c>
+      <c r="B1652" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>Bahcesehir Kol.</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="E1652" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1652" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1652" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>-79.15000000000063</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="1" t="n">
+        <v>1651</v>
+      </c>
+      <c r="B1653" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>Mt. Gambier F</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>Ballarat F</t>
+        </is>
+      </c>
+      <c r="E1653" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1653" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1653" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>-80.15000000000063</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="1" t="n">
+        <v>1652</v>
+      </c>
+      <c r="B1654" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E1654" t="n">
+        <v>106</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>125</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H1654" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1654" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>-79.25000000000063</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="1" t="n">
+        <v>1653</v>
+      </c>
+      <c r="B1655" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>Scafati</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>Varese</t>
+        </is>
+      </c>
+      <c r="E1655" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1655" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1655" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>-78.44000000000062</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="1" t="n">
+        <v>1654</v>
+      </c>
+      <c r="B1656" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>Bamberg</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
+      </c>
+      <c r="E1656" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1656" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1656" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>-79.44000000000062</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="1" t="n">
+        <v>1655</v>
+      </c>
+      <c r="B1657" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>San Martin</t>
+        </is>
+      </c>
+      <c r="E1657" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1657" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1657" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>-80.44000000000062</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="1" t="n">
+        <v>1656</v>
+      </c>
+      <c r="B1658" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>Casey Cavaliers</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>Bendigo Braves</t>
+        </is>
+      </c>
+      <c r="E1658" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1658" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1658" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>-81.44000000000062</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="1" t="n">
+        <v>1657</v>
+      </c>
+      <c r="B1659" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>Keilor Thunder</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="E1659" t="n">
+        <v>103</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1659" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1659" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>-80.59000000000063</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="1" t="n">
+        <v>1658</v>
+      </c>
+      <c r="B1660" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>Guangzhou</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>Qingdao</t>
+        </is>
+      </c>
+      <c r="E1660" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1660" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1660" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>-81.59000000000063</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="1" t="n">
+        <v>1659</v>
+      </c>
+      <c r="B1661" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>Castello</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>Hestia Menorca</t>
+        </is>
+      </c>
+      <c r="E1661" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1661" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1661" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>-80.74000000000063</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="1" t="n">
+        <v>1660</v>
+      </c>
+      <c r="B1662" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>Liege</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="E1662" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1662" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1662" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>-79.87000000000063</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="1" t="n">
+        <v>1661</v>
+      </c>
+      <c r="B1663" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>CBK Mersin F</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>USK Prague F</t>
+        </is>
+      </c>
+      <c r="E1663" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1663" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1663" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>-79.01000000000063</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="1" t="n">
+        <v>1662</v>
+      </c>
+      <c r="B1664" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>Roanne</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="E1664" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1664" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1664" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>-80.01000000000063</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="1" t="n">
+        <v>1663</v>
+      </c>
+      <c r="B1665" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>Lavrio</t>
+        </is>
+      </c>
+      <c r="E1665" t="n">
+        <v>100</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1665" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1665" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>-81.01000000000063</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="1" t="n">
+        <v>1664</v>
+      </c>
+      <c r="B1666" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>Thorl</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>Njardvik</t>
+        </is>
+      </c>
+      <c r="E1666" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1666" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1666" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>-80.16000000000064</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="1" t="n">
+        <v>1665</v>
+      </c>
+      <c r="B1667" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>Osaka</t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>Kyoto</t>
+        </is>
+      </c>
+      <c r="E1667" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>93</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1667" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1667" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>-79.31000000000064</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="1" t="n">
+        <v>1666</v>
+      </c>
+      <c r="B1668" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>Sun Rockers Shibuya</t>
+        </is>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>SeaHorses Mikawa</t>
+        </is>
+      </c>
+      <c r="E1668" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1668" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1668" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>-80.31000000000064</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="1" t="n">
+        <v>1667</v>
+      </c>
+      <c r="B1669" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>Ostrow Wielkopolski</t>
+        </is>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>Anwil Wloclawek</t>
+        </is>
+      </c>
+      <c r="E1669" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1669" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1669" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>-79.45000000000064</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="1" t="n">
+        <v>1668</v>
+      </c>
+      <c r="B1670" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>Niedzwiadki Chemart Przemysl</t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>Pelplin</t>
+        </is>
+      </c>
+      <c r="E1670" t="n">
+        <v>105</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1670" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1670" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>-78.58000000000064</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="1" t="n">
+        <v>1669</v>
+      </c>
+      <c r="B1671" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>Polonia Warszawa</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>GKS Tychy</t>
+        </is>
+      </c>
+      <c r="E1671" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1671" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1671" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>-79.58000000000064</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="1" t="n">
+        <v>1670</v>
+      </c>
+      <c r="B1672" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>Académica</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>Imortal B</t>
+        </is>
+      </c>
+      <c r="E1672" t="n">
+        <v>54</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>58</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1672" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1672" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>-80.58000000000064</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="1" t="n">
+        <v>1671</v>
+      </c>
+      <c r="B1673" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>Formosa Dreamers</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>Taoyuan Pauian Pilots</t>
+        </is>
+      </c>
+      <c r="E1673" t="n">
+        <v>97</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1673" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1673" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>-81.58000000000064</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="1" t="n">
+        <v>1672</v>
+      </c>
+      <c r="B1674" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>Chunghua Telecom F</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>Taipower F</t>
+        </is>
+      </c>
+      <c r="E1674" t="n">
+        <v>56</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1674" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1674" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>-82.58000000000064</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="1" t="n">
+        <v>1673</v>
+      </c>
+      <c r="B1675" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>Bursaspor</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>Manisa</t>
+        </is>
+      </c>
+      <c r="E1675" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1675" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1675" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>-81.75000000000064</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="1" t="n">
+        <v>1674</v>
+      </c>
+      <c r="B1676" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>Independiente de Oliva</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>Regatas</t>
+        </is>
+      </c>
+      <c r="E1676" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1676" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1676" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>-82.75000000000064</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="1" t="n">
+        <v>1675</v>
+      </c>
+      <c r="B1677" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>Municipal Galati</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>CSM Targu Jiu</t>
+        </is>
+      </c>
+      <c r="E1677" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1677" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1677" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>-83.75000000000064</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="1" t="n">
+        <v>1676</v>
+      </c>
+      <c r="B1678" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>Petrolul Ploiesti</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>BC Timisoara</t>
+        </is>
+      </c>
+      <c r="E1678" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1678" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1678" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>-82.90000000000065</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="1" t="n">
+        <v>1677</v>
+      </c>
+      <c r="B1679" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>Rogaska</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>Podcetrtek</t>
+        </is>
+      </c>
+      <c r="E1679" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1679" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1679" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>-83.90000000000065</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="1" t="n">
+        <v>1678</v>
+      </c>
+      <c r="B1680" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>Gigantes de Carolina</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>Piratas de Quebradillas</t>
+        </is>
+      </c>
+      <c r="E1680" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1680" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1680" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>-83.05000000000065</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="1" t="n">
+        <v>1679</v>
+      </c>
+      <c r="B1681" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E1681" t="n">
+        <v>106</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>110</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1681" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1681" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>-84.05000000000065</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="1" t="n">
+        <v>1680</v>
+      </c>
+      <c r="B1682" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="E1682" t="n">
+        <v>113</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1682" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1682" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>-83.14000000000065</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="1" t="n">
+        <v>1681</v>
+      </c>
+      <c r="B1683" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>Anadolu Efes</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>Virtus Bologna</t>
+        </is>
+      </c>
+      <c r="E1683" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1683" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1683" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>-84.14000000000065</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="1" t="n">
+        <v>1682</v>
+      </c>
+      <c r="B1684" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>Bonn</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>Peristeri</t>
+        </is>
+      </c>
+      <c r="E1684" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1684" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1684" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>-83.28000000000065</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="1" t="n">
+        <v>1683</v>
+      </c>
+      <c r="B1685" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>DEAC</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>Zalakeramia</t>
+        </is>
+      </c>
+      <c r="E1685" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>93</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1685" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1685" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>-82.41000000000065</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="1" t="n">
+        <v>1684</v>
+      </c>
+      <c r="B1686" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>Hapoel Tel-Aviv</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>Maccabi Ironi Ramat Gan</t>
+        </is>
+      </c>
+      <c r="E1686" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1686" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1686" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>-83.41000000000065</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="1" t="n">
+        <v>1685</v>
+      </c>
+      <c r="B1687" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E1687" t="n">
+        <v>131</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>116</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1687" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1687" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>-82.48000000000064</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="1" t="n">
+        <v>1686</v>
+      </c>
+      <c r="B1688" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>Juventud Ameghino F</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>Obras F</t>
+        </is>
+      </c>
+      <c r="E1688" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1688" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1688" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>-81.63000000000065</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="1" t="n">
+        <v>1687</v>
+      </c>
+      <c r="B1689" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>Keravnos S.</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>AEK</t>
+        </is>
+      </c>
+      <c r="E1689" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1689" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1689" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>-80.78000000000065</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="1" t="n">
+        <v>1688</v>
+      </c>
+      <c r="B1690" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>Inter Bratislava</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>Prievidza</t>
+        </is>
+      </c>
+      <c r="E1690" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1690" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1690" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>-81.78000000000065</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="1" t="n">
+        <v>1689</v>
+      </c>
+      <c r="B1691" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>Rain Or Shine Paint.</t>
+        </is>
+      </c>
+      <c r="D1691" t="inlineStr">
+        <is>
+          <t>NorthPort</t>
+        </is>
+      </c>
+      <c r="E1691" t="n">
+        <v>115</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>105</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1691" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1691" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>-80.92000000000066</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="1" t="n">
+        <v>1690</v>
+      </c>
+      <c r="B1692" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>Elitzur Ashkelon</t>
+        </is>
+      </c>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>Maccabi Rehovot</t>
+        </is>
+      </c>
+      <c r="E1692" t="n">
+        <v>56</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1692" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1692" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>-81.92000000000066</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="1" t="n">
+        <v>1691</v>
+      </c>
+      <c r="B1693" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>Ibaraki Robots</t>
+        </is>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>Akita</t>
+        </is>
+      </c>
+      <c r="E1693" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1693" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1693" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>-81.07000000000066</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="1" t="n">
+        <v>1692</v>
+      </c>
+      <c r="B1694" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>Ostioneros de Guaymas</t>
+        </is>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>Venados de Mazatlan</t>
+        </is>
+      </c>
+      <c r="E1694" t="n">
+        <v>107</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>108</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1694" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1694" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>-80.21000000000066</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="1" t="n">
+        <v>1693</v>
+      </c>
+      <c r="B1695" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>Saratov</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>MBA Moscow</t>
+        </is>
+      </c>
+      <c r="E1695" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1695" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1695" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>-79.41000000000066</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="1" t="n">
+        <v>1694</v>
+      </c>
+      <c r="B1696" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>Proteas Voulas F</t>
+        </is>
+      </c>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>Esperides Kalliotheas F</t>
+        </is>
+      </c>
+      <c r="E1696" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1696" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1696" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>-78.56000000000067</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="1" t="n">
+        <v>1695</v>
+      </c>
+      <c r="B1697" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="D1697" t="inlineStr">
+        <is>
+          <t>Hottur</t>
+        </is>
+      </c>
+      <c r="E1697" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1697" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1697" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>-79.56000000000067</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="B1698" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>KR Reykjavik F</t>
+        </is>
+      </c>
+      <c r="D1698" t="inlineStr">
+        <is>
+          <t>Athena F</t>
+        </is>
+      </c>
+      <c r="E1698" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1698" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1698" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>-80.56000000000067</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="1" t="n">
+        <v>1697</v>
+      </c>
+      <c r="B1699" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>Ostioneros de Guaymas</t>
+        </is>
+      </c>
+      <c r="D1699" t="inlineStr">
+        <is>
+          <t>Venados de Mazatlan</t>
+        </is>
+      </c>
+      <c r="E1699" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1699" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1699" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>-79.72000000000067</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="1" t="n">
+        <v>1698</v>
+      </c>
+      <c r="B1700" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>CSU Sibiu</t>
+        </is>
+      </c>
+      <c r="D1700" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="E1700" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1700" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1700" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>-78.85000000000066</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="1" t="n">
+        <v>1699</v>
+      </c>
+      <c r="B1701" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D1701" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E1701" t="n">
+        <v>112</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1701" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1701" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>-79.85000000000066</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="B1702" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="D1702" t="inlineStr">
+        <is>
+          <t>Virtus Bologna</t>
+        </is>
+      </c>
+      <c r="E1702" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1702" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1702" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>-80.85000000000066</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="1" t="n">
+        <v>1701</v>
+      </c>
+      <c r="B1703" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>Sydney Comets</t>
+        </is>
+      </c>
+      <c r="D1703" t="inlineStr">
+        <is>
+          <t>Inner West Bulls</t>
+        </is>
+      </c>
+      <c r="E1703" t="n">
+        <v>58</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1703" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1703" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>-81.85000000000066</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="1" t="n">
+        <v>1702</v>
+      </c>
+      <c r="B1704" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t>Mandurah Magic</t>
+        </is>
+      </c>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>Beeliar Boodjar</t>
+        </is>
+      </c>
+      <c r="E1704" t="n">
+        <v>105</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1704" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1704" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>-81.00000000000067</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="1" t="n">
+        <v>1703</v>
+      </c>
+      <c r="B1705" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t>Academic Plovdiv</t>
+        </is>
+      </c>
+      <c r="D1705" t="inlineStr">
+        <is>
+          <t>Minyor</t>
+        </is>
+      </c>
+      <c r="E1705" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1705" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1705" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>-82.00000000000067</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="1" t="n">
+        <v>1704</v>
+      </c>
+      <c r="B1706" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>KCC Egis</t>
+        </is>
+      </c>
+      <c r="D1706" t="inlineStr">
+        <is>
+          <t>Wonju DB</t>
+        </is>
+      </c>
+      <c r="E1706" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1706" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1706" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>-81.12000000000067</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="1" t="n">
+        <v>1705</v>
+      </c>
+      <c r="B1707" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1707" t="inlineStr">
+        <is>
+          <t>Ginebra Kings</t>
+        </is>
+      </c>
+      <c r="D1707" t="inlineStr">
+        <is>
+          <t>TNT Tropang Giga</t>
+        </is>
+      </c>
+      <c r="E1707" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1707" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1707" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>-82.12000000000067</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="1" t="n">
+        <v>1706</v>
+      </c>
+      <c r="B1708" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1708" t="inlineStr">
+        <is>
+          <t>Aix-Maurienne</t>
+        </is>
+      </c>
+      <c r="D1708" t="inlineStr">
+        <is>
+          <t>ASA</t>
+        </is>
+      </c>
+      <c r="E1708" t="n">
+        <v>99</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1708" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1708" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>-81.27000000000068</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="1" t="n">
+        <v>1707</v>
+      </c>
+      <c r="B1709" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t>St. Chamond</t>
+        </is>
+      </c>
+      <c r="D1709" t="inlineStr">
+        <is>
+          <t>Chalons-Reims</t>
+        </is>
+      </c>
+      <c r="E1709" t="n">
+        <v>62</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1709" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1709" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>-82.27000000000068</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="1" t="n">
+        <v>1708</v>
+      </c>
+      <c r="B1710" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1710" t="inlineStr">
+        <is>
+          <t>Landerneau Bretagne F</t>
+        </is>
+      </c>
+      <c r="D1710" t="inlineStr">
+        <is>
+          <t>Flammes Carolo F</t>
+        </is>
+      </c>
+      <c r="E1710" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1710" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1710" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>-83.27000000000068</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="1" t="n">
+        <v>1709</v>
+      </c>
+      <c r="B1711" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1711" t="inlineStr">
+        <is>
+          <t>Charnay Bourgogne Sud F</t>
+        </is>
+      </c>
+      <c r="D1711" t="inlineStr">
+        <is>
+          <t>Lattes Montpellier F</t>
+        </is>
+      </c>
+      <c r="E1711" t="n">
+        <v>62</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1711" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1711" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>-84.27000000000068</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="1" t="n">
+        <v>1710</v>
+      </c>
+      <c r="B1712" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>Diamond Dolphins</t>
+        </is>
+      </c>
+      <c r="D1712" t="inlineStr">
+        <is>
+          <t>Shimane</t>
+        </is>
+      </c>
+      <c r="E1712" t="n">
+        <v>100</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1712" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1712" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>-83.42000000000068</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="1" t="n">
+        <v>1711</v>
+      </c>
+      <c r="B1713" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>Bristol Flyers</t>
+        </is>
+      </c>
+      <c r="D1713" t="inlineStr">
+        <is>
+          <t>Caledonia Gladiators</t>
+        </is>
+      </c>
+      <c r="E1713" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1713" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1713" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>-84.42000000000068</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="1" t="n">
+        <v>1712</v>
+      </c>
+      <c r="B1714" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>Litomerice</t>
+        </is>
+      </c>
+      <c r="D1714" t="inlineStr">
+        <is>
+          <t>Svitavy</t>
+        </is>
+      </c>
+      <c r="E1714" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1714" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1714" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>-85.42000000000068</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="1" t="n">
+        <v>1713</v>
+      </c>
+      <c r="B1715" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>Borac</t>
+        </is>
+      </c>
+      <c r="D1715" t="inlineStr">
+        <is>
+          <t>Subotica</t>
+        </is>
+      </c>
+      <c r="E1715" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1715" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1715" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>-84.61000000000068</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="1" t="n">
+        <v>1714</v>
+      </c>
+      <c r="B1716" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>Pinheiros</t>
+        </is>
+      </c>
+      <c r="D1716" t="inlineStr">
+        <is>
+          <t>R10 Score Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="E1716" t="n">
+        <v>56</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1716" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1716" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>-85.61000000000068</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="1" t="n">
+        <v>1715</v>
+      </c>
+      <c r="B1717" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>Palencia</t>
+        </is>
+      </c>
+      <c r="D1717" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="E1717" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1717" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1717" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>-84.80000000000068</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="1" t="n">
+        <v>1716</v>
+      </c>
+      <c r="B1718" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D1718" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E1718" t="n">
+        <v>120</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1718" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1718" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>-84.00000000000068</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="1" t="n">
+        <v>1717</v>
+      </c>
+      <c r="B1719" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D1719" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E1719" t="n">
+        <v>111</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>104</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1719" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1719" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>-83.20000000000068</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="1" t="n">
+        <v>1718</v>
+      </c>
+      <c r="B1720" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D1720" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E1720" t="n">
+        <v>114</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1720" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1720" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>-84.20000000000068</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="1" t="n">
+        <v>1719</v>
+      </c>
+      <c r="B1721" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>Geelong F</t>
+        </is>
+      </c>
+      <c r="D1721" t="inlineStr">
+        <is>
+          <t>Frankston F</t>
+        </is>
+      </c>
+      <c r="E1721" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1721" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1721" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>-83.36000000000068</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="1" t="n">
+        <v>1720</v>
+      </c>
+      <c r="B1722" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>Nunawading F</t>
+        </is>
+      </c>
+      <c r="D1722" t="inlineStr">
+        <is>
+          <t>Hobart Chargers F</t>
+        </is>
+      </c>
+      <c r="E1722" t="n">
+        <v>60</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1722" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1722" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>-84.36000000000068</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="1" t="n">
+        <v>1721</v>
+      </c>
+      <c r="B1723" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>Central Districts Lions F</t>
+        </is>
+      </c>
+      <c r="D1723" t="inlineStr">
+        <is>
+          <t>Sturt Sabres F</t>
+        </is>
+      </c>
+      <c r="E1723" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1723" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1723" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>-83.55000000000068</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="1" t="n">
+        <v>1722</v>
+      </c>
+      <c r="B1724" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1724" t="inlineStr">
+        <is>
+          <t>East Perth Eagles</t>
+        </is>
+      </c>
+      <c r="D1724" t="inlineStr">
+        <is>
+          <t>Perry Lakes Hawks</t>
+        </is>
+      </c>
+      <c r="E1724" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1724" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1724" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>-84.55000000000068</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="1" t="n">
+        <v>1723</v>
+      </c>
+      <c r="B1725" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>East Perth Eagles F</t>
+        </is>
+      </c>
+      <c r="D1725" t="inlineStr">
+        <is>
+          <t>Perry Lakes Hawks F</t>
+        </is>
+      </c>
+      <c r="E1725" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1725" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1725" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>-83.75000000000068</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="1" t="n">
+        <v>1724</v>
+      </c>
+      <c r="B1726" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t>Limoges</t>
+        </is>
+      </c>
+      <c r="D1726" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="E1726" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>99</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1726" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1726" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>-82.95000000000068</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="1" t="n">
+        <v>1725</v>
+      </c>
+      <c r="B1727" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>Saint Quentin</t>
+        </is>
+      </c>
+      <c r="D1727" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="E1727" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1727" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1727" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>-82.08000000000068</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="1" t="n">
+        <v>1726</v>
+      </c>
+      <c r="B1728" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t>Kaposvari</t>
+        </is>
+      </c>
+      <c r="D1728" t="inlineStr">
+        <is>
+          <t>Kormend</t>
+        </is>
+      </c>
+      <c r="E1728" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1728" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1728" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>-81.23000000000069</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="1" t="n">
+        <v>1727</v>
+      </c>
+      <c r="B1729" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t>Utsunomiya Brex</t>
+        </is>
+      </c>
+      <c r="D1729" t="inlineStr">
+        <is>
+          <t>Alvark</t>
+        </is>
+      </c>
+      <c r="E1729" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1729" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1729" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>-80.36000000000068</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="1" t="n">
+        <v>1728</v>
+      </c>
+      <c r="B1730" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1730" t="inlineStr">
+        <is>
+          <t>Koshigaya Alphas</t>
+        </is>
+      </c>
+      <c r="D1730" t="inlineStr">
+        <is>
+          <t>Shiga</t>
+        </is>
+      </c>
+      <c r="E1730" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1730" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1730" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>-81.36000000000068</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="1" t="n">
+        <v>1729</v>
+      </c>
+      <c r="B1731" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1731" t="inlineStr">
+        <is>
+          <t>Nara</t>
+        </is>
+      </c>
+      <c r="D1731" t="inlineStr">
+        <is>
+          <t>Ehime Orange Vikings</t>
+        </is>
+      </c>
+      <c r="E1731" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1731" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1731" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>-80.52000000000068</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="1" t="n">
+        <v>1730</v>
+      </c>
+      <c r="B1732" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1732" t="inlineStr">
+        <is>
+          <t>Bay Hawks</t>
+        </is>
+      </c>
+      <c r="D1732" t="inlineStr">
+        <is>
+          <t>Canterbury Rams</t>
+        </is>
+      </c>
+      <c r="E1732" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>104</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1732" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1732" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>-79.65000000000067</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="1" t="n">
+        <v>1731</v>
+      </c>
+      <c r="B1733" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1733" t="inlineStr">
+        <is>
+          <t>Legia</t>
+        </is>
+      </c>
+      <c r="D1733" t="inlineStr">
+        <is>
+          <t>Anwil Wloclawek</t>
+        </is>
+      </c>
+      <c r="E1733" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1733" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1733" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>-78.78000000000067</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="1" t="n">
+        <v>1732</v>
+      </c>
+      <c r="B1734" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1734" t="inlineStr">
+        <is>
+          <t>Lancut</t>
+        </is>
+      </c>
+      <c r="D1734" t="inlineStr">
+        <is>
+          <t>GTK Gliwice</t>
+        </is>
+      </c>
+      <c r="E1734" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1734" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1734" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>-79.78000000000067</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="1" t="n">
+        <v>1733</v>
+      </c>
+      <c r="B1735" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1735" t="inlineStr">
+        <is>
+          <t>Galomar</t>
+        </is>
+      </c>
+      <c r="D1735" t="inlineStr">
+        <is>
+          <t>Vitória SC</t>
+        </is>
+      </c>
+      <c r="E1735" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1735" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1735" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>-78.93000000000067</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="1" t="n">
+        <v>1734</v>
+      </c>
+      <c r="B1736" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1736" t="inlineStr">
+        <is>
+          <t>Norrkoping F</t>
+        </is>
+      </c>
+      <c r="D1736" t="inlineStr">
+        <is>
+          <t>Lulea F</t>
+        </is>
+      </c>
+      <c r="E1736" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1736" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1736" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>-78.09000000000067</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="1" t="n">
+        <v>1735</v>
+      </c>
+      <c r="B1737" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1737" t="inlineStr">
+        <is>
+          <t>Merkezefendi</t>
+        </is>
+      </c>
+      <c r="D1737" t="inlineStr">
+        <is>
+          <t>Çağdaş Bodrum Spor</t>
+        </is>
+      </c>
+      <c r="E1737" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1737" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1737" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>-79.09000000000067</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="1" t="n">
+        <v>1736</v>
+      </c>
+      <c r="B1738" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C1738" t="inlineStr">
+        <is>
+          <t>Aguada Santeros</t>
+        </is>
+      </c>
+      <c r="D1738" t="inlineStr">
+        <is>
+          <t>Cangrejeros</t>
+        </is>
+      </c>
+      <c r="E1738" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1738" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1738" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>-78.24000000000068</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1738"/>
+  <dimension ref="A1:J1893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62338,6 +62338,5896 @@
         <v>-78.24000000000068</v>
       </c>
     </row>
+    <row r="1739">
+      <c r="A1739" s="1" t="n">
+        <v>1737</v>
+      </c>
+      <c r="B1739" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D1739" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E1739" t="n">
+        <v>121</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>118</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1739" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1739" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>-77.31000000000067</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="1" t="n">
+        <v>1738</v>
+      </c>
+      <c r="B1740" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C1740" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D1740" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E1740" t="n">
+        <v>101</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1740" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1740" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>-78.31000000000067</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="1" t="n">
+        <v>1739</v>
+      </c>
+      <c r="B1741" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C1741" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D1741" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E1741" t="n">
+        <v>109</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>126</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1741" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1741" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>-77.38000000000066</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="1" t="n">
+        <v>1740</v>
+      </c>
+      <c r="B1742" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C1742" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D1742" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="E1742" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1742" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1742" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>-76.55000000000067</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="1" t="n">
+        <v>1741</v>
+      </c>
+      <c r="B1743" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C1743" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D1743" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="E1743" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1743" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1743" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>-77.55000000000067</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="1" t="n">
+        <v>1742</v>
+      </c>
+      <c r="B1744" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>Syntainics MBC</t>
+        </is>
+      </c>
+      <c r="D1744" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="E1744" t="n">
+        <v>104</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1744" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1744" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>-76.68000000000066</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="1" t="n">
+        <v>1743</v>
+      </c>
+      <c r="B1745" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>Mt. Gambier F</t>
+        </is>
+      </c>
+      <c r="D1745" t="inlineStr">
+        <is>
+          <t>Keilor Thunder F</t>
+        </is>
+      </c>
+      <c r="E1745" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>55</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1745" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1745" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>-77.68000000000066</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="1" t="n">
+        <v>1744</v>
+      </c>
+      <c r="B1746" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>Amager</t>
+        </is>
+      </c>
+      <c r="D1746" t="inlineStr">
+        <is>
+          <t>Holbaek-Stenhus</t>
+        </is>
+      </c>
+      <c r="E1746" t="n">
+        <v>99</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1746" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1746" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>-76.81000000000066</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="1" t="n">
+        <v>1745</v>
+      </c>
+      <c r="B1747" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>Liege</t>
+        </is>
+      </c>
+      <c r="D1747" t="inlineStr">
+        <is>
+          <t>Leiden</t>
+        </is>
+      </c>
+      <c r="E1747" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1747" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1747" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>-75.96000000000066</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="1" t="n">
+        <v>1746</v>
+      </c>
+      <c r="B1748" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>Bank of Taiwan</t>
+        </is>
+      </c>
+      <c r="D1748" t="inlineStr">
+        <is>
+          <t>Yulon Luxgen Dinos</t>
+        </is>
+      </c>
+      <c r="E1748" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1748" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1748" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>-76.96000000000066</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="1" t="n">
+        <v>1747</v>
+      </c>
+      <c r="B1749" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>Aguada Santeros</t>
+        </is>
+      </c>
+      <c r="D1749" t="inlineStr">
+        <is>
+          <t>Piratas de Quebradillas</t>
+        </is>
+      </c>
+      <c r="E1749" t="n">
+        <v>105</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1749" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1749" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>-76.13000000000066</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="1" t="n">
+        <v>1748</v>
+      </c>
+      <c r="B1750" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>Basquet Girona</t>
+        </is>
+      </c>
+      <c r="D1750" t="inlineStr">
+        <is>
+          <t>Bilbao</t>
+        </is>
+      </c>
+      <c r="E1750" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1750" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1750" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>-77.13000000000066</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="1" t="n">
+        <v>1749</v>
+      </c>
+      <c r="B1751" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D1751" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E1751" t="n">
+        <v>112</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1751" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1751" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>-78.13000000000066</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="1" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B1752" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D1752" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E1752" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>106</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1752" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1752" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>-79.13000000000066</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="1" t="n">
+        <v>1751</v>
+      </c>
+      <c r="B1753" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>Kilsyth F</t>
+        </is>
+      </c>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>Nunawading F</t>
+        </is>
+      </c>
+      <c r="E1753" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1753" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1753" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>-78.30000000000067</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="1" t="n">
+        <v>1752</v>
+      </c>
+      <c r="B1754" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>Fuenlabrada</t>
+        </is>
+      </c>
+      <c r="D1754" t="inlineStr">
+        <is>
+          <t>Gipuzkoa</t>
+        </is>
+      </c>
+      <c r="E1754" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1754" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1754" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>-79.30000000000067</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="1" t="n">
+        <v>1753</v>
+      </c>
+      <c r="B1755" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>Blackwater Bossing</t>
+        </is>
+      </c>
+      <c r="D1755" t="inlineStr">
+        <is>
+          <t>NorthPort</t>
+        </is>
+      </c>
+      <c r="E1755" t="n">
+        <v>113</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>115</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1755" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1755" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>-78.49000000000066</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="1" t="n">
+        <v>1754</v>
+      </c>
+      <c r="B1756" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="E1756" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1756" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1756" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>-79.49000000000066</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="1" t="n">
+        <v>1755</v>
+      </c>
+      <c r="B1757" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>AS Karditsas</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>AEK Athens</t>
+        </is>
+      </c>
+      <c r="E1757" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1757" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1757" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>-80.49000000000066</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="1" t="n">
+        <v>1756</v>
+      </c>
+      <c r="B1758" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>Tabiat</t>
+        </is>
+      </c>
+      <c r="E1758" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1758" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1758" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>-79.64000000000067</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="1" t="n">
+        <v>1757</v>
+      </c>
+      <c r="B1759" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>Shimane</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>Hiroshima D.</t>
+        </is>
+      </c>
+      <c r="E1759" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1759" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1759" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>-80.64000000000067</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="1" t="n">
+        <v>1758</v>
+      </c>
+      <c r="B1760" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>Shinshu</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>Yokohama</t>
+        </is>
+      </c>
+      <c r="E1760" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1760" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1760" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>-81.64000000000067</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="1" t="n">
+        <v>1759</v>
+      </c>
+      <c r="B1761" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>Yulon Luxgen Dinos</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>Bank of Taiwan</t>
+        </is>
+      </c>
+      <c r="E1761" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1761" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1761" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>-82.64000000000067</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="1" t="n">
+        <v>1760</v>
+      </c>
+      <c r="B1762" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>Kaohsiung Aquas</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>New Taipei CTBC DEA</t>
+        </is>
+      </c>
+      <c r="E1762" t="n">
+        <v>99</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>121</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1762" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1762" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>-81.78000000000067</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="1" t="n">
+        <v>1761</v>
+      </c>
+      <c r="B1763" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>CBK Kosice F</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>Young Angels Kosice F</t>
+        </is>
+      </c>
+      <c r="E1763" t="n">
+        <v>62</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1763" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1763" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>-82.78000000000067</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="1" t="n">
+        <v>1762</v>
+      </c>
+      <c r="B1764" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>Sencur</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>Tajfun Sentjur</t>
+        </is>
+      </c>
+      <c r="E1764" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1764" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1764" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>-81.93000000000067</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="1" t="n">
+        <v>1763</v>
+      </c>
+      <c r="B1765" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E1765" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1765" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1765" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>-82.93000000000067</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="1" t="n">
+        <v>1764</v>
+      </c>
+      <c r="B1766" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E1766" t="n">
+        <v>126</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>113</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1766" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1766" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>-82.13000000000068</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="1" t="n">
+        <v>1765</v>
+      </c>
+      <c r="B1767" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>Scafati</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>Sassari</t>
+        </is>
+      </c>
+      <c r="E1767" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>99</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1767" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1767" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>-81.25000000000068</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="1" t="n">
+        <v>1766</v>
+      </c>
+      <c r="B1768" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>Vechta</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>Wurzburg</t>
+        </is>
+      </c>
+      <c r="E1768" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1768" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1768" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>-80.37000000000069</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="1" t="n">
+        <v>1767</v>
+      </c>
+      <c r="B1769" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>Bendigo Braves</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>Ringwood</t>
+        </is>
+      </c>
+      <c r="E1769" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1769" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1769" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>-81.37000000000069</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="1" t="n">
+        <v>1768</v>
+      </c>
+      <c r="B1770" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>Le Portel</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="E1770" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1770" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1770" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>-82.37000000000069</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="1" t="n">
+        <v>1769</v>
+      </c>
+      <c r="B1771" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>Fos-sur-Mer</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>La Rochelle</t>
+        </is>
+      </c>
+      <c r="E1771" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>57</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1771" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1771" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>-83.37000000000069</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="1" t="n">
+        <v>1770</v>
+      </c>
+      <c r="B1772" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>Shimane</t>
+        </is>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>Hiroshima D.</t>
+        </is>
+      </c>
+      <c r="E1772" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1772" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1772" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>-84.37000000000069</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="1" t="n">
+        <v>1771</v>
+      </c>
+      <c r="B1773" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>Diamond Dolphins</t>
+        </is>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>Ryukyu</t>
+        </is>
+      </c>
+      <c r="E1773" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1773" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1773" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>-85.37000000000069</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="1" t="n">
+        <v>1772</v>
+      </c>
+      <c r="B1774" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t>Kretinga</t>
+        </is>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>Jurbarkas</t>
+        </is>
+      </c>
+      <c r="E1774" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1774" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1774" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>-84.57000000000069</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="1" t="n">
+        <v>1773</v>
+      </c>
+      <c r="B1775" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1775" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D1775" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E1775" t="n">
+        <v>108</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>106</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1775" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1775" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>-85.57000000000069</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="1" t="n">
+        <v>1774</v>
+      </c>
+      <c r="B1776" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1776" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="D1776" t="inlineStr">
+        <is>
+          <t>Næstved</t>
+        </is>
+      </c>
+      <c r="E1776" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1776" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1776" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>-86.57000000000069</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="1" t="n">
+        <v>1775</v>
+      </c>
+      <c r="B1777" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1777" t="inlineStr">
+        <is>
+          <t>Kataja</t>
+        </is>
+      </c>
+      <c r="D1777" t="inlineStr">
+        <is>
+          <t>BC Nokia</t>
+        </is>
+      </c>
+      <c r="E1777" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>93</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1777" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1777" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>-85.7200000000007</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="1" t="n">
+        <v>1776</v>
+      </c>
+      <c r="B1778" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1778" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="D1778" t="inlineStr">
+        <is>
+          <t>Tabiat</t>
+        </is>
+      </c>
+      <c r="E1778" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1778" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1778" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>-86.7200000000007</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="1" t="n">
+        <v>1777</v>
+      </c>
+      <c r="B1779" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1779" t="inlineStr">
+        <is>
+          <t>Rigas Zelli</t>
+        </is>
+      </c>
+      <c r="D1779" t="inlineStr">
+        <is>
+          <t>Ventspils</t>
+        </is>
+      </c>
+      <c r="E1779" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1779" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1779" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>-85.85000000000069</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="1" t="n">
+        <v>1778</v>
+      </c>
+      <c r="B1780" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1780" t="inlineStr">
+        <is>
+          <t>Beirut Club</t>
+        </is>
+      </c>
+      <c r="D1780" t="inlineStr">
+        <is>
+          <t>Sagesse Al Hekmeh Beirut</t>
+        </is>
+      </c>
+      <c r="E1780" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1780" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1780" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>-85.0000000000007</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="1" t="n">
+        <v>1779</v>
+      </c>
+      <c r="B1781" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C1781" t="inlineStr">
+        <is>
+          <t>Dinamo Bucharest</t>
+        </is>
+      </c>
+      <c r="D1781" t="inlineStr">
+        <is>
+          <t>Rapid Bucuresti</t>
+        </is>
+      </c>
+      <c r="E1781" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1781" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1781" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>-84.1500000000007</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="1" t="n">
+        <v>1780</v>
+      </c>
+      <c r="B1782" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C1782" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D1782" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E1782" t="n">
+        <v>106</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>112</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1782" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1782" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>-83.2200000000007</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="1" t="n">
+        <v>1781</v>
+      </c>
+      <c r="B1783" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C1783" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D1783" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E1783" t="n">
+        <v>104</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1783" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1783" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>-82.29000000000069</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="1" t="n">
+        <v>1782</v>
+      </c>
+      <c r="B1784" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C1784" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="D1784" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E1784" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1784" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1784" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>-81.38000000000069</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="1" t="n">
+        <v>1783</v>
+      </c>
+      <c r="B1785" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C1785" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="D1785" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="E1785" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1785" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1785" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>-80.51000000000069</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="1" t="n">
+        <v>1784</v>
+      </c>
+      <c r="B1786" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C1786" t="inlineStr">
+        <is>
+          <t>CSM Focsani</t>
+        </is>
+      </c>
+      <c r="D1786" t="inlineStr">
+        <is>
+          <t>CSM Targu Jiu</t>
+        </is>
+      </c>
+      <c r="E1786" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1786" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1786" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>-79.68000000000069</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="1" t="n">
+        <v>1785</v>
+      </c>
+      <c r="B1787" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C1787" t="inlineStr">
+        <is>
+          <t>Subotica</t>
+        </is>
+      </c>
+      <c r="D1787" t="inlineStr">
+        <is>
+          <t>Borac</t>
+        </is>
+      </c>
+      <c r="E1787" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1787" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1787" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>-80.68000000000069</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="1" t="n">
+        <v>1786</v>
+      </c>
+      <c r="B1788" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C1788" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="D1788" t="inlineStr">
+        <is>
+          <t>Hebraica y Macabi</t>
+        </is>
+      </c>
+      <c r="E1788" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1788" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1788" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>-79.83000000000069</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="1" t="n">
+        <v>1787</v>
+      </c>
+      <c r="B1789" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C1789" t="inlineStr">
+        <is>
+          <t>San German</t>
+        </is>
+      </c>
+      <c r="D1789" t="inlineStr">
+        <is>
+          <t>Piratas de Quebradillas</t>
+        </is>
+      </c>
+      <c r="E1789" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1789" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1789" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>-80.83000000000069</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="1" t="n">
+        <v>1788</v>
+      </c>
+      <c r="B1790" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C1790" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>Unicaja</t>
+        </is>
+      </c>
+      <c r="E1790" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1790" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1790" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>-80.0300000000007</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="1" t="n">
+        <v>1789</v>
+      </c>
+      <c r="B1791" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="E1791" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1791" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1791" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>-79.1200000000007</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="1" t="n">
+        <v>1790</v>
+      </c>
+      <c r="B1792" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t>Alba Berlin F</t>
+        </is>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>Keltern F</t>
+        </is>
+      </c>
+      <c r="E1792" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1792" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1792" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>-80.1200000000007</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="1" t="n">
+        <v>1791</v>
+      </c>
+      <c r="B1793" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t>Szekszard F</t>
+        </is>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>Sopron F</t>
+        </is>
+      </c>
+      <c r="E1793" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1793" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1793" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>-79.2500000000007</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="1" t="n">
+        <v>1792</v>
+      </c>
+      <c r="B1794" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>Hapoel Beer Sheva</t>
+        </is>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>Ironi Kiryat Ata</t>
+        </is>
+      </c>
+      <c r="E1794" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1794" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1794" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>-78.3900000000007</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="1" t="n">
+        <v>1793</v>
+      </c>
+      <c r="B1795" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E1795" t="n">
+        <v>120</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>98</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1795" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1795" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>-77.5900000000007</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="1" t="n">
+        <v>1794</v>
+      </c>
+      <c r="B1796" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E1796" t="n">
+        <v>115</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>118</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1796" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1796" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>-76.66000000000069</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="1" t="n">
+        <v>1795</v>
+      </c>
+      <c r="B1797" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>Rapla</t>
+        </is>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>TAL TECH</t>
+        </is>
+      </c>
+      <c r="E1797" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1797" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1797" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>-77.66000000000069</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="1" t="n">
+        <v>1796</v>
+      </c>
+      <c r="B1798" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>Campinas F</t>
+        </is>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>Corinthians F</t>
+        </is>
+      </c>
+      <c r="E1798" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>62</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1798" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1798" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>-78.66000000000069</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="1" t="n">
+        <v>1797</v>
+      </c>
+      <c r="B1799" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E1799" t="n">
+        <v>103</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1799" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1799" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>-79.66000000000069</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="1" t="n">
+        <v>1798</v>
+      </c>
+      <c r="B1800" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E1800" t="n">
+        <v>114</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>101</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1800" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1800" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>-78.8600000000007</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="1" t="n">
+        <v>1799</v>
+      </c>
+      <c r="B1801" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C1801" t="inlineStr">
+        <is>
+          <t>Ancud</t>
+        </is>
+      </c>
+      <c r="D1801" t="inlineStr">
+        <is>
+          <t>U. De Concepcion</t>
+        </is>
+      </c>
+      <c r="E1801" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1801" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1801" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>-79.8600000000007</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="1" t="n">
+        <v>1800</v>
+      </c>
+      <c r="B1802" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>Oviedo</t>
+        </is>
+      </c>
+      <c r="E1802" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1802" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1802" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>-79.0100000000007</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="1" t="n">
+        <v>1801</v>
+      </c>
+      <c r="B1803" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>Njardvik</t>
+        </is>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="E1803" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1803" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1803" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>-80.0100000000007</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="1" t="n">
+        <v>1802</v>
+      </c>
+      <c r="B1804" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t>H. Afula</t>
+        </is>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>Nes Ziona</t>
+        </is>
+      </c>
+      <c r="E1804" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1804" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1804" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>-81.0100000000007</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="1" t="n">
+        <v>1803</v>
+      </c>
+      <c r="B1805" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t>Bristol Flyers</t>
+        </is>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>Cheshire Phoenix</t>
+        </is>
+      </c>
+      <c r="E1805" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1805" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1805" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>-82.0100000000007</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="1" t="n">
+        <v>1804</v>
+      </c>
+      <c r="B1806" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>CSM Oradea</t>
+        </is>
+      </c>
+      <c r="E1806" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1806" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1806" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>-81.1400000000007</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="1" t="n">
+        <v>1805</v>
+      </c>
+      <c r="B1807" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t>NW Tasmania</t>
+        </is>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>Frankston</t>
+        </is>
+      </c>
+      <c r="E1807" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>101</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1807" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1807" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>-80.2800000000007</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="1" t="n">
+        <v>1806</v>
+      </c>
+      <c r="B1808" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>Blackwater Bossing</t>
+        </is>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>Phoenix Fuelmasters</t>
+        </is>
+      </c>
+      <c r="E1808" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1808" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1808" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>-81.2800000000007</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="1" t="n">
+        <v>1807</v>
+      </c>
+      <c r="B1809" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C1809" t="inlineStr">
+        <is>
+          <t>Nanterre</t>
+        </is>
+      </c>
+      <c r="D1809" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="E1809" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1809" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1809" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>-82.2800000000007</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="1" t="n">
+        <v>1808</v>
+      </c>
+      <c r="B1810" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C1810" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="D1810" t="inlineStr">
+        <is>
+          <t>Boulazac</t>
+        </is>
+      </c>
+      <c r="E1810" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1810" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1810" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>-81.44000000000069</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="1" t="n">
+        <v>1809</v>
+      </c>
+      <c r="B1811" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C1811" t="inlineStr">
+        <is>
+          <t>SeaHorses Mikawa</t>
+        </is>
+      </c>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>NeoPhoenix</t>
+        </is>
+      </c>
+      <c r="E1811" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1811" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1811" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>-80.58000000000069</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="1" t="n">
+        <v>1810</v>
+      </c>
+      <c r="B1812" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C1812" t="inlineStr">
+        <is>
+          <t>Rigas Zelli</t>
+        </is>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>Ventspils</t>
+        </is>
+      </c>
+      <c r="E1812" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>61</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1812" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1812" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>-81.58000000000069</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="1" t="n">
+        <v>1811</v>
+      </c>
+      <c r="B1813" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t>Leicester Riders</t>
+        </is>
+      </c>
+      <c r="D1813" t="inlineStr">
+        <is>
+          <t>Sheffield Sharks</t>
+        </is>
+      </c>
+      <c r="E1813" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1813" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1813" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>-82.58000000000069</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="1" t="n">
+        <v>1812</v>
+      </c>
+      <c r="B1814" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C1814" t="inlineStr">
+        <is>
+          <t>Taiyuan F</t>
+        </is>
+      </c>
+      <c r="D1814" t="inlineStr">
+        <is>
+          <t>Cathay Life F</t>
+        </is>
+      </c>
+      <c r="E1814" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1814" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1814" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>-83.58000000000069</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="1" t="n">
+        <v>1813</v>
+      </c>
+      <c r="B1815" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C1815" t="inlineStr">
+        <is>
+          <t>Manisa</t>
+        </is>
+      </c>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t>Pinar Karsiyaka</t>
+        </is>
+      </c>
+      <c r="E1815" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>98</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1815" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1815" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>-82.77000000000069</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="1" t="n">
+        <v>1814</v>
+      </c>
+      <c r="B1816" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C1816" t="inlineStr">
+        <is>
+          <t>Tofas</t>
+        </is>
+      </c>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="E1816" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>107</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1816" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1816" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>-81.91000000000069</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="1" t="n">
+        <v>1815</v>
+      </c>
+      <c r="B1817" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C1817" t="inlineStr">
+        <is>
+          <t>Hebraica y Macabi</t>
+        </is>
+      </c>
+      <c r="D1817" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="E1817" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1817" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1817" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>-82.91000000000069</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="1" t="n">
+        <v>1816</v>
+      </c>
+      <c r="B1818" s="2" t="n">
+        <v>45416</v>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>Peja</t>
+        </is>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>Golden Eagle Ylli</t>
+        </is>
+      </c>
+      <c r="E1818" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1818" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1818" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>-82.0600000000007</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="1" t="n">
+        <v>1817</v>
+      </c>
+      <c r="B1819" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="C1819" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E1819" t="n">
+        <v>106</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>94</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1819" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1819" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>-81.13000000000069</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="1" t="n">
+        <v>1818</v>
+      </c>
+      <c r="B1820" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="C1820" t="inlineStr">
+        <is>
+          <t>Treviso</t>
+        </is>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>Tortona</t>
+        </is>
+      </c>
+      <c r="E1820" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1820" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1820" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>-82.13000000000069</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="1" t="n">
+        <v>1819</v>
+      </c>
+      <c r="B1821" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t>Jena</t>
+        </is>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>Frankfurt</t>
+        </is>
+      </c>
+      <c r="E1821" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1821" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1821" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>-83.13000000000069</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="1" t="n">
+        <v>1820</v>
+      </c>
+      <c r="B1822" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>PS Karlsruhe</t>
+        </is>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>Giessen</t>
+        </is>
+      </c>
+      <c r="E1822" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1822" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1822" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>-82.2800000000007</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="1" t="n">
+        <v>1821</v>
+      </c>
+      <c r="B1823" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>Hills Hornets</t>
+        </is>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="E1823" t="n">
+        <v>66</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1823" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1823" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>-81.4300000000007</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="1" t="n">
+        <v>1822</v>
+      </c>
+      <c r="B1824" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>Sutherland</t>
+        </is>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>Manly W.</t>
+        </is>
+      </c>
+      <c r="E1824" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1824" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1824" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>-80.58000000000071</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="1" t="n">
+        <v>1823</v>
+      </c>
+      <c r="B1825" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>Magnolia Hotshots</t>
+        </is>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>TNT Tropang Giga</t>
+        </is>
+      </c>
+      <c r="E1825" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>98</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1825" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1825" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>-79.7100000000007</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="1" t="n">
+        <v>1824</v>
+      </c>
+      <c r="B1826" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>Flammes Carolo F</t>
+        </is>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>Landerneau Bretagne F</t>
+        </is>
+      </c>
+      <c r="E1826" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1826" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1826" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>-78.8500000000007</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="1" t="n">
+        <v>1825</v>
+      </c>
+      <c r="B1827" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="C1827" t="inlineStr">
+        <is>
+          <t>Osaka</t>
+        </is>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>Shimane</t>
+        </is>
+      </c>
+      <c r="E1827" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1827" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1827" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>-79.8500000000007</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="1" t="n">
+        <v>1826</v>
+      </c>
+      <c r="B1828" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="C1828" t="inlineStr">
+        <is>
+          <t>SeaHorses Mikawa</t>
+        </is>
+      </c>
+      <c r="D1828" t="inlineStr">
+        <is>
+          <t>NeoPhoenix</t>
+        </is>
+      </c>
+      <c r="E1828" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1828" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1828" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>-80.8500000000007</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="1" t="n">
+        <v>1827</v>
+      </c>
+      <c r="B1829" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E1829" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>106</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1829" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1829" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>-81.8500000000007</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="1" t="n">
+        <v>1828</v>
+      </c>
+      <c r="B1830" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t>Zabok</t>
+        </is>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>Cibona</t>
+        </is>
+      </c>
+      <c r="E1830" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1830" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1830" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>-82.8500000000007</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="1" t="n">
+        <v>1829</v>
+      </c>
+      <c r="B1831" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>Cedevita</t>
+        </is>
+      </c>
+      <c r="E1831" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1831" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1831" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>-82.00000000000071</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="1" t="n">
+        <v>1830</v>
+      </c>
+      <c r="B1832" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t>Szolnoki Olaj</t>
+        </is>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>Alba Fehervar</t>
+        </is>
+      </c>
+      <c r="E1832" t="n">
+        <v>99</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1832" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1832" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>-81.15000000000072</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="1" t="n">
+        <v>1831</v>
+      </c>
+      <c r="B1833" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C1833" t="inlineStr">
+        <is>
+          <t>Grindavik F</t>
+        </is>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>Njardvik F</t>
+        </is>
+      </c>
+      <c r="E1833" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1833" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1833" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>-80.30000000000072</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="1" t="n">
+        <v>1832</v>
+      </c>
+      <c r="B1834" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E1834" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1834" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1834" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>-81.30000000000072</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="1" t="n">
+        <v>1833</v>
+      </c>
+      <c r="B1835" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="C1835" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="D1835" t="inlineStr">
+        <is>
+          <t>Njardvik</t>
+        </is>
+      </c>
+      <c r="E1835" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1835" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1835" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>-82.30000000000072</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="1" t="n">
+        <v>1834</v>
+      </c>
+      <c r="B1836" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="C1836" t="inlineStr">
+        <is>
+          <t>Tindastoll F</t>
+        </is>
+      </c>
+      <c r="D1836" t="inlineStr">
+        <is>
+          <t>Athena F</t>
+        </is>
+      </c>
+      <c r="E1836" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1836" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1836" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>-81.45000000000073</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="1" t="n">
+        <v>1835</v>
+      </c>
+      <c r="B1837" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="C1837" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="D1837" t="inlineStr">
+        <is>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="E1837" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1837" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1837" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>-80.62000000000073</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="1" t="n">
+        <v>1836</v>
+      </c>
+      <c r="B1838" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="C1838" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D1838" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="E1838" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1838" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1838" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>-81.62000000000073</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="1" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B1839" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="C1839" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D1839" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="E1839" t="n">
+        <v>59</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1839" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1839" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>-82.62000000000073</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="1" t="n">
+        <v>1838</v>
+      </c>
+      <c r="B1840" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="C1840" t="inlineStr">
+        <is>
+          <t>Spirou Charleroi</t>
+        </is>
+      </c>
+      <c r="D1840" t="inlineStr">
+        <is>
+          <t>Liege</t>
+        </is>
+      </c>
+      <c r="E1840" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>98</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1840" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1840" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>-81.82000000000073</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="1" t="n">
+        <v>1839</v>
+      </c>
+      <c r="B1841" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="C1841" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="D1841" t="inlineStr">
+        <is>
+          <t>Skrljevo</t>
+        </is>
+      </c>
+      <c r="E1841" t="n">
+        <v>109</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1841" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1841" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1841" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1841" t="n">
+        <v>-80.97000000000074</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="1" t="n">
+        <v>1840</v>
+      </c>
+      <c r="B1842" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="C1842" t="inlineStr">
+        <is>
+          <t>Sencur</t>
+        </is>
+      </c>
+      <c r="D1842" t="inlineStr">
+        <is>
+          <t>Ilirija</t>
+        </is>
+      </c>
+      <c r="E1842" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1842" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1842" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1842" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1842" t="n">
+        <v>-80.10000000000073</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="1" t="n">
+        <v>1841</v>
+      </c>
+      <c r="B1843" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t>NorthPort</t>
+        </is>
+      </c>
+      <c r="D1843" t="inlineStr">
+        <is>
+          <t>Terrafirma Dyip</t>
+        </is>
+      </c>
+      <c r="E1843" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>104</v>
+      </c>
+      <c r="G1843" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1843" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1843" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1843" t="n">
+        <v>-81.10000000000073</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="1" t="n">
+        <v>1842</v>
+      </c>
+      <c r="B1844" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="C1844" t="inlineStr">
+        <is>
+          <t>Luiss Roma</t>
+        </is>
+      </c>
+      <c r="D1844" t="inlineStr">
+        <is>
+          <t>Nardo</t>
+        </is>
+      </c>
+      <c r="E1844" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1844" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1844" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1844" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1844" t="n">
+        <v>-80.30000000000074</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="1" t="n">
+        <v>1843</v>
+      </c>
+      <c r="B1845" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t>Vaqueros de Bayamon</t>
+        </is>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>Gigantes de Carolina</t>
+        </is>
+      </c>
+      <c r="E1845" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>99</v>
+      </c>
+      <c r="G1845" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1845" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1845" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1845" t="n">
+        <v>-79.48000000000074</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="1" t="n">
+        <v>1844</v>
+      </c>
+      <c r="B1846" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>Oldenburg</t>
+        </is>
+      </c>
+      <c r="E1846" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1846" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1846" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1846" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1846" t="n">
+        <v>-80.48000000000074</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="1" t="n">
+        <v>1845</v>
+      </c>
+      <c r="B1847" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t>Anorthosis</t>
+        </is>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>Keravnos S.</t>
+        </is>
+      </c>
+      <c r="E1847" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1847" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1847" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1847" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1847" t="n">
+        <v>-81.48000000000074</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="1" t="n">
+        <v>1846</v>
+      </c>
+      <c r="B1848" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>Perfumerias Avenida F</t>
+        </is>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>Valencia F</t>
+        </is>
+      </c>
+      <c r="E1848" t="n">
+        <v>48</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1848" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1848" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1848" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1848" t="n">
+        <v>-82.48000000000074</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="1" t="n">
+        <v>1847</v>
+      </c>
+      <c r="B1849" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>Urania Milano</t>
+        </is>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="E1849" t="n">
+        <v>69</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1849" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1849" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1849" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1849" t="n">
+        <v>-83.48000000000074</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="1" t="n">
+        <v>1848</v>
+      </c>
+      <c r="B1850" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>Canterbury Rams</t>
+        </is>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>Taranaki Airs</t>
+        </is>
+      </c>
+      <c r="E1850" t="n">
+        <v>86</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1850" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1850" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1850" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1850" t="n">
+        <v>-84.48000000000074</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="1" t="n">
+        <v>1849</v>
+      </c>
+      <c r="B1851" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>Ostrow Wielkopolski</t>
+        </is>
+      </c>
+      <c r="E1851" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>97</v>
+      </c>
+      <c r="G1851" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1851" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1851" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1851" t="n">
+        <v>-83.61000000000074</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="1" t="n">
+        <v>1850</v>
+      </c>
+      <c r="B1852" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>Taiyuan F</t>
+        </is>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>Cathay Life F</t>
+        </is>
+      </c>
+      <c r="E1852" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1852" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1852" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1852" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1852" t="n">
+        <v>-82.78000000000074</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="1" t="n">
+        <v>1851</v>
+      </c>
+      <c r="B1853" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>Unicaja</t>
+        </is>
+      </c>
+      <c r="E1853" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1853" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1853" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1853" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1853" t="n">
+        <v>-81.93000000000075</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="1" t="n">
+        <v>1852</v>
+      </c>
+      <c r="B1854" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>Breogan</t>
+        </is>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>MoraBanc Andorra</t>
+        </is>
+      </c>
+      <c r="E1854" t="n">
+        <v>97</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1854" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1854" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1854" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1854" t="n">
+        <v>-81.10000000000075</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="1" t="n">
+        <v>1853</v>
+      </c>
+      <c r="B1855" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="E1855" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1855" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1855" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1855" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1855" t="n">
+        <v>-82.10000000000075</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="1" t="n">
+        <v>1854</v>
+      </c>
+      <c r="B1856" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>Gran Canaria</t>
+        </is>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>Basquet Girona</t>
+        </is>
+      </c>
+      <c r="E1856" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1856" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1856" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1856" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1856" t="n">
+        <v>-83.10000000000075</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="1" t="n">
+        <v>1855</v>
+      </c>
+      <c r="B1857" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E1857" t="n">
+        <v>111</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>106</v>
+      </c>
+      <c r="G1857" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1857" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1857" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1857" t="n">
+        <v>-84.10000000000075</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="1" t="n">
+        <v>1856</v>
+      </c>
+      <c r="B1858" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E1858" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>117</v>
+      </c>
+      <c r="G1858" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H1858" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1858" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J1858" t="n">
+        <v>-83.17000000000074</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="1" t="n">
+        <v>1857</v>
+      </c>
+      <c r="B1859" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>PS Karlsruhe</t>
+        </is>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>Giessen</t>
+        </is>
+      </c>
+      <c r="E1859" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1859" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1859" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1859" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1859" t="n">
+        <v>-82.30000000000074</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="1" t="n">
+        <v>1858</v>
+      </c>
+      <c r="B1860" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>Kirchheim</t>
+        </is>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>Phoenix Hagen</t>
+        </is>
+      </c>
+      <c r="E1860" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1860" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1860" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1860" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1860" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1860" t="n">
+        <v>-83.30000000000074</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" s="1" t="n">
+        <v>1859</v>
+      </c>
+      <c r="B1861" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>TNT Tropang Giga</t>
+        </is>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>Rain Or Shine Paint.</t>
+        </is>
+      </c>
+      <c r="E1861" t="n">
+        <v>116</v>
+      </c>
+      <c r="F1861" t="n">
+        <v>99</v>
+      </c>
+      <c r="G1861" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1861" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1861" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1861" t="n">
+        <v>-82.50000000000074</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" s="1" t="n">
+        <v>1860</v>
+      </c>
+      <c r="B1862" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>Denain-Voltaire</t>
+        </is>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>ASA</t>
+        </is>
+      </c>
+      <c r="E1862" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1862" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1862" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1862" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1862" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1862" t="n">
+        <v>-81.63000000000073</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="1" t="n">
+        <v>1861</v>
+      </c>
+      <c r="B1863" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>Evreux</t>
+        </is>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>Poitiers</t>
+        </is>
+      </c>
+      <c r="E1863" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1863" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1863" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1863" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1863" t="n">
+        <v>-82.63000000000073</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="1" t="n">
+        <v>1862</v>
+      </c>
+      <c r="B1864" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>Pau-Orthez</t>
+        </is>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>La Rochelle</t>
+        </is>
+      </c>
+      <c r="E1864" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1864" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1864" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1864" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1864" t="n">
+        <v>-83.63000000000073</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="1" t="n">
+        <v>1863</v>
+      </c>
+      <c r="B1865" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>La Roche F</t>
+        </is>
+      </c>
+      <c r="D1865" t="inlineStr">
+        <is>
+          <t>Flammes Carolo F</t>
+        </is>
+      </c>
+      <c r="E1865" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1865" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1865" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1865" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1865" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1865" t="n">
+        <v>-84.63000000000073</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" s="1" t="n">
+        <v>1864</v>
+      </c>
+      <c r="B1866" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>Dabrowa Gornicza</t>
+        </is>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>Trefl Sopot</t>
+        </is>
+      </c>
+      <c r="E1866" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1866" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1866" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1866" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1866" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1866" t="n">
+        <v>-85.63000000000073</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" s="1" t="n">
+        <v>1865</v>
+      </c>
+      <c r="B1867" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E1867" t="n">
+        <v>105</v>
+      </c>
+      <c r="F1867" t="n">
+        <v>101</v>
+      </c>
+      <c r="G1867" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H1867" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1867" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1867" t="n">
+        <v>-86.63000000000073</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" s="1" t="n">
+        <v>1866</v>
+      </c>
+      <c r="B1868" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>Illawarra Hawks</t>
+        </is>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>Hornsby S.</t>
+        </is>
+      </c>
+      <c r="E1868" t="n">
+        <v>101</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>91</v>
+      </c>
+      <c r="G1868" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1868" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1868" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J1868" t="n">
+        <v>-85.75000000000074</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" s="1" t="n">
+        <v>1867</v>
+      </c>
+      <c r="B1869" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>Lakeside Lightning F</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>Willetton Tigers F</t>
+        </is>
+      </c>
+      <c r="E1869" t="n">
+        <v>97</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1869" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1869" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1869" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1869" t="n">
+        <v>-84.89000000000074</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" s="1" t="n">
+        <v>1868</v>
+      </c>
+      <c r="B1870" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>Dewa United</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>Pelita Jaya</t>
+        </is>
+      </c>
+      <c r="E1870" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1870" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1870" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1870" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1870" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1870" t="n">
+        <v>-84.04000000000075</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" s="1" t="n">
+        <v>1869</v>
+      </c>
+      <c r="B1871" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>Maccabi Ironi Ramat Gan</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>Hapoel Holon</t>
+        </is>
+      </c>
+      <c r="E1871" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1871" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1871" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1871" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1871" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1871" t="n">
+        <v>-83.17000000000074</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" s="1" t="n">
+        <v>1870</v>
+      </c>
+      <c r="B1872" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>Bay Hawks</t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>Otago Nuggets</t>
+        </is>
+      </c>
+      <c r="E1872" t="n">
+        <v>116</v>
+      </c>
+      <c r="F1872" t="n">
+        <v>105</v>
+      </c>
+      <c r="G1872" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1872" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1872" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1872" t="n">
+        <v>-82.31000000000074</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" s="1" t="n">
+        <v>1871</v>
+      </c>
+      <c r="B1873" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>Unics Kazan</t>
+        </is>
+      </c>
+      <c r="E1873" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1873" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1873" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1873" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1873" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1873" t="n">
+        <v>-81.48000000000074</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" s="1" t="n">
+        <v>1872</v>
+      </c>
+      <c r="B1874" s="2" t="n">
+        <v>45423</v>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>Espanol de Talca</t>
+        </is>
+      </c>
+      <c r="E1874" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1874" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1874" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1874" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1874" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1874" t="n">
+        <v>-80.62000000000074</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" s="1" t="n">
+        <v>1873</v>
+      </c>
+      <c r="B1875" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>R10 Score Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>Bauru</t>
+        </is>
+      </c>
+      <c r="E1875" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1875" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1875" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1875" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1875" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1875" t="n">
+        <v>-79.78000000000074</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" s="1" t="n">
+        <v>1874</v>
+      </c>
+      <c r="B1876" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>Gran Canaria</t>
+        </is>
+      </c>
+      <c r="E1876" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1876" t="n">
+        <v>67</v>
+      </c>
+      <c r="G1876" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1876" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1876" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1876" t="n">
+        <v>-80.78000000000074</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" s="1" t="n">
+        <v>1875</v>
+      </c>
+      <c r="B1877" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>Manresa</t>
+        </is>
+      </c>
+      <c r="E1877" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1877" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1877" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1877" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1877" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1877" t="n">
+        <v>-81.78000000000074</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" s="1" t="n">
+        <v>1876</v>
+      </c>
+      <c r="B1878" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E1878" t="n">
+        <v>107</v>
+      </c>
+      <c r="F1878" t="n">
+        <v>115</v>
+      </c>
+      <c r="G1878" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1878" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1878" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1878" t="n">
+        <v>-80.98000000000074</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" s="1" t="n">
+        <v>1877</v>
+      </c>
+      <c r="B1879" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>Oldenburg</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>Bamberg</t>
+        </is>
+      </c>
+      <c r="E1879" t="n">
+        <v>107</v>
+      </c>
+      <c r="F1879" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1879" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1879" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1879" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1879" t="n">
+        <v>-80.18000000000075</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" s="1" t="n">
+        <v>1878</v>
+      </c>
+      <c r="B1880" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>South West Metro Pirates</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>Brisbane Capitals</t>
+        </is>
+      </c>
+      <c r="E1880" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1880" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1880" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1880" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1880" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1880" t="n">
+        <v>-81.18000000000075</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" s="1" t="n">
+        <v>1879</v>
+      </c>
+      <c r="B1881" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>Oberwart</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>Traiskirchen</t>
+        </is>
+      </c>
+      <c r="E1881" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1881" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1881" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1881" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1881" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1881" t="n">
+        <v>-80.31000000000074</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" s="1" t="n">
+        <v>1880</v>
+      </c>
+      <c r="B1882" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>Rain Or Shine Paint.</t>
+        </is>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>TNT Tropang Giga</t>
+        </is>
+      </c>
+      <c r="E1882" t="n">
+        <v>121</v>
+      </c>
+      <c r="F1882" t="n">
+        <v>113</v>
+      </c>
+      <c r="G1882" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1882" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1882" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1882" t="n">
+        <v>-79.45000000000074</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" s="1" t="n">
+        <v>1881</v>
+      </c>
+      <c r="B1883" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>Lietkabelis</t>
+        </is>
+      </c>
+      <c r="E1883" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1883" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1883" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1883" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1883" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1883" t="n">
+        <v>-80.45000000000074</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" s="1" t="n">
+        <v>1882</v>
+      </c>
+      <c r="B1884" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>Ostioneros de Guaymas</t>
+        </is>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>Halcones de Obregon</t>
+        </is>
+      </c>
+      <c r="E1884" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1884" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1884" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1884" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1884" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1884" t="n">
+        <v>-79.60000000000075</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" s="1" t="n">
+        <v>1883</v>
+      </c>
+      <c r="B1885" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>Dabrowa Gornicza</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>Trefl Sopot</t>
+        </is>
+      </c>
+      <c r="E1885" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1885" t="n">
+        <v>101</v>
+      </c>
+      <c r="G1885" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1885" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1885" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1885" t="n">
+        <v>-78.73000000000074</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" s="1" t="n">
+        <v>1884</v>
+      </c>
+      <c r="B1886" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>Ostrow Wielkopolski</t>
+        </is>
+      </c>
+      <c r="E1886" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1886" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1886" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1886" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1886" t="n">
+        <v>-79.73000000000074</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" s="1" t="n">
+        <v>1885</v>
+      </c>
+      <c r="B1887" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>Sheffield Sharks</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>Cheshire Phoenix</t>
+        </is>
+      </c>
+      <c r="E1887" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1887" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1887" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1887" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1887" t="n">
+        <v>-80.73000000000074</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" s="1" t="n">
+        <v>1886</v>
+      </c>
+      <c r="B1888" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>CSM Constanta</t>
+        </is>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>Rapid Bucuresti</t>
+        </is>
+      </c>
+      <c r="E1888" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1888" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1888" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1888" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1888" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1888" t="n">
+        <v>-79.88000000000075</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" s="1" t="n">
+        <v>1887</v>
+      </c>
+      <c r="B1889" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>Formosa Dreamers</t>
+        </is>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>Taoyuan Pauian Pilots</t>
+        </is>
+      </c>
+      <c r="E1889" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1889" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1889" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1889" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1889" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1889" t="n">
+        <v>-80.88000000000075</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" s="1" t="n">
+        <v>1888</v>
+      </c>
+      <c r="B1890" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>Spartans</t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>Broncos</t>
+        </is>
+      </c>
+      <c r="E1890" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1890" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1890" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1890" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1890" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1890" t="n">
+        <v>-81.88000000000075</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" s="1" t="n">
+        <v>1889</v>
+      </c>
+      <c r="B1891" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>Las Animas</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>CD Puerto Varas</t>
+        </is>
+      </c>
+      <c r="E1891" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1891" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1891" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1891" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1891" t="n">
+        <v>-81.02000000000075</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" s="1" t="n">
+        <v>1890</v>
+      </c>
+      <c r="B1892" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E1892" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1892" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1892" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1892" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1892" t="n">
+        <v>-82.02000000000075</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" s="1" t="n">
+        <v>1891</v>
+      </c>
+      <c r="B1893" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>Corsarios Cartagena</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>Cimarrones del Choco</t>
+        </is>
+      </c>
+      <c r="E1893" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>59</v>
+      </c>
+      <c r="G1893" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1893" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1893" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1893" t="n">
+        <v>-83.02000000000075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1893"/>
+  <dimension ref="A1:J2040"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68228,6 +68228,5592 @@
         <v>-83.02000000000075</v>
       </c>
     </row>
+    <row r="1894">
+      <c r="A1894" s="1" t="n">
+        <v>1892</v>
+      </c>
+      <c r="B1894" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E1894" t="n">
+        <v>115</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1894" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1894" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1894" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1894" t="n">
+        <v>-84.02000000000075</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" s="1" t="n">
+        <v>1893</v>
+      </c>
+      <c r="B1895" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>Reggiana</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="E1895" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1895" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1895" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1895" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1895" t="n">
+        <v>-85.02000000000075</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" s="1" t="n">
+        <v>1894</v>
+      </c>
+      <c r="B1896" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>Gimnasia</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="E1896" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1896" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1896" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1896" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1896" t="n">
+        <v>-84.22000000000075</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" s="1" t="n">
+        <v>1895</v>
+      </c>
+      <c r="B1897" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>La Union</t>
+        </is>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E1897" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1897" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1897" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1897" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1897" t="n">
+        <v>-83.41000000000075</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" s="1" t="n">
+        <v>1896</v>
+      </c>
+      <c r="B1898" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>Halcones de Obregon</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>Angeles CDMX</t>
+        </is>
+      </c>
+      <c r="E1898" t="n">
+        <v>103</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>116</v>
+      </c>
+      <c r="G1898" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1898" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1898" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1898" t="n">
+        <v>-82.56000000000076</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" s="1" t="n">
+        <v>1897</v>
+      </c>
+      <c r="B1899" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="E1899" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1899" t="n">
+        <v>99</v>
+      </c>
+      <c r="G1899" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1899" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1899" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1899" t="n">
+        <v>-81.76000000000076</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" s="1" t="n">
+        <v>1898</v>
+      </c>
+      <c r="B1900" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E1900" t="n">
+        <v>116</v>
+      </c>
+      <c r="F1900" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1900" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1900" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1900" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1900" t="n">
+        <v>-80.95000000000076</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" s="1" t="n">
+        <v>1899</v>
+      </c>
+      <c r="B1901" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>Grindavik</t>
+        </is>
+      </c>
+      <c r="E1901" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1901" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1901" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1901" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1901" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1901" t="n">
+        <v>-81.95000000000076</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" s="1" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B1902" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>Venezia F</t>
+        </is>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>Schio F</t>
+        </is>
+      </c>
+      <c r="E1902" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1902" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1902" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1902" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1902" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1902" t="n">
+        <v>-81.09000000000076</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" s="1" t="n">
+        <v>1901</v>
+      </c>
+      <c r="B1903" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>Lietkabelis</t>
+        </is>
+      </c>
+      <c r="E1903" t="n">
+        <v>99</v>
+      </c>
+      <c r="F1903" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1903" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1903" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1903" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1903" t="n">
+        <v>-80.22000000000075</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" s="1" t="n">
+        <v>1902</v>
+      </c>
+      <c r="B1904" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>Chemnitz</t>
+        </is>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>Vechta</t>
+        </is>
+      </c>
+      <c r="E1904" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1904" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1904" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1904" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1904" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1904" t="n">
+        <v>-81.22000000000075</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" s="1" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B1905" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>Riachuelo</t>
+        </is>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>Obera TC</t>
+        </is>
+      </c>
+      <c r="E1905" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1905" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1905" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1905" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1905" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1905" t="n">
+        <v>-80.36000000000075</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" s="1" t="n">
+        <v>1904</v>
+      </c>
+      <c r="B1906" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>Blumenau/APAB</t>
+        </is>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>Praia Clube</t>
+        </is>
+      </c>
+      <c r="E1906" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1906" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1906" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1906" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1906" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1906" t="n">
+        <v>-79.51000000000076</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" s="1" t="n">
+        <v>1905</v>
+      </c>
+      <c r="B1907" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E1907" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1907" t="n">
+        <v>116</v>
+      </c>
+      <c r="G1907" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1907" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1907" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1907" t="n">
+        <v>-78.67000000000075</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" s="1" t="n">
+        <v>1906</v>
+      </c>
+      <c r="B1908" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>Sydney Comets F</t>
+        </is>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>Bankstown Bruins F</t>
+        </is>
+      </c>
+      <c r="E1908" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1908" t="n">
+        <v>54</v>
+      </c>
+      <c r="G1908" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1908" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1908" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1908" t="n">
+        <v>-79.67000000000075</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" s="1" t="n">
+        <v>1907</v>
+      </c>
+      <c r="B1909" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>Nunawading</t>
+        </is>
+      </c>
+      <c r="E1909" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1909" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1909" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1909" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1909" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1909" t="n">
+        <v>-78.87000000000076</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" s="1" t="n">
+        <v>1908</v>
+      </c>
+      <c r="B1910" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>Knox</t>
+        </is>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>Mt Gambier</t>
+        </is>
+      </c>
+      <c r="E1910" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1910" t="n">
+        <v>98</v>
+      </c>
+      <c r="G1910" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1910" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1910" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1910" t="n">
+        <v>-79.87000000000076</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" s="1" t="n">
+        <v>1909</v>
+      </c>
+      <c r="B1911" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>Ringwood</t>
+        </is>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>NW Tasmania</t>
+        </is>
+      </c>
+      <c r="E1911" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1911" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1911" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1911" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1911" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1911" t="n">
+        <v>-80.87000000000076</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" s="1" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B1912" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>Kalamunda Eastern Suns</t>
+        </is>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>Perth Redbacks</t>
+        </is>
+      </c>
+      <c r="E1912" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1912" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1912" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1912" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1912" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1912" t="n">
+        <v>-81.87000000000076</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" s="1" t="n">
+        <v>1911</v>
+      </c>
+      <c r="B1913" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>UBSC Graz</t>
+        </is>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>Oberwart</t>
+        </is>
+      </c>
+      <c r="E1913" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1913" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1913" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1913" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1913" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1913" t="n">
+        <v>-82.87000000000076</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" s="1" t="n">
+        <v>1912</v>
+      </c>
+      <c r="B1914" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>Bali United</t>
+        </is>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>Tangerang Hawks</t>
+        </is>
+      </c>
+      <c r="E1914" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1914" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1914" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1914" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1914" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1914" t="n">
+        <v>-83.87000000000076</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" s="1" t="n">
+        <v>1913</v>
+      </c>
+      <c r="B1915" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>RANS PIK</t>
+        </is>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>Satya Wacana</t>
+        </is>
+      </c>
+      <c r="E1915" t="n">
+        <v>97</v>
+      </c>
+      <c r="F1915" t="n">
+        <v>81</v>
+      </c>
+      <c r="G1915" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1915" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1915" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1915" t="n">
+        <v>-83.03000000000075</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" s="1" t="n">
+        <v>1914</v>
+      </c>
+      <c r="B1916" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>Franklin Bulls</t>
+        </is>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>Wellington Saints</t>
+        </is>
+      </c>
+      <c r="E1916" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1916" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1916" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1916" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1916" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1916" t="n">
+        <v>-84.03000000000075</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" s="1" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B1917" s="2" t="n">
+        <v>45430</v>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>Phoenix Mercury F</t>
+        </is>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>Atlanta Dream F</t>
+        </is>
+      </c>
+      <c r="E1917" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1917" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1917" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1917" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1917" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1917" t="n">
+        <v>-83.21000000000076</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" s="1" t="n">
+        <v>1916</v>
+      </c>
+      <c r="B1918" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E1918" t="n">
+        <v>133</v>
+      </c>
+      <c r="F1918" t="n">
+        <v>128</v>
+      </c>
+      <c r="G1918" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1918" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1918" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1918" t="n">
+        <v>-82.37000000000076</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" s="1" t="n">
+        <v>1917</v>
+      </c>
+      <c r="B1919" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>Vechta</t>
+        </is>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>Chemnitz</t>
+        </is>
+      </c>
+      <c r="E1919" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1919" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1919" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1919" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1919" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1919" t="n">
+        <v>-83.37000000000076</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" s="1" t="n">
+        <v>1918</v>
+      </c>
+      <c r="B1920" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t>Independiente de Oliva</t>
+        </is>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="E1920" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1920" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1920" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1920" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1920" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1920" t="n">
+        <v>-82.52000000000076</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" s="1" t="n">
+        <v>1919</v>
+      </c>
+      <c r="B1921" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="C1921" t="inlineStr">
+        <is>
+          <t>La Union</t>
+        </is>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>Obras</t>
+        </is>
+      </c>
+      <c r="E1921" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1921" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1921" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1921" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1921" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1921" t="n">
+        <v>-81.68000000000076</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" s="1" t="n">
+        <v>1920</v>
+      </c>
+      <c r="B1922" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t>Piratas de Bogota</t>
+        </is>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>Titanes de Barranquilla</t>
+        </is>
+      </c>
+      <c r="E1922" t="n">
+        <v>66</v>
+      </c>
+      <c r="F1922" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1922" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1922" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1922" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1922" t="n">
+        <v>-82.68000000000076</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" s="1" t="n">
+        <v>1921</v>
+      </c>
+      <c r="B1923" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>Los Angeles Sparks F</t>
+        </is>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>Washington Mystics F</t>
+        </is>
+      </c>
+      <c r="E1923" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1923" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1923" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1923" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1923" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1923" t="n">
+        <v>-83.68000000000076</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" s="1" t="n">
+        <v>1922</v>
+      </c>
+      <c r="B1924" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>BC Nokia</t>
+        </is>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>Helsinki Seagulls</t>
+        </is>
+      </c>
+      <c r="E1924" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1924" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1924" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1924" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1924" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1924" t="n">
+        <v>-84.68000000000076</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" s="1" t="n">
+        <v>1923</v>
+      </c>
+      <c r="B1925" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>Broncos</t>
+        </is>
+      </c>
+      <c r="E1925" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1925" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1925" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1925" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1925" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1925" t="n">
+        <v>-85.68000000000076</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" s="1" t="n">
+        <v>1924</v>
+      </c>
+      <c r="B1926" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>Minas</t>
+        </is>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>Franca</t>
+        </is>
+      </c>
+      <c r="E1926" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1926" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1926" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1926" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1926" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1926" t="n">
+        <v>-86.68000000000076</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" s="1" t="n">
+        <v>1925</v>
+      </c>
+      <c r="B1927" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="E1927" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1927" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1927" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1927" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1927" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1927" t="n">
+        <v>-87.68000000000076</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" s="1" t="n">
+        <v>1926</v>
+      </c>
+      <c r="B1928" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E1928" t="n">
+        <v>105</v>
+      </c>
+      <c r="F1928" t="n">
+        <v>108</v>
+      </c>
+      <c r="G1928" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1928" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1928" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1928" t="n">
+        <v>-86.84000000000076</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" s="1" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B1929" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="E1929" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1929" t="n">
+        <v>104</v>
+      </c>
+      <c r="G1929" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1929" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1929" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1929" t="n">
+        <v>-86.04000000000076</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" s="1" t="n">
+        <v>1928</v>
+      </c>
+      <c r="B1930" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>Spisski Rytieri</t>
+        </is>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>Levice</t>
+        </is>
+      </c>
+      <c r="E1930" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1930" t="n">
+        <v>104</v>
+      </c>
+      <c r="G1930" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1930" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1930" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1930" t="n">
+        <v>-85.20000000000076</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" s="1" t="n">
+        <v>1929</v>
+      </c>
+      <c r="B1931" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>Unics Kazan</t>
+        </is>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="E1931" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1931" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1931" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1931" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1931" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1931" t="n">
+        <v>-84.39000000000075</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" s="1" t="n">
+        <v>1930</v>
+      </c>
+      <c r="B1932" s="2" t="n">
+        <v>45435</v>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>Pärnu</t>
+        </is>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>Rapla</t>
+        </is>
+      </c>
+      <c r="E1932" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1932" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1932" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1932" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1932" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1932" t="n">
+        <v>-85.39000000000075</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" s="1" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B1933" s="2" t="n">
+        <v>45435</v>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>Grindavik</t>
+        </is>
+      </c>
+      <c r="E1933" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1933" t="n">
+        <v>62</v>
+      </c>
+      <c r="G1933" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1933" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1933" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1933" t="n">
+        <v>-86.39000000000075</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" s="1" t="n">
+        <v>1932</v>
+      </c>
+      <c r="B1934" s="2" t="n">
+        <v>45435</v>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>FC Porto</t>
+        </is>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>Ovarense</t>
+        </is>
+      </c>
+      <c r="E1934" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1934" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1934" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1934" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1934" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1934" t="n">
+        <v>-87.39000000000075</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" s="1" t="n">
+        <v>1933</v>
+      </c>
+      <c r="B1935" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="E1935" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1935" t="n">
+        <v>57</v>
+      </c>
+      <c r="G1935" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1935" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1935" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1935" t="n">
+        <v>-88.39000000000075</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" s="1" t="n">
+        <v>1934</v>
+      </c>
+      <c r="B1936" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="E1936" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1936" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1936" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1936" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1936" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1936" t="n">
+        <v>-87.48000000000076</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" s="1" t="n">
+        <v>1935</v>
+      </c>
+      <c r="B1937" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="E1937" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1937" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1937" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1937" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1937" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1937" t="n">
+        <v>-86.63000000000076</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" s="1" t="n">
+        <v>1936</v>
+      </c>
+      <c r="B1938" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>Chernomorets</t>
+        </is>
+      </c>
+      <c r="E1938" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1938" t="n">
+        <v>64</v>
+      </c>
+      <c r="G1938" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1938" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1938" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1938" t="n">
+        <v>-87.63000000000076</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" s="1" t="n">
+        <v>1937</v>
+      </c>
+      <c r="B1939" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>Gipuzkoa</t>
+        </is>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>Tizona Burgos</t>
+        </is>
+      </c>
+      <c r="E1939" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1939" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1939" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1939" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1939" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1939" t="n">
+        <v>-88.63000000000076</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B1940" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>Ginebra Kings</t>
+        </is>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>Meralco Bolts</t>
+        </is>
+      </c>
+      <c r="E1940" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1940" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1940" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1940" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1940" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1940" t="n">
+        <v>-89.63000000000076</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" s="1" t="n">
+        <v>1939</v>
+      </c>
+      <c r="B1941" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>Udine</t>
+        </is>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>Cantu</t>
+        </is>
+      </c>
+      <c r="E1941" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1941" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1941" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1941" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1941" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1941" t="n">
+        <v>-90.63000000000076</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" s="1" t="n">
+        <v>1940</v>
+      </c>
+      <c r="B1942" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="E1942" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1942" t="n">
+        <v>83</v>
+      </c>
+      <c r="G1942" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1942" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1942" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1942" t="n">
+        <v>-89.81000000000077</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" s="1" t="n">
+        <v>1941</v>
+      </c>
+      <c r="B1943" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>Brescia</t>
+        </is>
+      </c>
+      <c r="E1943" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1943" t="n">
+        <v>89</v>
+      </c>
+      <c r="G1943" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1943" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1943" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1943" t="n">
+        <v>-88.95000000000077</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" s="1" t="n">
+        <v>1942</v>
+      </c>
+      <c r="B1944" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>Maitland Mustangs F</t>
+        </is>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>Sydney Comets F</t>
+        </is>
+      </c>
+      <c r="E1944" t="n">
+        <v>55</v>
+      </c>
+      <c r="F1944" t="n">
+        <v>71</v>
+      </c>
+      <c r="G1944" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1944" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1944" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1944" t="n">
+        <v>-89.95000000000077</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" s="1" t="n">
+        <v>1943</v>
+      </c>
+      <c r="B1945" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>Frankston</t>
+        </is>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>Sandringham Sabres</t>
+        </is>
+      </c>
+      <c r="E1945" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1945" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1945" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1945" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1945" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1945" t="n">
+        <v>-89.12000000000077</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" s="1" t="n">
+        <v>1944</v>
+      </c>
+      <c r="B1946" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>South Adelaide Panthers</t>
+        </is>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>West Adelaide Bearcats</t>
+        </is>
+      </c>
+      <c r="E1946" t="n">
+        <v>59</v>
+      </c>
+      <c r="F1946" t="n">
+        <v>56</v>
+      </c>
+      <c r="G1946" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1946" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1946" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1946" t="n">
+        <v>-90.12000000000077</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" s="1" t="n">
+        <v>1945</v>
+      </c>
+      <c r="B1947" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>Petro</t>
+        </is>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>Monastir</t>
+        </is>
+      </c>
+      <c r="E1947" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1947" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1947" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1947" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1947" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1947" t="n">
+        <v>-91.12000000000077</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" s="1" t="n">
+        <v>1946</v>
+      </c>
+      <c r="B1948" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>Rivers Hoopers</t>
+        </is>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>Douanes</t>
+        </is>
+      </c>
+      <c r="E1948" t="n">
+        <v>57</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>63</v>
+      </c>
+      <c r="G1948" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1948" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1948" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1948" t="n">
+        <v>-92.12000000000077</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" s="1" t="n">
+        <v>1947</v>
+      </c>
+      <c r="B1949" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>Phoenix Mercury F</t>
+        </is>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>Dallas Wings F</t>
+        </is>
+      </c>
+      <c r="E1949" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>107</v>
+      </c>
+      <c r="G1949" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1949" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1949" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1949" t="n">
+        <v>-91.31000000000077</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" s="1" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B1950" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>Pelister</t>
+        </is>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>MZT Skopje</t>
+        </is>
+      </c>
+      <c r="E1950" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1950" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1950" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1950" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1950" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1950" t="n">
+        <v>-92.31000000000077</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" s="1" t="n">
+        <v>1949</v>
+      </c>
+      <c r="B1951" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>Bydgoszcz</t>
+        </is>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>Gornik Walbrzych</t>
+        </is>
+      </c>
+      <c r="E1951" t="n">
+        <v>74</v>
+      </c>
+      <c r="F1951" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1951" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1951" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1951" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1951" t="n">
+        <v>-91.44000000000077</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" s="1" t="n">
+        <v>1950</v>
+      </c>
+      <c r="B1952" s="2" t="n">
+        <v>45437</v>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="E1952" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1952" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1952" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1952" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1952" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1952" t="n">
+        <v>-92.44000000000077</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" s="1" t="n">
+        <v>1951</v>
+      </c>
+      <c r="B1953" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E1953" t="n">
+        <v>116</v>
+      </c>
+      <c r="F1953" t="n">
+        <v>107</v>
+      </c>
+      <c r="G1953" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1953" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1953" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1953" t="n">
+        <v>-91.60000000000076</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" s="1" t="n">
+        <v>1952</v>
+      </c>
+      <c r="B1954" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1954" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="E1954" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1954" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1954" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1954" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1954" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J1954" t="n">
+        <v>-90.69000000000077</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" s="1" t="n">
+        <v>1953</v>
+      </c>
+      <c r="B1955" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1955" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="E1955" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1955" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1955" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1955" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1955" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1955" t="n">
+        <v>-89.86000000000077</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" s="1" t="n">
+        <v>1954</v>
+      </c>
+      <c r="B1956" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>Virtus Bologna</t>
+        </is>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="E1956" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1956" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1956" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1956" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1956" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1956" t="n">
+        <v>-90.86000000000077</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" s="1" t="n">
+        <v>1955</v>
+      </c>
+      <c r="B1957" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1957" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>Obras</t>
+        </is>
+      </c>
+      <c r="E1957" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>69</v>
+      </c>
+      <c r="G1957" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1957" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1957" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1957" t="n">
+        <v>-91.86000000000077</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" s="1" t="n">
+        <v>1956</v>
+      </c>
+      <c r="B1958" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>Newcastle Falcons</t>
+        </is>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>Norths Bears</t>
+        </is>
+      </c>
+      <c r="E1958" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1958" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1958" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1958" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J1958" t="n">
+        <v>-91.03000000000077</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" s="1" t="n">
+        <v>1957</v>
+      </c>
+      <c r="B1959" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1959" t="inlineStr">
+        <is>
+          <t>Piratas de Bogota</t>
+        </is>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>Corsarios Cartagena</t>
+        </is>
+      </c>
+      <c r="E1959" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>75</v>
+      </c>
+      <c r="G1959" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1959" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1959" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1959" t="n">
+        <v>-90.18000000000077</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" s="1" t="n">
+        <v>1958</v>
+      </c>
+      <c r="B1960" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1960" t="inlineStr">
+        <is>
+          <t>Gipuzkoa</t>
+        </is>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>Tizona Burgos</t>
+        </is>
+      </c>
+      <c r="E1960" t="n">
+        <v>82</v>
+      </c>
+      <c r="F1960" t="n">
+        <v>79</v>
+      </c>
+      <c r="G1960" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1960" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1960" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1960" t="n">
+        <v>-91.18000000000077</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" s="1" t="n">
+        <v>1959</v>
+      </c>
+      <c r="B1961" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1961" t="inlineStr">
+        <is>
+          <t>Kavkasia</t>
+        </is>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>Kutaisi</t>
+        </is>
+      </c>
+      <c r="E1961" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1961" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1961" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1961" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1961" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1961" t="n">
+        <v>-92.18000000000077</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B1962" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>Grindavik</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="E1962" t="n">
+        <v>80</v>
+      </c>
+      <c r="F1962" t="n">
+        <v>78</v>
+      </c>
+      <c r="G1962" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1962" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1962" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1962" t="n">
+        <v>-93.18000000000077</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" s="1" t="n">
+        <v>1961</v>
+      </c>
+      <c r="B1963" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>Galil Elyon</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>H. Haifa</t>
+        </is>
+      </c>
+      <c r="E1963" t="n">
+        <v>116</v>
+      </c>
+      <c r="F1963" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1963" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1963" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1963" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1963" t="n">
+        <v>-92.31000000000077</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" s="1" t="n">
+        <v>1962</v>
+      </c>
+      <c r="B1964" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>Hapoel Beer Sheva</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>Bnei Herzliya</t>
+        </is>
+      </c>
+      <c r="E1964" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1964" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1964" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1964" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1964" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1964" t="n">
+        <v>-91.44000000000077</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" s="1" t="n">
+        <v>1963</v>
+      </c>
+      <c r="B1965" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>Hapoel Eilat</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>H. Afula</t>
+        </is>
+      </c>
+      <c r="E1965" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1965" t="n">
+        <v>82</v>
+      </c>
+      <c r="G1965" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1965" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1965" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1965" t="n">
+        <v>-90.64000000000077</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" s="1" t="n">
+        <v>1964</v>
+      </c>
+      <c r="B1966" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>Udine</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>Cantu</t>
+        </is>
+      </c>
+      <c r="E1966" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1966" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1966" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1966" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1966" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1966" t="n">
+        <v>-89.77000000000076</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" s="1" t="n">
+        <v>1965</v>
+      </c>
+      <c r="B1967" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>Unics Kazan</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>CSKA Moscow</t>
+        </is>
+      </c>
+      <c r="E1967" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1967" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1967" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1967" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1967" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1967" t="n">
+        <v>-88.97000000000077</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" s="1" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B1968" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>Chernomorets</t>
+        </is>
+      </c>
+      <c r="E1968" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1968" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1968" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1968" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1968" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1968" t="n">
+        <v>-89.97000000000077</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" s="1" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B1969" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="E1969" t="n">
+        <v>99</v>
+      </c>
+      <c r="F1969" t="n">
+        <v>96</v>
+      </c>
+      <c r="G1969" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1969" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1969" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J1969" t="n">
+        <v>-89.11000000000077</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" s="1" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B1970" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E1970" t="n">
+        <v>103</v>
+      </c>
+      <c r="F1970" t="n">
+        <v>124</v>
+      </c>
+      <c r="G1970" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1970" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1970" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J1970" t="n">
+        <v>-88.30000000000076</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" s="1" t="n">
+        <v>1969</v>
+      </c>
+      <c r="B1971" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>Chicago Sky F</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>Los Angeles Sparks F</t>
+        </is>
+      </c>
+      <c r="E1971" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1971" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1971" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1971" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1971" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1971" t="n">
+        <v>-89.30000000000076</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B1972" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>Lyon-Villeurbanne</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E1972" t="n">
+        <v>98</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>103</v>
+      </c>
+      <c r="G1972" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1972" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1972" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J1972" t="n">
+        <v>-88.48000000000077</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" s="1" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B1973" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>Leiden</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="E1973" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>65</v>
+      </c>
+      <c r="G1973" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1973" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1973" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1973" t="n">
+        <v>-89.48000000000077</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" s="1" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B1974" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="E1974" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1974" t="n">
+        <v>87</v>
+      </c>
+      <c r="G1974" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1974" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1974" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1974" t="n">
+        <v>-88.68000000000077</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" s="1" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B1975" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>Regatas</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>Gimnasia</t>
+        </is>
+      </c>
+      <c r="E1975" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1975" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1975" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1975" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1975" t="n">
+        <v>-89.68000000000077</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" s="1" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B1976" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>Northside Wizards</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>Townsville Heat</t>
+        </is>
+      </c>
+      <c r="E1976" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1976" t="n">
+        <v>86</v>
+      </c>
+      <c r="G1976" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1976" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1976" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1976" t="n">
+        <v>-90.68000000000077</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" s="1" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B1977" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>Hobart Chargers</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>NW Tasmania</t>
+        </is>
+      </c>
+      <c r="E1977" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>73</v>
+      </c>
+      <c r="G1977" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1977" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1977" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1977" t="n">
+        <v>-91.68000000000077</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" s="1" t="n">
+        <v>1976</v>
+      </c>
+      <c r="B1978" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>Kuwait SC</t>
+        </is>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>Sagesse Beirut</t>
+        </is>
+      </c>
+      <c r="E1978" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1978" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1978" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1978" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1978" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1978" t="n">
+        <v>-92.68000000000077</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" s="1" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B1979" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>Satya Wacana</t>
+        </is>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>Pacific Caesar Surabaya</t>
+        </is>
+      </c>
+      <c r="E1979" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1979" t="n">
+        <v>77</v>
+      </c>
+      <c r="G1979" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1979" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1979" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1979" t="n">
+        <v>-93.68000000000077</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" s="1" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B1980" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>Hapoel Holon</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="E1980" t="n">
+        <v>68</v>
+      </c>
+      <c r="F1980" t="n">
+        <v>70</v>
+      </c>
+      <c r="G1980" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1980" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1980" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1980" t="n">
+        <v>-94.68000000000077</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" s="1" t="n">
+        <v>1979</v>
+      </c>
+      <c r="B1981" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>Venados de Mazatlan</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>Angeles CDMX</t>
+        </is>
+      </c>
+      <c r="E1981" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1981" t="n">
+        <v>102</v>
+      </c>
+      <c r="G1981" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1981" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1981" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1981" t="n">
+        <v>-95.68000000000077</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" s="1" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B1982" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>San Martin</t>
+        </is>
+      </c>
+      <c r="E1982" t="n">
+        <v>66</v>
+      </c>
+      <c r="F1982" t="n">
+        <v>54</v>
+      </c>
+      <c r="G1982" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1982" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1982" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1982" t="n">
+        <v>-96.68000000000077</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" s="1" t="n">
+        <v>1981</v>
+      </c>
+      <c r="B1983" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>Bankstown Bruins</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>Sutherland</t>
+        </is>
+      </c>
+      <c r="E1983" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>92</v>
+      </c>
+      <c r="G1983" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1983" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1983" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J1983" t="n">
+        <v>-95.88000000000078</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" s="1" t="n">
+        <v>1982</v>
+      </c>
+      <c r="B1984" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>Nunawading</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>Waverley</t>
+        </is>
+      </c>
+      <c r="E1984" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>104</v>
+      </c>
+      <c r="G1984" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1984" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1984" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1984" t="n">
+        <v>-95.03000000000078</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" s="1" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B1985" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>Diamond Valley F</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>Eltham F</t>
+        </is>
+      </c>
+      <c r="E1985" t="n">
+        <v>75</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>84</v>
+      </c>
+      <c r="G1985" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1985" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1985" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1985" t="n">
+        <v>-94.16000000000078</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" s="1" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B1986" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="E1986" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>88</v>
+      </c>
+      <c r="G1986" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1986" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1986" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1986" t="n">
+        <v>-95.16000000000078</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" s="1" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B1987" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>Formosa Dreamers</t>
+        </is>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>New Taipei Kings</t>
+        </is>
+      </c>
+      <c r="E1987" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>76</v>
+      </c>
+      <c r="G1987" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1987" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1987" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1987" t="n">
+        <v>-96.16000000000078</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" s="1" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B1988" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E1988" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1988" t="n">
+        <v>95</v>
+      </c>
+      <c r="G1988" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1988" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1988" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1988" t="n">
+        <v>-95.32000000000077</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" s="1" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B1989" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>Chemnitz</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>Alba Berlin</t>
+        </is>
+      </c>
+      <c r="E1989" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1989" t="n">
+        <v>72</v>
+      </c>
+      <c r="G1989" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1989" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1989" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1989" t="n">
+        <v>-96.32000000000077</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" s="1" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B1990" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>Comunicaciones Mercedes</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>Argentino</t>
+        </is>
+      </c>
+      <c r="E1990" t="n">
+        <v>61</v>
+      </c>
+      <c r="F1990" t="n">
+        <v>93</v>
+      </c>
+      <c r="G1990" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1990" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1990" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1990" t="n">
+        <v>-95.48000000000077</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" s="1" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B1991" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>Phoenix Mercury F</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>Los Angeles Sparks F</t>
+        </is>
+      </c>
+      <c r="E1991" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>68</v>
+      </c>
+      <c r="G1991" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1991" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1991" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1991" t="n">
+        <v>-96.48000000000077</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" s="1" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B1992" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>Aguada</t>
+        </is>
+      </c>
+      <c r="E1992" t="n">
+        <v>65</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>66</v>
+      </c>
+      <c r="G1992" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1992" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1992" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1992" t="n">
+        <v>-97.48000000000077</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" s="1" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B1993" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>San Martin</t>
+        </is>
+      </c>
+      <c r="E1993" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>56</v>
+      </c>
+      <c r="G1993" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1993" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1993" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1993" t="n">
+        <v>-98.48000000000077</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" s="1" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B1994" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>Antwerp Giants</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>Oostende</t>
+        </is>
+      </c>
+      <c r="E1994" t="n">
+        <v>71</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>74</v>
+      </c>
+      <c r="G1994" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1994" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1994" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1994" t="n">
+        <v>-99.48000000000077</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" s="1" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B1995" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>La Rochelle</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>Boulazac</t>
+        </is>
+      </c>
+      <c r="E1995" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>49</v>
+      </c>
+      <c r="G1995" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1995" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I1995" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J1995" t="n">
+        <v>-100.4800000000008</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" s="1" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B1996" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>Osos de Manati</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>Gigantes de Carolina</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>106</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1996" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1996" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J1996" t="n">
+        <v>-99.64000000000077</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" s="1" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B1997" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>Waverley</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>Sandringham Sabres</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>110</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1997" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1997" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J1997" t="n">
+        <v>-98.79000000000077</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" s="1" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B1998" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>East Perth Eagles</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>Joondalup Wolves</t>
+        </is>
+      </c>
+      <c r="E1998" t="n">
+        <v>94</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>90</v>
+      </c>
+      <c r="G1998" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1998" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1998" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1998" t="n">
+        <v>-97.92000000000077</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" s="1" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B1999" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>Washington Mystics F</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>Indiana Fever F</t>
+        </is>
+      </c>
+      <c r="E1999" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>85</v>
+      </c>
+      <c r="G1999" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1999" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I1999" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J1999" t="n">
+        <v>-97.05000000000076</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" s="1" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B2000" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>Dewa United</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>Kesatria Bengawan Solo</t>
+        </is>
+      </c>
+      <c r="E2000" t="n">
+        <v>102</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>111</v>
+      </c>
+      <c r="G2000" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2000" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2000" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2000" t="n">
+        <v>-96.20000000000077</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" s="1" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B2001" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>Virtus Bologna</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="E2001" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2001" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2001" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2001" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2001" t="n">
+        <v>-97.20000000000077</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2002" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>Quimsa</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="E2002" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>47</v>
+      </c>
+      <c r="G2002" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2002" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2002" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2002" t="n">
+        <v>-98.20000000000077</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B2003" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>Brisbane Capitals F</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>Southern District Spartans F</t>
+        </is>
+      </c>
+      <c r="E2003" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2003" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2003" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2003" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J2003" t="n">
+        <v>-97.33000000000077</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B2004" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>South West Slammers</t>
+        </is>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>Kalamunda Eastern Suns</t>
+        </is>
+      </c>
+      <c r="E2004" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2004" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2004" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2004" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2004" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2004" t="n">
+        <v>-98.33000000000077</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B2005" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>Perry Lakes Hawks</t>
+        </is>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>Goldfields Giants</t>
+        </is>
+      </c>
+      <c r="E2005" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2005" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2005" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2005" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2005" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2005" t="n">
+        <v>-99.33000000000077</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" s="1" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B2006" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>Anadolu Efes</t>
+        </is>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="E2006" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2006" t="n">
+        <v>101</v>
+      </c>
+      <c r="G2006" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2006" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2006" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J2006" t="n">
+        <v>-98.46000000000076</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" s="1" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B2007" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>Centauros</t>
+        </is>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>Heroes de Falcon</t>
+        </is>
+      </c>
+      <c r="E2007" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2007" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2007" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2007" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2007" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2007" t="n">
+        <v>-97.61000000000077</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" s="1" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B2008" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>Broncos</t>
+        </is>
+      </c>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>Trotamundos</t>
+        </is>
+      </c>
+      <c r="E2008" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2008" t="n">
+        <v>98</v>
+      </c>
+      <c r="G2008" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2008" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2008" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2008" t="n">
+        <v>-96.76000000000077</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" s="1" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B2009" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E2009" t="n">
+        <v>99</v>
+      </c>
+      <c r="F2009" t="n">
+        <v>106</v>
+      </c>
+      <c r="G2009" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2009" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2009" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2009" t="n">
+        <v>-97.76000000000077</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" s="1" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B2010" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>Trieste</t>
+        </is>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>Cantu</t>
+        </is>
+      </c>
+      <c r="E2010" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2010" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2010" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2010" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2010" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J2010" t="n">
+        <v>-96.89000000000077</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B2011" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t>Felix Perez Cardozo</t>
+        </is>
+      </c>
+      <c r="D2011" t="inlineStr">
+        <is>
+          <t>Colonias Gold</t>
+        </is>
+      </c>
+      <c r="E2011" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2011" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2011" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2011" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2011" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2011" t="n">
+        <v>-97.89000000000077</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B2012" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>Vaqueros de Bayamon</t>
+        </is>
+      </c>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>Cangrejeros</t>
+        </is>
+      </c>
+      <c r="E2012" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2012" t="n">
+        <v>94</v>
+      </c>
+      <c r="G2012" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2012" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2012" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2012" t="n">
+        <v>-97.04000000000077</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2013" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E2013" t="n">
+        <v>122</v>
+      </c>
+      <c r="F2013" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2013" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2013" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2013" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2013" t="n">
+        <v>-98.04000000000077</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B2014" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>Regatas</t>
+        </is>
+      </c>
+      <c r="D2014" t="inlineStr">
+        <is>
+          <t>Instituto de Cordoba</t>
+        </is>
+      </c>
+      <c r="E2014" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2014" t="n">
+        <v>54</v>
+      </c>
+      <c r="G2014" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2014" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2014" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2014" t="n">
+        <v>-99.04000000000077</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" s="1" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B2015" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>Shahrdari Gorgan</t>
+        </is>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>Al-Ahli Dubai</t>
+        </is>
+      </c>
+      <c r="E2015" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2015" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2015" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2015" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2015" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2015" t="n">
+        <v>-100.0400000000008</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" s="1" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B2016" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>Aguada</t>
+        </is>
+      </c>
+      <c r="D2016" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="E2016" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2016" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2016" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2016" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2016" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2016" t="n">
+        <v>-101.0400000000008</v>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" s="1" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B2017" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>Mets de Guaynabo</t>
+        </is>
+      </c>
+      <c r="D2017" t="inlineStr">
+        <is>
+          <t>Gigantes de Carolina</t>
+        </is>
+      </c>
+      <c r="E2017" t="n">
+        <v>111</v>
+      </c>
+      <c r="F2017" t="n">
+        <v>103</v>
+      </c>
+      <c r="G2017" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2017" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2017" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2017" t="n">
+        <v>-100.1900000000008</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" s="1" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B2018" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>Panteras</t>
+        </is>
+      </c>
+      <c r="D2018" t="inlineStr">
+        <is>
+          <t>Guaiqueries</t>
+        </is>
+      </c>
+      <c r="E2018" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2018" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2018" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2018" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2018" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2018" t="n">
+        <v>-99.38000000000078</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B2019" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t>Geelong</t>
+        </is>
+      </c>
+      <c r="D2019" t="inlineStr">
+        <is>
+          <t>Melbourne Tigers</t>
+        </is>
+      </c>
+      <c r="E2019" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2019" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2019" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2019" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2019" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2019" t="n">
+        <v>-100.3800000000008</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B2020" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t>Frankston</t>
+        </is>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>Nunawading</t>
+        </is>
+      </c>
+      <c r="E2020" t="n">
+        <v>93</v>
+      </c>
+      <c r="F2020" t="n">
+        <v>102</v>
+      </c>
+      <c r="G2020" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2020" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2020" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2020" t="n">
+        <v>-99.53000000000078</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B2021" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t>Mandurah Magic</t>
+        </is>
+      </c>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>Warwick Senators</t>
+        </is>
+      </c>
+      <c r="E2021" t="n">
+        <v>107</v>
+      </c>
+      <c r="F2021" t="n">
+        <v>103</v>
+      </c>
+      <c r="G2021" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2021" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2021" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2021" t="n">
+        <v>-98.71000000000079</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B2022" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>Beeliar Boodjar</t>
+        </is>
+      </c>
+      <c r="D2022" t="inlineStr">
+        <is>
+          <t>Lakeside Lightning</t>
+        </is>
+      </c>
+      <c r="E2022" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2022" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2022" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2022" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2022" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2022" t="n">
+        <v>-99.71000000000079</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B2023" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>Las Vegas Aces F</t>
+        </is>
+      </c>
+      <c r="D2023" t="inlineStr">
+        <is>
+          <t>New York Liberty F</t>
+        </is>
+      </c>
+      <c r="E2023" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2023" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2023" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2023" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2023" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2023" t="n">
+        <v>-98.90000000000079</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B2024" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C2024" t="inlineStr">
+        <is>
+          <t>Bay Hawks</t>
+        </is>
+      </c>
+      <c r="D2024" t="inlineStr">
+        <is>
+          <t>Nelson Giants</t>
+        </is>
+      </c>
+      <c r="E2024" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2024" t="n">
+        <v>96</v>
+      </c>
+      <c r="G2024" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2024" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2024" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2024" t="n">
+        <v>-99.90000000000079</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B2025" s="2" t="n">
+        <v>45458</v>
+      </c>
+      <c r="C2025" t="inlineStr">
+        <is>
+          <t>New Taipei Kings</t>
+        </is>
+      </c>
+      <c r="D2025" t="inlineStr">
+        <is>
+          <t>Taoyuan Pauian Pilots</t>
+        </is>
+      </c>
+      <c r="E2025" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2025" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2025" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2025" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2025" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2025" t="n">
+        <v>-100.9000000000008</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B2026" s="2" t="n">
+        <v>45459</v>
+      </c>
+      <c r="C2026" t="inlineStr">
+        <is>
+          <t>Regatas</t>
+        </is>
+      </c>
+      <c r="D2026" t="inlineStr">
+        <is>
+          <t>Instituto de Cordoba</t>
+        </is>
+      </c>
+      <c r="E2026" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2026" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2026" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2026" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2026" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J2026" t="n">
+        <v>-100.0400000000008</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B2027" s="2" t="n">
+        <v>45459</v>
+      </c>
+      <c r="C2027" t="inlineStr">
+        <is>
+          <t>Waverley</t>
+        </is>
+      </c>
+      <c r="D2027" t="inlineStr">
+        <is>
+          <t>Ballarat</t>
+        </is>
+      </c>
+      <c r="E2027" t="n">
+        <v>91</v>
+      </c>
+      <c r="F2027" t="n">
+        <v>98</v>
+      </c>
+      <c r="G2027" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2027" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2027" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J2027" t="n">
+        <v>-99.24000000000079</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" s="1" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B2028" s="2" t="n">
+        <v>45459</v>
+      </c>
+      <c r="C2028" t="inlineStr">
+        <is>
+          <t>South Adelaide Panthers</t>
+        </is>
+      </c>
+      <c r="D2028" t="inlineStr">
+        <is>
+          <t>Sturt Sabres</t>
+        </is>
+      </c>
+      <c r="E2028" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2028" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2028" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2028" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2028" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2028" t="n">
+        <v>-100.2400000000008</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" s="1" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B2029" s="2" t="n">
+        <v>45459</v>
+      </c>
+      <c r="C2029" t="inlineStr">
+        <is>
+          <t>Indiana Fever F</t>
+        </is>
+      </c>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>Chicago Sky F</t>
+        </is>
+      </c>
+      <c r="E2029" t="n">
+        <v>91</v>
+      </c>
+      <c r="F2029" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2029" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2029" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2029" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J2029" t="n">
+        <v>-99.38000000000079</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" s="1" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B2030" s="2" t="n">
+        <v>45459</v>
+      </c>
+      <c r="C2030" t="inlineStr">
+        <is>
+          <t>Hangtuah</t>
+        </is>
+      </c>
+      <c r="D2030" t="inlineStr">
+        <is>
+          <t>Bumi Borneo</t>
+        </is>
+      </c>
+      <c r="E2030" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2030" t="n">
+        <v>103</v>
+      </c>
+      <c r="G2030" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2030" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2030" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2030" t="n">
+        <v>-98.55000000000079</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" s="1" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B2031" s="2" t="n">
+        <v>45459</v>
+      </c>
+      <c r="C2031" t="inlineStr">
+        <is>
+          <t>Trefl Sopot</t>
+        </is>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>Szczecin</t>
+        </is>
+      </c>
+      <c r="E2031" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2031" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2031" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H2031" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2031" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2031" t="n">
+        <v>-99.55000000000079</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" s="1" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B2032" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="C2032" t="inlineStr">
+        <is>
+          <t>Leones De Ponce</t>
+        </is>
+      </c>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>Piratas de Quebradillas</t>
+        </is>
+      </c>
+      <c r="E2032" t="n">
+        <v>107</v>
+      </c>
+      <c r="F2032" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2032" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2032" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2032" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2032" t="n">
+        <v>-98.7000000000008</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" s="1" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B2033" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="C2033" t="inlineStr">
+        <is>
+          <t>Vaqueros de Bayamon</t>
+        </is>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>Osos de Manati</t>
+        </is>
+      </c>
+      <c r="E2033" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2033" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2033" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2033" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2033" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2033" t="n">
+        <v>-99.7000000000008</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" s="1" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B2034" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="C2034" t="inlineStr">
+        <is>
+          <t>Piratas de Quebradillas</t>
+        </is>
+      </c>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>Aguada Santeros</t>
+        </is>
+      </c>
+      <c r="E2034" t="n">
+        <v>117</v>
+      </c>
+      <c r="F2034" t="n">
+        <v>107</v>
+      </c>
+      <c r="G2034" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2034" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2034" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2034" t="n">
+        <v>-98.8600000000008</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" s="1" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B2035" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="C2035" t="inlineStr">
+        <is>
+          <t>New York Liberty F</t>
+        </is>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>Minnesota Lynx F</t>
+        </is>
+      </c>
+      <c r="E2035" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2035" t="n">
+        <v>94</v>
+      </c>
+      <c r="G2035" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2035" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2035" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2035" t="n">
+        <v>-98.05000000000079</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" s="1" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B2036" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="C2036" t="inlineStr">
+        <is>
+          <t>San German</t>
+        </is>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>Indios de Mayaguez</t>
+        </is>
+      </c>
+      <c r="E2036" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2036" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2036" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2036" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2036" t="n">
+        <v>-99.05000000000079</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" s="1" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B2037" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="C2037" t="inlineStr">
+        <is>
+          <t>Rayos de Hermosillo</t>
+        </is>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>Astros</t>
+        </is>
+      </c>
+      <c r="E2037" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>94</v>
+      </c>
+      <c r="G2037" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2037" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2037" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2037" t="n">
+        <v>-98.22000000000079</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" s="1" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B2038" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>Croácia</t>
+        </is>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="E2038" t="n">
+        <v>91</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2038" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2038" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2038" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2038" t="n">
+        <v>-97.3700000000008</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" s="1" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B2039" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="C2039" t="inlineStr">
+        <is>
+          <t>Gibraltar</t>
+        </is>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>São Marino</t>
+        </is>
+      </c>
+      <c r="E2039" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2039" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2039" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2039" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2039" t="n">
+        <v>-98.3700000000008</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" s="1" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B2040" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="C2040" t="inlineStr">
+        <is>
+          <t>Capitanes De Arecibo</t>
+        </is>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>Mets de Guaynabo</t>
+        </is>
+      </c>
+      <c r="E2040" t="n">
+        <v>108</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>96</v>
+      </c>
+      <c r="G2040" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2040" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2040" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2040" t="n">
+        <v>-97.5400000000008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2040"/>
+  <dimension ref="A1:J2106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73814,6 +73814,2514 @@
         <v>-97.5400000000008</v>
       </c>
     </row>
+    <row r="2041">
+      <c r="A2041" s="1" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B2041" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="C2041" t="inlineStr">
+        <is>
+          <t>Joondalup Wolves</t>
+        </is>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>Geraldton Buccaneers</t>
+        </is>
+      </c>
+      <c r="E2041" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2041" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2041" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2041" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2041" t="n">
+        <v>-98.5400000000008</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" s="1" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B2042" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="C2042" t="inlineStr">
+        <is>
+          <t>Phoenix Mercury F</t>
+        </is>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>Connecticut Sun F</t>
+        </is>
+      </c>
+      <c r="E2042" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2042" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H2042" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2042" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2042" t="n">
+        <v>-99.5400000000008</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" s="1" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B2043" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="C2043" t="inlineStr">
+        <is>
+          <t>Atlanta Dream F</t>
+        </is>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>Chicago Sky F</t>
+        </is>
+      </c>
+      <c r="E2043" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2043" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2043" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2043" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2043" t="n">
+        <v>-98.7300000000008</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" s="1" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B2044" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="C2044" t="inlineStr">
+        <is>
+          <t>Kilsyth</t>
+        </is>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>Bendigo Braves</t>
+        </is>
+      </c>
+      <c r="E2044" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2044" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2044" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2044" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2044" t="n">
+        <v>-99.7300000000008</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" s="1" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B2045" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="C2045" t="inlineStr">
+        <is>
+          <t>Eltham</t>
+        </is>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>Ballarat</t>
+        </is>
+      </c>
+      <c r="E2045" t="n">
+        <v>93</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2045" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2045" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2045" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2045" t="n">
+        <v>-100.7300000000008</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" s="1" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B2046" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="C2046" t="inlineStr">
+        <is>
+          <t>Knox F</t>
+        </is>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>Keilor Thunder F</t>
+        </is>
+      </c>
+      <c r="E2046" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2046" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2046" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2046" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2046" t="n">
+        <v>-101.7300000000008</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" s="1" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B2047" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="C2047" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E2047" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2047" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2047" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2047" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J2047" t="n">
+        <v>-100.8400000000008</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" s="1" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B2048" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="C2048" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E2048" t="n">
+        <v>94</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2048" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2048" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2048" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2048" t="n">
+        <v>-101.8400000000008</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" s="1" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B2049" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="C2049" t="inlineStr">
+        <is>
+          <t>Dallas Wings F</t>
+        </is>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>Los Angeles Sparks F</t>
+        </is>
+      </c>
+      <c r="E2049" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>87</v>
+      </c>
+      <c r="G2049" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2049" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2049" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2049" t="n">
+        <v>-102.8400000000008</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" s="1" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B2050" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="C2050" t="inlineStr">
+        <is>
+          <t>França U20 F</t>
+        </is>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>Alemanha U20 F</t>
+        </is>
+      </c>
+      <c r="E2050" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>55</v>
+      </c>
+      <c r="G2050" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2050" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2050" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2050" t="n">
+        <v>-103.8400000000008</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" s="1" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B2051" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="C2051" t="inlineStr">
+        <is>
+          <t>Países Baixos U20</t>
+        </is>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>Portugal U20</t>
+        </is>
+      </c>
+      <c r="E2051" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2051" t="n">
+        <v>62</v>
+      </c>
+      <c r="G2051" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2051" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2051" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2051" t="n">
+        <v>-104.8400000000008</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" s="1" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B2052" s="2" t="n">
+        <v>45486</v>
+      </c>
+      <c r="C2052" t="inlineStr">
+        <is>
+          <t>Portugal F</t>
+        </is>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>Porto Rico F</t>
+        </is>
+      </c>
+      <c r="E2052" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2052" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2052" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2052" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2052" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2052" t="n">
+        <v>-104.0000000000008</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" s="1" t="n">
+        <v>2051</v>
+      </c>
+      <c r="B2053" s="2" t="n">
+        <v>45487</v>
+      </c>
+      <c r="C2053" t="inlineStr">
+        <is>
+          <t>Sutherland</t>
+        </is>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>Bankstown Bruins</t>
+        </is>
+      </c>
+      <c r="E2053" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2053" t="n">
+        <v>86</v>
+      </c>
+      <c r="G2053" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2053" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2053" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2053" t="n">
+        <v>-103.1800000000008</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" s="1" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B2054" s="2" t="n">
+        <v>45487</v>
+      </c>
+      <c r="C2054" t="inlineStr">
+        <is>
+          <t>Minnesota Lynx F</t>
+        </is>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>Indiana Fever F</t>
+        </is>
+      </c>
+      <c r="E2054" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2054" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2054" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2054" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2054" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2054" t="n">
+        <v>-104.1800000000008</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" s="1" t="n">
+        <v>2053</v>
+      </c>
+      <c r="B2055" s="2" t="n">
+        <v>45487</v>
+      </c>
+      <c r="C2055" t="inlineStr">
+        <is>
+          <t>Islândia U20</t>
+        </is>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>Montenegro U20</t>
+        </is>
+      </c>
+      <c r="E2055" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2055" t="n">
+        <v>53</v>
+      </c>
+      <c r="G2055" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2055" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2055" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2055" t="n">
+        <v>-105.1800000000008</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" s="1" t="n">
+        <v>2054</v>
+      </c>
+      <c r="B2056" s="2" t="n">
+        <v>45487</v>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>Finlândia U20</t>
+        </is>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>Letônia U20</t>
+        </is>
+      </c>
+      <c r="E2056" t="n">
+        <v>61</v>
+      </c>
+      <c r="F2056" t="n">
+        <v>57</v>
+      </c>
+      <c r="G2056" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2056" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2056" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2056" t="n">
+        <v>-106.1800000000008</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" s="1" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B2057" s="2" t="n">
+        <v>45487</v>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E2057" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2057" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2057" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2057" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2057" t="n">
+        <v>-107.1800000000008</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" s="1" t="n">
+        <v>2056</v>
+      </c>
+      <c r="B2058" s="2" t="n">
+        <v>45487</v>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E2058" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2058" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2058" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2058" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2058" t="n">
+        <v>-108.1800000000008</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" s="1" t="n">
+        <v>2057</v>
+      </c>
+      <c r="B2059" s="2" t="n">
+        <v>45487</v>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E2059" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2059" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2059" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2059" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2059" t="n">
+        <v>-109.1800000000008</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" s="1" t="n">
+        <v>2058</v>
+      </c>
+      <c r="B2060" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>Sudão do Sul</t>
+        </is>
+      </c>
+      <c r="E2060" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2060" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2060" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2060" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2060" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2060" t="n">
+        <v>-110.1800000000008</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" s="1" t="n">
+        <v>2059</v>
+      </c>
+      <c r="B2061" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>Instituto de Cordoba</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="E2061" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2061" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2061" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2061" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2061" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J2061" t="n">
+        <v>-109.3800000000008</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" s="1" t="n">
+        <v>2060</v>
+      </c>
+      <c r="B2062" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>New York Liberty F</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>Connecticut Sun F</t>
+        </is>
+      </c>
+      <c r="E2062" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2062" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2062" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2062" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2062" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2062" t="n">
+        <v>-108.4700000000008</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" s="1" t="n">
+        <v>2061</v>
+      </c>
+      <c r="B2063" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E2063" t="n">
+        <v>92</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2063" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2063" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2063" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2063" t="n">
+        <v>-109.4700000000008</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" s="1" t="n">
+        <v>2062</v>
+      </c>
+      <c r="B2064" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E2064" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2064" t="n">
+        <v>92</v>
+      </c>
+      <c r="G2064" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2064" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2064" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J2064" t="n">
+        <v>-108.6700000000008</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" s="1" t="n">
+        <v>2063</v>
+      </c>
+      <c r="B2065" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E2065" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2065" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2065" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2065" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2065" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2065" t="n">
+        <v>-109.6700000000008</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" s="1" t="n">
+        <v>2064</v>
+      </c>
+      <c r="B2066" s="2" t="n">
+        <v>45490</v>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>SESI Araraquara F</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>Sampaio F</t>
+        </is>
+      </c>
+      <c r="E2066" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2066" t="n">
+        <v>48</v>
+      </c>
+      <c r="G2066" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2066" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2066" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2066" t="n">
+        <v>-110.6700000000008</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" s="1" t="n">
+        <v>2065</v>
+      </c>
+      <c r="B2067" s="2" t="n">
+        <v>45490</v>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>Lituânia U20</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>Turquia U20</t>
+        </is>
+      </c>
+      <c r="E2067" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2067" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2067" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2067" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2067" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2067" t="n">
+        <v>-111.6700000000008</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" s="1" t="n">
+        <v>2066</v>
+      </c>
+      <c r="B2068" s="2" t="n">
+        <v>45490</v>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>Titanes Del Licey</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>Indios</t>
+        </is>
+      </c>
+      <c r="E2068" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2068" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2068" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2068" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2068" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2068" t="n">
+        <v>-112.6700000000008</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" s="1" t="n">
+        <v>2067</v>
+      </c>
+      <c r="B2069" s="2" t="n">
+        <v>45490</v>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E2069" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2069" t="n">
+        <v>87</v>
+      </c>
+      <c r="G2069" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2069" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2069" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J2069" t="n">
+        <v>-111.7800000000008</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" s="1" t="n">
+        <v>2068</v>
+      </c>
+      <c r="B2070" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="E2070" t="n">
+        <v>62</v>
+      </c>
+      <c r="F2070" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2070" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2070" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2070" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2070" t="n">
+        <v>-112.7800000000008</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" s="1" t="n">
+        <v>2069</v>
+      </c>
+      <c r="B2071" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E2071" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2071" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2071" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2071" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2071" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2071" t="n">
+        <v>-113.7800000000008</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" s="1" t="n">
+        <v>2070</v>
+      </c>
+      <c r="B2072" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>Dorados</t>
+        </is>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>Mineros</t>
+        </is>
+      </c>
+      <c r="E2072" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2072" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2072" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2072" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2072" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2072" t="n">
+        <v>-114.7800000000008</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" s="1" t="n">
+        <v>2071</v>
+      </c>
+      <c r="B2073" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>Leones De Ponce</t>
+        </is>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>Mets de Guaynabo</t>
+        </is>
+      </c>
+      <c r="E2073" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2073" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2073" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2073" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2073" t="n">
+        <v>-115.7800000000008</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" s="1" t="n">
+        <v>2072</v>
+      </c>
+      <c r="B2074" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E2074" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2074" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2074" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2074" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2074" t="n">
+        <v>-116.7800000000008</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" s="1" t="n">
+        <v>2073</v>
+      </c>
+      <c r="B2075" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>Suécia U20</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>Bulgária U20</t>
+        </is>
+      </c>
+      <c r="E2075" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2075" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2075" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2075" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2075" t="n">
+        <v>-115.9400000000008</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" s="1" t="n">
+        <v>2074</v>
+      </c>
+      <c r="B2076" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E2076" t="n">
+        <v>115</v>
+      </c>
+      <c r="F2076" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2076" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2076" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2076" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J2076" t="n">
+        <v>-115.0500000000008</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" s="1" t="n">
+        <v>2075</v>
+      </c>
+      <c r="B2077" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E2077" t="n">
+        <v>103</v>
+      </c>
+      <c r="F2077" t="n">
+        <v>99</v>
+      </c>
+      <c r="G2077" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2077" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2077" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2077" t="n">
+        <v>-114.2200000000008</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" s="1" t="n">
+        <v>2076</v>
+      </c>
+      <c r="B2078" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E2078" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2078" t="n">
+        <v>91</v>
+      </c>
+      <c r="G2078" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2078" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2078" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J2078" t="n">
+        <v>-113.3300000000008</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" s="1" t="n">
+        <v>2077</v>
+      </c>
+      <c r="B2079" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E2079" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>96</v>
+      </c>
+      <c r="G2079" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2079" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2079" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2079" t="n">
+        <v>-112.4800000000008</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" s="1" t="n">
+        <v>2078</v>
+      </c>
+      <c r="B2080" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>Norths Bears F</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>Manly W. F</t>
+        </is>
+      </c>
+      <c r="E2080" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2080" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2080" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2080" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2080" t="n">
+        <v>-113.4800000000008</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" s="1" t="n">
+        <v>2079</v>
+      </c>
+      <c r="B2081" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>Mt Gambier</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>Sandringham Sabres</t>
+        </is>
+      </c>
+      <c r="E2081" t="n">
+        <v>59</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2081" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2081" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2081" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2081" t="n">
+        <v>-114.4800000000008</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" s="1" t="n">
+        <v>2080</v>
+      </c>
+      <c r="B2082" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>Sandringham F</t>
+        </is>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>Waverley F</t>
+        </is>
+      </c>
+      <c r="E2082" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2082" t="n">
+        <v>95</v>
+      </c>
+      <c r="G2082" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2082" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2082" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J2082" t="n">
+        <v>-113.6800000000008</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" s="1" t="n">
+        <v>2081</v>
+      </c>
+      <c r="B2083" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>Sturt Sabres</t>
+        </is>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>Forestville Eagles</t>
+        </is>
+      </c>
+      <c r="E2083" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2083" t="n">
+        <v>106</v>
+      </c>
+      <c r="G2083" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2083" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2083" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J2083" t="n">
+        <v>-112.8100000000008</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" s="1" t="n">
+        <v>2082</v>
+      </c>
+      <c r="B2084" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E2084" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2084" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2084" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2084" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2084" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2084" t="n">
+        <v>-113.8100000000008</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" s="1" t="n">
+        <v>2083</v>
+      </c>
+      <c r="B2085" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>Alemanha U20</t>
+        </is>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>Israel U20</t>
+        </is>
+      </c>
+      <c r="E2085" t="n">
+        <v>58</v>
+      </c>
+      <c r="F2085" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2085" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2085" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2085" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2085" t="n">
+        <v>-114.8100000000008</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" s="1" t="n">
+        <v>2084</v>
+      </c>
+      <c r="B2086" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E2086" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2086" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2086" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2086" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2086" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2086" t="n">
+        <v>-115.8100000000008</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" s="1" t="n">
+        <v>2085</v>
+      </c>
+      <c r="B2087" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>Países Baixos U20</t>
+        </is>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>Ucrânia U20</t>
+        </is>
+      </c>
+      <c r="E2087" t="n">
+        <v>58</v>
+      </c>
+      <c r="F2087" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2087" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2087" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2087" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2087" t="n">
+        <v>-116.8100000000008</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" s="1" t="n">
+        <v>2086</v>
+      </c>
+      <c r="B2088" s="2" t="n">
+        <v>45493</v>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>Plateros</t>
+        </is>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>Panteras</t>
+        </is>
+      </c>
+      <c r="E2088" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2088" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2088" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2088" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2088" t="n">
+        <v>-117.8100000000008</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" s="1" t="n">
+        <v>2087</v>
+      </c>
+      <c r="B2089" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>Hungria U20</t>
+        </is>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>Geórgia U20</t>
+        </is>
+      </c>
+      <c r="E2089" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2089" t="n">
+        <v>96</v>
+      </c>
+      <c r="G2089" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2089" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2089" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2089" t="n">
+        <v>-116.9900000000008</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" s="1" t="n">
+        <v>2088</v>
+      </c>
+      <c r="B2090" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>França</t>
+        </is>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>Austrália</t>
+        </is>
+      </c>
+      <c r="E2090" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2090" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2090" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2090" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2090" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J2090" t="n">
+        <v>-116.1300000000008</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" s="1" t="n">
+        <v>2089</v>
+      </c>
+      <c r="B2091" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E2091" t="n">
+        <v>115</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2091" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2091" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2091" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2091" t="n">
+        <v>-115.2200000000008</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" s="1" t="n">
+        <v>2090</v>
+      </c>
+      <c r="B2092" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E2092" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2092" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2092" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2092" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2092" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2092" t="n">
+        <v>-114.3100000000008</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" s="1" t="n">
+        <v>2091</v>
+      </c>
+      <c r="B2093" s="2" t="n">
+        <v>45494</v>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>Itália U20</t>
+        </is>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>Israel U20</t>
+        </is>
+      </c>
+      <c r="E2093" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>58</v>
+      </c>
+      <c r="G2093" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2093" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2093" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2093" t="n">
+        <v>-115.3100000000008</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" s="1" t="n">
+        <v>2092</v>
+      </c>
+      <c r="B2094" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>Piratas de Quebradillas</t>
+        </is>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>Gigantes de Carolina</t>
+        </is>
+      </c>
+      <c r="E2094" t="n">
+        <v>94</v>
+      </c>
+      <c r="F2094" t="n">
+        <v>91</v>
+      </c>
+      <c r="G2094" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2094" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2094" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2094" t="n">
+        <v>-116.3100000000008</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" s="1" t="n">
+        <v>2093</v>
+      </c>
+      <c r="B2095" s="2" t="n">
+        <v>45507</v>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>Espanha 3x3 F</t>
+        </is>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>Alemanha 3x3 F</t>
+        </is>
+      </c>
+      <c r="E2095" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2095" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2095" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2095" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2095" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2095" t="n">
+        <v>-117.3100000000008</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" s="1" t="n">
+        <v>2094</v>
+      </c>
+      <c r="B2096" s="2" t="n">
+        <v>45507</v>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>Newcastle Falcons F</t>
+        </is>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>Manly W. F</t>
+        </is>
+      </c>
+      <c r="E2096" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2096" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2096" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2096" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2096" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2096" t="n">
+        <v>-116.4600000000008</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" s="1" t="n">
+        <v>2095</v>
+      </c>
+      <c r="B2097" s="2" t="n">
+        <v>45507</v>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>Keilor Thunder F</t>
+        </is>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>Ballarat F</t>
+        </is>
+      </c>
+      <c r="E2097" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2097" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2097" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2097" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2097" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2097" t="n">
+        <v>-115.6300000000008</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" s="1" t="n">
+        <v>2096</v>
+      </c>
+      <c r="B2098" s="2" t="n">
+        <v>45507</v>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>Reales de la Vega</t>
+        </is>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>Indios</t>
+        </is>
+      </c>
+      <c r="E2098" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2098" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2098" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2098" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2098" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2098" t="n">
+        <v>-116.6300000000008</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" s="1" t="n">
+        <v>2097</v>
+      </c>
+      <c r="B2099" s="2" t="n">
+        <v>45507</v>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>Abejas</t>
+        </is>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>Soles</t>
+        </is>
+      </c>
+      <c r="E2099" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2099" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2099" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2099" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2099" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J2099" t="n">
+        <v>-115.8300000000008</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" s="1" t="n">
+        <v>2098</v>
+      </c>
+      <c r="B2100" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>Pioneros</t>
+        </is>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>Marinos</t>
+        </is>
+      </c>
+      <c r="E2100" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2100" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H2100" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2100" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J2100" t="n">
+        <v>-114.9500000000008</v>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" s="1" t="n">
+        <v>2099</v>
+      </c>
+      <c r="B2101" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>França F</t>
+        </is>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>Bélgica F</t>
+        </is>
+      </c>
+      <c r="E2101" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2101" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H2101" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2101" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J2101" t="n">
+        <v>-114.0700000000008</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" s="1" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B2102" s="2" t="n">
+        <v>45514</v>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>Maitland M.</t>
+        </is>
+      </c>
+      <c r="E2102" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>86</v>
+      </c>
+      <c r="G2102" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2102" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2102" t="n">
+        <v>-115.0700000000008</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" s="1" t="n">
+        <v>2101</v>
+      </c>
+      <c r="B2103" s="2" t="n">
+        <v>45514</v>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>Ballarat</t>
+        </is>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>Eltham</t>
+        </is>
+      </c>
+      <c r="E2103" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2103" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2103" t="n">
+        <v>-116.0700000000008</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" s="1" t="n">
+        <v>2102</v>
+      </c>
+      <c r="B2104" s="2" t="n">
+        <v>45514</v>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>Keilor Thunder F</t>
+        </is>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>Waverley F</t>
+        </is>
+      </c>
+      <c r="E2104" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>87</v>
+      </c>
+      <c r="G2104" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2104" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2104" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J2104" t="n">
+        <v>-115.2000000000008</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" s="1" t="n">
+        <v>2103</v>
+      </c>
+      <c r="B2105" s="2" t="n">
+        <v>45514</v>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>South Adelaide Panthers</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>Forestville Eagles</t>
+        </is>
+      </c>
+      <c r="E2105" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>92</v>
+      </c>
+      <c r="G2105" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2105" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2105" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J2105" t="n">
+        <v>-114.3400000000008</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" s="1" t="n">
+        <v>2104</v>
+      </c>
+      <c r="B2106" s="2" t="n">
+        <v>45514</v>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>Central Districts Lions F</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>Forestville Eagles F</t>
+        </is>
+      </c>
+      <c r="E2106" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2106" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2106" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2106" t="n">
+        <v>-113.5100000000008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/acp_metodos/excel_files/over_v0.xlsx
+++ b/acp_metodos/excel_files/over_v0.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2106"/>
+  <dimension ref="A1:J2367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76322,6 +76322,9924 @@
         <v>-113.5100000000008</v>
       </c>
     </row>
+    <row r="2107">
+      <c r="A2107" s="1" t="n">
+        <v>2105</v>
+      </c>
+      <c r="B2107" s="2" t="n">
+        <v>45515</v>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>Leones De Ponce</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>Criollos de Caguas</t>
+        </is>
+      </c>
+      <c r="E2107" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2107" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2107" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2107" t="n">
+        <v>-114.5100000000008</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" s="1" t="n">
+        <v>2106</v>
+      </c>
+      <c r="B2108" s="2" t="n">
+        <v>45515</v>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>Caneros</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>Indios</t>
+        </is>
+      </c>
+      <c r="E2108" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>92</v>
+      </c>
+      <c r="G2108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2108" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2108" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2108" t="n">
+        <v>-113.6800000000008</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" s="1" t="n">
+        <v>2107</v>
+      </c>
+      <c r="B2109" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>Senegal F</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>Brasil F</t>
+        </is>
+      </c>
+      <c r="E2109" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2109" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2109" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2109" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2109" t="n">
+        <v>-114.6800000000008</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" s="1" t="n">
+        <v>2108</v>
+      </c>
+      <c r="B2110" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>Venezuela F</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>Mali F</t>
+        </is>
+      </c>
+      <c r="E2110" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>88</v>
+      </c>
+      <c r="G2110" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2110" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2110" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2110" t="n">
+        <v>-113.8600000000009</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" s="1" t="n">
+        <v>2109</v>
+      </c>
+      <c r="B2111" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>TNT Tropang Giga</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>Meralco Bolts</t>
+        </is>
+      </c>
+      <c r="E2111" t="n">
+        <v>93</v>
+      </c>
+      <c r="F2111" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2111" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2111" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2111" t="n">
+        <v>-114.8600000000009</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" s="1" t="n">
+        <v>2110</v>
+      </c>
+      <c r="B2112" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>Dorados</t>
+        </is>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>Diablos Rojos</t>
+        </is>
+      </c>
+      <c r="E2112" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2112" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2112" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2112" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2112" t="n">
+        <v>-115.8600000000009</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" s="1" t="n">
+        <v>2111</v>
+      </c>
+      <c r="B2113" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>Panteras</t>
+        </is>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>Astros</t>
+        </is>
+      </c>
+      <c r="E2113" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2113" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2113" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2113" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2113" t="n">
+        <v>-116.8600000000009</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" s="1" t="n">
+        <v>2112</v>
+      </c>
+      <c r="B2114" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>Coreia do Sul F</t>
+        </is>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>Mali F</t>
+        </is>
+      </c>
+      <c r="E2114" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2114" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2114" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2114" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J2114" t="n">
+        <v>-116.0600000000009</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" s="1" t="n">
+        <v>2113</v>
+      </c>
+      <c r="B2115" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>Nova Zelândia F</t>
+        </is>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>Moçambique F</t>
+        </is>
+      </c>
+      <c r="E2115" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2115" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2115" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2115" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2115" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J2115" t="n">
+        <v>-115.1700000000009</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" s="1" t="n">
+        <v>2114</v>
+      </c>
+      <c r="B2116" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>Metros de Santiago</t>
+        </is>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>Reales de la Vega</t>
+        </is>
+      </c>
+      <c r="E2116" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2116" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2116" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2116" t="n">
+        <v>-116.1700000000009</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" s="1" t="n">
+        <v>2115</v>
+      </c>
+      <c r="B2117" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>Minnesota Lynx F</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>Las Vegas Aces F</t>
+        </is>
+      </c>
+      <c r="E2117" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2117" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2117" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2117" t="n">
+        <v>-117.1700000000009</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" s="1" t="n">
+        <v>2116</v>
+      </c>
+      <c r="B2118" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>Alemanha 3x3</t>
+        </is>
+      </c>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>Espanha 3x3</t>
+        </is>
+      </c>
+      <c r="E2118" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2118" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2118" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2118" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2118" t="n">
+        <v>-116.3400000000009</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" s="1" t="n">
+        <v>2117</v>
+      </c>
+      <c r="B2119" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>Caneros</t>
+        </is>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>Titanes Del Licey</t>
+        </is>
+      </c>
+      <c r="E2119" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2119" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2119" t="n">
+        <v>-117.3400000000009</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" s="1" t="n">
+        <v>2118</v>
+      </c>
+      <c r="B2120" s="2" t="n">
+        <v>45528</v>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>Correcaminos</t>
+        </is>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>Abejas</t>
+        </is>
+      </c>
+      <c r="E2120" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2120" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2120" t="n">
+        <v>-118.3400000000009</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" s="1" t="n">
+        <v>2119</v>
+      </c>
+      <c r="B2121" s="2" t="n">
+        <v>45528</v>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>Freseros</t>
+        </is>
+      </c>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>Soles</t>
+        </is>
+      </c>
+      <c r="E2121" t="n">
+        <v>101</v>
+      </c>
+      <c r="F2121" t="n">
+        <v>102</v>
+      </c>
+      <c r="G2121" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2121" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2121" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2121" t="n">
+        <v>-117.5300000000009</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" s="1" t="n">
+        <v>2120</v>
+      </c>
+      <c r="B2122" s="2" t="n">
+        <v>45529</v>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>Dallas Wings F</t>
+        </is>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>Los Angeles Sparks F</t>
+        </is>
+      </c>
+      <c r="E2122" t="n">
+        <v>113</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>110</v>
+      </c>
+      <c r="G2122" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2122" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2122" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J2122" t="n">
+        <v>-116.6600000000008</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" s="1" t="n">
+        <v>2121</v>
+      </c>
+      <c r="B2123" s="2" t="n">
+        <v>45529</v>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>Criollos de Caguas</t>
+        </is>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>Osos de Manati</t>
+        </is>
+      </c>
+      <c r="E2123" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>98</v>
+      </c>
+      <c r="G2123" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2123" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2123" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2123" t="n">
+        <v>-115.8400000000009</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" s="1" t="n">
+        <v>2122</v>
+      </c>
+      <c r="B2124" s="2" t="n">
+        <v>45529</v>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>Can Tho Catfish</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>Da Nang Dragons</t>
+        </is>
+      </c>
+      <c r="E2124" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2124" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2124" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2124" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2124" t="n">
+        <v>-115.0100000000009</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" s="1" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B2125" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>Cocodrilos</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>Guaiqueries</t>
+        </is>
+      </c>
+      <c r="E2125" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2125" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2125" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2125" t="n">
+        <v>-116.0100000000009</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" s="1" t="n">
+        <v>2124</v>
+      </c>
+      <c r="B2126" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>Meralco Bolts</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>Macau Black Bears</t>
+        </is>
+      </c>
+      <c r="E2126" t="n">
+        <v>97</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2126" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H2126" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2126" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J2126" t="n">
+        <v>-115.0800000000009</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" s="1" t="n">
+        <v>2125</v>
+      </c>
+      <c r="B2127" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="E2127" t="n">
+        <v>93</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2127" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2127" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2127" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2127" t="n">
+        <v>-114.1700000000009</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" s="1" t="n">
+        <v>2126</v>
+      </c>
+      <c r="B2128" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="E2128" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2128" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2128" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J2128" t="n">
+        <v>-113.3000000000008</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" s="1" t="n">
+        <v>2127</v>
+      </c>
+      <c r="B2129" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>Lyon-Villeurbanne</t>
+        </is>
+      </c>
+      <c r="E2129" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2129" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2129" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2129" t="n">
+        <v>-112.3900000000009</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" s="1" t="n">
+        <v>2128</v>
+      </c>
+      <c r="B2130" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>Lyon-Villeurbanne</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>Virtus Bologna</t>
+        </is>
+      </c>
+      <c r="E2130" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2130" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2130" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2130" t="n">
+        <v>-111.4800000000009</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" s="1" t="n">
+        <v>2129</v>
+      </c>
+      <c r="B2131" s="2" t="n">
+        <v>45578</v>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>Joventut</t>
+        </is>
+      </c>
+      <c r="E2131" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>95</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H2131" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2131" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J2131" t="n">
+        <v>-110.5800000000009</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" s="1" t="n">
+        <v>2130</v>
+      </c>
+      <c r="B2132" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E2132" t="n">
+        <v>121</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>116</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2132" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2132" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2132" t="n">
+        <v>-109.6700000000009</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" s="1" t="n">
+        <v>2131</v>
+      </c>
+      <c r="B2133" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E2133" t="n">
+        <v>109</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2133" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2133" t="n">
+        <v>-110.6700000000009</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" s="1" t="n">
+        <v>2132</v>
+      </c>
+      <c r="B2134" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>Anadolu Efes</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="E2134" t="n">
+        <v>91</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2134" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2134" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2134" t="n">
+        <v>-109.7600000000009</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" s="1" t="n">
+        <v>2133</v>
+      </c>
+      <c r="B2135" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>Crvena zvezda</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2135" t="n">
+        <v>94</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>98</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2135" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2135" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2135" t="n">
+        <v>-108.8500000000009</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" s="1" t="n">
+        <v>2134</v>
+      </c>
+      <c r="B2136" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>Lyon-Villeurbanne</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="E2136" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2136" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2136" t="n">
+        <v>-109.8500000000009</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" s="1" t="n">
+        <v>2135</v>
+      </c>
+      <c r="B2137" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>Uralmash Ekaterinburg</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="E2137" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2137" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2137" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2137" t="n">
+        <v>-110.8500000000009</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" s="1" t="n">
+        <v>2136</v>
+      </c>
+      <c r="B2138" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E2138" t="n">
+        <v>132</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>109</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H2138" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2138" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J2138" t="n">
+        <v>-109.9700000000009</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" s="1" t="n">
+        <v>2137</v>
+      </c>
+      <c r="B2139" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E2139" t="n">
+        <v>110</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>103</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2139" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2139" t="n">
+        <v>-110.9700000000009</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" s="1" t="n">
+        <v>2138</v>
+      </c>
+      <c r="B2140" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>Basquet L'Horta Godella</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>Alicante</t>
+        </is>
+      </c>
+      <c r="E2140" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2140" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2140" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2140" t="n">
+        <v>-111.9700000000009</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" s="1" t="n">
+        <v>2139</v>
+      </c>
+      <c r="B2141" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E2141" t="n">
+        <v>109</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>115</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2141" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2141" t="n">
+        <v>-112.9700000000009</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" s="1" t="n">
+        <v>2140</v>
+      </c>
+      <c r="B2142" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E2142" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>116</v>
+      </c>
+      <c r="G2142" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2142" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2142" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2142" t="n">
+        <v>-112.1600000000009</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" s="1" t="n">
+        <v>2141</v>
+      </c>
+      <c r="B2143" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E2143" t="n">
+        <v>97</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>116</v>
+      </c>
+      <c r="G2143" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2143" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2143" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2143" t="n">
+        <v>-111.3500000000009</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>2142</v>
+      </c>
+      <c r="B2144" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E2144" t="n">
+        <v>109</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>124</v>
+      </c>
+      <c r="G2144" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2144" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2144" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2144" t="n">
+        <v>-110.5100000000009</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>2143</v>
+      </c>
+      <c r="B2145" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E2145" t="n">
+        <v>106</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>136</v>
+      </c>
+      <c r="G2145" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2145" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2145" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2145" t="n">
+        <v>-109.7000000000009</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>2144</v>
+      </c>
+      <c r="B2146" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E2146" t="n">
+        <v>105</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>110</v>
+      </c>
+      <c r="G2146" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2146" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2146" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2146" t="n">
+        <v>-110.7000000000009</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>2145</v>
+      </c>
+      <c r="B2147" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E2147" t="n">
+        <v>123</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>111</v>
+      </c>
+      <c r="G2147" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2147" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2147" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2147" t="n">
+        <v>-109.8900000000009</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>2146</v>
+      </c>
+      <c r="B2148" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E2148" t="n">
+        <v>124</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>126</v>
+      </c>
+      <c r="G2148" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2148" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2148" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2148" t="n">
+        <v>-109.0800000000009</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>2147</v>
+      </c>
+      <c r="B2149" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E2149" t="n">
+        <v>113</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>116</v>
+      </c>
+      <c r="G2149" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2149" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2149" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2149" t="n">
+        <v>-108.2400000000008</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>2148</v>
+      </c>
+      <c r="B2150" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E2150" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>139</v>
+      </c>
+      <c r="G2150" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2150" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2150" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2150" t="n">
+        <v>-107.4000000000008</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>2149</v>
+      </c>
+      <c r="B2151" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E2151" t="n">
+        <v>102</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>122</v>
+      </c>
+      <c r="G2151" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2151" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2151" t="n">
+        <v>-108.4000000000008</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>2150</v>
+      </c>
+      <c r="B2152" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E2152" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>109</v>
+      </c>
+      <c r="G2152" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2152" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2152" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J2152" t="n">
+        <v>-107.5300000000008</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>2151</v>
+      </c>
+      <c r="B2153" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E2153" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>102</v>
+      </c>
+      <c r="G2153" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2153" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2153" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2153" t="n">
+        <v>-108.5300000000008</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>2152</v>
+      </c>
+      <c r="B2154" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D2154" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E2154" t="n">
+        <v>115</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>117</v>
+      </c>
+      <c r="G2154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2154" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2154" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2154" t="n">
+        <v>-107.6800000000008</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>2153</v>
+      </c>
+      <c r="B2155" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>Nizhny Novgorod</t>
+        </is>
+      </c>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>Lokomotiv Kuban</t>
+        </is>
+      </c>
+      <c r="E2155" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>95</v>
+      </c>
+      <c r="G2155" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2155" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2155" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J2155" t="n">
+        <v>-106.8100000000008</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>2154</v>
+      </c>
+      <c r="B2156" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D2156" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E2156" t="n">
+        <v>116</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>101</v>
+      </c>
+      <c r="G2156" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H2156" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2156" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J2156" t="n">
+        <v>-105.9300000000008</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>2155</v>
+      </c>
+      <c r="B2157" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="D2157" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E2157" t="n">
+        <v>115</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>107</v>
+      </c>
+      <c r="G2157" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H2157" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2157" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J2157" t="n">
+        <v>-105.0500000000008</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>2156</v>
+      </c>
+      <c r="B2158" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D2158" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E2158" t="n">
+        <v>125</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>120</v>
+      </c>
+      <c r="G2158" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2158" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2158" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2158" t="n">
+        <v>-104.2300000000009</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>2157</v>
+      </c>
+      <c r="B2159" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D2159" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E2159" t="n">
+        <v>113</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>101</v>
+      </c>
+      <c r="G2159" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2159" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2159" t="n">
+        <v>-105.2300000000009</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>2158</v>
+      </c>
+      <c r="B2160" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D2160" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E2160" t="n">
+        <v>123</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>98</v>
+      </c>
+      <c r="G2160" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2160" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2160" t="n">
+        <v>-106.2300000000009</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>2159</v>
+      </c>
+      <c r="B2161" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D2161" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E2161" t="n">
+        <v>128</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>108</v>
+      </c>
+      <c r="G2161" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2161" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2161" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2161" t="n">
+        <v>-105.4000000000009</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>2160</v>
+      </c>
+      <c r="B2162" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D2162" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E2162" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>127</v>
+      </c>
+      <c r="G2162" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2162" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2162" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2162" t="n">
+        <v>-106.4000000000009</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>2161</v>
+      </c>
+      <c r="B2163" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D2163" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E2163" t="n">
+        <v>123</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>116</v>
+      </c>
+      <c r="G2163" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2163" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2163" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J2163" t="n">
+        <v>-105.5400000000009</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>2162</v>
+      </c>
+      <c r="B2164" s="2" t="n">
+        <v>45591</v>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D2164" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E2164" t="n">
+        <v>106</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>114</v>
+      </c>
+      <c r="G2164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2164" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2164" t="n">
+        <v>-106.5400000000009</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>2163</v>
+      </c>
+      <c r="B2165" s="2" t="n">
+        <v>45591</v>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D2165" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E2165" t="n">
+        <v>112</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>101</v>
+      </c>
+      <c r="G2165" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2165" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2165" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2165" t="n">
+        <v>-107.5400000000009</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>2164</v>
+      </c>
+      <c r="B2166" s="2" t="n">
+        <v>45591</v>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D2166" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E2166" t="n">
+        <v>131</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>127</v>
+      </c>
+      <c r="G2166" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2166" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2166" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J2166" t="n">
+        <v>-106.6800000000009</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>2165</v>
+      </c>
+      <c r="B2167" s="2" t="n">
+        <v>45592</v>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D2167" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E2167" t="n">
+        <v>115</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>102</v>
+      </c>
+      <c r="G2167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2167" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2167" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2167" t="n">
+        <v>-107.6800000000009</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>2166</v>
+      </c>
+      <c r="B2168" s="2" t="n">
+        <v>45592</v>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D2168" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E2168" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>112</v>
+      </c>
+      <c r="G2168" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2168" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2168" t="n">
+        <v>-108.6800000000009</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>2167</v>
+      </c>
+      <c r="B2169" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D2169" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E2169" t="n">
+        <v>119</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>108</v>
+      </c>
+      <c r="G2169" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2169" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2169" t="n">
+        <v>-109.6800000000009</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>2168</v>
+      </c>
+      <c r="B2170" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D2170" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E2170" t="n">
+        <v>106</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>98</v>
+      </c>
+      <c r="G2170" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2170" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2170" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2170" t="n">
+        <v>-110.6800000000009</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>2169</v>
+      </c>
+      <c r="B2171" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D2171" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E2171" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>110</v>
+      </c>
+      <c r="G2171" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2171" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2171" t="n">
+        <v>-111.6800000000009</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>2170</v>
+      </c>
+      <c r="B2172" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D2172" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="E2172" t="n">
+        <v>101</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>106</v>
+      </c>
+      <c r="G2172" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2172" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2172" t="n">
+        <v>-112.6800000000009</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>2171</v>
+      </c>
+      <c r="B2173" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D2173" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="E2173" t="n">
+        <v>110</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>102</v>
+      </c>
+      <c r="G2173" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2173" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2173" t="n">
+        <v>-113.6800000000009</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>2172</v>
+      </c>
+      <c r="B2174" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D2174" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E2174" t="n">
+        <v>119</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>121</v>
+      </c>
+      <c r="G2174" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H2174" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2174" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J2174" t="n">
+        <v>-112.8000000000009</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>2173</v>
+      </c>
+      <c r="B2175" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D2175" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E2175" t="n">
+        <v>139</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>144</v>
+      </c>
+      <c r="G2175" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2175" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2175" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2175" t="n">
+        <v>-111.9800000000009</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>2174</v>
+      </c>
+      <c r="B2176" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D2176" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E2176" t="n">
+        <v>114</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>120</v>
+      </c>
+      <c r="G2176" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2176" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2176" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2176" t="n">
+        <v>-111.1300000000009</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B2177" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D2177" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E2177" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>113</v>
+      </c>
+      <c r="G2177" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H2177" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2177" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2177" t="n">
+        <v>-112.1300000000009</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>2176</v>
+      </c>
+      <c r="B2178" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D2178" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E2178" t="n">
+        <v>124</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>106</v>
+      </c>
+      <c r="G2178" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2178" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2178" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2178" t="n">
+        <v>-111.2900000000009</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>2177</v>
+      </c>
+      <c r="B2179" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D2179" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E2179" t="n">
+        <v>138</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>133</v>
+      </c>
+      <c r="G2179" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2179" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2179" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2179" t="n">
+        <v>-110.4800000000009</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>2178</v>
+      </c>
+      <c r="B2180" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="D2180" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E2180" t="n">
+        <v>133</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>120</v>
+      </c>
+      <c r="G2180" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2180" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2180" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2180" t="n">
+        <v>-109.6400000000009</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>2179</v>
+      </c>
+      <c r="B2181" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D2181" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E2181" t="n">
+        <v>102</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>99</v>
+      </c>
+      <c r="G2181" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2181" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2181" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2181" t="n">
+        <v>-110.6400000000009</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>2180</v>
+      </c>
+      <c r="B2182" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D2182" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E2182" t="n">
+        <v>106</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>119</v>
+      </c>
+      <c r="G2182" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2182" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2182" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2182" t="n">
+        <v>-109.8100000000009</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>2181</v>
+      </c>
+      <c r="B2183" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D2183" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E2183" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2183" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H2183" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2183" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2183" t="n">
+        <v>-110.8100000000009</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>2182</v>
+      </c>
+      <c r="B2184" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D2184" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E2184" t="n">
+        <v>122</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>99</v>
+      </c>
+      <c r="G2184" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2184" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2184" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2184" t="n">
+        <v>-111.8100000000009</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>2183</v>
+      </c>
+      <c r="B2185" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D2185" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E2185" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>106</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2185" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2185" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2185" t="n">
+        <v>-112.8100000000009</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>2184</v>
+      </c>
+      <c r="B2186" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D2186" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E2186" t="n">
+        <v>114</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>137</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2186" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2186" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2186" t="n">
+        <v>-111.9800000000009</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>2185</v>
+      </c>
+      <c r="B2187" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>Zalgiris Kaunas</t>
+        </is>
+      </c>
+      <c r="D2187" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="E2187" t="n">
+        <v>63</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>62</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2187" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2187" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2187" t="n">
+        <v>-112.9800000000009</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>2186</v>
+      </c>
+      <c r="B2188" s="2" t="n">
+        <v>45598</v>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D2188" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E2188" t="n">
+        <v>103</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>113</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2188" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2188" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2188" t="n">
+        <v>-113.9800000000009</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="1" t="n">
+        <v>2187</v>
+      </c>
+      <c r="B2189" s="2" t="n">
+        <v>45598</v>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D2189" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E2189" t="n">
+        <v>107</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>124</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2189" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2189" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2189" t="n">
+        <v>-113.1300000000009</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="1" t="n">
+        <v>2188</v>
+      </c>
+      <c r="B2190" s="2" t="n">
+        <v>45598</v>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="D2190" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E2190" t="n">
+        <v>131</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>128</v>
+      </c>
+      <c r="G2190" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2190" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2190" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2190" t="n">
+        <v>-112.3200000000009</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="1" t="n">
+        <v>2189</v>
+      </c>
+      <c r="B2191" s="2" t="n">
+        <v>45598</v>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D2191" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="E2191" t="n">
+        <v>129</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>103</v>
+      </c>
+      <c r="G2191" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2191" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2191" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2191" t="n">
+        <v>-111.5100000000009</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="1" t="n">
+        <v>2190</v>
+      </c>
+      <c r="B2192" s="2" t="n">
+        <v>45598</v>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D2192" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E2192" t="n">
+        <v>103</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>97</v>
+      </c>
+      <c r="G2192" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H2192" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2192" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2192" t="n">
+        <v>-112.5100000000009</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" s="1" t="n">
+        <v>2191</v>
+      </c>
+      <c r="B2193" s="2" t="n">
+        <v>45599</v>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>MBA Moscow</t>
+        </is>
+      </c>
+      <c r="D2193" t="inlineStr">
+        <is>
+          <t>Parma Perm</t>
+        </is>
+      </c>
+      <c r="E2193" t="n">
+        <v>58</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2193" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2193" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2193" t="n">
+        <v>-113.5100000000009</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" s="1" t="n">
+        <v>2192</v>
+      </c>
+      <c r="B2194" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D2194" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E2194" t="n">
+        <v>116</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>114</v>
+      </c>
+      <c r="G2194" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2194" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2194" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2194" t="n">
+        <v>-112.6700000000009</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" s="1" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B2195" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>Villanova</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>Lafayette</t>
+        </is>
+      </c>
+      <c r="E2195" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H2195" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2195" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J2195" t="n">
+        <v>-111.7200000000009</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" s="1" t="n">
+        <v>2194</v>
+      </c>
+      <c r="B2196" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E2196" t="n">
+        <v>121</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>119</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2196" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2196" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J2196" t="n">
+        <v>-110.8600000000009</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" s="1" t="n">
+        <v>2195</v>
+      </c>
+      <c r="B2197" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E2197" t="n">
+        <v>118</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>116</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2197" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2197" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2197" t="n">
+        <v>-110.0200000000009</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" s="1" t="n">
+        <v>2196</v>
+      </c>
+      <c r="B2198" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E2198" t="n">
+        <v>113</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>104</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2198" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2198" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2198" t="n">
+        <v>-109.2100000000009</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" s="1" t="n">
+        <v>2197</v>
+      </c>
+      <c r="B2199" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E2199" t="n">
+        <v>108</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>107</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2199" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2199" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2199" t="n">
+        <v>-110.2100000000009</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" s="1" t="n">
+        <v>2198</v>
+      </c>
+      <c r="B2200" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E2200" t="n">
+        <v>118</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>111</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2200" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2200" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J2200" t="n">
+        <v>-109.3500000000009</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" s="1" t="n">
+        <v>2199</v>
+      </c>
+      <c r="B2201" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E2201" t="n">
+        <v>121</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>116</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2201" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2201" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J2201" t="n">
+        <v>-108.4800000000009</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" s="1" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B2202" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E2202" t="n">
+        <v>112</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>118</v>
+      </c>
+      <c r="G2202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2202" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2202" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2202" t="n">
+        <v>-107.6500000000009</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" s="1" t="n">
+        <v>2201</v>
+      </c>
+      <c r="B2203" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E2203" t="n">
+        <v>127</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2203" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2203" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2203" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J2203" t="n">
+        <v>-106.7800000000009</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="1" t="n">
+        <v>2202</v>
+      </c>
+      <c r="B2204" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E2204" t="n">
+        <v>131</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>114</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2204" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2204" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J2204" t="n">
+        <v>-105.9200000000009</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" s="1" t="n">
+        <v>2203</v>
+      </c>
+      <c r="B2205" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E2205" t="n">
+        <v>122</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>131</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2205" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2205" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2205" t="n">
+        <v>-105.0900000000009</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" s="1" t="n">
+        <v>2204</v>
+      </c>
+      <c r="B2206" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E2206" t="n">
+        <v>119</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>99</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2206" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2206" t="n">
+        <v>-106.0900000000009</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="1" t="n">
+        <v>2205</v>
+      </c>
+      <c r="B2207" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E2207" t="n">
+        <v>124</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>122</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2207" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2207" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2207" t="n">
+        <v>-105.2400000000009</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" s="1" t="n">
+        <v>2206</v>
+      </c>
+      <c r="B2208" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E2208" t="n">
+        <v>115</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>112</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2208" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2208" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2208" t="n">
+        <v>-104.4200000000009</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" s="1" t="n">
+        <v>2207</v>
+      </c>
+      <c r="B2209" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E2209" t="n">
+        <v>110</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>98</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2209" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2209" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2209" t="n">
+        <v>-105.4200000000009</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" s="1" t="n">
+        <v>2208</v>
+      </c>
+      <c r="B2210" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E2210" t="n">
+        <v>122</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>107</v>
+      </c>
+      <c r="G2210" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2210" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2210" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2210" t="n">
+        <v>-106.4200000000009</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" s="1" t="n">
+        <v>2209</v>
+      </c>
+      <c r="B2211" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E2211" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2211" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2211" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2211" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2211" t="n">
+        <v>-107.4200000000009</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" s="1" t="n">
+        <v>2210</v>
+      </c>
+      <c r="B2212" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="E2212" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2212" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2212" t="n">
+        <v>-108.4200000000009</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" s="1" t="n">
+        <v>2211</v>
+      </c>
+      <c r="B2213" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>Wake Forest</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>N. Carolina A&amp;T</t>
+        </is>
+      </c>
+      <c r="E2213" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2213" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2213" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2213" t="n">
+        <v>-109.4200000000009</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" s="1" t="n">
+        <v>2212</v>
+      </c>
+      <c r="B2214" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E2214" t="n">
+        <v>122</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>121</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2214" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2214" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2214" t="n">
+        <v>-108.6000000000009</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" s="1" t="n">
+        <v>2213</v>
+      </c>
+      <c r="B2215" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E2215" t="n">
+        <v>115</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>88</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2215" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2215" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2215" t="n">
+        <v>-109.6000000000009</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" s="1" t="n">
+        <v>2214</v>
+      </c>
+      <c r="B2216" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E2216" t="n">
+        <v>136</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>117</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2216" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2216" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2216" t="n">
+        <v>-108.7600000000009</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" s="1" t="n">
+        <v>2215</v>
+      </c>
+      <c r="B2217" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E2217" t="n">
+        <v>113</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>114</v>
+      </c>
+      <c r="G2217" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2217" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2217" t="n">
+        <v>-109.7600000000009</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" s="1" t="n">
+        <v>2216</v>
+      </c>
+      <c r="B2218" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="E2218" t="n">
+        <v>116</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>94</v>
+      </c>
+      <c r="G2218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2218" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2218" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2218" t="n">
+        <v>-110.7600000000009</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" s="1" t="n">
+        <v>2217</v>
+      </c>
+      <c r="B2219" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="E2219" t="n">
+        <v>126</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>107</v>
+      </c>
+      <c r="G2219" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2219" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2219" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J2219" t="n">
+        <v>-109.8700000000009</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" s="1" t="n">
+        <v>2218</v>
+      </c>
+      <c r="B2220" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E2220" t="n">
+        <v>108</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>104</v>
+      </c>
+      <c r="G2220" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2220" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2220" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2220" t="n">
+        <v>-110.8700000000009</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" s="1" t="n">
+        <v>2219</v>
+      </c>
+      <c r="B2221" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D2221" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E2221" t="n">
+        <v>128</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>104</v>
+      </c>
+      <c r="G2221" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2221" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2221" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2221" t="n">
+        <v>-110.0300000000009</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" s="1" t="n">
+        <v>2220</v>
+      </c>
+      <c r="B2222" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D2222" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E2222" t="n">
+        <v>135</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>122</v>
+      </c>
+      <c r="G2222" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2222" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2222" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2222" t="n">
+        <v>-109.1800000000009</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="1" t="n">
+        <v>2221</v>
+      </c>
+      <c r="B2223" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E2223" t="n">
+        <v>127</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>102</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2223" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2223" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2223" t="n">
+        <v>-108.3700000000009</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" s="1" t="n">
+        <v>2222</v>
+      </c>
+      <c r="B2224" s="2" t="n">
+        <v>45605</v>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E2224" t="n">
+        <v>116</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>106</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2224" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2224" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2224" t="n">
+        <v>-109.3700000000009</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" s="1" t="n">
+        <v>2223</v>
+      </c>
+      <c r="B2225" s="2" t="n">
+        <v>45605</v>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E2225" t="n">
+        <v>98</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>107</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2225" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2225" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2225" t="n">
+        <v>-110.3700000000009</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" s="1" t="n">
+        <v>2224</v>
+      </c>
+      <c r="B2226" s="2" t="n">
+        <v>45605</v>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E2226" t="n">
+        <v>105</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2226" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2226" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2226" t="n">
+        <v>-111.3700000000009</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="1" t="n">
+        <v>2225</v>
+      </c>
+      <c r="B2227" s="2" t="n">
+        <v>45605</v>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>Chalon/Saone</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="E2227" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2227" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2227" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J2227" t="n">
+        <v>-110.4800000000009</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="1" t="n">
+        <v>2226</v>
+      </c>
+      <c r="B2228" s="2" t="n">
+        <v>45605</v>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>Parma Perm</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>Nizhny Novgorod</t>
+        </is>
+      </c>
+      <c r="E2228" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>96</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2228" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2228" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2228" t="n">
+        <v>-109.6600000000009</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="1" t="n">
+        <v>2227</v>
+      </c>
+      <c r="B2229" s="2" t="n">
+        <v>45605</v>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>Norfolk State</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>James Madison</t>
+        </is>
+      </c>
+      <c r="E2229" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2229" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2229" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2229" t="n">
+        <v>-108.7500000000009</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" s="1" t="n">
+        <v>2228</v>
+      </c>
+      <c r="B2230" s="2" t="n">
+        <v>45606</v>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E2230" t="n">
+        <v>105</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>103</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2230" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2230" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2230" t="n">
+        <v>-109.7500000000009</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="1" t="n">
+        <v>2229</v>
+      </c>
+      <c r="B2231" s="2" t="n">
+        <v>45606</v>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E2231" t="n">
+        <v>122</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>120</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2231" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2231" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2231" t="n">
+        <v>-108.9300000000009</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="1" t="n">
+        <v>2230</v>
+      </c>
+      <c r="B2232" s="2" t="n">
+        <v>45606</v>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>UAB</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>SE Louisiana</t>
+        </is>
+      </c>
+      <c r="E2232" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2232" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2232" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2232" t="n">
+        <v>-108.0200000000009</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="1" t="n">
+        <v>2231</v>
+      </c>
+      <c r="B2233" s="2" t="n">
+        <v>45606</v>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E2233" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>134</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H2233" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2233" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2233" t="n">
+        <v>-109.0200000000009</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" s="1" t="n">
+        <v>2232</v>
+      </c>
+      <c r="B2234" s="2" t="n">
+        <v>45606</v>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E2234" t="n">
+        <v>123</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>103</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2234" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2234" t="n">
+        <v>-110.0200000000009</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" s="1" t="n">
+        <v>2233</v>
+      </c>
+      <c r="B2235" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E2235" t="n">
+        <v>113</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>119</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2235" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2235" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2235" t="n">
+        <v>-111.0200000000009</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" s="1" t="n">
+        <v>2234</v>
+      </c>
+      <c r="B2236" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E2236" t="n">
+        <v>107</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>92</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2236" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2236" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2236" t="n">
+        <v>-112.0200000000009</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" s="1" t="n">
+        <v>2235</v>
+      </c>
+      <c r="B2237" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E2237" t="n">
+        <v>134</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>128</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2237" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2237" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2237" t="n">
+        <v>-111.2100000000009</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" s="1" t="n">
+        <v>2236</v>
+      </c>
+      <c r="B2238" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E2238" t="n">
+        <v>116</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>96</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2238" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2238" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2238" t="n">
+        <v>-112.2100000000009</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" s="1" t="n">
+        <v>2237</v>
+      </c>
+      <c r="B2239" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>Citadel</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>Stetson</t>
+        </is>
+      </c>
+      <c r="E2239" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>52</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2239" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2239" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2239" t="n">
+        <v>-113.2100000000009</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" s="1" t="n">
+        <v>2238</v>
+      </c>
+      <c r="B2240" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E2240" t="n">
+        <v>116</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>117</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2240" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2240" t="n">
+        <v>-114.2100000000009</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" s="1" t="n">
+        <v>2239</v>
+      </c>
+      <c r="B2241" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E2241" t="n">
+        <v>123</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>121</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2241" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2241" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2241" t="n">
+        <v>-113.3800000000009</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" s="1" t="n">
+        <v>2240</v>
+      </c>
+      <c r="B2242" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E2242" t="n">
+        <v>114</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2242" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2242" t="n">
+        <v>-114.3800000000009</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" s="1" t="n">
+        <v>2241</v>
+      </c>
+      <c r="B2243" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E2243" t="n">
+        <v>99</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>111</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2243" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2243" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2243" t="n">
+        <v>-115.3800000000009</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" s="1" t="n">
+        <v>2242</v>
+      </c>
+      <c r="B2244" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E2244" t="n">
+        <v>99</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2244" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2244" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2244" t="n">
+        <v>-116.3800000000009</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" s="1" t="n">
+        <v>2243</v>
+      </c>
+      <c r="B2245" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E2245" t="n">
+        <v>112</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>120</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2245" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2245" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J2245" t="n">
+        <v>-115.5200000000009</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" s="1" t="n">
+        <v>2244</v>
+      </c>
+      <c r="B2246" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>Alba Berlin</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="E2246" t="n">
+        <v>105</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>101</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2246" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2246" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2246" t="n">
+        <v>-114.6100000000009</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" s="1" t="n">
+        <v>2245</v>
+      </c>
+      <c r="B2247" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>Basquet L'Horta Godella</t>
+        </is>
+      </c>
+      <c r="E2247" t="n">
+        <v>102</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2247" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2247" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2247" t="n">
+        <v>-113.7800000000009</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" s="1" t="n">
+        <v>2246</v>
+      </c>
+      <c r="B2248" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E2248" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>117</v>
+      </c>
+      <c r="G2248" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2248" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2248" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2248" t="n">
+        <v>-112.9700000000009</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" s="1" t="n">
+        <v>2247</v>
+      </c>
+      <c r="B2249" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D2249" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E2249" t="n">
+        <v>122</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>108</v>
+      </c>
+      <c r="G2249" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2249" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2249" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J2249" t="n">
+        <v>-112.1700000000009</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" s="1" t="n">
+        <v>2248</v>
+      </c>
+      <c r="B2250" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D2250" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E2250" t="n">
+        <v>114</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>139</v>
+      </c>
+      <c r="G2250" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H2250" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2250" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J2250" t="n">
+        <v>-111.2400000000009</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" s="1" t="n">
+        <v>2249</v>
+      </c>
+      <c r="B2251" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E2251" t="n">
+        <v>123</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>124</v>
+      </c>
+      <c r="G2251" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2251" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2251" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2251" t="n">
+        <v>-110.4300000000009</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" s="1" t="n">
+        <v>2250</v>
+      </c>
+      <c r="B2252" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E2252" t="n">
+        <v>106</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>114</v>
+      </c>
+      <c r="G2252" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2252" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2252" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2252" t="n">
+        <v>-109.5900000000009</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" s="1" t="n">
+        <v>2251</v>
+      </c>
+      <c r="B2253" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E2253" t="n">
+        <v>111</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>103</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2253" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2253" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2253" t="n">
+        <v>-108.7800000000009</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" s="1" t="n">
+        <v>2252</v>
+      </c>
+      <c r="B2254" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E2254" t="n">
+        <v>127</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>120</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2254" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2254" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2254" t="n">
+        <v>-107.9400000000009</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" s="1" t="n">
+        <v>2253</v>
+      </c>
+      <c r="B2255" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E2255" t="n">
+        <v>139</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>130</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2255" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2255" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2255" t="n">
+        <v>-107.1300000000009</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" s="1" t="n">
+        <v>2254</v>
+      </c>
+      <c r="B2256" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E2256" t="n">
+        <v>128</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>123</v>
+      </c>
+      <c r="G2256" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H2256" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2256" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J2256" t="n">
+        <v>-106.2000000000009</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" s="1" t="n">
+        <v>2255</v>
+      </c>
+      <c r="B2257" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E2257" t="n">
+        <v>106</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>98</v>
+      </c>
+      <c r="G2257" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2257" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2257" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2257" t="n">
+        <v>-107.2000000000009</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" s="1" t="n">
+        <v>2256</v>
+      </c>
+      <c r="B2258" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E2258" t="n">
+        <v>127</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>104</v>
+      </c>
+      <c r="G2258" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2258" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2258" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2258" t="n">
+        <v>-106.3900000000009</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" s="1" t="n">
+        <v>2257</v>
+      </c>
+      <c r="B2259" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>Parma Perm</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>Saratov</t>
+        </is>
+      </c>
+      <c r="E2259" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2259" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2259" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2259" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2259" t="n">
+        <v>-107.3900000000009</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" s="1" t="n">
+        <v>2258</v>
+      </c>
+      <c r="B2260" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>MBA Moscow</t>
+        </is>
+      </c>
+      <c r="D2260" t="inlineStr">
+        <is>
+          <t>Zenit Petersburg</t>
+        </is>
+      </c>
+      <c r="E2260" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2260" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2260" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2260" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2260" t="n">
+        <v>-108.3900000000009</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" s="1" t="n">
+        <v>2259</v>
+      </c>
+      <c r="B2261" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D2261" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E2261" t="n">
+        <v>108</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>109</v>
+      </c>
+      <c r="G2261" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2261" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2261" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2261" t="n">
+        <v>-109.3900000000009</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" s="1" t="n">
+        <v>2260</v>
+      </c>
+      <c r="B2262" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E2262" t="n">
+        <v>102</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>99</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2262" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2262" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2262" t="n">
+        <v>-110.3900000000009</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" s="1" t="n">
+        <v>2261</v>
+      </c>
+      <c r="B2263" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E2263" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>117</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2263" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2263" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J2263" t="n">
+        <v>-109.5000000000009</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" s="1" t="n">
+        <v>2262</v>
+      </c>
+      <c r="B2264" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E2264" t="n">
+        <v>116</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>115</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H2264" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2264" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J2264" t="n">
+        <v>-108.6200000000009</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" s="1" t="n">
+        <v>2263</v>
+      </c>
+      <c r="B2265" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E2265" t="n">
+        <v>110</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>122</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2265" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2265" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2265" t="n">
+        <v>-107.7700000000009</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" s="1" t="n">
+        <v>2264</v>
+      </c>
+      <c r="B2266" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E2266" t="n">
+        <v>132</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>91</v>
+      </c>
+      <c r="G2266" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2266" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2266" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2266" t="n">
+        <v>-106.9500000000009</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" s="1" t="n">
+        <v>2265</v>
+      </c>
+      <c r="B2267" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E2267" t="n">
+        <v>110</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>104</v>
+      </c>
+      <c r="G2267" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2267" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2267" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2267" t="n">
+        <v>-107.9500000000009</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" s="1" t="n">
+        <v>2266</v>
+      </c>
+      <c r="B2268" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
+      </c>
+      <c r="D2268" t="inlineStr">
+        <is>
+          <t>Quinnipiac</t>
+        </is>
+      </c>
+      <c r="E2268" t="n">
+        <v>63</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2268" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2268" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2268" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2268" t="n">
+        <v>-108.9500000000009</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" s="1" t="n">
+        <v>2267</v>
+      </c>
+      <c r="B2269" s="2" t="n">
+        <v>45616</v>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D2269" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="E2269" t="n">
+        <v>124</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>118</v>
+      </c>
+      <c r="G2269" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2269" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2269" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2269" t="n">
+        <v>-108.1100000000009</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" s="1" t="n">
+        <v>2268</v>
+      </c>
+      <c r="B2270" s="2" t="n">
+        <v>45616</v>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D2270" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E2270" t="n">
+        <v>130</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>113</v>
+      </c>
+      <c r="G2270" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H2270" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2270" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J2270" t="n">
+        <v>-107.1800000000009</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" s="1" t="n">
+        <v>2269</v>
+      </c>
+      <c r="B2271" s="2" t="n">
+        <v>45616</v>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D2271" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E2271" t="n">
+        <v>117</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>111</v>
+      </c>
+      <c r="G2271" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2271" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2271" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2271" t="n">
+        <v>-106.3400000000009</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" s="1" t="n">
+        <v>2270</v>
+      </c>
+      <c r="B2272" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D2272" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E2272" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>97</v>
+      </c>
+      <c r="G2272" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2272" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2272" t="n">
+        <v>-107.3400000000009</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" s="1" t="n">
+        <v>2271</v>
+      </c>
+      <c r="B2273" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D2273" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E2273" t="n">
+        <v>122</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>138</v>
+      </c>
+      <c r="G2273" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2273" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2273" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J2273" t="n">
+        <v>-106.5400000000009</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" s="1" t="n">
+        <v>2272</v>
+      </c>
+      <c r="B2274" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D2274" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E2274" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2274" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H2274" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2274" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2274" t="n">
+        <v>-107.5400000000009</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" s="1" t="n">
+        <v>2273</v>
+      </c>
+      <c r="B2275" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D2275" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="E2275" t="n">
+        <v>126</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>118</v>
+      </c>
+      <c r="G2275" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2275" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2275" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2275" t="n">
+        <v>-106.7100000000009</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" s="1" t="n">
+        <v>2274</v>
+      </c>
+      <c r="B2276" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D2276" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E2276" t="n">
+        <v>118</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>119</v>
+      </c>
+      <c r="G2276" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2276" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2276" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2276" t="n">
+        <v>-105.9000000000009</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" s="1" t="n">
+        <v>2275</v>
+      </c>
+      <c r="B2277" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D2277" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E2277" t="n">
+        <v>116</v>
+      </c>
+      <c r="F2277" t="n">
+        <v>88</v>
+      </c>
+      <c r="G2277" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2277" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2277" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2277" t="n">
+        <v>-106.9000000000009</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" s="1" t="n">
+        <v>2276</v>
+      </c>
+      <c r="B2278" s="2" t="n">
+        <v>45619</v>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D2278" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E2278" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2278" t="n">
+        <v>123</v>
+      </c>
+      <c r="G2278" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2278" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2278" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2278" t="n">
+        <v>-106.0700000000009</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" s="1" t="n">
+        <v>2277</v>
+      </c>
+      <c r="B2279" s="2" t="n">
+        <v>45619</v>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D2279" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E2279" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2279" t="n">
+        <v>88</v>
+      </c>
+      <c r="G2279" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2279" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2279" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2279" t="n">
+        <v>-107.0700000000009</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" s="1" t="n">
+        <v>2278</v>
+      </c>
+      <c r="B2280" s="2" t="n">
+        <v>45619</v>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="D2280" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E2280" t="n">
+        <v>111</v>
+      </c>
+      <c r="F2280" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2280" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2280" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2280" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J2280" t="n">
+        <v>-106.2100000000009</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" s="1" t="n">
+        <v>2279</v>
+      </c>
+      <c r="B2281" s="2" t="n">
+        <v>45619</v>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D2281" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E2281" t="n">
+        <v>131</v>
+      </c>
+      <c r="F2281" t="n">
+        <v>142</v>
+      </c>
+      <c r="G2281" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2281" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2281" t="n">
+        <v>-105.3700000000009</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" s="1" t="n">
+        <v>2280</v>
+      </c>
+      <c r="B2282" s="2" t="n">
+        <v>45619</v>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="D2282" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E2282" t="n">
+        <v>98</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>104</v>
+      </c>
+      <c r="G2282" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2282" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2282" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2282" t="n">
+        <v>-106.3700000000009</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" s="1" t="n">
+        <v>2281</v>
+      </c>
+      <c r="B2283" s="2" t="n">
+        <v>45619</v>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D2283" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="E2283" t="n">
+        <v>125</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>119</v>
+      </c>
+      <c r="G2283" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2283" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2283" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2283" t="n">
+        <v>-105.5300000000009</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" s="1" t="n">
+        <v>2282</v>
+      </c>
+      <c r="B2284" s="2" t="n">
+        <v>45619</v>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D2284" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E2284" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>94</v>
+      </c>
+      <c r="G2284" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2284" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2284" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2284" t="n">
+        <v>-106.5300000000009</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" s="1" t="n">
+        <v>2283</v>
+      </c>
+      <c r="B2285" s="2" t="n">
+        <v>45619</v>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>Cal St. Bakersfield</t>
+        </is>
+      </c>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>Florida Intl</t>
+        </is>
+      </c>
+      <c r="E2285" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2285" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2285" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2285" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2285" t="n">
+        <v>-105.6200000000009</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" s="1" t="n">
+        <v>2284</v>
+      </c>
+      <c r="B2286" s="2" t="n">
+        <v>45619</v>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>Portland State</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>St. Thomas (Minn.)</t>
+        </is>
+      </c>
+      <c r="E2286" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>91</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2286" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2286" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2286" t="n">
+        <v>-104.7100000000009</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" s="1" t="n">
+        <v>2285</v>
+      </c>
+      <c r="B2287" s="2" t="n">
+        <v>45619</v>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>Jacksonville St.</t>
+        </is>
+      </c>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>James Madison</t>
+        </is>
+      </c>
+      <c r="E2287" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2287" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2287" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2287" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2287" t="n">
+        <v>-105.7100000000009</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" s="1" t="n">
+        <v>2286</v>
+      </c>
+      <c r="B2288" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E2288" t="n">
+        <v>102</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>127</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2288" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2288" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2288" t="n">
+        <v>-106.7100000000009</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" s="1" t="n">
+        <v>2287</v>
+      </c>
+      <c r="B2289" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E2289" t="n">
+        <v>107</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>105</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H2289" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2289" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2289" t="n">
+        <v>-107.7100000000009</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" s="1" t="n">
+        <v>2288</v>
+      </c>
+      <c r="B2290" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E2290" t="n">
+        <v>123</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>118</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2290" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2290" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2290" t="n">
+        <v>-106.8700000000009</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" s="1" t="n">
+        <v>2289</v>
+      </c>
+      <c r="B2291" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E2291" t="n">
+        <v>122</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>108</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2291" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2291" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2291" t="n">
+        <v>-107.8700000000009</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" s="1" t="n">
+        <v>2290</v>
+      </c>
+      <c r="B2292" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E2292" t="n">
+        <v>103</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>108</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2292" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2292" t="n">
+        <v>-108.8700000000009</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" s="1" t="n">
+        <v>2291</v>
+      </c>
+      <c r="B2293" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>Akron</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>Alabama State</t>
+        </is>
+      </c>
+      <c r="E2293" t="n">
+        <v>97</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2293" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2293" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2293" t="n">
+        <v>-107.9600000000009</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" s="1" t="n">
+        <v>2292</v>
+      </c>
+      <c r="B2294" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>Northwestern St.</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>North Alabama</t>
+        </is>
+      </c>
+      <c r="E2294" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>58</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2294" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2294" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2294" t="n">
+        <v>-108.9600000000009</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" s="1" t="n">
+        <v>2293</v>
+      </c>
+      <c r="B2295" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E2295" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>95</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2295" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2295" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2295" t="n">
+        <v>-109.9600000000009</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" s="1" t="n">
+        <v>2294</v>
+      </c>
+      <c r="B2296" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E2296" t="n">
+        <v>102</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2296" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2296" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2296" t="n">
+        <v>-110.9600000000009</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" s="1" t="n">
+        <v>2295</v>
+      </c>
+      <c r="B2297" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D2297" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E2297" t="n">
+        <v>114</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>110</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2297" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2297" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2297" t="n">
+        <v>-111.9600000000009</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" s="1" t="n">
+        <v>2296</v>
+      </c>
+      <c r="B2298" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D2298" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E2298" t="n">
+        <v>126</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>94</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2298" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2298" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2298" t="n">
+        <v>-111.1500000000009</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" s="1" t="n">
+        <v>2297</v>
+      </c>
+      <c r="B2299" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D2299" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E2299" t="n">
+        <v>123</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>98</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2299" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2299" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2299" t="n">
+        <v>-112.1500000000009</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" s="1" t="n">
+        <v>2298</v>
+      </c>
+      <c r="B2300" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>La Lafayette</t>
+        </is>
+      </c>
+      <c r="D2300" t="inlineStr">
+        <is>
+          <t>UAB</t>
+        </is>
+      </c>
+      <c r="E2300" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>98</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2300" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2300" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2300" t="n">
+        <v>-111.2400000000009</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" s="1" t="n">
+        <v>2299</v>
+      </c>
+      <c r="B2301" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>South Dakota St.</t>
+        </is>
+      </c>
+      <c r="D2301" t="inlineStr">
+        <is>
+          <t>Boise State</t>
+        </is>
+      </c>
+      <c r="E2301" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2301" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2301" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2301" t="n">
+        <v>-110.3300000000009</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" s="1" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B2302" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>Old Dominion</t>
+        </is>
+      </c>
+      <c r="D2302" t="inlineStr">
+        <is>
+          <t>High Point</t>
+        </is>
+      </c>
+      <c r="E2302" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2302" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2302" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2302" t="n">
+        <v>-111.3300000000009</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" s="1" t="n">
+        <v>2301</v>
+      </c>
+      <c r="B2303" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D2303" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E2303" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>128</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2303" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2303" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2303" t="n">
+        <v>-110.5200000000009</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" s="1" t="n">
+        <v>2302</v>
+      </c>
+      <c r="B2304" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E2304" t="n">
+        <v>109</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>130</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2304" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2304" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2304" t="n">
+        <v>-109.6800000000009</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" s="1" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B2305" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>Fordham</t>
+        </is>
+      </c>
+      <c r="E2305" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2305" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2305" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2305" t="n">
+        <v>-108.7700000000009</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" s="1" t="n">
+        <v>2304</v>
+      </c>
+      <c r="B2306" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>Georgetown</t>
+        </is>
+      </c>
+      <c r="D2306" t="inlineStr">
+        <is>
+          <t>Wagner</t>
+        </is>
+      </c>
+      <c r="E2306" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>41</v>
+      </c>
+      <c r="G2306" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H2306" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2306" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2306" t="n">
+        <v>-109.7700000000009</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" s="1" t="n">
+        <v>2305</v>
+      </c>
+      <c r="B2307" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>South Alabama</t>
+        </is>
+      </c>
+      <c r="D2307" t="inlineStr">
+        <is>
+          <t>Western Illinois</t>
+        </is>
+      </c>
+      <c r="E2307" t="n">
+        <v>63</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2307" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2307" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2307" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2307" t="n">
+        <v>-110.7700000000009</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" s="1" t="n">
+        <v>2306</v>
+      </c>
+      <c r="B2308" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>Long Beach State</t>
+        </is>
+      </c>
+      <c r="D2308" t="inlineStr">
+        <is>
+          <t>UTEP</t>
+        </is>
+      </c>
+      <c r="E2308" t="n">
+        <v>44</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2308" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2308" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2308" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2308" t="n">
+        <v>-111.7700000000009</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" s="1" t="n">
+        <v>2307</v>
+      </c>
+      <c r="B2309" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>Montana State</t>
+        </is>
+      </c>
+      <c r="D2309" t="inlineStr">
+        <is>
+          <t>Abilene Christian</t>
+        </is>
+      </c>
+      <c r="E2309" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2309" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2309" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2309" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2309" t="n">
+        <v>-110.8600000000009</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" s="1" t="n">
+        <v>2308</v>
+      </c>
+      <c r="B2310" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D2310" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E2310" t="n">
+        <v>121</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>114</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2310" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2310" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2310" t="n">
+        <v>-110.0500000000009</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" s="1" t="n">
+        <v>2309</v>
+      </c>
+      <c r="B2311" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D2311" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E2311" t="n">
+        <v>131</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>111</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2311" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2311" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2311" t="n">
+        <v>-109.2300000000009</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" s="1" t="n">
+        <v>2310</v>
+      </c>
+      <c r="B2312" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D2312" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E2312" t="n">
+        <v>93</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>119</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2312" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2312" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2312" t="n">
+        <v>-110.2300000000009</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" s="1" t="n">
+        <v>2311</v>
+      </c>
+      <c r="B2313" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D2313" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="E2313" t="n">
+        <v>115</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>122</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2313" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2313" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2313" t="n">
+        <v>-109.4000000000009</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" s="1" t="n">
+        <v>2312</v>
+      </c>
+      <c r="B2314" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D2314" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E2314" t="n">
+        <v>117</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>127</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2314" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2314" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J2314" t="n">
+        <v>-108.5500000000009</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" s="1" t="n">
+        <v>2313</v>
+      </c>
+      <c r="B2315" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>NC Wilmington</t>
+        </is>
+      </c>
+      <c r="D2315" t="inlineStr">
+        <is>
+          <t>Colgate</t>
+        </is>
+      </c>
+      <c r="E2315" t="n">
+        <v>59</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2315" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2315" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2315" t="n">
+        <v>-109.5500000000009</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" s="1" t="n">
+        <v>2314</v>
+      </c>
+      <c r="B2316" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>St. Louis Billikens</t>
+        </is>
+      </c>
+      <c r="D2316" t="inlineStr">
+        <is>
+          <t>UMass Lowell</t>
+        </is>
+      </c>
+      <c r="E2316" t="n">
+        <v>93</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2316" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2316" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2316" t="n">
+        <v>-108.6400000000009</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" s="1" t="n">
+        <v>2315</v>
+      </c>
+      <c r="B2317" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>Marquette</t>
+        </is>
+      </c>
+      <c r="D2317" t="inlineStr">
+        <is>
+          <t>Stonehill</t>
+        </is>
+      </c>
+      <c r="E2317" t="n">
+        <v>94</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2317" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2317" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2317" t="n">
+        <v>-107.8100000000009</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" s="1" t="n">
+        <v>2316</v>
+      </c>
+      <c r="B2318" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D2318" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E2318" t="n">
+        <v>101</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>105</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2318" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2318" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2318" t="n">
+        <v>-108.8100000000009</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" s="1" t="n">
+        <v>2317</v>
+      </c>
+      <c r="B2319" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D2319" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="E2319" t="n">
+        <v>98</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>99</v>
+      </c>
+      <c r="G2319" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2319" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2319" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2319" t="n">
+        <v>-109.8100000000009</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" s="1" t="n">
+        <v>2318</v>
+      </c>
+      <c r="B2320" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="E2320" t="n">
+        <v>117</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>101</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2320" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2320" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2320" t="n">
+        <v>-110.8100000000009</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" s="1" t="n">
+        <v>2319</v>
+      </c>
+      <c r="B2321" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="D2321" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E2321" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>109</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2321" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2321" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2321" t="n">
+        <v>-109.9700000000009</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" s="1" t="n">
+        <v>2320</v>
+      </c>
+      <c r="B2322" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E2322" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>123</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H2322" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2322" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J2322" t="n">
+        <v>-109.0400000000009</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" s="1" t="n">
+        <v>2321</v>
+      </c>
+      <c r="B2323" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="E2323" t="n">
+        <v>93</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>92</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2323" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2323" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2323" t="n">
+        <v>-110.0400000000009</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" s="1" t="n">
+        <v>2322</v>
+      </c>
+      <c r="B2324" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D2324" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E2324" t="n">
+        <v>129</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>138</v>
+      </c>
+      <c r="G2324" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2324" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2324" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2324" t="n">
+        <v>-109.2000000000009</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" s="1" t="n">
+        <v>2323</v>
+      </c>
+      <c r="B2325" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E2325" t="n">
+        <v>106</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>130</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2325" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2325" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2325" t="n">
+        <v>-108.3600000000009</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" s="1" t="n">
+        <v>2324</v>
+      </c>
+      <c r="B2326" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D2326" t="inlineStr">
+        <is>
+          <t>Toronto Raptors</t>
+        </is>
+      </c>
+      <c r="E2326" t="n">
+        <v>121</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>111</v>
+      </c>
+      <c r="G2326" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2326" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2326" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2326" t="n">
+        <v>-107.5500000000009</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" s="1" t="n">
+        <v>2325</v>
+      </c>
+      <c r="B2327" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="E2327" t="n">
+        <v>93</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>101</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2327" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2327" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2327" t="n">
+        <v>-108.5500000000009</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" s="1" t="n">
+        <v>2326</v>
+      </c>
+      <c r="B2328" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E2328" t="n">
+        <v>115</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>106</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2328" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2328" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2328" t="n">
+        <v>-109.5500000000009</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" s="1" t="n">
+        <v>2327</v>
+      </c>
+      <c r="B2329" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D2329" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E2329" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>107</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2329" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2329" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2329" t="n">
+        <v>-110.5500000000009</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" s="1" t="n">
+        <v>2328</v>
+      </c>
+      <c r="B2330" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="D2330" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E2330" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>111</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2330" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2330" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2330" t="n">
+        <v>-111.5500000000009</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" s="1" t="n">
+        <v>2329</v>
+      </c>
+      <c r="B2331" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D2331" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E2331" t="n">
+        <v>124</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>114</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2331" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2331" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2331" t="n">
+        <v>-110.7300000000009</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" s="1" t="n">
+        <v>2330</v>
+      </c>
+      <c r="B2332" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E2332" t="n">
+        <v>113</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>105</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2332" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2332" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2332" t="n">
+        <v>-111.7300000000009</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" s="1" t="n">
+        <v>2331</v>
+      </c>
+      <c r="B2333" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E2333" t="n">
+        <v>94</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>106</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2333" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2333" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2333" t="n">
+        <v>-112.7300000000009</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" s="1" t="n">
+        <v>2332</v>
+      </c>
+      <c r="B2334" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E2334" t="n">
+        <v>92</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2334" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2334" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2334" t="n">
+        <v>-113.7300000000009</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" s="1" t="n">
+        <v>2333</v>
+      </c>
+      <c r="B2335" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="E2335" t="n">
+        <v>115</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>111</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2335" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2335" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2335" t="n">
+        <v>-114.7300000000009</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" s="1" t="n">
+        <v>2334</v>
+      </c>
+      <c r="B2336" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>Spotter Leuven</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>Spirou Charleroi</t>
+        </is>
+      </c>
+      <c r="E2336" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H2336" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2336" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2336" t="n">
+        <v>-115.7300000000009</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" s="1" t="n">
+        <v>2335</v>
+      </c>
+      <c r="B2337" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>New York Knicks</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="E2337" t="n">
+        <v>118</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2337" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2337" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2337" t="n">
+        <v>-116.7300000000009</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" s="1" t="n">
+        <v>2336</v>
+      </c>
+      <c r="B2338" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>Utah Jazz</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E2338" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>105</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2338" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2338" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2338" t="n">
+        <v>-117.7300000000009</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" s="1" t="n">
+        <v>2337</v>
+      </c>
+      <c r="B2339" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="E2339" t="n">
+        <v>131</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>137</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2339" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2339" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2339" t="n">
+        <v>-116.8900000000009</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" s="1" t="n">
+        <v>2338</v>
+      </c>
+      <c r="B2340" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E2340" t="n">
+        <v>125</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>127</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2340" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2340" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2340" t="n">
+        <v>-116.0800000000009</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" s="1" t="n">
+        <v>2339</v>
+      </c>
+      <c r="B2341" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>Madagascar 3x3</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>Argélia 3x3</t>
+        </is>
+      </c>
+      <c r="E2341" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H2341" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2341" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J2341" t="n">
+        <v>-115.1000000000009</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" s="1" t="n">
+        <v>2340</v>
+      </c>
+      <c r="B2342" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>Tarleton</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>Indiana State</t>
+        </is>
+      </c>
+      <c r="E2342" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>87</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2342" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2342" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J2342" t="n">
+        <v>-114.1900000000009</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" s="1" t="n">
+        <v>2341</v>
+      </c>
+      <c r="B2343" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="E2343" t="n">
+        <v>126</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>122</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2343" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2343" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2343" t="n">
+        <v>-113.3500000000009</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" s="1" t="n">
+        <v>2342</v>
+      </c>
+      <c r="B2344" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
+      <c r="E2344" t="n">
+        <v>128</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>102</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2344" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2344" t="n">
+        <v>-114.3500000000009</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" s="1" t="n">
+        <v>2343</v>
+      </c>
+      <c r="B2345" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="E2345" t="n">
+        <v>108</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2345" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2345" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2345" t="n">
+        <v>-115.3500000000009</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" s="1" t="n">
+        <v>2344</v>
+      </c>
+      <c r="B2346" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>Charlotte Hornets</t>
+        </is>
+      </c>
+      <c r="D2346" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="E2346" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>110</v>
+      </c>
+      <c r="G2346" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H2346" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2346" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J2346" t="n">
+        <v>-114.4500000000009</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" s="1" t="n">
+        <v>2345</v>
+      </c>
+      <c r="B2347" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>Washington Wizards</t>
+        </is>
+      </c>
+      <c r="E2347" t="n">
+        <v>118</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>87</v>
+      </c>
+      <c r="G2347" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2347" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2347" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2347" t="n">
+        <v>-115.4500000000009</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" s="1" t="n">
+        <v>2346</v>
+      </c>
+      <c r="B2348" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="E2348" t="n">
+        <v>121</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>116</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H2348" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2348" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J2348" t="n">
+        <v>-114.5200000000009</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" s="1" t="n">
+        <v>2347</v>
+      </c>
+      <c r="B2349" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="E2349" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H2349" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2349" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2349" t="n">
+        <v>-115.5200000000009</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" s="1" t="n">
+        <v>2348</v>
+      </c>
+      <c r="B2350" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>Lyon-Villeurbanne</t>
+        </is>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E2350" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2350" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2350" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2350" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2350" t="n">
+        <v>-116.5200000000009</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" s="1" t="n">
+        <v>2349</v>
+      </c>
+      <c r="B2351" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E2351" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2351" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2351" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2351" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2351" t="n">
+        <v>-117.5200000000009</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" s="1" t="n">
+        <v>2350</v>
+      </c>
+      <c r="B2352" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>Baskonia</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="E2352" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2352" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H2352" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2352" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J2352" t="n">
+        <v>-116.6900000000009</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" s="1" t="n">
+        <v>2351</v>
+      </c>
+      <c r="B2353" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="E2353" t="n">
+        <v>119</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>115</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2353" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2353" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2353" t="n">
+        <v>-117.6900000000009</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" s="1" t="n">
+        <v>2352</v>
+      </c>
+      <c r="B2354" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="E2354" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>111</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2354" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2354" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2354" t="n">
+        <v>-116.8800000000009</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" s="1" t="n">
+        <v>2353</v>
+      </c>
+      <c r="B2355" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="E2355" t="n">
+        <v>127</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>105</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2355" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2355" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2355" t="n">
+        <v>-116.0700000000009</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" s="1" t="n">
+        <v>2354</v>
+      </c>
+      <c r="B2356" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>Enisey</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>Saratov</t>
+        </is>
+      </c>
+      <c r="E2356" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2356" t="n">
+        <v>86</v>
+      </c>
+      <c r="G2356" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2356" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2356" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J2356" t="n">
+        <v>-115.2100000000009</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" s="1" t="n">
+        <v>2355</v>
+      </c>
+      <c r="B2357" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>Boston Celtics</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="E2357" t="n">
+        <v>130</v>
+      </c>
+      <c r="F2357" t="n">
+        <v>120</v>
+      </c>
+      <c r="G2357" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2357" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2357" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2357" t="n">
+        <v>-114.3700000000009</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" s="1" t="n">
+        <v>2356</v>
+      </c>
+      <c r="B2358" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>Miami Heat</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>Los Angeles Lakers</t>
+        </is>
+      </c>
+      <c r="E2358" t="n">
+        <v>134</v>
+      </c>
+      <c r="F2358" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2358" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2358" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2358" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2358" t="n">
+        <v>-113.5300000000009</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" s="1" t="n">
+        <v>2357</v>
+      </c>
+      <c r="B2359" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="E2359" t="n">
+        <v>102</v>
+      </c>
+      <c r="F2359" t="n">
+        <v>106</v>
+      </c>
+      <c r="G2359" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2359" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2359" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2359" t="n">
+        <v>-112.7200000000009</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" s="1" t="n">
+        <v>2358</v>
+      </c>
+      <c r="B2360" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>Atlanta Hawks</t>
+        </is>
+      </c>
+      <c r="E2360" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2360" t="n">
+        <v>119</v>
+      </c>
+      <c r="G2360" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H2360" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2360" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2360" t="n">
+        <v>-113.7200000000009</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" s="1" t="n">
+        <v>2359</v>
+      </c>
+      <c r="B2361" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>Los Angeles Clippers</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="E2361" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2361" t="n">
+        <v>108</v>
+      </c>
+      <c r="G2361" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2361" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2361" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2361" t="n">
+        <v>-114.7200000000009</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" s="1" t="n">
+        <v>2360</v>
+      </c>
+      <c r="B2362" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="E2362" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2362" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2362" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H2362" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2362" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2362" t="n">
+        <v>-115.7200000000009</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" s="1" t="n">
+        <v>2361</v>
+      </c>
+      <c r="B2363" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>New Orleans Pelicans</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>Phoenix Suns</t>
+        </is>
+      </c>
+      <c r="E2363" t="n">
+        <v>126</v>
+      </c>
+      <c r="F2363" t="n">
+        <v>124</v>
+      </c>
+      <c r="G2363" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2363" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2363" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2363" t="n">
+        <v>-114.9100000000008</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" s="1" t="n">
+        <v>2362</v>
+      </c>
+      <c r="B2364" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="E2364" t="n">
+        <v>124</v>
+      </c>
+      <c r="F2364" t="n">
+        <v>139</v>
+      </c>
+      <c r="G2364" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2364" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2364" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2364" t="n">
+        <v>-114.0700000000008</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" s="1" t="n">
+        <v>2363</v>
+      </c>
+      <c r="B2365" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr">
+        <is>
+          <t>Houston Rockets</t>
+        </is>
+      </c>
+      <c r="E2365" t="n">
+        <v>99</v>
+      </c>
+      <c r="F2365" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2365" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2365" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="I2365" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2365" t="n">
+        <v>-115.0700000000008</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" s="1" t="n">
+        <v>2364</v>
+      </c>
+      <c r="B2366" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr">
+        <is>
+          <t>Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="E2366" t="n">
+        <v>123</v>
+      </c>
+      <c r="F2366" t="n">
+        <v>132</v>
+      </c>
+      <c r="G2366" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2366" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2366" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J2366" t="n">
+        <v>-114.2600000000008</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" s="1" t="n">
+        <v>2365</v>
+      </c>
+      <c r="B2367" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="C2367" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="D2367" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="E2367" t="n">
+        <v>113</v>
+      </c>
+      <c r="F2367" t="n">
+        <v>140</v>
+      </c>
+      <c r="G2367" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H2367" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="I2367" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J2367" t="n">
+        <v>-113.4200000000008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
